--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,335 +437,536 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3057366489843255</v>
       </c>
+      <c r="B2" t="n">
+        <v>-0.3168750346129532</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0.2537921765173101</v>
       </c>
+      <c r="B3" t="n">
+        <v>0.2264838909210563</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>0.1739423208053166</v>
       </c>
+      <c r="B4" t="n">
+        <v>0.1460605506844183</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-0.0392775579725667</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.0746019147878336</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.1746882417862202</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.1505426926751276</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>-0.4348168591987539</v>
       </c>
+      <c r="B7" t="n">
+        <v>-0.4549700821850928</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>-0.3017479137648857</v>
       </c>
+      <c r="B8" t="n">
+        <v>-0.2681618823914937</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>-0.3665913927150736</v>
       </c>
+      <c r="B9" t="n">
+        <v>-0.3886549536128331</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0.3350193017966042</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.3597580557313836</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>-0.201413996362001</v>
       </c>
+      <c r="B11" t="n">
+        <v>-0.247218855270827</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>-0.06073402763196965</v>
       </c>
+      <c r="B12" t="n">
+        <v>-0.07745622716668545</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>0.009647227886650445</v>
       </c>
+      <c r="B13" t="n">
+        <v>-0.007112783682018264</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>0.1092318074018663</v>
       </c>
+      <c r="B14" t="n">
+        <v>0.08881280458427744</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>-0.01104068241271955</v>
       </c>
+      <c r="B15" t="n">
+        <v>0.03002055446965043</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>0.3600398776371558</v>
       </c>
+      <c r="B16" t="n">
+        <v>0.4073638009776918</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>0.6675480444877696</v>
       </c>
+      <c r="B17" t="n">
+        <v>0.6533922235476113</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0.1259080900780072</v>
       </c>
+      <c r="B18" t="n">
+        <v>0.08345790035784724</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>0.447143633951009</v>
       </c>
+      <c r="B19" t="n">
+        <v>0.4219553194489087</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>0.3258280671008243</v>
       </c>
+      <c r="B20" t="n">
+        <v>0.3503954740367983</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>0.4663595782780467</v>
       </c>
+      <c r="B21" t="n">
+        <v>0.5333769738622589</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>0.4217251381338187</v>
       </c>
+      <c r="B22" t="n">
+        <v>0.4218904866053518</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>-0.01948388698339712</v>
       </c>
+      <c r="B23" t="n">
+        <v>-0.03488353509137355</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>4.238099161148293</v>
       </c>
+      <c r="B24" t="n">
+        <v>4.302167219374502</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>0.5240047011743073</v>
       </c>
+      <c r="B25" t="n">
+        <v>0.4983464021535683</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>0.4475170355807183</v>
       </c>
+      <c r="B26" t="n">
+        <v>0.3886796852984516</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>0.2860282747291614</v>
       </c>
+      <c r="B27" t="n">
+        <v>0.2815464012767376</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1.060950435016781</v>
       </c>
+      <c r="B28" t="n">
+        <v>1.016151521223956</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6.206143487584644</v>
       </c>
+      <c r="B29" t="n">
+        <v>5.710310430599527</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1.016849086952478</v>
       </c>
+      <c r="B30" t="n">
+        <v>0.97845013991829</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>-0.1931003731351427</v>
       </c>
+      <c r="B31" t="n">
+        <v>-0.2391845546693665</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>0.8122146135231059</v>
       </c>
+      <c r="B32" t="n">
+        <v>0.7799172826702934</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>0.8859047718738506</v>
       </c>
+      <c r="B33" t="n">
+        <v>0.9097394503583777</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>-0.6596645358343782</v>
       </c>
+      <c r="B34" t="n">
+        <v>-0.6825464241570107</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>0.8117536152515943</v>
       </c>
+      <c r="B35" t="n">
+        <v>0.7997055999329813</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>0.7548284752143029</v>
       </c>
+      <c r="B36" t="n">
+        <v>0.7513764998381978</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>0.7401735431366511</v>
       </c>
+      <c r="B37" t="n">
+        <v>0.7241841030854419</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>0.7626149774699272</v>
       </c>
+      <c r="B38" t="n">
+        <v>0.7194171909490212</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>0.5564028580604737</v>
       </c>
+      <c r="B39" t="n">
+        <v>0.5651682208465996</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>0.7222320722836147</v>
       </c>
+      <c r="B40" t="n">
+        <v>0.7324010633978756</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>0.5710369496836774</v>
       </c>
+      <c r="B41" t="n">
+        <v>0.5550718351305318</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>0.7019801521968948</v>
       </c>
+      <c r="B42" t="n">
+        <v>0.6766021403910398</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>0.7285176210723826</v>
       </c>
+      <c r="B43" t="n">
+        <v>0.7075626749135246</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>0.6548629788948835</v>
       </c>
+      <c r="B44" t="n">
+        <v>0.6629724017749757</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>0.6110839150138779</v>
       </c>
+      <c r="B45" t="n">
+        <v>0.6286851194373639</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>-1.281733510412941</v>
       </c>
+      <c r="B46" t="n">
+        <v>-1.285318208976781</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>-0.9939993938772576</v>
       </c>
+      <c r="B47" t="n">
+        <v>-0.9979295053526136</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>-0.8905396952390634</v>
       </c>
+      <c r="B48" t="n">
+        <v>-0.8923188071364571</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>-0.6535491003740151</v>
       </c>
+      <c r="B49" t="n">
+        <v>-0.6580562947258826</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>-0.06239687581733357</v>
       </c>
+      <c r="B50" t="n">
+        <v>-0.05833912882412284</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>-0.882548971933899</v>
       </c>
+      <c r="B51" t="n">
+        <v>-0.8874537961833786</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>-0.882548971933899</v>
       </c>
+      <c r="B52" t="n">
+        <v>-0.8874537961833786</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>-1.101992965289522</v>
       </c>
+      <c r="B53" t="n">
+        <v>-1.112983025933588</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>-0.2058529004973819</v>
       </c>
+      <c r="B54" t="n">
+        <v>-0.2005019615151444</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>-1.018580231955832</v>
       </c>
+      <c r="B55" t="n">
+        <v>-1.018573519203073</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>-0.925538005096351</v>
       </c>
+      <c r="B56" t="n">
+        <v>-0.9084862882514868</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>-0.9699235341927694</v>
       </c>
+      <c r="B57" t="n">
+        <v>-0.936617848885817</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>-1.186240027990164</v>
       </c>
+      <c r="B58" t="n">
+        <v>-1.142249518574323</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>-0.8986157580490276</v>
       </c>
+      <c r="B59" t="n">
+        <v>-0.8661199415266272</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>-0.5387041372124437</v>
       </c>
+      <c r="B60" t="n">
+        <v>-0.5076263755722759</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>0.3627669329917264</v>
       </c>
+      <c r="B61" t="n">
+        <v>0.3693360363631596</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>-1.268843277776009</v>
       </c>
+      <c r="B62" t="n">
+        <v>-1.216527512480593</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>-0.8006330019181995</v>
       </c>
+      <c r="B63" t="n">
+        <v>-0.7638644273104289</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>-0.9011405103783365</v>
       </c>
+      <c r="B64" t="n">
+        <v>-0.9030195039197697</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>-0.1606705552338505</v>
       </c>
+      <c r="B65" t="n">
+        <v>-0.1241280864370546</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>-0.8553254206936178</v>
       </c>
+      <c r="B66" t="n">
+        <v>-0.8030625145166063</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>-0.8717548988201791</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.7857817249430636</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-0.3168750346129532</v>
       </c>
+      <c r="C2" t="n">
+        <v>-0.3036867844311208</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>0.2264838909210563</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.226016869225491</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>0.1460605506844183</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.1547881991105919</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.0746019147878336</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.06892048399615523</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.1505426926751276</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.1588074336107037</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>-0.4549700821850928</v>
       </c>
+      <c r="C7" t="n">
+        <v>-0.4459064887304521</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +517,9 @@
       <c r="B8" t="n">
         <v>-0.2681618823914937</v>
       </c>
+      <c r="C8" t="n">
+        <v>-0.2533299822585643</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +528,9 @@
       <c r="B9" t="n">
         <v>-0.3886549536128331</v>
       </c>
+      <c r="C9" t="n">
+        <v>-0.3869446842432583</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +539,9 @@
       <c r="B10" t="n">
         <v>0.3597580557313836</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.3689886109514408</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +550,9 @@
       <c r="B11" t="n">
         <v>-0.247218855270827</v>
       </c>
+      <c r="C11" t="n">
+        <v>-0.2375676495630193</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +561,9 @@
       <c r="B12" t="n">
         <v>-0.07745622716668545</v>
       </c>
+      <c r="C12" t="n">
+        <v>-0.06821648309498324</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +572,9 @@
       <c r="B13" t="n">
         <v>-0.007112783682018264</v>
       </c>
+      <c r="C13" t="n">
+        <v>-0.009372778487127869</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +583,9 @@
       <c r="B14" t="n">
         <v>0.08881280458427744</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.09835750693104157</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +594,9 @@
       <c r="B15" t="n">
         <v>0.03002055446965043</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.0367282424715893</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +605,9 @@
       <c r="B16" t="n">
         <v>0.4073638009776918</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.4193125732117537</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +616,9 @@
       <c r="B17" t="n">
         <v>0.6533922235476113</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.6483189581467216</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +627,9 @@
       <c r="B18" t="n">
         <v>0.08345790035784724</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.05431395812032949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +638,9 @@
       <c r="B19" t="n">
         <v>0.4219553194489087</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.4194873667791191</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +649,9 @@
       <c r="B20" t="n">
         <v>0.3503954740367983</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.3597478966727853</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +660,9 @@
       <c r="B21" t="n">
         <v>0.5333769738622589</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5589686541212187</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +671,9 @@
       <c r="B22" t="n">
         <v>0.4218904866053518</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.4224199210089787</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +682,9 @@
       <c r="B23" t="n">
         <v>-0.03488353509137355</v>
       </c>
+      <c r="C23" t="n">
+        <v>-0.02969368961751345</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +693,9 @@
       <c r="B24" t="n">
         <v>4.302167219374502</v>
       </c>
+      <c r="C24" t="n">
+        <v>4.2964596053585</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +704,9 @@
       <c r="B25" t="n">
         <v>0.4983464021535683</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.4655444954022276</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +715,9 @@
       <c r="B26" t="n">
         <v>0.3886796852984516</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.3692330055649125</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +726,9 @@
       <c r="B27" t="n">
         <v>0.2815464012767376</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.255308055126365</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +737,9 @@
       <c r="B28" t="n">
         <v>1.016151521223956</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.985866018235656</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +748,9 @@
       <c r="B29" t="n">
         <v>5.710310430599527</v>
       </c>
+      <c r="C29" t="n">
+        <v>5.244289870569874</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +759,9 @@
       <c r="B30" t="n">
         <v>0.97845013991829</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.9343558192232184</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +770,9 @@
       <c r="B31" t="n">
         <v>-0.2391845546693665</v>
       </c>
+      <c r="C31" t="n">
+        <v>-0.2778607738411689</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +781,9 @@
       <c r="B32" t="n">
         <v>0.7799172826702934</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.7490073304897067</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +792,9 @@
       <c r="B33" t="n">
         <v>0.9097394503583777</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.885522784570417</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +803,9 @@
       <c r="B34" t="n">
         <v>-0.6825464241570107</v>
       </c>
+      <c r="C34" t="n">
+        <v>-0.7030225518903331</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +814,9 @@
       <c r="B35" t="n">
         <v>0.7997055999329813</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.7996699859181595</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +825,9 @@
       <c r="B36" t="n">
         <v>0.7513764998381978</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.7480588837663376</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +836,9 @@
       <c r="B37" t="n">
         <v>0.7241841030854419</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.7194746032728944</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +847,9 @@
       <c r="B38" t="n">
         <v>0.7194171909490212</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.7058849505409454</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +858,9 @@
       <c r="B39" t="n">
         <v>0.5651682208465996</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5694553353364057</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +869,9 @@
       <c r="B40" t="n">
         <v>0.7324010633978756</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.7387958335202249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +880,9 @@
       <c r="B41" t="n">
         <v>0.5550718351305318</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5510444178321311</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +891,9 @@
       <c r="B42" t="n">
         <v>0.6766021403910398</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.6647413438913339</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +902,9 @@
       <c r="B43" t="n">
         <v>0.7075626749135246</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.6990383841299922</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +913,9 @@
       <c r="B44" t="n">
         <v>0.6629724017749757</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.6635160940718288</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +924,9 @@
       <c r="B45" t="n">
         <v>0.6286851194373639</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.6310103914282831</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +935,9 @@
       <c r="B46" t="n">
         <v>-1.285318208976781</v>
       </c>
+      <c r="C46" t="n">
+        <v>-1.279920598506624</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +946,9 @@
       <c r="B47" t="n">
         <v>-0.9979295053526136</v>
       </c>
+      <c r="C47" t="n">
+        <v>-0.9941628244536368</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +957,9 @@
       <c r="B48" t="n">
         <v>-0.8923188071364571</v>
       </c>
+      <c r="C48" t="n">
+        <v>-0.8876851908265895</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +968,9 @@
       <c r="B49" t="n">
         <v>-0.6580562947258826</v>
       </c>
+      <c r="C49" t="n">
+        <v>-0.6530785597146361</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +979,9 @@
       <c r="B50" t="n">
         <v>-0.05833912882412284</v>
       </c>
+      <c r="C50" t="n">
+        <v>-0.05576828822634386</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +990,9 @@
       <c r="B51" t="n">
         <v>-0.8874537961833786</v>
       </c>
+      <c r="C51" t="n">
+        <v>-0.8808236328114679</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1001,9 @@
       <c r="B52" t="n">
         <v>-0.8874537961833786</v>
       </c>
+      <c r="C52" t="n">
+        <v>-0.8808236328114679</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1012,9 @@
       <c r="B53" t="n">
         <v>-1.112983025933588</v>
       </c>
+      <c r="C53" t="n">
+        <v>-1.114756251233469</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1023,9 @@
       <c r="B54" t="n">
         <v>-0.2005019615151444</v>
       </c>
+      <c r="C54" t="n">
+        <v>-0.1941042360003489</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1034,9 @@
       <c r="B55" t="n">
         <v>-1.018573519203073</v>
       </c>
+      <c r="C55" t="n">
+        <v>-1.013853905987674</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1045,9 @@
       <c r="B56" t="n">
         <v>-0.9084862882514868</v>
       </c>
+      <c r="C56" t="n">
+        <v>-0.8976590279862675</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1056,9 @@
       <c r="B57" t="n">
         <v>-0.936617848885817</v>
       </c>
+      <c r="C57" t="n">
+        <v>-0.9287350184708151</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1067,9 @@
       <c r="B58" t="n">
         <v>-1.142249518574323</v>
       </c>
+      <c r="C58" t="n">
+        <v>-1.123567071138395</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1078,9 @@
       <c r="B59" t="n">
         <v>-0.8661199415266272</v>
       </c>
+      <c r="C59" t="n">
+        <v>-0.8504870520082407</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1089,9 @@
       <c r="B60" t="n">
         <v>-0.5076263755722759</v>
       </c>
+      <c r="C60" t="n">
+        <v>-0.4903224098973188</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1100,9 @@
       <c r="B61" t="n">
         <v>0.3693360363631596</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.3718422085082914</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1111,9 @@
       <c r="B62" t="n">
         <v>-1.216527512480593</v>
       </c>
+      <c r="C62" t="n">
+        <v>-1.202259018807272</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1122,9 @@
       <c r="B63" t="n">
         <v>-0.7638644273104289</v>
       </c>
+      <c r="C63" t="n">
+        <v>-0.7343364021664399</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1133,9 @@
       <c r="B64" t="n">
         <v>-0.9030195039197697</v>
       </c>
+      <c r="C64" t="n">
+        <v>-0.8974519606912046</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1144,9 @@
       <c r="B65" t="n">
         <v>-0.1241280864370546</v>
       </c>
+      <c r="C65" t="n">
+        <v>-0.106159846411747</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1155,9 @@
       <c r="B66" t="n">
         <v>-0.8030625145166063</v>
       </c>
+      <c r="C66" t="n">
+        <v>-0.7851092787761388</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -967,6 +1165,9 @@
       </c>
       <c r="B67" t="n">
         <v>-0.7857817249430636</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.7594586154370843</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -449,10 +449,10 @@
         <v>-0.3057366489843255</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3168750346129532</v>
+        <v>-0.2905807551338088</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3036867844311208</v>
+        <v>-0.2754734166150056</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +460,10 @@
         <v>0.2537921765173101</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2264838909210563</v>
+        <v>0.2520100156392277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.226016869225491</v>
+        <v>0.2512509213060825</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>0.1739423208053166</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1460605506844183</v>
+        <v>0.181772945154432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1547881991105919</v>
+        <v>0.1904038857545432</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>-0.0392775579725667</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0746019147878336</v>
+        <v>-0.03464747234919305</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.06892048399615523</v>
+        <v>-0.03003710391555485</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>0.1746882417862202</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1505426926751276</v>
+        <v>0.182808586937076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1588074336107037</v>
+        <v>0.1898816109089304</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>-0.4348168591987539</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4549700821850928</v>
+        <v>-0.4270243578396969</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4459064887304521</v>
+        <v>-0.4176839069414724</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
         <v>-0.3017479137648857</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2681618823914937</v>
+        <v>-0.276055745960919</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2533299822585643</v>
+        <v>-0.2517999141463262</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>-0.3665913927150736</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3886549536128331</v>
+        <v>-0.3691123619183683</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3869446842432583</v>
+        <v>-0.3682023173947372</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +537,10 @@
         <v>0.3350193017966042</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3597580557313836</v>
+        <v>0.3475007893562577</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3689886109514408</v>
+        <v>0.358590003820514</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +548,10 @@
         <v>-0.201413996362001</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.247218855270827</v>
+        <v>-0.1948147226932498</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2375676495630193</v>
+        <v>-0.1873195062811653</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +559,10 @@
         <v>-0.06073402763196965</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.07745622716668545</v>
+        <v>-0.04757160104148836</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06821648309498324</v>
+        <v>-0.0366425372575428</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +570,10 @@
         <v>0.009647227886650445</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.007112783682018264</v>
+        <v>0.007943755213636949</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.009372778487127869</v>
+        <v>0.006725963445144187</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +581,10 @@
         <v>0.1092318074018663</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08881280458427744</v>
+        <v>0.1190593680963605</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09835750693104157</v>
+        <v>0.1255110335824472</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +592,10 @@
         <v>-0.01104068241271955</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03002055446965043</v>
+        <v>0.005615524014902895</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0367282424715893</v>
+        <v>0.01632118054256226</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +603,10 @@
         <v>0.3600398776371558</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4073638009776918</v>
+        <v>0.382792554714191</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4193125732117537</v>
+        <v>0.3979897967195563</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +614,10 @@
         <v>0.6675480444877696</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6533922235476113</v>
+        <v>0.663893829496523</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6483189581467216</v>
+        <v>0.6550865373073558</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +625,10 @@
         <v>0.1259080900780072</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08345790035784724</v>
+        <v>0.08809615446765026</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05431395812032949</v>
+        <v>0.05402683447005929</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +636,10 @@
         <v>0.447143633951009</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4219553194489087</v>
+        <v>0.4392482395985298</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4194873667791191</v>
+        <v>0.430794098429519</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +647,10 @@
         <v>0.3258280671008243</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3503954740367983</v>
+        <v>0.3442132110085145</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3597478966727853</v>
+        <v>0.3548582582374352</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +658,10 @@
         <v>0.4663595782780467</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5333769738622589</v>
+        <v>0.5114961857042081</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5589686541212187</v>
+        <v>0.5454427521177849</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +669,10 @@
         <v>0.4217251381338187</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4218904866053518</v>
+        <v>0.4268697929224574</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4224199210089787</v>
+        <v>0.4265546718250002</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +680,10 @@
         <v>-0.01948388698339712</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.03488353509137355</v>
+        <v>-0.009929473126293969</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.02969368961751345</v>
+        <v>-0.005536045819890062</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +691,10 @@
         <v>4.238099161148293</v>
       </c>
       <c r="B24" t="n">
-        <v>4.302167219374502</v>
+        <v>4.312011759827991</v>
       </c>
       <c r="C24" t="n">
-        <v>4.2964596053585</v>
+        <v>4.299034319154053</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +702,10 @@
         <v>0.5240047011743073</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4983464021535683</v>
+        <v>0.4963507696657999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4655444954022276</v>
+        <v>0.468139487400885</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +713,10 @@
         <v>0.4475170355807183</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3886796852984516</v>
+        <v>0.4292720604632921</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3692330055649125</v>
+        <v>0.4053728865731186</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +724,10 @@
         <v>0.2860282747291614</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2815464012767376</v>
+        <v>0.2748891192003126</v>
       </c>
       <c r="C27" t="n">
-        <v>0.255308055126365</v>
+        <v>0.2557785342226873</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +735,10 @@
         <v>1.060950435016781</v>
       </c>
       <c r="B28" t="n">
-        <v>1.016151521223956</v>
+        <v>1.029497876602861</v>
       </c>
       <c r="C28" t="n">
-        <v>0.985866018235656</v>
+        <v>0.9990042108057645</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +746,10 @@
         <v>6.206143487584644</v>
       </c>
       <c r="B29" t="n">
-        <v>5.710310430599527</v>
+        <v>5.689326723106623</v>
       </c>
       <c r="C29" t="n">
-        <v>5.244289870569874</v>
+        <v>5.194547144540082</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +757,10 @@
         <v>1.016849086952478</v>
       </c>
       <c r="B30" t="n">
-        <v>0.97845013991829</v>
+        <v>0.972615419403221</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9343558192232184</v>
+        <v>0.9269082234680981</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +768,10 @@
         <v>-0.1931003731351427</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2391845546693665</v>
+        <v>-0.2284627189200214</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2778607738411689</v>
+        <v>-0.2640449344501448</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +779,10 @@
         <v>0.8122146135231059</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7799172826702934</v>
+        <v>0.781414073567569</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7490073304897067</v>
+        <v>0.7495914205171905</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +790,10 @@
         <v>0.8859047718738506</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9097394503583777</v>
+        <v>0.8716976586112575</v>
       </c>
       <c r="C33" t="n">
-        <v>0.885522784570417</v>
+        <v>0.855107779250092</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +801,10 @@
         <v>-0.6596645358343782</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6825464241570107</v>
+        <v>-0.6712122212930119</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.7030225518903331</v>
+        <v>-0.6845279241454052</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +812,10 @@
         <v>0.8117536152515943</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7997055999329813</v>
+        <v>0.8104279385953042</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7996699859181595</v>
+        <v>0.8094908584298817</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +823,10 @@
         <v>0.7548284752143029</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7513764998381978</v>
+        <v>0.7520278950017755</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7480588837663376</v>
+        <v>0.7506866628945279</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +834,10 @@
         <v>0.7401735431366511</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7241841030854419</v>
+        <v>0.732739764398458</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7194746032728944</v>
+        <v>0.7275018373043871</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +845,10 @@
         <v>0.7626149774699272</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7194171909490212</v>
+        <v>0.7430073150876311</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7058849505409454</v>
+        <v>0.7260916723852486</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +856,10 @@
         <v>0.5564028580604737</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5651682208465996</v>
+        <v>0.5631300873331944</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5694553353364057</v>
+        <v>0.5697552768097492</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +867,10 @@
         <v>0.7222320722836147</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7324010633978756</v>
+        <v>0.7318677309714507</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7387958335202249</v>
+        <v>0.7401914074990478</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +878,10 @@
         <v>0.5710369496836774</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5550718351305318</v>
+        <v>0.5660711582779037</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5510444178321311</v>
+        <v>0.56256867322948</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +889,10 @@
         <v>0.7019801521968948</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6766021403910398</v>
+        <v>0.6848642555562446</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6647413438913339</v>
+        <v>0.671167544775667</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +900,10 @@
         <v>0.7285176210723826</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7075626749135246</v>
+        <v>0.7177917397137505</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6990383841299922</v>
+        <v>0.7088763397019342</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +911,10 @@
         <v>0.6548629788948835</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6629724017749757</v>
+        <v>0.6558159246968844</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6635160940718288</v>
+        <v>0.6577395631667096</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +922,10 @@
         <v>0.6110839150138779</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6286851194373639</v>
+        <v>0.6138107185281998</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6310103914282831</v>
+        <v>0.6187164044392784</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +933,10 @@
         <v>-1.281733510412941</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.285318208976781</v>
+        <v>-1.276305821483627</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.279920598506624</v>
+        <v>-1.268471728031601</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +944,10 @@
         <v>-0.9939993938772576</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9979295053526136</v>
+        <v>-0.9906637592918169</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9941628244536368</v>
+        <v>-0.9850208239613125</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +955,10 @@
         <v>-0.8905396952390634</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8923188071364571</v>
+        <v>-0.8865357028131678</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8876851908265895</v>
+        <v>-0.8794563246545962</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +966,10 @@
         <v>-0.6535491003740151</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6580562947258826</v>
+        <v>-0.649102846523711</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6530785597146361</v>
+        <v>-0.6423910600974911</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +977,10 @@
         <v>-0.06239687581733357</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05833912882412284</v>
+        <v>-0.05857146424311572</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.05576828822634386</v>
+        <v>-0.05412765171008823</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +988,10 @@
         <v>-0.882548971933899</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8874537961833786</v>
+        <v>-0.8755976832279182</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8808236328114679</v>
+        <v>-0.8661956392887654</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +999,10 @@
         <v>-0.882548971933899</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8874537961833786</v>
+        <v>-0.8755976832279182</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8808236328114679</v>
+        <v>-0.8661956392887654</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1010,10 @@
         <v>-1.101992965289522</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.112983025933588</v>
+        <v>-1.106815814517363</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.114756251233469</v>
+        <v>-1.106885937752893</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1021,10 @@
         <v>-0.2058529004973819</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.2005019615151444</v>
+        <v>-0.1983086422808562</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1941042360003489</v>
+        <v>-0.1898439127467212</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1032,10 @@
         <v>-1.018580231955832</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.018573519203073</v>
+        <v>-1.012619185558019</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.013853905987674</v>
+        <v>-1.004814373567967</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1043,10 @@
         <v>-0.925538005096351</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.9084862882514868</v>
+        <v>-0.910328116220338</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8976590279862675</v>
+        <v>-0.8957979785958557</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1054,10 @@
         <v>-0.9699235341927694</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.936617848885817</v>
+        <v>-0.9555973097622447</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9287350184708151</v>
+        <v>-0.94207083815229</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1065,10 @@
         <v>-1.186240027990164</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.142249518574323</v>
+        <v>-1.156262168401689</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.123567071138395</v>
+        <v>-1.129295974554265</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1076,10 @@
         <v>-0.8986157580490276</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8661199415266272</v>
+        <v>-0.8753434166570127</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8504870520082407</v>
+        <v>-0.8527335191660237</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1087,10 @@
         <v>-0.5387041372124437</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5076263755722759</v>
+        <v>-0.5126573540511948</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4903224098973188</v>
+        <v>-0.4890907932833319</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1098,10 @@
         <v>0.3627669329917264</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3693360363631596</v>
+        <v>0.3666079006070712</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3718422085082914</v>
+        <v>0.3705108953312143</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1109,10 @@
         <v>-1.268843277776009</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.216527512480593</v>
+        <v>-1.246597742964313</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.202259018807272</v>
+        <v>-1.226015649819886</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1120,10 @@
         <v>-0.8006330019181995</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7638644273104289</v>
+        <v>-0.7596008310974316</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7343364021664399</v>
+        <v>-0.7209243555231546</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1131,10 @@
         <v>-0.9011405103783365</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9030195039197697</v>
+        <v>-0.8947759556778864</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.8974519606912046</v>
+        <v>-0.8856412595839435</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1142,10 @@
         <v>-0.1606705552338505</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1241280864370546</v>
+        <v>-0.1334905590660783</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.106159846411747</v>
+        <v>-0.1091942891879161</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1153,10 @@
         <v>-0.8553254206936178</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8030625145166063</v>
+        <v>-0.8243742046194242</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.7851092787761388</v>
+        <v>-0.7979388346493719</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1164,10 @@
         <v>-0.8717548988201791</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7857817249430636</v>
+        <v>-0.8273268430114561</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7594586154370843</v>
+        <v>-0.7904733825880573</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,16 +443,28 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3057366489843255</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2905807551338088</v>
+        <v>-0.3168750346129532</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2754734166150056</v>
+        <v>-0.3036867844311208</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.2912284507030619</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.2798558518241587</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +472,16 @@
         <v>0.2537921765173101</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2520100156392277</v>
+        <v>0.2264838909210563</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2512509213060825</v>
+        <v>0.226016869225491</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2265239587630224</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2273824790628174</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +489,16 @@
         <v>0.1739423208053166</v>
       </c>
       <c r="B4" t="n">
-        <v>0.181772945154432</v>
+        <v>0.1460605506844183</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1904038857545432</v>
+        <v>0.1547881991105919</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1638389968063508</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1725441346294188</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +506,16 @@
         <v>-0.0392775579725667</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.03464747234919305</v>
+        <v>-0.0746019147878336</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03003710391555485</v>
+        <v>-0.06892048399615523</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.06362651820170304</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.05903094877233309</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +523,16 @@
         <v>0.1746882417862202</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182808586937076</v>
+        <v>0.1505426926751276</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1898816109089304</v>
+        <v>0.1588074336107037</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1662061879154078</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1724384878066593</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +540,16 @@
         <v>-0.4348168591987539</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4270243578396969</v>
+        <v>-0.4549700821850928</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4176839069414724</v>
+        <v>-0.4459064887304521</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4366836754820621</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4277497093504777</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +557,16 @@
         <v>-0.3017479137648857</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.276055745960919</v>
+        <v>-0.2681618823914937</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2517999141463262</v>
+        <v>-0.2533299822585643</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.2388396335645593</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.2251927607453582</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +574,16 @@
         <v>-0.3665913927150736</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3691123619183683</v>
+        <v>-0.3886549536128331</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3682023173947372</v>
+        <v>-0.3869446842432583</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3833715160064274</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3786728188839405</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +591,16 @@
         <v>0.3350193017966042</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3475007893562577</v>
+        <v>0.3597580557313836</v>
       </c>
       <c r="C10" t="n">
-        <v>0.358590003820514</v>
+        <v>0.3689886109514408</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3772256881679152</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3840900581502769</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +608,16 @@
         <v>-0.201413996362001</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1948147226932498</v>
+        <v>-0.247218855270827</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1873195062811653</v>
+        <v>-0.2375676495630193</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.2282243807386613</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2195786255325146</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +625,16 @@
         <v>-0.06073402763196965</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.04757160104148836</v>
+        <v>-0.07745622716668545</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0366425372575428</v>
+        <v>-0.06821648309498324</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.06074958616600853</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.05507102361751429</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +642,16 @@
         <v>0.009647227886650445</v>
       </c>
       <c r="B13" t="n">
-        <v>0.007943755213636949</v>
+        <v>-0.007112783682018264</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006725963445144187</v>
+        <v>-0.009372778487127869</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.01092949463124122</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.01220303303378092</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +659,16 @@
         <v>0.1092318074018663</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1190593680963605</v>
+        <v>0.08881280458427744</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1255110335824472</v>
+        <v>0.09835750693104157</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1050442851898987</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1091322560133212</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +676,16 @@
         <v>-0.01104068241271955</v>
       </c>
       <c r="B15" t="n">
-        <v>0.005615524014902895</v>
+        <v>0.03002055446965043</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01632118054256226</v>
+        <v>0.0367282424715893</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03978028801853266</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.03975663775094221</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +693,16 @@
         <v>0.3600398776371558</v>
       </c>
       <c r="B16" t="n">
-        <v>0.382792554714191</v>
+        <v>0.4073638009776918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3979897967195563</v>
+        <v>0.4193125732117537</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.426494213323987</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4295429358332071</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +710,16 @@
         <v>0.6675480444877696</v>
       </c>
       <c r="B17" t="n">
-        <v>0.663893829496523</v>
+        <v>0.6533922235476113</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6550865373073558</v>
+        <v>0.6483189581467216</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6403126297509089</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.629865925182356</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +727,16 @@
         <v>0.1259080900780072</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08809615446765026</v>
+        <v>0.08345790035784724</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05402683447005929</v>
+        <v>0.05431395812032949</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02863334878819883</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.005931364926652402</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +744,16 @@
         <v>0.447143633951009</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4392482395985298</v>
+        <v>0.4219553194489087</v>
       </c>
       <c r="C19" t="n">
-        <v>0.430794098429519</v>
+        <v>0.4194873667791191</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4162318407594452</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4120570630130523</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +761,16 @@
         <v>0.3258280671008243</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3442132110085145</v>
+        <v>0.3503954740367983</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3548582582374352</v>
+        <v>0.3597478966727853</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3642107678940616</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3645378298914858</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +778,16 @@
         <v>0.4663595782780467</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5114961857042081</v>
+        <v>0.5333769738622589</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5454427521177849</v>
+        <v>0.5589686541212187</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5774431289596272</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5896719888669699</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +795,16 @@
         <v>0.4217251381338187</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4268697929224574</v>
+        <v>0.4218904866053518</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4265546718250002</v>
+        <v>0.4224199210089787</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4197146048390447</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4142825155653218</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +812,16 @@
         <v>-0.01948388698339712</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.009929473126293969</v>
+        <v>-0.03488353509137355</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.005536045819890062</v>
+        <v>-0.02969368961751345</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.02798139298564301</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.02914775554181376</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +829,16 @@
         <v>4.238099161148293</v>
       </c>
       <c r="B24" t="n">
-        <v>4.312011759827991</v>
+        <v>4.302167219374502</v>
       </c>
       <c r="C24" t="n">
-        <v>4.299034319154053</v>
+        <v>4.2964596053585</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.232107234508156</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.124280750287866</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +846,16 @@
         <v>0.5240047011743073</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4963507696657999</v>
+        <v>0.4983464021535683</v>
       </c>
       <c r="C25" t="n">
-        <v>0.468139487400885</v>
+        <v>0.4655444954022276</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4376316625048661</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.41386762509255</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +863,16 @@
         <v>0.4475170355807183</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4292720604632921</v>
+        <v>0.3886796852984516</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4053728865731186</v>
+        <v>0.3692330055649125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3501783215005168</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3318439063651439</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +880,16 @@
         <v>0.2860282747291614</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2748891192003126</v>
+        <v>0.2815464012767376</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2557785342226873</v>
+        <v>0.255308055126365</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2308337605734169</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2083636085980171</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +897,16 @@
         <v>1.060950435016781</v>
       </c>
       <c r="B28" t="n">
-        <v>1.029497876602861</v>
+        <v>1.016151521223956</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9990042108057645</v>
+        <v>0.985866018235656</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9593702789342871</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9358612898752613</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +914,16 @@
         <v>6.206143487584644</v>
       </c>
       <c r="B29" t="n">
-        <v>5.689326723106623</v>
+        <v>5.710310430599527</v>
       </c>
       <c r="C29" t="n">
-        <v>5.194547144540082</v>
+        <v>5.244289870569874</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.814977541712624</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.422688532356388</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +931,16 @@
         <v>1.016849086952478</v>
       </c>
       <c r="B30" t="n">
-        <v>0.972615419403221</v>
+        <v>0.97845013991829</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9269082234680981</v>
+        <v>0.9343558192232184</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8954986204524927</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.861280387428689</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +948,16 @@
         <v>-0.1931003731351427</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2284627189200214</v>
+        <v>-0.2391845546693665</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2640449344501448</v>
+        <v>-0.2778607738411689</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.3099547290097538</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.3360917307501277</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +965,16 @@
         <v>0.8122146135231059</v>
       </c>
       <c r="B32" t="n">
-        <v>0.781414073567569</v>
+        <v>0.7799172826702934</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7495914205171905</v>
+        <v>0.7490073304897067</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7218855701460607</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6979985672338453</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +982,16 @@
         <v>0.8859047718738506</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8716976586112575</v>
+        <v>0.9097394503583777</v>
       </c>
       <c r="C33" t="n">
-        <v>0.855107779250092</v>
+        <v>0.885522784570417</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8649455041205639</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8472515887110703</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +999,16 @@
         <v>-0.6596645358343782</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6712122212930119</v>
+        <v>-0.6825464241570107</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6845279241454052</v>
+        <v>-0.7030225518903331</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.7204436003823272</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.7349629998652148</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +1016,16 @@
         <v>0.8117536152515943</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8104279385953042</v>
+        <v>0.7997055999329813</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8094908584298817</v>
+        <v>0.7996699859181595</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8004517126802467</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8012738614048697</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +1033,16 @@
         <v>0.7548284752143029</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7520278950017755</v>
+        <v>0.7513764998381978</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7506866628945279</v>
+        <v>0.7480588837663376</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7468273871562174</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7466453032739981</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +1050,16 @@
         <v>0.7401735431366511</v>
       </c>
       <c r="B37" t="n">
-        <v>0.732739764398458</v>
+        <v>0.7241841030854419</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7275018373043871</v>
+        <v>0.7194746032728944</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.717039929643372</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7158423614551789</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +1067,16 @@
         <v>0.7626149774699272</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7430073150876311</v>
+        <v>0.7194171909490212</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7260916723852486</v>
+        <v>0.7058849505409454</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.6950575043410426</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6860194624807041</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +1084,16 @@
         <v>0.5564028580604737</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5631300873331944</v>
+        <v>0.5651682208465996</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5697552768097492</v>
+        <v>0.5694553353364057</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.574243812116516</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5787991313839743</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +1101,16 @@
         <v>0.7222320722836147</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7318677309714507</v>
+        <v>0.7324010633978756</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7401914074990478</v>
+        <v>0.7387958335202249</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7449392446120547</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7502075611169975</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +1118,16 @@
         <v>0.5710369496836774</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5660711582779037</v>
+        <v>0.5550718351305318</v>
       </c>
       <c r="C41" t="n">
-        <v>0.56256867322948</v>
+        <v>0.5510444178321311</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5489502942864384</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5478890744001382</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +1135,16 @@
         <v>0.7019801521968948</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6848642555562446</v>
+        <v>0.6766021403910398</v>
       </c>
       <c r="C42" t="n">
-        <v>0.671167544775667</v>
+        <v>0.6647413438913339</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6559686245186239</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6492200940920476</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +1152,16 @@
         <v>0.7285176210723826</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7177917397137505</v>
+        <v>0.7075626749135246</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7088763397019342</v>
+        <v>0.6990383841299922</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6927865310680269</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6878808432644599</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +1169,16 @@
         <v>0.6548629788948835</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6558159246968844</v>
+        <v>0.6629724017749757</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6577395631667096</v>
+        <v>0.6635160940718288</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6654233746247672</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6677886944619366</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +1186,16 @@
         <v>0.6110839150138779</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6138107185281998</v>
+        <v>0.6286851194373639</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6187164044392784</v>
+        <v>0.6310103914282831</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.635397136946628</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6406915285061743</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +1203,16 @@
         <v>-1.281733510412941</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.276305821483627</v>
+        <v>-1.285318208976781</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.268471728031601</v>
+        <v>-1.279920598506624</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1.274085652639843</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.26798036835683</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +1220,16 @@
         <v>-0.9939993938772576</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9906637592918169</v>
+        <v>-0.9979295053526136</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9850208239613125</v>
+        <v>-0.9941628244536368</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.9897895178064288</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.9850697754450696</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +1237,16 @@
         <v>-0.8905396952390634</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8865357028131678</v>
+        <v>-0.8923188071364571</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8794563246545962</v>
+        <v>-0.8876851908265895</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.8818629467764777</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.8753429333227216</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +1254,16 @@
         <v>-0.6535491003740151</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.649102846523711</v>
+        <v>-0.6580562947258826</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6423910600974911</v>
+        <v>-0.6530785597146361</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.6472912442600749</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.641155311573986</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +1271,16 @@
         <v>-0.06239687581733357</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05857146424311572</v>
+        <v>-0.05833912882412284</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.05412765171008823</v>
+        <v>-0.05576828822634386</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.05283233324812737</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.04998562428393243</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +1288,16 @@
         <v>-0.882548971933899</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8755976832279182</v>
+        <v>-0.8874537961833786</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8661956392887654</v>
+        <v>-0.8808236328114679</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.873410093434568</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.8656399141082676</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +1305,16 @@
         <v>-0.882548971933899</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8755976832279182</v>
+        <v>-0.8874537961833786</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8661956392887654</v>
+        <v>-0.8808236328114679</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.873410093434568</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.8656399141082676</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1322,16 @@
         <v>-1.101992965289522</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.106815814517363</v>
+        <v>-1.112983025933588</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.106885937752893</v>
+        <v>-1.114756251233469</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1.114283196105775</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.112114272275124</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1339,16 @@
         <v>-0.2058529004973819</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1983086422808562</v>
+        <v>-0.2005019615151444</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1898439127467212</v>
+        <v>-0.1941042360003489</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.1874705415526502</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.1810836286828947</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1356,16 @@
         <v>-1.018580231955832</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.012619185558019</v>
+        <v>-1.018573519203073</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.004814373567967</v>
+        <v>-1.013853905987674</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1.008695236059333</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.003330689888567</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1373,16 @@
         <v>-0.925538005096351</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.910328116220338</v>
+        <v>-0.9084862882514868</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8957979785958557</v>
+        <v>-0.8976590279862675</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.8880864840152791</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.8797083979683353</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1390,16 @@
         <v>-0.9699235341927694</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9555973097622447</v>
+        <v>-0.936617848885817</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.94207083815229</v>
+        <v>-0.9287350184708151</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.9219440711288701</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.9161488534922133</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1407,16 @@
         <v>-1.186240027990164</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.156262168401689</v>
+        <v>-1.142249518574323</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.129295974554265</v>
+        <v>-1.123567071138395</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.107698600414897</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.094281286249151</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1424,16 @@
         <v>-0.8986157580490276</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8753434166570127</v>
+        <v>-0.8661199415266272</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8527335191660237</v>
+        <v>-0.8504870520082407</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.835994533810961</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.8227740022287811</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1441,16 @@
         <v>-0.5387041372124437</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5126573540511948</v>
+        <v>-0.5076263755722759</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4890907932833319</v>
+        <v>-0.4903224098973188</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.4751028818804094</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.4619804466173932</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1458,16 @@
         <v>0.3627669329917264</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3666079006070712</v>
+        <v>0.3693360363631596</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3705108953312143</v>
+        <v>0.3718422085082914</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.3747257306098983</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3774004402429267</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1475,16 @@
         <v>-1.268843277776009</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.246597742964313</v>
+        <v>-1.216527512480593</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.226015649819886</v>
+        <v>-1.202259018807272</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.190177142068811</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.179961085403063</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1492,16 @@
         <v>-0.8006330019181995</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7596008310974316</v>
+        <v>-0.7638644273104289</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7209243555231546</v>
+        <v>-0.7343364021664399</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.7073211609515856</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.6829744799110793</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1509,16 @@
         <v>-0.9011405103783365</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.8947759556778864</v>
+        <v>-0.9030195039197697</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.8856412595839435</v>
+        <v>-0.8974519606912046</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.8908727515876083</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.883748017420901</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1526,16 @@
         <v>-0.1606705552338505</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1334905590660783</v>
+        <v>-0.1241280864370546</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1091942891879161</v>
+        <v>-0.106159846411747</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.0903522647250089</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.07684234004514823</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1543,16 @@
         <v>-0.8553254206936178</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8243742046194242</v>
+        <v>-0.8030625145166063</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.7979388346493719</v>
+        <v>-0.7851092787761388</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.7705490646969968</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.7589375968952176</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1560,16 @@
         <v>-0.8717548988201791</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.8273268430114561</v>
+        <v>-0.7857817249430636</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7904733825880573</v>
+        <v>-0.7594586154370843</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.7387268444560317</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.722746868067334</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-0.2798558518241587</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2696100462414935</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>0.2273824790628174</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2284659969609009</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.1725441346294188</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1807606081362955</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>-0.05903094877233309</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05511080664350027</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>0.1724384878066593</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1776343564284757</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>-0.4277497093504777</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4192961493838963</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +589,9 @@
       <c r="E8" t="n">
         <v>-0.2251927607453582</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2125117733876365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +609,9 @@
       <c r="E9" t="n">
         <v>-0.3786728188839405</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3732666183339796</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +629,9 @@
       <c r="E10" t="n">
         <v>0.3840900581502769</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3897373874946956</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +649,9 @@
       <c r="E11" t="n">
         <v>-0.2195786255325146</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2117112359793279</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +669,9 @@
       <c r="E12" t="n">
         <v>-0.05507102361751429</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.0509333836848696</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +689,9 @@
       <c r="E13" t="n">
         <v>-0.01220303303378092</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.0132842456583443</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +709,9 @@
       <c r="E14" t="n">
         <v>0.1091322560133212</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1111160535727523</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +729,9 @@
       <c r="E15" t="n">
         <v>0.03975663775094221</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.03732823078970927</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +749,9 @@
       <c r="E16" t="n">
         <v>0.4295429358332071</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4293435352690845</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +769,9 @@
       <c r="E17" t="n">
         <v>0.629865925182356</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6177541841158857</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +789,9 @@
       <c r="E18" t="n">
         <v>0.005931364926652402</v>
       </c>
+      <c r="F18" t="n">
+        <v>-0.01407172643997549</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +809,9 @@
       <c r="E19" t="n">
         <v>0.4120570630130523</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4072096584651728</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +829,9 @@
       <c r="E20" t="n">
         <v>0.3645378298914858</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.3616568728504969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +849,9 @@
       <c r="E21" t="n">
         <v>0.5896719888669699</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.5968604386005958</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +869,9 @@
       <c r="E22" t="n">
         <v>0.4142825155653218</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.406862213507206</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +889,9 @@
       <c r="E23" t="n">
         <v>-0.02914775554181376</v>
       </c>
+      <c r="F23" t="n">
+        <v>-0.03252765390050137</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +909,9 @@
       <c r="E24" t="n">
         <v>4.124280750287866</v>
       </c>
+      <c r="F24" t="n">
+        <v>3.985476108796769</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +929,9 @@
       <c r="E25" t="n">
         <v>0.41386762509255</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3937532101609444</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +949,9 @@
       <c r="E26" t="n">
         <v>0.3318439063651439</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.3144184308153351</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +969,9 @@
       <c r="E27" t="n">
         <v>0.2083636085980171</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.1878829508568548</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +989,9 @@
       <c r="E28" t="n">
         <v>0.9358612898752613</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9151110004848113</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +1009,9 @@
       <c r="E29" t="n">
         <v>4.422688532356388</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.066891279785843</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +1029,9 @@
       <c r="E30" t="n">
         <v>0.861280387428689</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8312911645459243</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +1049,9 @@
       <c r="E31" t="n">
         <v>-0.3360917307501277</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3571793783433111</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +1069,9 @@
       <c r="E32" t="n">
         <v>0.6979985672338453</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6770617126824683</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +1089,9 @@
       <c r="E33" t="n">
         <v>0.8472515887110703</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8321159155517821</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +1109,9 @@
       <c r="E34" t="n">
         <v>-0.7349629998652148</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7470423181583795</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +1129,9 @@
       <c r="E35" t="n">
         <v>0.8012738614048697</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.8021218721720705</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +1149,9 @@
       <c r="E36" t="n">
         <v>0.7466453032739981</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7472771293941367</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +1169,9 @@
       <c r="E37" t="n">
         <v>0.7158423614551789</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.7156239777448944</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +1189,9 @@
       <c r="E38" t="n">
         <v>0.6860194624807041</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6785375861701923</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +1209,9 @@
       <c r="E39" t="n">
         <v>0.5787991313839743</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5830737194378923</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +1229,9 @@
       <c r="E40" t="n">
         <v>0.7502075611169975</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7547108191916844</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +1249,9 @@
       <c r="E41" t="n">
         <v>0.5478890744001382</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.547643781709466</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +1269,9 @@
       <c r="E42" t="n">
         <v>0.6492200940920476</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6441543390875343</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +1289,9 @@
       <c r="E43" t="n">
         <v>0.6878808432644599</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6841066568633498</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +1309,9 @@
       <c r="E44" t="n">
         <v>0.6677886944619366</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6704565856603142</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +1329,9 @@
       <c r="E45" t="n">
         <v>0.6406915285061743</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6465677385554449</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +1349,9 @@
       <c r="E46" t="n">
         <v>-1.26798036835683</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.261956492776774</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +1369,9 @@
       <c r="E47" t="n">
         <v>-0.9850697754450696</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9803176906926054</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +1389,9 @@
       <c r="E48" t="n">
         <v>-0.8753429333227216</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8685633100605972</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +1409,9 @@
       <c r="E49" t="n">
         <v>-0.641155311573986</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6349950375546911</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +1429,9 @@
       <c r="E50" t="n">
         <v>-0.04998562428393243</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.04733712504220478</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +1449,9 @@
       <c r="E51" t="n">
         <v>-0.8656399141082676</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8578792602088715</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +1469,9 @@
       <c r="E52" t="n">
         <v>-0.8656399141082676</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8578792602088715</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +1489,9 @@
       <c r="E53" t="n">
         <v>-1.112114272275124</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.108860434161655</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +1509,9 @@
       <c r="E54" t="n">
         <v>-0.1810836286828947</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1751013991991482</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +1529,9 @@
       <c r="E55" t="n">
         <v>-1.003330689888567</v>
       </c>
+      <c r="F55" t="n">
+        <v>-0.9980623683675568</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +1549,9 @@
       <c r="E56" t="n">
         <v>-0.8797083979683353</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8725306485384008</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +1569,9 @@
       <c r="E57" t="n">
         <v>-0.9161488534922133</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.911366498865122</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +1589,9 @@
       <c r="E58" t="n">
         <v>-1.094281286249151</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.083135781045803</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +1609,9 @@
       <c r="E59" t="n">
         <v>-0.8227740022287811</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8109149020200132</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +1629,9 @@
       <c r="E60" t="n">
         <v>-0.4619804466173932</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4508086064789635</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +1649,9 @@
       <c r="E61" t="n">
         <v>0.3774004402429267</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3798312650046353</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +1669,9 @@
       <c r="E62" t="n">
         <v>-1.179961085403063</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.171534866297935</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +1689,9 @@
       <c r="E63" t="n">
         <v>-0.6829744799110793</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6612479899867262</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +1709,9 @@
       <c r="E64" t="n">
         <v>-0.883748017420901</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8764879515991038</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +1729,9 @@
       <c r="E65" t="n">
         <v>-0.07684234004514823</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06542734559916044</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +1749,9 @@
       <c r="E66" t="n">
         <v>-0.7589375968952176</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7499228602171383</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +1768,9 @@
       </c>
       <c r="E67" t="n">
         <v>-0.722746868067334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.7108299820122986</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-0.2696100462414935</v>
       </c>
+      <c r="G2" t="n">
+        <v>-0.2604936699830227</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>0.2284659969609009</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.2296738380312269</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1807606081362955</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1883924056877613</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>-0.05511080664350027</v>
       </c>
+      <c r="G5" t="n">
+        <v>-0.05183193022648144</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>0.1776343564284757</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.181915886463991</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.4192961493838963</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.4114556998889201</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>-0.2125117733876365</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.200867646189903</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +636,9 @@
       <c r="F9" t="n">
         <v>-0.3732666183339796</v>
       </c>
+      <c r="G9" t="n">
+        <v>-0.3674875342161792</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +659,9 @@
       <c r="F10" t="n">
         <v>0.3897373874946956</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.3943155242324763</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -652,6 +682,9 @@
       <c r="F11" t="n">
         <v>-0.2117112359793279</v>
       </c>
+      <c r="G11" t="n">
+        <v>-0.2046637561468205</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -672,6 +705,9 @@
       <c r="F12" t="n">
         <v>-0.0509333836848696</v>
       </c>
+      <c r="G12" t="n">
+        <v>-0.04811312330354629</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -692,6 +728,9 @@
       <c r="F13" t="n">
         <v>-0.0132842456583443</v>
       </c>
+      <c r="G13" t="n">
+        <v>-0.01424385259157054</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -712,6 +751,9 @@
       <c r="F14" t="n">
         <v>0.1111160535727523</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.1114170305498474</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -732,6 +774,9 @@
       <c r="F15" t="n">
         <v>0.03732823078970927</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.033057916599224</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -752,6 +797,9 @@
       <c r="F16" t="n">
         <v>0.4293435352690845</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.4266373403839367</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -772,6 +820,9 @@
       <c r="F17" t="n">
         <v>0.6177541841158857</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.6046039421522652</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -792,6 +843,9 @@
       <c r="F18" t="n">
         <v>-0.01407172643997549</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.03164692240590357</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -812,6 +866,9 @@
       <c r="F19" t="n">
         <v>0.4072096584651728</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.4018940904927393</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -832,6 +889,9 @@
       <c r="F20" t="n">
         <v>0.3616568728504969</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.3563430275433129</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -852,6 +912,9 @@
       <c r="F21" t="n">
         <v>0.5968604386005958</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.6000367256410749</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -872,6 +935,9 @@
       <c r="F22" t="n">
         <v>0.406862213507206</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.3980588780095126</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -892,6 +958,9 @@
       <c r="F23" t="n">
         <v>-0.03252765390050137</v>
       </c>
+      <c r="G23" t="n">
+        <v>-0.03756604235403554</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -912,6 +981,9 @@
       <c r="F24" t="n">
         <v>3.985476108796769</v>
       </c>
+      <c r="G24" t="n">
+        <v>3.825946627968486</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -932,6 +1004,9 @@
       <c r="F25" t="n">
         <v>0.3937532101609444</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.3768454950349744</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -952,6 +1027,9 @@
       <c r="F26" t="n">
         <v>0.3144184308153351</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.2980312111586522</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -972,6 +1050,9 @@
       <c r="F27" t="n">
         <v>0.1878829508568548</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.1693463353884741</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -992,6 +1073,9 @@
       <c r="F28" t="n">
         <v>0.9151110004848113</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.8969350979620253</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1012,6 +1096,9 @@
       <c r="F29" t="n">
         <v>4.066891279785843</v>
       </c>
+      <c r="G29" t="n">
+        <v>3.746407044365286</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1032,6 +1119,9 @@
       <c r="F30" t="n">
         <v>0.8312911645459243</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.805151764078887</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1052,6 +1142,9 @@
       <c r="F31" t="n">
         <v>-0.3571793783433111</v>
       </c>
+      <c r="G31" t="n">
+        <v>-0.3740128198083368</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1072,6 +1165,9 @@
       <c r="F32" t="n">
         <v>0.6770617126824683</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.6588075761322378</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1092,6 +1188,9 @@
       <c r="F33" t="n">
         <v>0.8321159155517821</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.8192487799098512</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1112,6 +1211,9 @@
       <c r="F34" t="n">
         <v>-0.7470423181583795</v>
       </c>
+      <c r="G34" t="n">
+        <v>-0.7570689472583901</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1132,6 +1234,9 @@
       <c r="F35" t="n">
         <v>0.8021218721720705</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.8029888322018299</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1152,6 +1257,9 @@
       <c r="F36" t="n">
         <v>0.7472771293941367</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.7485309225003919</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1172,6 +1280,9 @@
       <c r="F37" t="n">
         <v>0.7156239777448944</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.7161719865239179</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1192,6 +1303,9 @@
       <c r="F38" t="n">
         <v>0.6785375861701923</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.6724044000784544</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1212,6 +1326,9 @@
       <c r="F39" t="n">
         <v>0.5830737194378923</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.587042266083678</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1232,6 +1349,9 @@
       <c r="F40" t="n">
         <v>0.7547108191916844</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.7585538297221914</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1252,6 +1372,9 @@
       <c r="F41" t="n">
         <v>0.547643781709466</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.548034525984163</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1272,6 +1395,9 @@
       <c r="F42" t="n">
         <v>0.6441543390875343</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.6404801429436966</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1292,6 +1418,9 @@
       <c r="F43" t="n">
         <v>0.6841066568633498</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.6812797186333021</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1312,6 +1441,9 @@
       <c r="F44" t="n">
         <v>0.6704565856603142</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.6733064003226933</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1332,6 +1464,9 @@
       <c r="F45" t="n">
         <v>0.6465677385554449</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.6527709021934816</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1352,6 +1487,9 @@
       <c r="F46" t="n">
         <v>-1.261956492776774</v>
       </c>
+      <c r="G46" t="n">
+        <v>-1.256274419543718</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1372,6 +1510,9 @@
       <c r="F47" t="n">
         <v>-0.9803176906926054</v>
       </c>
+      <c r="G47" t="n">
+        <v>-0.9757680819910864</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1392,6 +1533,9 @@
       <c r="F48" t="n">
         <v>-0.8685633100605972</v>
       </c>
+      <c r="G48" t="n">
+        <v>-0.8618580553000923</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1412,6 +1556,9 @@
       <c r="F49" t="n">
         <v>-0.6349950375546911</v>
       </c>
+      <c r="G49" t="n">
+        <v>-0.6290530816437329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1432,6 +1579,9 @@
       <c r="F50" t="n">
         <v>-0.04733712504220478</v>
       </c>
+      <c r="G50" t="n">
+        <v>-0.04496068942620489</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1452,6 +1602,9 @@
       <c r="F51" t="n">
         <v>-0.8578792602088715</v>
       </c>
+      <c r="G51" t="n">
+        <v>-0.8504016984990096</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1472,6 +1625,9 @@
       <c r="F52" t="n">
         <v>-0.8578792602088715</v>
       </c>
+      <c r="G52" t="n">
+        <v>-0.8504016984990096</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1492,6 +1648,9 @@
       <c r="F53" t="n">
         <v>-1.108860434161655</v>
       </c>
+      <c r="G53" t="n">
+        <v>-1.105004627576612</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1512,6 +1671,9 @@
       <c r="F54" t="n">
         <v>-0.1751013991991482</v>
       </c>
+      <c r="G54" t="n">
+        <v>-0.1696303947340846</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1532,6 +1694,9 @@
       <c r="F55" t="n">
         <v>-0.9980623683675568</v>
       </c>
+      <c r="G55" t="n">
+        <v>-0.9931130465504495</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1552,6 +1717,9 @@
       <c r="F56" t="n">
         <v>-0.8725306485384008</v>
       </c>
+      <c r="G56" t="n">
+        <v>-0.8665269650733203</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1572,6 +1740,9 @@
       <c r="F57" t="n">
         <v>-0.911366498865122</v>
       </c>
+      <c r="G57" t="n">
+        <v>-0.907583994269459</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1592,6 +1763,9 @@
       <c r="F58" t="n">
         <v>-1.083135781045803</v>
       </c>
+      <c r="G58" t="n">
+        <v>-1.074072162705775</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1612,6 +1786,9 @@
       <c r="F59" t="n">
         <v>-0.8109149020200132</v>
       </c>
+      <c r="G59" t="n">
+        <v>-0.8004507706698243</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1632,6 +1809,9 @@
       <c r="F60" t="n">
         <v>-0.4508086064789635</v>
       </c>
+      <c r="G60" t="n">
+        <v>-0.4414300881947877</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1652,6 +1832,9 @@
       <c r="F61" t="n">
         <v>0.3798312650046353</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.3820003145746007</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1672,6 +1855,9 @@
       <c r="F62" t="n">
         <v>-1.171534866297935</v>
       </c>
+      <c r="G62" t="n">
+        <v>-1.164798230311788</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1692,6 +1878,9 @@
       <c r="F63" t="n">
         <v>-0.6612479899867262</v>
       </c>
+      <c r="G63" t="n">
+        <v>-0.6420443942440267</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1712,6 +1901,9 @@
       <c r="F64" t="n">
         <v>-0.8764879515991038</v>
       </c>
+      <c r="G64" t="n">
+        <v>-0.8694038936105624</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1732,6 +1924,9 @@
       <c r="F65" t="n">
         <v>-0.06542734559916044</v>
       </c>
+      <c r="G65" t="n">
+        <v>-0.05590368045788144</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1752,6 +1947,9 @@
       <c r="F66" t="n">
         <v>-0.7499228602171383</v>
       </c>
+      <c r="G66" t="n">
+        <v>-0.7431770027846052</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1771,6 +1969,9 @@
       </c>
       <c r="F67" t="n">
         <v>-0.7108299820122986</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.7023588703188915</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-0.2604936699830227</v>
       </c>
+      <c r="H2" t="n">
+        <v>-0.2524821561417714</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>0.2296738380312269</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.230926741498214</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1883924056877613</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.1953798529661174</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>-0.05183193022648144</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.0491529134958695</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>0.181915886463991</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.1853960016339678</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.4114556998889201</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.4043139580864017</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +637,9 @@
       <c r="G8" t="n">
         <v>-0.200867646189903</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.1902915604584567</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +663,9 @@
       <c r="G9" t="n">
         <v>-0.3674875342161792</v>
       </c>
+      <c r="H9" t="n">
+        <v>-0.3615980783423666</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +689,9 @@
       <c r="G10" t="n">
         <v>0.3943155242324763</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.3979610545682862</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -685,6 +715,9 @@
       <c r="G11" t="n">
         <v>-0.2046637561468205</v>
       </c>
+      <c r="H11" t="n">
+        <v>-0.1984479196985474</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -708,6 +741,9 @@
       <c r="G12" t="n">
         <v>-0.04811312330354629</v>
       </c>
+      <c r="H12" t="n">
+        <v>-0.04640923963907895</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -731,6 +767,9 @@
       <c r="G13" t="n">
         <v>-0.01424385259157054</v>
       </c>
+      <c r="H13" t="n">
+        <v>-0.01513650116578919</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -754,6 +793,9 @@
       <c r="G14" t="n">
         <v>0.1114170305498474</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.1103939363875024</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -777,6 +819,9 @@
       <c r="G15" t="n">
         <v>0.033057916599224</v>
       </c>
+      <c r="H15" t="n">
+        <v>0.02741722642957906</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -800,6 +845,9 @@
       <c r="G16" t="n">
         <v>0.4266373403839367</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.422044651803841</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -823,6 +871,9 @@
       <c r="G17" t="n">
         <v>0.6046039421522652</v>
       </c>
+      <c r="H17" t="n">
+        <v>0.5909168333667244</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,6 +897,9 @@
       <c r="G18" t="n">
         <v>-0.03164692240590357</v>
       </c>
+      <c r="H18" t="n">
+        <v>-0.0470512039872111</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -869,6 +923,9 @@
       <c r="G19" t="n">
         <v>0.4018940904927393</v>
       </c>
+      <c r="H19" t="n">
+        <v>0.3962787905623791</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +949,9 @@
       <c r="G20" t="n">
         <v>0.3563430275433129</v>
       </c>
+      <c r="H20" t="n">
+        <v>0.3492419440257628</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +975,9 @@
       <c r="G21" t="n">
         <v>0.6000367256410749</v>
       </c>
+      <c r="H21" t="n">
+        <v>0.6000727647053073</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1001,9 @@
       <c r="G22" t="n">
         <v>0.3980588780095126</v>
       </c>
+      <c r="H22" t="n">
+        <v>0.3883651112549976</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1027,9 @@
       <c r="G23" t="n">
         <v>-0.03756604235403554</v>
       </c>
+      <c r="H23" t="n">
+        <v>-0.04380165718830567</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -984,6 +1053,9 @@
       <c r="G24" t="n">
         <v>3.825946627968486</v>
       </c>
+      <c r="H24" t="n">
+        <v>3.653993552446012</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1007,6 +1079,9 @@
       <c r="G25" t="n">
         <v>0.3768454950349744</v>
       </c>
+      <c r="H25" t="n">
+        <v>0.3627421942052358</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1030,6 +1105,9 @@
       <c r="G26" t="n">
         <v>0.2980312111586522</v>
       </c>
+      <c r="H26" t="n">
+        <v>0.2827624758667637</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1053,6 +1131,9 @@
       <c r="G27" t="n">
         <v>0.1693463353884741</v>
       </c>
+      <c r="H27" t="n">
+        <v>0.1526818012730323</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1076,6 +1157,9 @@
       <c r="G28" t="n">
         <v>0.8969350979620253</v>
       </c>
+      <c r="H28" t="n">
+        <v>0.8811487014401004</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1099,6 +1183,9 @@
       <c r="G29" t="n">
         <v>3.746407044365286</v>
       </c>
+      <c r="H29" t="n">
+        <v>3.459590657704483</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1122,6 +1209,9 @@
       <c r="G30" t="n">
         <v>0.805151764078887</v>
       </c>
+      <c r="H30" t="n">
+        <v>0.7824977293493296</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1145,6 +1235,9 @@
       <c r="G31" t="n">
         <v>-0.3740128198083368</v>
       </c>
+      <c r="H31" t="n">
+        <v>-0.3872857770344186</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1168,6 +1261,9 @@
       <c r="G32" t="n">
         <v>0.6588075761322378</v>
       </c>
+      <c r="H32" t="n">
+        <v>0.6429787383000585</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1191,6 +1287,9 @@
       <c r="G33" t="n">
         <v>0.8192487799098512</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.8083840233376693</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1214,6 +1313,9 @@
       <c r="G34" t="n">
         <v>-0.7570689472583901</v>
       </c>
+      <c r="H34" t="n">
+        <v>-0.7653749139498697</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1237,6 +1339,9 @@
       <c r="G35" t="n">
         <v>0.8029888322018299</v>
       </c>
+      <c r="H35" t="n">
+        <v>0.8038686215140496</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1260,6 +1365,9 @@
       <c r="G36" t="n">
         <v>0.7485309225003919</v>
       </c>
+      <c r="H36" t="n">
+        <v>0.7502463885146281</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1283,6 +1391,9 @@
       <c r="G37" t="n">
         <v>0.7161719865239179</v>
       </c>
+      <c r="H37" t="n">
+        <v>0.7173070625506954</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1306,6 +1417,9 @@
       <c r="G38" t="n">
         <v>0.6724044000784544</v>
       </c>
+      <c r="H38" t="n">
+        <v>0.6674325491538589</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1329,6 +1443,9 @@
       <c r="G39" t="n">
         <v>0.587042266083678</v>
       </c>
+      <c r="H39" t="n">
+        <v>0.5906923052965111</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1352,6 +1469,9 @@
       <c r="G40" t="n">
         <v>0.7585538297221914</v>
       </c>
+      <c r="H40" t="n">
+        <v>0.7618302605723922</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1375,6 +1495,9 @@
       <c r="G41" t="n">
         <v>0.548034525984163</v>
       </c>
+      <c r="H41" t="n">
+        <v>0.5489098076111156</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1398,6 +1521,9 @@
       <c r="G42" t="n">
         <v>0.6404801429436966</v>
       </c>
+      <c r="H42" t="n">
+        <v>0.6379455978747874</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1421,6 +1547,9 @@
       <c r="G43" t="n">
         <v>0.6812797186333021</v>
       </c>
+      <c r="H43" t="n">
+        <v>0.6792388671171504</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1444,6 +1573,9 @@
       <c r="G44" t="n">
         <v>0.6733064003226933</v>
       </c>
+      <c r="H44" t="n">
+        <v>0.6762418576587647</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +1599,9 @@
       <c r="G45" t="n">
         <v>0.6527709021934816</v>
       </c>
+      <c r="H45" t="n">
+        <v>0.6590993167871625</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1490,6 +1625,9 @@
       <c r="G46" t="n">
         <v>-1.256274419543718</v>
       </c>
+      <c r="H46" t="n">
+        <v>-1.25111869365319</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1513,6 +1651,9 @@
       <c r="G47" t="n">
         <v>-0.9757680819910864</v>
       </c>
+      <c r="H47" t="n">
+        <v>-0.9715901817676857</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1536,6 +1677,9 @@
       <c r="G48" t="n">
         <v>-0.8618580553000923</v>
       </c>
+      <c r="H48" t="n">
+        <v>-0.8554749386026111</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1559,6 +1703,9 @@
       <c r="G49" t="n">
         <v>-0.6290530816437329</v>
       </c>
+      <c r="H49" t="n">
+        <v>-0.623505386025562</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1582,6 +1729,9 @@
       <c r="G50" t="n">
         <v>-0.04496068942620489</v>
       </c>
+      <c r="H50" t="n">
+        <v>-0.04290385058285282</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1605,6 +1755,9 @@
       <c r="G51" t="n">
         <v>-0.8504016984990096</v>
       </c>
+      <c r="H51" t="n">
+        <v>-0.8434050785770923</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1628,6 +1781,9 @@
       <c r="G52" t="n">
         <v>-0.8504016984990096</v>
       </c>
+      <c r="H52" t="n">
+        <v>-0.8434050785770923</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1651,6 +1807,9 @@
       <c r="G53" t="n">
         <v>-1.105004627576612</v>
       </c>
+      <c r="H53" t="n">
+        <v>-1.100921610292222</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1674,6 +1833,9 @@
       <c r="G54" t="n">
         <v>-0.1696303947340846</v>
       </c>
+      <c r="H54" t="n">
+        <v>-0.164737599519582</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1697,6 +1859,9 @@
       <c r="G55" t="n">
         <v>-0.9931130465504495</v>
       </c>
+      <c r="H55" t="n">
+        <v>-0.9886399394031982</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1720,6 +1885,9 @@
       <c r="G56" t="n">
         <v>-0.8665269650733203</v>
       </c>
+      <c r="H56" t="n">
+        <v>-0.8616470729991705</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1743,6 +1911,9 @@
       <c r="G57" t="n">
         <v>-0.907583994269459</v>
       </c>
+      <c r="H57" t="n">
+        <v>-0.9047643136855499</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1766,6 +1937,9 @@
       <c r="G58" t="n">
         <v>-1.074072162705775</v>
       </c>
+      <c r="H58" t="n">
+        <v>-1.066895501661878</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1789,6 +1963,9 @@
       <c r="G59" t="n">
         <v>-0.8004507706698243</v>
       </c>
+      <c r="H59" t="n">
+        <v>-0.7913724909911647</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1812,6 +1989,9 @@
       <c r="G60" t="n">
         <v>-0.4414300881947877</v>
       </c>
+      <c r="H60" t="n">
+        <v>-0.4336833151366934</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1835,6 +2015,9 @@
       <c r="G61" t="n">
         <v>0.3820003145746007</v>
       </c>
+      <c r="H61" t="n">
+        <v>0.3839005427359046</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1858,6 +2041,9 @@
       <c r="G62" t="n">
         <v>-1.164798230311788</v>
       </c>
+      <c r="H62" t="n">
+        <v>-1.159631998976119</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1881,6 +2067,9 @@
       <c r="G63" t="n">
         <v>-0.6420443942440267</v>
       </c>
+      <c r="H63" t="n">
+        <v>-0.6252326481977414</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1904,6 +2093,9 @@
       <c r="G64" t="n">
         <v>-0.8694038936105624</v>
       </c>
+      <c r="H64" t="n">
+        <v>-0.862724637682305</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1927,6 +2119,9 @@
       <c r="G65" t="n">
         <v>-0.05590368045788144</v>
       </c>
+      <c r="H65" t="n">
+        <v>-0.04807304460855288</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1950,6 +2145,9 @@
       <c r="G66" t="n">
         <v>-0.7431770027846052</v>
       </c>
+      <c r="H66" t="n">
+        <v>-0.7383965011585312</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1972,6 +2170,9 @@
       </c>
       <c r="G67" t="n">
         <v>-0.7023588703188915</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6967833566644913</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-0.2524821561417714</v>
       </c>
+      <c r="I2" t="n">
+        <v>-0.2455308605240437</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>0.230926741498214</v>
       </c>
+      <c r="I3" t="n">
+        <v>0.2321641232868924</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.1953798529661174</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2016926373532087</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>-0.0491529134958695</v>
       </c>
+      <c r="I5" t="n">
+        <v>-0.04702746612514257</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>0.1853960016339678</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.1881785722219094</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.4043139580864017</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.3979185327112928</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,6 +661,9 @@
       <c r="H8" t="n">
         <v>-0.1902915604584567</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.1807833776627188</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -666,6 +690,9 @@
       <c r="H9" t="n">
         <v>-0.3615980783423666</v>
       </c>
+      <c r="I9" t="n">
+        <v>-0.3557991649367654</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -692,6 +719,9 @@
       <c r="H10" t="n">
         <v>0.3979610545682862</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.4007991450317568</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -718,6 +748,9 @@
       <c r="H11" t="n">
         <v>-0.1984479196985474</v>
       </c>
+      <c r="I11" t="n">
+        <v>-0.1930523672696696</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -744,6 +777,9 @@
       <c r="H12" t="n">
         <v>-0.04640923963907895</v>
       </c>
+      <c r="I12" t="n">
+        <v>-0.04564194987495747</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -770,6 +806,9 @@
       <c r="H13" t="n">
         <v>-0.01513650116578919</v>
       </c>
+      <c r="I13" t="n">
+        <v>-0.01600321504350535</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -796,6 +835,9 @@
       <c r="H14" t="n">
         <v>0.1103939363875024</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.1083506553950757</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -822,6 +864,9 @@
       <c r="H15" t="n">
         <v>0.02741722642957906</v>
       </c>
+      <c r="I15" t="n">
+        <v>0.02079837812014461</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -848,6 +893,9 @@
       <c r="H16" t="n">
         <v>0.422044651803841</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.4160810838308522</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -874,6 +922,9 @@
       <c r="H17" t="n">
         <v>0.5909168333667244</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.5770889005778606</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -900,6 +951,9 @@
       <c r="H18" t="n">
         <v>-0.0470512039872111</v>
       </c>
+      <c r="I18" t="n">
+        <v>-0.06052467219886572</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -926,6 +980,9 @@
       <c r="H19" t="n">
         <v>0.3962787905623791</v>
       </c>
+      <c r="I19" t="n">
+        <v>0.3905015093398161</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -952,6 +1009,9 @@
       <c r="H20" t="n">
         <v>0.3492419440257628</v>
       </c>
+      <c r="I20" t="n">
+        <v>0.3408872339734378</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -978,6 +1038,9 @@
       <c r="H21" t="n">
         <v>0.6000727647053073</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.5977025080532424</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1004,6 +1067,9 @@
       <c r="H22" t="n">
         <v>0.3883651112549976</v>
       </c>
+      <c r="I22" t="n">
+        <v>0.3781774720932168</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1030,6 +1096,9 @@
       <c r="H23" t="n">
         <v>-0.04380165718830567</v>
       </c>
+      <c r="I23" t="n">
+        <v>-0.05085453127359771</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1056,6 +1125,9 @@
       <c r="H24" t="n">
         <v>3.653993552446012</v>
       </c>
+      <c r="I24" t="n">
+        <v>3.476233881237345</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1082,6 +1154,9 @@
       <c r="H25" t="n">
         <v>0.3627421942052358</v>
       </c>
+      <c r="I25" t="n">
+        <v>0.3510774008001888</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1108,6 +1183,9 @@
       <c r="H26" t="n">
         <v>0.2827624758667637</v>
       </c>
+      <c r="I26" t="n">
+        <v>0.268651606946161</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1134,6 +1212,9 @@
       <c r="H27" t="n">
         <v>0.1526818012730323</v>
       </c>
+      <c r="I27" t="n">
+        <v>0.1377959232166257</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1160,6 +1241,9 @@
       <c r="H28" t="n">
         <v>0.8811487014401004</v>
       </c>
+      <c r="I28" t="n">
+        <v>0.8675609191816998</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1186,6 +1270,9 @@
       <c r="H29" t="n">
         <v>3.459590657704483</v>
       </c>
+      <c r="I29" t="n">
+        <v>3.204474807925894</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1212,6 +1299,9 @@
       <c r="H30" t="n">
         <v>0.7824977293493296</v>
       </c>
+      <c r="I30" t="n">
+        <v>0.762978575440979</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1238,6 +1328,9 @@
       <c r="H31" t="n">
         <v>-0.3872857770344186</v>
       </c>
+      <c r="I31" t="n">
+        <v>-0.3976014546652424</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1264,6 +1357,9 @@
       <c r="H32" t="n">
         <v>0.6429787383000585</v>
       </c>
+      <c r="I32" t="n">
+        <v>0.6293283279644161</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1290,6 +1386,9 @@
       <c r="H33" t="n">
         <v>0.8083840233376693</v>
       </c>
+      <c r="I33" t="n">
+        <v>0.7992766626609195</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1316,6 +1415,9 @@
       <c r="H34" t="n">
         <v>-0.7653749139498697</v>
       </c>
+      <c r="I34" t="n">
+        <v>-0.7722465622422565</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1342,6 +1444,9 @@
       <c r="H35" t="n">
         <v>0.8038686215140496</v>
       </c>
+      <c r="I35" t="n">
+        <v>0.8047555965337527</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1368,6 +1473,9 @@
       <c r="H36" t="n">
         <v>0.7502463885146281</v>
       </c>
+      <c r="I36" t="n">
+        <v>0.7522905972004964</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1394,6 +1502,9 @@
       <c r="H37" t="n">
         <v>0.7173070625506954</v>
       </c>
+      <c r="I37" t="n">
+        <v>0.7188790496170351</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1420,6 +1531,9 @@
       <c r="H38" t="n">
         <v>0.6674325491538589</v>
       </c>
+      <c r="I38" t="n">
+        <v>0.6634540645590703</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1446,6 +1560,9 @@
       <c r="H39" t="n">
         <v>0.5906923052965111</v>
       </c>
+      <c r="I39" t="n">
+        <v>0.5940211988094776</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1472,6 +1589,9 @@
       <c r="H40" t="n">
         <v>0.7618302605723922</v>
       </c>
+      <c r="I40" t="n">
+        <v>0.7646229754288053</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1498,6 +1618,9 @@
       <c r="H41" t="n">
         <v>0.5489098076111156</v>
       </c>
+      <c r="I41" t="n">
+        <v>0.5501431296246174</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1524,6 +1647,9 @@
       <c r="H42" t="n">
         <v>0.6379455978747874</v>
       </c>
+      <c r="I42" t="n">
+        <v>0.6363339975928847</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1550,6 +1676,9 @@
       <c r="H43" t="n">
         <v>0.6792388671171504</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.6778440544257299</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1576,6 +1705,9 @@
       <c r="H44" t="n">
         <v>0.6762418576587647</v>
       </c>
+      <c r="I44" t="n">
+        <v>0.6791872258595397</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1602,6 +1734,9 @@
       <c r="H45" t="n">
         <v>0.6590993167871625</v>
       </c>
+      <c r="I45" t="n">
+        <v>0.6653958461058586</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1628,6 +1763,9 @@
       <c r="H46" t="n">
         <v>-1.25111869365319</v>
       </c>
+      <c r="I46" t="n">
+        <v>-1.246612244236624</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1654,6 +1792,9 @@
       <c r="H47" t="n">
         <v>-0.9715901817676857</v>
       </c>
+      <c r="I47" t="n">
+        <v>-0.9678996804896369</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1680,6 +1821,9 @@
       <c r="H48" t="n">
         <v>-0.8554749386026111</v>
       </c>
+      <c r="I48" t="n">
+        <v>-0.8495906680461751</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1706,6 +1850,9 @@
       <c r="H49" t="n">
         <v>-0.623505386025562</v>
       </c>
+      <c r="I49" t="n">
+        <v>-0.6184732352564978</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1732,6 +1879,9 @@
       <c r="H50" t="n">
         <v>-0.04290385058285282</v>
       </c>
+      <c r="I50" t="n">
+        <v>-0.04119315603827683</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1758,6 +1908,9 @@
       <c r="H51" t="n">
         <v>-0.8434050785770923</v>
       </c>
+      <c r="I51" t="n">
+        <v>-0.8370253581560516</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1784,6 +1937,9 @@
       <c r="H52" t="n">
         <v>-0.8434050785770923</v>
       </c>
+      <c r="I52" t="n">
+        <v>-0.8370253581560516</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1810,6 +1966,9 @@
       <c r="H53" t="n">
         <v>-1.100921610292222</v>
       </c>
+      <c r="I53" t="n">
+        <v>-1.096895551425782</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1836,6 +1995,9 @@
       <c r="H54" t="n">
         <v>-0.164737599519582</v>
       </c>
+      <c r="I54" t="n">
+        <v>-0.1604584637127459</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1862,6 +2024,9 @@
       <c r="H55" t="n">
         <v>-0.9886399394031982</v>
       </c>
+      <c r="I55" t="n">
+        <v>-0.9847469880244838</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1888,6 +2053,9 @@
       <c r="H56" t="n">
         <v>-0.8616470729991705</v>
       </c>
+      <c r="I56" t="n">
+        <v>-0.8578237671567769</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1914,6 +2082,9 @@
       <c r="H57" t="n">
         <v>-0.9047643136855499</v>
       </c>
+      <c r="I57" t="n">
+        <v>-0.9028529501039053</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1940,6 +2111,9 @@
       <c r="H58" t="n">
         <v>-1.066895501661878</v>
       </c>
+      <c r="I58" t="n">
+        <v>-1.061411535191088</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1966,6 +2140,9 @@
       <c r="H59" t="n">
         <v>-0.7913724909911647</v>
       </c>
+      <c r="I59" t="n">
+        <v>-0.7836388501915138</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1992,6 +2169,9 @@
       <c r="H60" t="n">
         <v>-0.4336833151366934</v>
       </c>
+      <c r="I60" t="n">
+        <v>-0.4274069978947239</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2018,6 +2198,9 @@
       <c r="H61" t="n">
         <v>0.3839005427359046</v>
       </c>
+      <c r="I61" t="n">
+        <v>0.3855333842584027</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2044,6 +2227,9 @@
       <c r="H62" t="n">
         <v>-1.159631998976119</v>
       </c>
+      <c r="I62" t="n">
+        <v>-1.155905090066248</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2070,6 +2256,9 @@
       <c r="H63" t="n">
         <v>-0.6252326481977414</v>
       </c>
+      <c r="I63" t="n">
+        <v>-0.6106589441566485</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2096,6 +2285,9 @@
       <c r="H64" t="n">
         <v>-0.862724637682305</v>
       </c>
+      <c r="I64" t="n">
+        <v>-0.856610856737371</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2122,6 +2314,9 @@
       <c r="H65" t="n">
         <v>-0.04807304460855288</v>
       </c>
+      <c r="I65" t="n">
+        <v>-0.04174554673002093</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2148,6 +2343,9 @@
       <c r="H66" t="n">
         <v>-0.7383965011585312</v>
       </c>
+      <c r="I66" t="n">
+        <v>-0.7353031226410629</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2173,6 +2371,9 @@
       </c>
       <c r="H67" t="n">
         <v>-0.6967833566644913</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6936169357534486</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-0.2455308605240437</v>
       </c>
+      <c r="J2" t="n">
+        <v>-0.2395808663446094</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>0.2321641232868924</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.2333411434357631</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2016926373532087</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.2073236212844741</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>-0.04702746612514257</v>
       </c>
+      <c r="J5" t="n">
+        <v>-0.04540658373104052</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>0.1881785722219094</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.1903583474001221</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.3979185327112928</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.3922869762572901</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -664,6 +685,9 @@
       <c r="I8" t="n">
         <v>-0.1807833776627188</v>
       </c>
+      <c r="J8" t="n">
+        <v>-0.1723189500519451</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -693,6 +717,9 @@
       <c r="I9" t="n">
         <v>-0.3557991649367654</v>
       </c>
+      <c r="J9" t="n">
+        <v>-0.3502400147816592</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -722,6 +749,9 @@
       <c r="I10" t="n">
         <v>0.4007991450317568</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.4029434877390286</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -751,6 +781,9 @@
       <c r="I11" t="n">
         <v>-0.1930523672696696</v>
       </c>
+      <c r="J11" t="n">
+        <v>-0.1884483892958856</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -780,6 +813,9 @@
       <c r="I12" t="n">
         <v>-0.04564194987495747</v>
       </c>
+      <c r="J12" t="n">
+        <v>-0.04565166982812377</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -809,6 +845,9 @@
       <c r="I13" t="n">
         <v>-0.01600321504350535</v>
       </c>
+      <c r="J13" t="n">
+        <v>-0.01687374181123508</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -838,6 +877,9 @@
       <c r="I14" t="n">
         <v>0.1083506553950757</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.1055425133587839</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -867,6 +909,9 @@
       <c r="I15" t="n">
         <v>0.02079837812014461</v>
       </c>
+      <c r="J15" t="n">
+        <v>0.01352429582271561</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -896,6 +941,9 @@
       <c r="I16" t="n">
         <v>0.4160810838308522</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.4091710223121702</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -925,6 +973,9 @@
       <c r="I17" t="n">
         <v>0.5770889005778606</v>
       </c>
+      <c r="J17" t="n">
+        <v>0.563426749575594</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -954,6 +1005,9 @@
       <c r="I18" t="n">
         <v>-0.06052467219886572</v>
       </c>
+      <c r="J18" t="n">
+        <v>-0.07228923678937335</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -983,6 +1037,9 @@
       <c r="I19" t="n">
         <v>0.3905015093398161</v>
       </c>
+      <c r="J19" t="n">
+        <v>0.3846734852709823</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1012,6 +1069,9 @@
       <c r="I20" t="n">
         <v>0.3408872339734378</v>
       </c>
+      <c r="J20" t="n">
+        <v>0.3317151334706764</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1041,6 +1101,9 @@
       <c r="I21" t="n">
         <v>0.5977025080532424</v>
       </c>
+      <c r="J21" t="n">
+        <v>0.5935382505711481</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1070,6 +1133,9 @@
       <c r="I22" t="n">
         <v>0.3781774720932168</v>
       </c>
+      <c r="J22" t="n">
+        <v>0.3678103762876149</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1099,6 +1165,9 @@
       <c r="I23" t="n">
         <v>-0.05085453127359771</v>
       </c>
+      <c r="J23" t="n">
+        <v>-0.05841529097789463</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1128,6 +1197,9 @@
       <c r="I24" t="n">
         <v>3.476233881237345</v>
       </c>
+      <c r="J24" t="n">
+        <v>3.297846054208264</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1157,6 +1229,9 @@
       <c r="I25" t="n">
         <v>0.3510774008001888</v>
       </c>
+      <c r="J25" t="n">
+        <v>0.3415201298900877</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1186,6 +1261,9 @@
       <c r="I26" t="n">
         <v>0.268651606946161</v>
       </c>
+      <c r="J26" t="n">
+        <v>0.2557052681148009</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1215,6 +1293,9 @@
       <c r="I27" t="n">
         <v>0.1377959232166257</v>
       </c>
+      <c r="J27" t="n">
+        <v>0.1245800206508171</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1244,6 +1325,9 @@
       <c r="I28" t="n">
         <v>0.8675609191816998</v>
       </c>
+      <c r="J28" t="n">
+        <v>0.8559780029228748</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1273,6 +1357,9 @@
       <c r="I29" t="n">
         <v>3.204474807925894</v>
       </c>
+      <c r="J29" t="n">
+        <v>2.978887361856967</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1302,6 +1389,9 @@
       <c r="I30" t="n">
         <v>0.762978575440979</v>
       </c>
+      <c r="J30" t="n">
+        <v>0.7462607224381801</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1331,6 +1421,9 @@
       <c r="I31" t="n">
         <v>-0.3976014546652424</v>
       </c>
+      <c r="J31" t="n">
+        <v>-0.4054812651436588</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1360,6 +1453,9 @@
       <c r="I32" t="n">
         <v>0.6293283279644161</v>
       </c>
+      <c r="J32" t="n">
+        <v>0.6176221638685887</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1389,6 +1485,9 @@
       <c r="I33" t="n">
         <v>0.7992766626609195</v>
       </c>
+      <c r="J33" t="n">
+        <v>0.7917025608102053</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1418,6 +1517,9 @@
       <c r="I34" t="n">
         <v>-0.7722465622422565</v>
       </c>
+      <c r="J34" t="n">
+        <v>-0.7779301674932279</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1447,6 +1549,9 @@
       <c r="I35" t="n">
         <v>0.8047555965337527</v>
       </c>
+      <c r="J35" t="n">
+        <v>0.8056445854186909</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1476,6 +1581,9 @@
       <c r="I36" t="n">
         <v>0.7522905972004964</v>
       </c>
+      <c r="J36" t="n">
+        <v>0.75455445894549</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1505,6 +1613,9 @@
       <c r="I37" t="n">
         <v>0.7188790496170351</v>
       </c>
+      <c r="J37" t="n">
+        <v>0.7207633906088907</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1534,6 +1645,9 @@
       <c r="I38" t="n">
         <v>0.6634540645590703</v>
       </c>
+      <c r="J38" t="n">
+        <v>0.6603194961344674</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1563,6 +1677,9 @@
       <c r="I39" t="n">
         <v>0.5940211988094776</v>
       </c>
+      <c r="J39" t="n">
+        <v>0.5970338449488533</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1592,6 +1709,9 @@
       <c r="I40" t="n">
         <v>0.7646229754288053</v>
       </c>
+      <c r="J40" t="n">
+        <v>0.7670047405026008</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1621,6 +1741,9 @@
       <c r="I41" t="n">
         <v>0.5501431296246174</v>
       </c>
+      <c r="J41" t="n">
+        <v>0.5516299502520102</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1650,6 +1773,9 @@
       <c r="I42" t="n">
         <v>0.6363339975928847</v>
       </c>
+      <c r="J42" t="n">
+        <v>0.635460273385881</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1679,6 +1805,9 @@
       <c r="I43" t="n">
         <v>0.6778440544257299</v>
       </c>
+      <c r="J43" t="n">
+        <v>0.6769744784820835</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1708,6 +1837,9 @@
       <c r="I44" t="n">
         <v>0.6791872258595397</v>
       </c>
+      <c r="J44" t="n">
+        <v>0.6820841641250851</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1737,6 +1869,9 @@
       <c r="I45" t="n">
         <v>0.6653958461058586</v>
       </c>
+      <c r="J45" t="n">
+        <v>0.6715408636498978</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1766,6 +1901,9 @@
       <c r="I46" t="n">
         <v>-1.246612244236624</v>
       </c>
+      <c r="J46" t="n">
+        <v>-1.242828508818037</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1795,6 +1933,9 @@
       <c r="I47" t="n">
         <v>-0.9678996804896369</v>
       </c>
+      <c r="J47" t="n">
+        <v>-0.9647690408483289</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1824,6 +1965,9 @@
       <c r="I48" t="n">
         <v>-0.8495906680461751</v>
       </c>
+      <c r="J48" t="n">
+        <v>-0.8443239521712735</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1853,6 +1997,9 @@
       <c r="I49" t="n">
         <v>-0.6184732352564978</v>
       </c>
+      <c r="J49" t="n">
+        <v>-0.6140336344668389</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1882,6 +2029,9 @@
       <c r="I50" t="n">
         <v>-0.04119315603827683</v>
       </c>
+      <c r="J50" t="n">
+        <v>-0.03983866186090873</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1911,6 +2061,9 @@
       <c r="I51" t="n">
         <v>-0.8370253581560516</v>
       </c>
+      <c r="J51" t="n">
+        <v>-0.8313483913470346</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1940,6 +2093,9 @@
       <c r="I52" t="n">
         <v>-0.8370253581560516</v>
       </c>
+      <c r="J52" t="n">
+        <v>-0.8313483913470346</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1969,6 +2125,9 @@
       <c r="I53" t="n">
         <v>-1.096895551425782</v>
       </c>
+      <c r="J53" t="n">
+        <v>-1.093135381668635</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1998,6 +2157,9 @@
       <c r="I54" t="n">
         <v>-0.1604584637127459</v>
       </c>
+      <c r="J54" t="n">
+        <v>-0.1568036847107319</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2027,6 +2189,9 @@
       <c r="I55" t="n">
         <v>-0.9847469880244838</v>
       </c>
+      <c r="J55" t="n">
+        <v>-0.9814953804139508</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2056,6 +2221,9 @@
       <c r="I56" t="n">
         <v>-0.8578237671567769</v>
       </c>
+      <c r="J56" t="n">
+        <v>-0.8549786386250062</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2085,6 +2253,9 @@
       <c r="I57" t="n">
         <v>-0.9028529501039053</v>
       </c>
+      <c r="J57" t="n">
+        <v>-0.9017834721493049</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2114,6 +2285,9 @@
       <c r="I58" t="n">
         <v>-1.061411535191088</v>
       </c>
+      <c r="J58" t="n">
+        <v>-1.057431051622521</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2143,6 +2317,9 @@
       <c r="I59" t="n">
         <v>-0.7836388501915138</v>
       </c>
+      <c r="J59" t="n">
+        <v>-0.7771852259688813</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2172,6 +2349,9 @@
       <c r="I60" t="n">
         <v>-0.4274069978947239</v>
       </c>
+      <c r="J60" t="n">
+        <v>-0.4224437370280926</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2201,6 +2381,9 @@
       <c r="I61" t="n">
         <v>0.3855333842584027</v>
       </c>
+      <c r="J61" t="n">
+        <v>0.3869067124205794</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2230,6 +2413,9 @@
       <c r="I62" t="n">
         <v>-1.155905090066248</v>
       </c>
+      <c r="J62" t="n">
+        <v>-1.153480459142771</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2259,6 +2445,9 @@
       <c r="I63" t="n">
         <v>-0.6106589441566485</v>
       </c>
+      <c r="J63" t="n">
+        <v>-0.5981555403948238</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2288,6 +2477,9 @@
       <c r="I64" t="n">
         <v>-0.856610856737371</v>
       </c>
+      <c r="J64" t="n">
+        <v>-0.8511677488060453</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2317,6 +2509,9 @@
       <c r="I65" t="n">
         <v>-0.04174554673002093</v>
       </c>
+      <c r="J65" t="n">
+        <v>-0.03674198905262215</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2346,6 +2541,9 @@
       <c r="I66" t="n">
         <v>-0.7353031226410629</v>
       </c>
+      <c r="J66" t="n">
+        <v>-0.7336443185130166</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2374,6 +2572,9 @@
       </c>
       <c r="I67" t="n">
         <v>-0.6936169357534486</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6924328168685289</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-0.2395808663446094</v>
       </c>
+      <c r="K2" t="n">
+        <v>-0.2345637463274745</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>0.2333411434357631</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.234425973684549</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.2073236212844741</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.212283500388074</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>-0.04540658373104052</v>
       </c>
+      <c r="K5" t="n">
+        <v>-0.04424034464534728</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>0.1903583474001221</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.1920210143795736</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.3922869762572901</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.3874135935336399</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -688,6 +709,9 @@
       <c r="J8" t="n">
         <v>-0.1723189500519451</v>
       </c>
+      <c r="K8" t="n">
+        <v>-0.1648563232683349</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -720,6 +744,9 @@
       <c r="J9" t="n">
         <v>-0.3502400147816592</v>
       </c>
+      <c r="K9" t="n">
+        <v>-0.3450270783199029</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -752,6 +779,9 @@
       <c r="J10" t="n">
         <v>0.4029434877390286</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.4044964634210424</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -784,6 +814,9 @@
       <c r="J11" t="n">
         <v>-0.1884483892958856</v>
       </c>
+      <c r="K11" t="n">
+        <v>-0.1845947562048883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -816,6 +849,9 @@
       <c r="J12" t="n">
         <v>-0.04565166982812377</v>
       </c>
+      <c r="K12" t="n">
+        <v>-0.04629788404600942</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -848,6 +884,9 @@
       <c r="J13" t="n">
         <v>-0.01687374181123508</v>
       </c>
+      <c r="K13" t="n">
+        <v>-0.01776865781009219</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -880,6 +919,9 @@
       <c r="J14" t="n">
         <v>0.1055425133587839</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.1021820221398838</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -912,6 +954,9 @@
       <c r="J15" t="n">
         <v>0.01352429582271561</v>
       </c>
+      <c r="K15" t="n">
+        <v>0.005857664881682684</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -944,6 +989,9 @@
       <c r="J16" t="n">
         <v>0.4091710223121702</v>
       </c>
+      <c r="K16" t="n">
+        <v>0.4016596985220743</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -976,6 +1024,9 @@
       <c r="J17" t="n">
         <v>0.563426749575594</v>
       </c>
+      <c r="K17" t="n">
+        <v>0.5501617573503693</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1008,6 +1059,9 @@
       <c r="J18" t="n">
         <v>-0.07228923678937335</v>
       </c>
+      <c r="K18" t="n">
+        <v>-0.08254815132031969</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1040,6 +1094,9 @@
       <c r="J19" t="n">
         <v>0.3846734852709823</v>
       </c>
+      <c r="K19" t="n">
+        <v>0.3788830970517036</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1072,6 +1129,9 @@
       <c r="J20" t="n">
         <v>0.3317151334706764</v>
       </c>
+      <c r="K20" t="n">
+        <v>0.3220777000389261</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1104,6 +1164,9 @@
       <c r="J21" t="n">
         <v>0.5935382505711481</v>
       </c>
+      <c r="K21" t="n">
+        <v>0.588085728939663</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1136,6 +1199,9 @@
       <c r="J22" t="n">
         <v>0.3678103762876149</v>
       </c>
+      <c r="K22" t="n">
+        <v>0.3575084303638024</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1168,6 +1234,9 @@
       <c r="J23" t="n">
         <v>-0.05841529097789463</v>
       </c>
+      <c r="K23" t="n">
+        <v>-0.06623547540104124</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1200,6 +1269,9 @@
       <c r="J24" t="n">
         <v>3.297846054208264</v>
       </c>
+      <c r="K24" t="n">
+        <v>3.122792675591495</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1232,6 +1304,9 @@
       <c r="J25" t="n">
         <v>0.3415201298900877</v>
       </c>
+      <c r="K25" t="n">
+        <v>0.3337731256154308</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1264,6 +1339,9 @@
       <c r="J26" t="n">
         <v>0.2557052681148009</v>
       </c>
+      <c r="K26" t="n">
+        <v>0.2439047135889868</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1296,6 +1374,9 @@
       <c r="J27" t="n">
         <v>0.1245800206508171</v>
       </c>
+      <c r="K27" t="n">
+        <v>0.1129158615988638</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1328,6 +1409,9 @@
       <c r="J28" t="n">
         <v>0.8559780029228748</v>
       </c>
+      <c r="K28" t="n">
+        <v>0.8462077389636525</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1360,6 +1444,9 @@
       <c r="J29" t="n">
         <v>2.978887361856967</v>
       </c>
+      <c r="K29" t="n">
+        <v>2.780546190574972</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1392,6 +1479,9 @@
       <c r="J30" t="n">
         <v>0.7462607224381801</v>
       </c>
+      <c r="K30" t="n">
+        <v>0.7320304304132204</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1424,6 +1514,9 @@
       <c r="J31" t="n">
         <v>-0.4054812651436588</v>
       </c>
+      <c r="K31" t="n">
+        <v>-0.4113728817914747</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1456,6 +1549,9 @@
       <c r="J32" t="n">
         <v>0.6176221638685887</v>
       </c>
+      <c r="K32" t="n">
+        <v>0.6076406696950142</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1488,6 +1584,9 @@
       <c r="J33" t="n">
         <v>0.7917025608102053</v>
       </c>
+      <c r="K33" t="n">
+        <v>0.7854582446712921</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1520,6 +1619,9 @@
       <c r="J34" t="n">
         <v>-0.7779301674932279</v>
       </c>
+      <c r="K34" t="n">
+        <v>-0.7826363600291202</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1552,6 +1654,9 @@
       <c r="J35" t="n">
         <v>0.8056445854186909</v>
       </c>
+      <c r="K35" t="n">
+        <v>0.8065309202510038</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1584,6 +1689,9 @@
       <c r="J36" t="n">
         <v>0.75455445894549</v>
       </c>
+      <c r="K36" t="n">
+        <v>0.7569495469789636</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1616,6 +1724,9 @@
       <c r="J37" t="n">
         <v>0.7207633906088907</v>
       </c>
+      <c r="K37" t="n">
+        <v>0.7228578758192281</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1648,6 +1759,9 @@
       <c r="J38" t="n">
         <v>0.6603194961344674</v>
       </c>
+      <c r="K38" t="n">
+        <v>0.6578968396152476</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1680,6 +1794,9 @@
       <c r="J39" t="n">
         <v>0.5970338449488533</v>
       </c>
+      <c r="K39" t="n">
+        <v>0.5997407928894033</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1712,6 +1829,9 @@
       <c r="J40" t="n">
         <v>0.7670047405026008</v>
       </c>
+      <c r="K40" t="n">
+        <v>0.7690390361402883</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1744,6 +1864,9 @@
       <c r="J41" t="n">
         <v>0.5516299502520102</v>
       </c>
+      <c r="K41" t="n">
+        <v>0.553284849556079</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1776,6 +1899,9 @@
       <c r="J42" t="n">
         <v>0.635460273385881</v>
       </c>
+      <c r="K42" t="n">
+        <v>0.6351676096292771</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1808,6 +1934,9 @@
       <c r="J43" t="n">
         <v>0.6769744784820835</v>
       </c>
+      <c r="K43" t="n">
+        <v>0.6765267215636517</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1840,6 +1969,9 @@
       <c r="J44" t="n">
         <v>0.6820841641250851</v>
       </c>
+      <c r="K44" t="n">
+        <v>0.6848889383213039</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1872,6 +2004,9 @@
       <c r="J45" t="n">
         <v>0.6715408636498978</v>
       </c>
+      <c r="K45" t="n">
+        <v>0.6774460846185308</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1904,6 +2039,9 @@
       <c r="J46" t="n">
         <v>-1.242828508818037</v>
       </c>
+      <c r="K46" t="n">
+        <v>-1.239801818997322</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1936,6 +2074,9 @@
       <c r="J47" t="n">
         <v>-0.9647690408483289</v>
       </c>
+      <c r="K47" t="n">
+        <v>-0.9622363678429535</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1968,6 +2109,9 @@
       <c r="J48" t="n">
         <v>-0.8443239521712735</v>
       </c>
+      <c r="K48" t="n">
+        <v>-0.8397468192404031</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2000,6 +2144,9 @@
       <c r="J49" t="n">
         <v>-0.6140336344668389</v>
       </c>
+      <c r="K49" t="n">
+        <v>-0.6102282680808816</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2032,6 +2179,9 @@
       <c r="J50" t="n">
         <v>-0.03983866186090873</v>
       </c>
+      <c r="K50" t="n">
+        <v>-0.03883774650233079</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2064,6 +2214,9 @@
       <c r="J51" t="n">
         <v>-0.8313483913470346</v>
       </c>
+      <c r="K51" t="n">
+        <v>-0.8264200750487787</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2096,6 +2249,9 @@
       <c r="J52" t="n">
         <v>-0.8313483913470346</v>
       </c>
+      <c r="K52" t="n">
+        <v>-0.8264200750487787</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2128,6 +2284,9 @@
       <c r="J53" t="n">
         <v>-1.093135381668635</v>
       </c>
+      <c r="K53" t="n">
+        <v>-1.089788253746837</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2160,6 +2319,9 @@
       <c r="J54" t="n">
         <v>-0.1568036847107319</v>
       </c>
+      <c r="K54" t="n">
+        <v>-0.1537649653340145</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2192,6 +2354,9 @@
       <c r="J55" t="n">
         <v>-0.9814953804139508</v>
       </c>
+      <c r="K55" t="n">
+        <v>-0.9789125751185002</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2224,6 +2389,9 @@
       <c r="J56" t="n">
         <v>-0.8549786386250062</v>
       </c>
+      <c r="K56" t="n">
+        <v>-0.8530266941846459</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2256,6 +2424,9 @@
       <c r="J57" t="n">
         <v>-0.9017834721493049</v>
       </c>
+      <c r="K57" t="n">
+        <v>-0.9014820878956787</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2288,6 +2459,9 @@
       <c r="J58" t="n">
         <v>-1.057431051622521</v>
       </c>
+      <c r="K58" t="n">
+        <v>-1.054773133306523</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2320,6 +2494,9 @@
       <c r="J59" t="n">
         <v>-0.7771852259688813</v>
       </c>
+      <c r="K59" t="n">
+        <v>-0.7719307531403906</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2352,6 +2529,9 @@
       <c r="J60" t="n">
         <v>-0.4224437370280926</v>
       </c>
+      <c r="K60" t="n">
+        <v>-0.4186427188659875</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2384,6 +2564,9 @@
       <c r="J61" t="n">
         <v>0.3869067124205794</v>
       </c>
+      <c r="K61" t="n">
+        <v>0.3880331022222341</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2416,6 +2599,9 @@
       <c r="J62" t="n">
         <v>-1.153480459142771</v>
       </c>
+      <c r="K62" t="n">
+        <v>-1.152219851918832</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2448,6 +2634,9 @@
       <c r="J63" t="n">
         <v>-0.5981555403948238</v>
       </c>
+      <c r="K63" t="n">
+        <v>-0.5875478383211155</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2480,6 +2669,9 @@
       <c r="J64" t="n">
         <v>-0.8511677488060453</v>
       </c>
+      <c r="K64" t="n">
+        <v>-0.8464560346129091</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2512,6 +2704,9 @@
       <c r="J65" t="n">
         <v>-0.03674198905262215</v>
       </c>
+      <c r="K65" t="n">
+        <v>-0.03289540177505938</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2544,6 +2739,9 @@
       <c r="J66" t="n">
         <v>-0.7336443185130166</v>
       </c>
+      <c r="K66" t="n">
+        <v>-0.7331929740274656</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2575,6 +2773,9 @@
       </c>
       <c r="J67" t="n">
         <v>-0.6924328168685289</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.692859521114814</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-0.2345637463274745</v>
       </c>
+      <c r="L2" t="n">
+        <v>-0.2304054242509626</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>0.234425973684549</v>
       </c>
+      <c r="L3" t="n">
+        <v>0.2353973709679449</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.212283500388074</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.216596279212751</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>-0.04424034464534728</v>
       </c>
+      <c r="L5" t="n">
+        <v>-0.04347932130548137</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>0.1920210143795736</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.1932434286427915</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.3874135935336399</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.3832752010970418</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +733,9 @@
       <c r="K8" t="n">
         <v>-0.1648563232683349</v>
       </c>
+      <c r="L8" t="n">
+        <v>-0.1583409148591814</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -747,6 +771,9 @@
       <c r="K9" t="n">
         <v>-0.3450270783199029</v>
       </c>
+      <c r="L9" t="n">
+        <v>-0.3402318984197374</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -782,6 +809,9 @@
       <c r="K10" t="n">
         <v>0.4044964634210424</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.4055495134631229</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -817,6 +847,9 @@
       <c r="K11" t="n">
         <v>-0.1845947562048883</v>
       </c>
+      <c r="L11" t="n">
+        <v>-0.1814417119002871</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -852,6 +885,9 @@
       <c r="K12" t="n">
         <v>-0.04629788404600942</v>
       </c>
+      <c r="L12" t="n">
+        <v>-0.04745785939987593</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -887,6 +923,9 @@
       <c r="K13" t="n">
         <v>-0.01776865781009219</v>
       </c>
+      <c r="L13" t="n">
+        <v>-0.018701199122714</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -922,6 +961,9 @@
       <c r="K14" t="n">
         <v>0.1021820221398838</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.09844423008051348</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -957,6 +999,9 @@
       <c r="K15" t="n">
         <v>0.005857664881682684</v>
       </c>
+      <c r="L15" t="n">
+        <v>-0.00199077317322742</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -992,6 +1037,9 @@
       <c r="K16" t="n">
         <v>0.4016596985220743</v>
       </c>
+      <c r="L16" t="n">
+        <v>0.3938242006135017</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1027,6 +1075,9 @@
       <c r="K17" t="n">
         <v>0.5501617573503693</v>
       </c>
+      <c r="L17" t="n">
+        <v>0.5374626570828047</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1062,6 +1113,9 @@
       <c r="K18" t="n">
         <v>-0.08254815132031969</v>
       </c>
+      <c r="L18" t="n">
+        <v>-0.09148610772865776</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1097,6 +1151,9 @@
       <c r="K19" t="n">
         <v>0.3788830970517036</v>
       </c>
+      <c r="L19" t="n">
+        <v>0.3731991637985659</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1132,6 +1189,9 @@
       <c r="K20" t="n">
         <v>0.3220777000389261</v>
       </c>
+      <c r="L20" t="n">
+        <v>0.3122548198891398</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1167,6 +1227,9 @@
       <c r="K21" t="n">
         <v>0.588085728939663</v>
       </c>
+      <c r="L21" t="n">
+        <v>0.5817581197517862</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1202,6 +1265,9 @@
       <c r="K22" t="n">
         <v>0.3575084303638024</v>
       </c>
+      <c r="L22" t="n">
+        <v>0.3474574588665492</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1237,6 +1303,9 @@
       <c r="K23" t="n">
         <v>-0.06623547540104124</v>
       </c>
+      <c r="L23" t="n">
+        <v>-0.0741187295349357</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1272,6 +1341,9 @@
       <c r="K24" t="n">
         <v>3.122792675591495</v>
       </c>
+      <c r="L24" t="n">
+        <v>2.95401986909955</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1307,6 +1379,9 @@
       <c r="K25" t="n">
         <v>0.3337731256154308</v>
       </c>
+      <c r="L25" t="n">
+        <v>0.3275713551279745</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1342,6 +1417,9 @@
       <c r="K26" t="n">
         <v>0.2439047135889868</v>
       </c>
+      <c r="L26" t="n">
+        <v>0.2332120762799696</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1377,6 +1455,9 @@
       <c r="K27" t="n">
         <v>0.1129158615988638</v>
       </c>
+      <c r="L27" t="n">
+        <v>0.1026804205468549</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1412,6 +1493,9 @@
       <c r="K28" t="n">
         <v>0.8462077389636525</v>
       </c>
+      <c r="L28" t="n">
+        <v>0.838063262637022</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1447,6 +1531,9 @@
       <c r="K29" t="n">
         <v>2.780546190574972</v>
       </c>
+      <c r="L29" t="n">
+        <v>2.607134552227699</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1482,6 +1569,9 @@
       <c r="K30" t="n">
         <v>0.7320304304132204</v>
       </c>
+      <c r="L30" t="n">
+        <v>0.7199958727743893</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1517,6 +1607,9 @@
       <c r="K31" t="n">
         <v>-0.4113728817914747</v>
       </c>
+      <c r="L31" t="n">
+        <v>-0.4156579737634116</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1552,6 +1645,9 @@
       <c r="K32" t="n">
         <v>0.6076406696950142</v>
       </c>
+      <c r="L32" t="n">
+        <v>0.5991801539139938</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1587,6 +1683,9 @@
       <c r="K33" t="n">
         <v>0.7854582446712921</v>
       </c>
+      <c r="L33" t="n">
+        <v>0.7803604286929527</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1622,6 +1721,9 @@
       <c r="K34" t="n">
         <v>-0.7826363600291202</v>
       </c>
+      <c r="L34" t="n">
+        <v>-0.7865441197162484</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1657,6 +1759,9 @@
       <c r="K35" t="n">
         <v>0.8065309202510038</v>
       </c>
+      <c r="L35" t="n">
+        <v>0.8074104543879221</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1692,6 +1797,9 @@
       <c r="K36" t="n">
         <v>0.7569495469789636</v>
       </c>
+      <c r="L36" t="n">
+        <v>0.7594051924267322</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1727,6 +1835,9 @@
       <c r="K37" t="n">
         <v>0.7228578758192281</v>
       </c>
+      <c r="L37" t="n">
+        <v>0.7250796432150118</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1762,6 +1873,9 @@
       <c r="K38" t="n">
         <v>0.6578968396152476</v>
       </c>
+      <c r="L38" t="n">
+        <v>0.6560703109967914</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1797,6 +1911,9 @@
       <c r="K39" t="n">
         <v>0.5997407928894033</v>
       </c>
+      <c r="L39" t="n">
+        <v>0.6021566724528995</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1832,6 +1949,9 @@
       <c r="K40" t="n">
         <v>0.7690390361402883</v>
       </c>
+      <c r="L40" t="n">
+        <v>0.7707808959815302</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1867,6 +1987,9 @@
       <c r="K41" t="n">
         <v>0.553284849556079</v>
       </c>
+      <c r="L41" t="n">
+        <v>0.5550389103838705</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1902,6 +2025,9 @@
       <c r="K42" t="n">
         <v>0.6351676096292771</v>
       </c>
+      <c r="L42" t="n">
+        <v>0.6353242091927795</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1937,6 +2063,9 @@
       <c r="K43" t="n">
         <v>0.6765267215636517</v>
       </c>
+      <c r="L43" t="n">
+        <v>0.676412918967401</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1972,6 +2101,9 @@
       <c r="K44" t="n">
         <v>0.6848889383213039</v>
       </c>
+      <c r="L44" t="n">
+        <v>0.6875699504553026</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2007,6 +2139,9 @@
       <c r="K45" t="n">
         <v>0.6774460846185308</v>
       </c>
+      <c r="L45" t="n">
+        <v>0.6830491288581668</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2042,6 +2177,9 @@
       <c r="K46" t="n">
         <v>-1.239801818997322</v>
       </c>
+      <c r="L46" t="n">
+        <v>-1.237536231132118</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2077,6 +2215,9 @@
       <c r="K47" t="n">
         <v>-0.9622363678429535</v>
       </c>
+      <c r="L47" t="n">
+        <v>-0.9603129764306831</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2112,6 +2253,9 @@
       <c r="K48" t="n">
         <v>-0.8397468192404031</v>
       </c>
+      <c r="L48" t="n">
+        <v>-0.8358943504591181</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2147,6 +2291,9 @@
       <c r="K49" t="n">
         <v>-0.6102282680808816</v>
       </c>
+      <c r="L49" t="n">
+        <v>-0.6070711670283773</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2182,6 +2329,9 @@
       <c r="K50" t="n">
         <v>-0.03883774650233079</v>
       </c>
+      <c r="L50" t="n">
+        <v>-0.03817831735029319</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2217,6 +2367,9 @@
       <c r="K51" t="n">
         <v>-0.8264200750487787</v>
       </c>
+      <c r="L51" t="n">
+        <v>-0.8222550259992873</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2252,6 +2405,9 @@
       <c r="K52" t="n">
         <v>-0.8264200750487787</v>
       </c>
+      <c r="L52" t="n">
+        <v>-0.8222550259992873</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2287,6 +2443,9 @@
       <c r="K53" t="n">
         <v>-1.089788253746837</v>
       </c>
+      <c r="L53" t="n">
+        <v>-1.086951259064363</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2322,6 +2481,9 @@
       <c r="K54" t="n">
         <v>-0.1537649653340145</v>
       </c>
+      <c r="L54" t="n">
+        <v>-0.1513198566135337</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2357,6 +2519,9 @@
       <c r="K55" t="n">
         <v>-0.9789125751185002</v>
       </c>
+      <c r="L55" t="n">
+        <v>-0.9769999724280052</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2392,6 +2557,9 @@
       <c r="K56" t="n">
         <v>-0.8530266941846459</v>
       </c>
+      <c r="L56" t="n">
+        <v>-0.8518800247373897</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2427,6 +2595,9 @@
       <c r="K57" t="n">
         <v>-0.9014820878956787</v>
       </c>
+      <c r="L57" t="n">
+        <v>-0.9018712997294428</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2462,6 +2633,9 @@
       <c r="K58" t="n">
         <v>-1.054773133306523</v>
       </c>
+      <c r="L58" t="n">
+        <v>-1.053267429828067</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2497,6 +2671,9 @@
       <c r="K59" t="n">
         <v>-0.7719307531403906</v>
       </c>
+      <c r="L59" t="n">
+        <v>-0.7677841706661738</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2532,6 +2709,9 @@
       <c r="K60" t="n">
         <v>-0.4186427188659875</v>
       </c>
+      <c r="L60" t="n">
+        <v>-0.4158616256084487</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2567,6 +2747,9 @@
       <c r="K61" t="n">
         <v>0.3880331022222341</v>
       </c>
+      <c r="L61" t="n">
+        <v>0.3889283844952097</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2602,6 +2785,9 @@
       <c r="K62" t="n">
         <v>-1.152219851918832</v>
       </c>
+      <c r="L62" t="n">
+        <v>-1.151987465082178</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2637,6 +2823,9 @@
       <c r="K63" t="n">
         <v>-0.5875478383211155</v>
       </c>
+      <c r="L63" t="n">
+        <v>-0.5786599576347748</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2672,6 +2861,9 @@
       <c r="K64" t="n">
         <v>-0.8464560346129091</v>
       </c>
+      <c r="L64" t="n">
+        <v>-0.8425014077507254</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2707,6 +2899,9 @@
       <c r="K65" t="n">
         <v>-0.03289540177505938</v>
       </c>
+      <c r="L65" t="n">
+        <v>-0.03005193785019866</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2742,6 +2937,9 @@
       <c r="K66" t="n">
         <v>-0.7331929740274656</v>
       </c>
+      <c r="L66" t="n">
+        <v>-0.7337466194695871</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2776,6 +2974,9 @@
       </c>
       <c r="K67" t="n">
         <v>-0.692859521114814</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6945762068047114</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-0.2304054242509626</v>
       </c>
+      <c r="M2" t="n">
+        <v>-0.2270292512551425</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>0.2353973709679449</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.2362425712773783</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.216596279212751</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.2202955011424944</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>-0.04347932130548137</v>
       </c>
+      <c r="M5" t="n">
+        <v>-0.04307564499683669</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>0.1932434286427915</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.1940939904894997</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.3832752010970418</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.3798359300683848</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +757,9 @@
       <c r="L8" t="n">
         <v>-0.1583409148591814</v>
       </c>
+      <c r="M8" t="n">
+        <v>-0.1527097692638821</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -774,6 +798,9 @@
       <c r="L9" t="n">
         <v>-0.3402318984197374</v>
       </c>
+      <c r="M9" t="n">
+        <v>-0.3358979363083976</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -812,6 +839,9 @@
       <c r="L10" t="n">
         <v>0.4055495134631229</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.4061836770059159</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -850,6 +880,9 @@
       <c r="L11" t="n">
         <v>-0.1814417119002871</v>
       </c>
+      <c r="M11" t="n">
+        <v>-0.1789342185421686</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -888,6 +921,9 @@
       <c r="L12" t="n">
         <v>-0.04745785939987593</v>
       </c>
+      <c r="M12" t="n">
+        <v>-0.04902524404455334</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -926,6 +962,9 @@
       <c r="L13" t="n">
         <v>-0.018701199122714</v>
       </c>
+      <c r="M13" t="n">
+        <v>-0.01967882578894778</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -964,6 +1003,9 @@
       <c r="L14" t="n">
         <v>0.09844423008051348</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.09447168145191222</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1002,6 +1044,9 @@
       <c r="L15" t="n">
         <v>-0.00199077317322742</v>
       </c>
+      <c r="M15" t="n">
+        <v>-0.009854665914795724</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1040,6 +1085,9 @@
       <c r="L16" t="n">
         <v>0.3938242006135017</v>
       </c>
+      <c r="M16" t="n">
+        <v>0.3858834693035601</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1078,6 +1126,9 @@
       <c r="L17" t="n">
         <v>0.5374626570828047</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.5254466169182583</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1116,6 +1167,9 @@
       <c r="L18" t="n">
         <v>-0.09148610772865776</v>
       </c>
+      <c r="M18" t="n">
+        <v>-0.09926973107899797</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1154,6 +1208,9 @@
       <c r="L19" t="n">
         <v>0.3731991637985659</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.3676739280309289</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1192,6 +1249,9 @@
       <c r="L20" t="n">
         <v>0.3122548198891398</v>
       </c>
+      <c r="M20" t="n">
+        <v>0.3024650663455499</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1230,6 +1290,9 @@
       <c r="L21" t="n">
         <v>0.5817581197517862</v>
       </c>
+      <c r="M21" t="n">
+        <v>0.5748888902555651</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1268,6 +1331,9 @@
       <c r="L22" t="n">
         <v>0.3474574588665492</v>
       </c>
+      <c r="M22" t="n">
+        <v>0.3377943018978761</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1306,6 +1372,9 @@
       <c r="L23" t="n">
         <v>-0.0741187295349357</v>
       </c>
+      <c r="M23" t="n">
+        <v>-0.08191285312221083</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1344,6 +1413,9 @@
       <c r="L24" t="n">
         <v>2.95401986909955</v>
       </c>
+      <c r="M24" t="n">
+        <v>2.79363355884222</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1382,6 +1454,9 @@
       <c r="L25" t="n">
         <v>0.3275713551279745</v>
       </c>
+      <c r="M25" t="n">
+        <v>0.3226801561185355</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1420,6 +1495,9 @@
       <c r="L26" t="n">
         <v>0.2332120762799696</v>
       </c>
+      <c r="M26" t="n">
+        <v>0.2235756548370716</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1458,6 +1536,9 @@
       <c r="L27" t="n">
         <v>0.1026804205468549</v>
       </c>
+      <c r="M27" t="n">
+        <v>0.09374967561206318</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1496,6 +1577,9 @@
       <c r="L28" t="n">
         <v>0.838063262637022</v>
       </c>
+      <c r="M28" t="n">
+        <v>0.8313659609880564</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1534,6 +1618,9 @@
       <c r="L29" t="n">
         <v>2.607134552227699</v>
       </c>
+      <c r="M29" t="n">
+        <v>2.456359678328423</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1572,6 +1659,9 @@
       <c r="L30" t="n">
         <v>0.7199958727743893</v>
       </c>
+      <c r="M30" t="n">
+        <v>0.7098882867855093</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1610,6 +1700,9 @@
       <c r="L31" t="n">
         <v>-0.4156579737634116</v>
       </c>
+      <c r="M31" t="n">
+        <v>-0.4186596090223308</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1648,6 +1741,9 @@
       <c r="L32" t="n">
         <v>0.5991801539139938</v>
       </c>
+      <c r="M32" t="n">
+        <v>0.592053460655677</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1686,6 +1782,9 @@
       <c r="L33" t="n">
         <v>0.7803604286929527</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.77624521731268</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1724,6 +1823,9 @@
       <c r="L34" t="n">
         <v>-0.7865441197162484</v>
       </c>
+      <c r="M34" t="n">
+        <v>-0.7898045003626559</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1762,6 +1864,9 @@
       <c r="L35" t="n">
         <v>0.8074104543879221</v>
       </c>
+      <c r="M35" t="n">
+        <v>0.8082795598406226</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1800,6 +1905,9 @@
       <c r="L36" t="n">
         <v>0.7594051924267322</v>
       </c>
+      <c r="M36" t="n">
+        <v>0.7618658470774756</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1838,6 +1946,9 @@
       <c r="L37" t="n">
         <v>0.7250796432150118</v>
       </c>
+      <c r="M37" t="n">
+        <v>0.7273624321338982</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1876,6 +1987,9 @@
       <c r="L38" t="n">
         <v>0.6560703109967914</v>
       </c>
+      <c r="M38" t="n">
+        <v>0.6547390315578402</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1914,6 +2028,9 @@
       <c r="L39" t="n">
         <v>0.6021566724528995</v>
       </c>
+      <c r="M39" t="n">
+        <v>0.6042988975073308</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1952,6 +2069,9 @@
       <c r="L40" t="n">
         <v>0.7707808959815302</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.7722777400776855</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1990,6 +2110,9 @@
       <c r="L41" t="n">
         <v>0.5550389103838705</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.5568373274602341</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2028,6 +2151,9 @@
       <c r="L42" t="n">
         <v>0.6353242091927795</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.6358202400290426</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2066,6 +2192,9 @@
       <c r="L43" t="n">
         <v>0.676412918967401</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.6765589946259132</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2104,6 +2233,9 @@
       <c r="L44" t="n">
         <v>0.6875699504553026</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.6901055637086864</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2142,6 +2274,9 @@
       <c r="L45" t="n">
         <v>0.6830491288581668</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.6883087590196989</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2180,6 +2315,9 @@
       <c r="L46" t="n">
         <v>-1.237536231132118</v>
       </c>
+      <c r="M46" t="n">
+        <v>-1.236012950620581</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2218,6 +2356,9 @@
       <c r="L47" t="n">
         <v>-0.9603129764306831</v>
       </c>
+      <c r="M47" t="n">
+        <v>-0.9589897751964294</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2256,6 +2397,9 @@
       <c r="L48" t="n">
         <v>-0.8358943504591181</v>
       </c>
+      <c r="M48" t="n">
+        <v>-0.8327729573813195</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2294,6 +2438,9 @@
       <c r="L49" t="n">
         <v>-0.6070711670283773</v>
       </c>
+      <c r="M49" t="n">
+        <v>-0.6045551951608437</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2332,6 +2479,9 @@
       <c r="L50" t="n">
         <v>-0.03817831735029319</v>
       </c>
+      <c r="M50" t="n">
+        <v>-0.03784147107928008</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2370,6 +2520,9 @@
       <c r="L51" t="n">
         <v>-0.8222550259992873</v>
       </c>
+      <c r="M51" t="n">
+        <v>-0.8188439213515802</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2408,6 +2561,9 @@
       <c r="L52" t="n">
         <v>-0.8222550259992873</v>
       </c>
+      <c r="M52" t="n">
+        <v>-0.8188439213515802</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2446,6 +2602,9 @@
       <c r="L53" t="n">
         <v>-1.086951259064363</v>
       </c>
+      <c r="M53" t="n">
+        <v>-1.084681519665934</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2484,6 +2643,9 @@
       <c r="L54" t="n">
         <v>-0.1513198566135337</v>
       </c>
+      <c r="M54" t="n">
+        <v>-0.1494357772032435</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2522,6 +2684,9 @@
       <c r="L55" t="n">
         <v>-0.9769999724280052</v>
       </c>
+      <c r="M55" t="n">
+        <v>-0.9757393590940806</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2560,6 +2725,9 @@
       <c r="L56" t="n">
         <v>-0.8518800247373897</v>
       </c>
+      <c r="M56" t="n">
+        <v>-0.8514506555263622</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2598,6 +2766,9 @@
       <c r="L57" t="n">
         <v>-0.9018712997294428</v>
       </c>
+      <c r="M57" t="n">
+        <v>-0.9028727611975157</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2636,6 +2807,9 @@
       <c r="L58" t="n">
         <v>-1.053267429828067</v>
       </c>
+      <c r="M58" t="n">
+        <v>-1.052755627789712</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2674,6 +2848,9 @@
       <c r="L59" t="n">
         <v>-0.7677841706661738</v>
       </c>
+      <c r="M59" t="n">
+        <v>-0.7646485143836026</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2712,6 +2889,9 @@
       <c r="L60" t="n">
         <v>-0.4158616256084487</v>
       </c>
+      <c r="M60" t="n">
+        <v>-0.4139678880980429</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2750,6 +2930,9 @@
       <c r="L61" t="n">
         <v>0.3889283844952097</v>
       </c>
+      <c r="M61" t="n">
+        <v>0.3896104655817951</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2788,6 +2971,9 @@
       <c r="L62" t="n">
         <v>-1.151987465082178</v>
       </c>
+      <c r="M62" t="n">
+        <v>-1.152652662309382</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2826,6 +3012,9 @@
       <c r="L63" t="n">
         <v>-0.5786599576347748</v>
       </c>
+      <c r="M63" t="n">
+        <v>-0.5713190219704157</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2864,6 +3053,9 @@
       <c r="L64" t="n">
         <v>-0.8425014077507254</v>
       </c>
+      <c r="M64" t="n">
+        <v>-0.8393025549754465</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2902,6 +3094,9 @@
       <c r="L65" t="n">
         <v>-0.03005193785019866</v>
       </c>
+      <c r="M65" t="n">
+        <v>-0.02807124643662949</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2940,6 +3135,9 @@
       <c r="L66" t="n">
         <v>-0.7337466194695871</v>
       </c>
+      <c r="M66" t="n">
+        <v>-0.7351262356423325</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2977,6 +3175,9 @@
       </c>
       <c r="L67" t="n">
         <v>-0.6945762068047114</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6973078967553817</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-0.2270292512551425</v>
       </c>
+      <c r="N2" t="n">
+        <v>-0.2243584041336934</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>0.2362425712773783</v>
       </c>
+      <c r="N3" t="n">
+        <v>0.2369554889683843</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.2202955011424944</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.2234211552323855</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>-0.04307564499683669</v>
       </c>
+      <c r="N5" t="n">
+        <v>-0.04298377447683464</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>0.1940939904894997</v>
       </c>
+      <c r="N6" t="n">
+        <v>0.1946331298339997</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.3798359300683848</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.3770511739147099</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +781,9 @@
       <c r="M8" t="n">
         <v>-0.1527097692638821</v>
       </c>
+      <c r="N8" t="n">
+        <v>-0.1478949959926545</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -801,6 +825,9 @@
       <c r="M9" t="n">
         <v>-0.3358979363083976</v>
       </c>
+      <c r="N9" t="n">
+        <v>-0.3320464247910097</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -842,6 +869,9 @@
       <c r="M10" t="n">
         <v>0.4061836770059159</v>
       </c>
+      <c r="N10" t="n">
+        <v>0.4064702452676561</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -883,6 +913,9 @@
       <c r="M11" t="n">
         <v>-0.1789342185421686</v>
       </c>
+      <c r="N11" t="n">
+        <v>-0.1770145446932876</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -924,6 +957,9 @@
       <c r="M12" t="n">
         <v>-0.04902524404455334</v>
       </c>
+      <c r="N12" t="n">
+        <v>-0.05090860768072211</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -965,6 +1001,9 @@
       <c r="M13" t="n">
         <v>-0.01967882578894778</v>
       </c>
+      <c r="N13" t="n">
+        <v>-0.02070453970857096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1006,6 +1045,9 @@
       <c r="M14" t="n">
         <v>0.09447168145191222</v>
       </c>
+      <c r="N14" t="n">
+        <v>0.09037896241630733</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1047,6 +1089,9 @@
       <c r="M15" t="n">
         <v>-0.009854665914795724</v>
       </c>
+      <c r="N15" t="n">
+        <v>-0.01760524127277253</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1088,6 +1133,9 @@
       <c r="M16" t="n">
         <v>0.3858834693035601</v>
       </c>
+      <c r="N16" t="n">
+        <v>0.3780072821239102</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1129,6 +1177,9 @@
       <c r="M17" t="n">
         <v>0.5254466169182583</v>
       </c>
+      <c r="N17" t="n">
+        <v>0.514188899198063</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1170,6 +1221,9 @@
       <c r="M18" t="n">
         <v>-0.09926973107899797</v>
       </c>
+      <c r="N18" t="n">
+        <v>-0.1060483623198125</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1211,6 +1265,9 @@
       <c r="M19" t="n">
         <v>0.3676739280309289</v>
       </c>
+      <c r="N19" t="n">
+        <v>0.3623457295781379</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1252,6 +1309,9 @@
       <c r="M20" t="n">
         <v>0.3024650663455499</v>
       </c>
+      <c r="N20" t="n">
+        <v>0.2928754200962407</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1293,6 +1353,9 @@
       <c r="M21" t="n">
         <v>0.5748888902555651</v>
       </c>
+      <c r="N21" t="n">
+        <v>0.5677434582742984</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1334,6 +1397,9 @@
       <c r="M22" t="n">
         <v>0.3377943018978761</v>
       </c>
+      <c r="N22" t="n">
+        <v>0.3286154356002564</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1375,6 +1441,9 @@
       <c r="M23" t="n">
         <v>-0.08191285312221083</v>
       </c>
+      <c r="N23" t="n">
+        <v>-0.08950269778556492</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1416,6 +1485,9 @@
       <c r="M24" t="n">
         <v>2.79363355884222</v>
       </c>
+      <c r="N24" t="n">
+        <v>2.64305357796148</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1457,6 +1529,9 @@
       <c r="M25" t="n">
         <v>0.3226801561185355</v>
       </c>
+      <c r="N25" t="n">
+        <v>0.3188931299246354</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1498,6 +1573,9 @@
       <c r="M26" t="n">
         <v>0.2235756548370716</v>
       </c>
+      <c r="N26" t="n">
+        <v>0.2149342846988084</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1539,6 +1617,9 @@
       <c r="M27" t="n">
         <v>0.09374967561206318</v>
       </c>
+      <c r="N27" t="n">
+        <v>0.08600154423247885</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1580,6 +1661,9 @@
       <c r="M28" t="n">
         <v>0.8313659609880564</v>
       </c>
+      <c r="N28" t="n">
+        <v>0.8259475105878828</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1621,6 +1705,9 @@
       <c r="M29" t="n">
         <v>2.456359678328423</v>
       </c>
+      <c r="N29" t="n">
+        <v>2.325997014428371</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1662,6 +1749,9 @@
       <c r="M30" t="n">
         <v>0.7098882867855093</v>
       </c>
+      <c r="N30" t="n">
+        <v>0.7014623360267611</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1703,6 +1793,9 @@
       <c r="M31" t="n">
         <v>-0.4186596090223308</v>
       </c>
+      <c r="N31" t="n">
+        <v>-0.4206492439484452</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1744,6 +1837,9 @@
       <c r="M32" t="n">
         <v>0.592053460655677</v>
       </c>
+      <c r="N32" t="n">
+        <v>0.5860900955202039</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1785,6 +1881,9 @@
       <c r="M33" t="n">
         <v>0.77624521731268</v>
       </c>
+      <c r="N33" t="n">
+        <v>0.7729670558509599</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1826,6 +1925,9 @@
       <c r="M34" t="n">
         <v>-0.7898045003626559</v>
       </c>
+      <c r="N34" t="n">
+        <v>-0.7925440955628127</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1867,6 +1969,9 @@
       <c r="M35" t="n">
         <v>0.8082795598406226</v>
       </c>
+      <c r="N35" t="n">
+        <v>0.809135109307782</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1908,6 +2013,9 @@
       <c r="M36" t="n">
         <v>0.7618658470774756</v>
       </c>
+      <c r="N36" t="n">
+        <v>0.7642887161692796</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1949,6 +2057,9 @@
       <c r="M37" t="n">
         <v>0.7273624321338982</v>
       </c>
+      <c r="N37" t="n">
+        <v>0.7296540985822156</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1990,6 +2101,9 @@
       <c r="M38" t="n">
         <v>0.6547390315578402</v>
       </c>
+      <c r="N38" t="n">
+        <v>0.6538156784780084</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2031,6 +2145,9 @@
       <c r="M39" t="n">
         <v>0.6042988975073308</v>
       </c>
+      <c r="N39" t="n">
+        <v>0.6061866111774012</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2072,6 +2189,9 @@
       <c r="M40" t="n">
         <v>0.7722777400776855</v>
       </c>
+      <c r="N40" t="n">
+        <v>0.7735701826485127</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2113,6 +2233,9 @@
       <c r="M41" t="n">
         <v>0.5568373274602341</v>
       </c>
+      <c r="N41" t="n">
+        <v>0.5586372526390433</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2154,6 +2277,9 @@
       <c r="M42" t="n">
         <v>0.6358202400290426</v>
       </c>
+      <c r="N42" t="n">
+        <v>0.6365649954868012</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2195,6 +2321,9 @@
       <c r="M43" t="n">
         <v>0.6765589946259132</v>
       </c>
+      <c r="N43" t="n">
+        <v>0.676902993691648</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2236,6 +2365,9 @@
       <c r="M44" t="n">
         <v>0.6901055637086864</v>
       </c>
+      <c r="N44" t="n">
+        <v>0.6924822087732527</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2277,6 +2409,9 @@
       <c r="M45" t="n">
         <v>0.6883087590196989</v>
       </c>
+      <c r="N45" t="n">
+        <v>0.6932007526151224</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2318,6 +2453,9 @@
       <c r="M46" t="n">
         <v>-1.236012950620581</v>
       </c>
+      <c r="N46" t="n">
+        <v>-1.235196496700187</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2359,6 +2497,9 @@
       <c r="M47" t="n">
         <v>-0.9589897751964294</v>
       </c>
+      <c r="N47" t="n">
+        <v>-0.9582425857000295</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2400,6 +2541,9 @@
       <c r="M48" t="n">
         <v>-0.8327729573813195</v>
       </c>
+      <c r="N48" t="n">
+        <v>-0.8303673385481907</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2441,6 +2585,9 @@
       <c r="M49" t="n">
         <v>-0.6045551951608437</v>
       </c>
+      <c r="N49" t="n">
+        <v>-0.6026574695544459</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2482,6 +2629,9 @@
       <c r="M50" t="n">
         <v>-0.03784147107928008</v>
       </c>
+      <c r="N50" t="n">
+        <v>-0.03780366879592489</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2523,6 +2673,9 @@
       <c r="M51" t="n">
         <v>-0.8188439213515802</v>
       </c>
+      <c r="N51" t="n">
+        <v>-0.8161596342815827</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2564,6 +2717,9 @@
       <c r="M52" t="n">
         <v>-0.8188439213515802</v>
       </c>
+      <c r="N52" t="n">
+        <v>-0.8161596342815827</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2605,6 +2761,9 @@
       <c r="M53" t="n">
         <v>-1.084681519665934</v>
       </c>
+      <c r="N53" t="n">
+        <v>-1.083004785421794</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2646,6 +2805,9 @@
       <c r="M54" t="n">
         <v>-0.1494357772032435</v>
       </c>
+      <c r="N54" t="n">
+        <v>-0.1480733012159678</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2687,6 +2849,9 @@
       <c r="M55" t="n">
         <v>-0.9757393590940806</v>
       </c>
+      <c r="N55" t="n">
+        <v>-0.9750982543359468</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2728,6 +2893,9 @@
       <c r="M56" t="n">
         <v>-0.8514506555263622</v>
       </c>
+      <c r="N56" t="n">
+        <v>-0.8516527008932683</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2769,6 +2937,9 @@
       <c r="M57" t="n">
         <v>-0.9028727611975157</v>
       </c>
+      <c r="N57" t="n">
+        <v>-0.9044094508112203</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2810,6 +2981,9 @@
       <c r="M58" t="n">
         <v>-1.052755627789712</v>
       </c>
+      <c r="N58" t="n">
+        <v>-1.053092270365962</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2851,6 +3025,9 @@
       <c r="M59" t="n">
         <v>-0.7646485143836026</v>
       </c>
+      <c r="N59" t="n">
+        <v>-0.7624248102560487</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2892,6 +3069,9 @@
       <c r="M60" t="n">
         <v>-0.4139678880980429</v>
       </c>
+      <c r="N60" t="n">
+        <v>-0.4128394029552125</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2933,6 +3113,9 @@
       <c r="M61" t="n">
         <v>0.3896104655817951</v>
       </c>
+      <c r="N61" t="n">
+        <v>0.3900983826121598</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2974,6 +3157,9 @@
       <c r="M62" t="n">
         <v>-1.152652662309382</v>
       </c>
+      <c r="N62" t="n">
+        <v>-1.154091897369645</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3015,6 +3201,9 @@
       <c r="M63" t="n">
         <v>-0.5713190219704157</v>
       </c>
+      <c r="N63" t="n">
+        <v>-0.5653583504005966</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3056,6 +3245,9 @@
       <c r="M64" t="n">
         <v>-0.8393025549754465</v>
       </c>
+      <c r="N64" t="n">
+        <v>-0.8368378793474149</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3097,6 +3289,9 @@
       <c r="M65" t="n">
         <v>-0.02807124643662949</v>
       </c>
+      <c r="N65" t="n">
+        <v>-0.02682643579459357</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3138,6 +3333,9 @@
       <c r="M66" t="n">
         <v>-0.7351262356423325</v>
       </c>
+      <c r="N66" t="n">
+        <v>-0.7371747781641946</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3178,6 +3376,9 @@
       </c>
       <c r="M67" t="n">
         <v>-0.6973078967553817</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.7008207517342008</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-0.2243584041336934</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.2223177065780145</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2208349667846984</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>0.2369554889683843</v>
       </c>
+      <c r="O3" t="n">
+        <v>0.2375351962286026</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2379846538284714</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.2234211552323855</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.2260171786819176</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2281294748961772</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>-0.04298377447683464</v>
       </c>
+      <c r="O5" t="n">
+        <v>-0.04316101893056959</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.04356786170631457</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>0.1946331298339997</v>
       </c>
+      <c r="O6" t="n">
+        <v>0.194913862800399</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1949823890319755</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.3770511739147099</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.3748707848744286</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3732416199668248</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +826,12 @@
       <c r="N8" t="n">
         <v>-0.1478949959926545</v>
       </c>
+      <c r="O8" t="n">
+        <v>-0.1438264973696326</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.140434087662533</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,6 +876,12 @@
       <c r="N9" t="n">
         <v>-0.3320464247910097</v>
       </c>
+      <c r="O9" t="n">
+        <v>-0.3286813307253982</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3257935160846002</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -872,6 +926,12 @@
       <c r="N10" t="n">
         <v>0.4064702452676561</v>
       </c>
+      <c r="O10" t="n">
+        <v>0.4064714900680202</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4062414305362388</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -916,6 +976,12 @@
       <c r="N11" t="n">
         <v>-0.1770145446932876</v>
       </c>
+      <c r="O11" t="n">
+        <v>-0.1756242875344897</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1747059149733661</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -960,6 +1026,12 @@
       <c r="N12" t="n">
         <v>-0.05090860768072211</v>
       </c>
+      <c r="O12" t="n">
+        <v>-0.05302997331425419</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.05532338056412966</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1004,6 +1076,12 @@
       <c r="N13" t="n">
         <v>-0.02070453970857096</v>
       </c>
+      <c r="O13" t="n">
+        <v>-0.02177798145155087</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02289633234179956</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1048,6 +1126,12 @@
       <c r="N14" t="n">
         <v>0.09037896241630733</v>
       </c>
+      <c r="O14" t="n">
+        <v>0.08625681857296183</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.08217584247616561</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1092,6 +1176,12 @@
       <c r="N15" t="n">
         <v>-0.01760524127277253</v>
       </c>
+      <c r="O15" t="n">
+        <v>-0.02514523864141563</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.0324035567947244</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1136,6 +1226,12 @@
       <c r="N16" t="n">
         <v>0.3780072821239102</v>
       </c>
+      <c r="O16" t="n">
+        <v>0.3703242427303057</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.3629288121562859</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1180,6 +1276,12 @@
       <c r="N17" t="n">
         <v>0.514188899198063</v>
       </c>
+      <c r="O17" t="n">
+        <v>0.5037311951121004</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4940887417911207</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1224,6 +1326,12 @@
       <c r="N18" t="n">
         <v>-0.1060483623198125</v>
       </c>
+      <c r="O18" t="n">
+        <v>-0.111955041094718</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.1171076175627849</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1268,6 +1376,12 @@
       <c r="N19" t="n">
         <v>0.3623457295781379</v>
       </c>
+      <c r="O19" t="n">
+        <v>0.3572413774582678</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3523782313346648</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1312,6 +1426,12 @@
       <c r="N20" t="n">
         <v>0.2928754200962407</v>
       </c>
+      <c r="O20" t="n">
+        <v>0.2836098781032829</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2747569997747542</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1356,6 +1476,12 @@
       <c r="N21" t="n">
         <v>0.5677434582742984</v>
       </c>
+      <c r="O21" t="n">
+        <v>0.5605296518428371</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5534069929304815</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1400,6 +1526,12 @@
       <c r="N22" t="n">
         <v>0.3286154356002564</v>
       </c>
+      <c r="O22" t="n">
+        <v>0.3199844789287077</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3119386640458501</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1444,6 +1576,12 @@
       <c r="N23" t="n">
         <v>-0.08950269778556492</v>
       </c>
+      <c r="O23" t="n">
+        <v>-0.09680389022117211</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1037573427783416</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1488,6 +1626,12 @@
       <c r="N24" t="n">
         <v>2.64305357796148</v>
       </c>
+      <c r="O24" t="n">
+        <v>2.503146946857157</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.374341945780941</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1532,6 +1676,12 @@
       <c r="N25" t="n">
         <v>0.3188931299246354</v>
       </c>
+      <c r="O25" t="n">
+        <v>0.316029885414329</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3139337246386419</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1576,6 +1726,12 @@
       <c r="N26" t="n">
         <v>0.2149342846988084</v>
       </c>
+      <c r="O26" t="n">
+        <v>0.2072208951722884</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.2003653559908369</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1620,6 +1776,12 @@
       <c r="N27" t="n">
         <v>0.08600154423247885</v>
       </c>
+      <c r="O27" t="n">
+        <v>0.07931807958825421</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.0735870473083719</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1664,6 +1826,12 @@
       <c r="N28" t="n">
         <v>0.8259475105878828</v>
       </c>
+      <c r="O28" t="n">
+        <v>0.821651183838776</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8183325641997663</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1708,6 +1876,12 @@
       <c r="N29" t="n">
         <v>2.325997014428371</v>
       </c>
+      <c r="O29" t="n">
+        <v>2.213922387034509</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.118134169082537</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1752,6 +1926,12 @@
       <c r="N30" t="n">
         <v>0.7014623360267611</v>
       </c>
+      <c r="O30" t="n">
+        <v>0.6944958502377289</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6887890958043077</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1796,6 +1976,12 @@
       <c r="N31" t="n">
         <v>-0.4206492439484452</v>
       </c>
+      <c r="O31" t="n">
+        <v>-0.4218532290351512</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4224587858804125</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1840,6 +2026,12 @@
       <c r="N32" t="n">
         <v>0.5860900955202039</v>
       </c>
+      <c r="O32" t="n">
+        <v>0.5811359413009466</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5770526675796561</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1884,6 +2076,12 @@
       <c r="N33" t="n">
         <v>0.7729670558509599</v>
       </c>
+      <c r="O33" t="n">
+        <v>0.7703975105409337</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7684239484752134</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1928,6 +2126,12 @@
       <c r="N34" t="n">
         <v>-0.7925440955628127</v>
       </c>
+      <c r="O34" t="n">
+        <v>-0.794868231502162</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.7968638755882068</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1972,6 +2176,12 @@
       <c r="N35" t="n">
         <v>0.809135109307782</v>
       </c>
+      <c r="O35" t="n">
+        <v>0.8099744482102668</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.810795360924124</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2016,6 +2226,12 @@
       <c r="N36" t="n">
         <v>0.7642887161692796</v>
       </c>
+      <c r="O36" t="n">
+        <v>0.7666416579422214</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7689013399858302</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2060,6 +2276,12 @@
       <c r="N37" t="n">
         <v>0.7296540985822156</v>
       </c>
+      <c r="O37" t="n">
+        <v>0.731914393734743</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7341129995180055</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2104,6 +2326,12 @@
       <c r="N38" t="n">
         <v>0.6538156784780084</v>
       </c>
+      <c r="O38" t="n">
+        <v>0.6532251442004886</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6529032367204255</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2148,6 +2376,12 @@
       <c r="N39" t="n">
         <v>0.6061866111774012</v>
       </c>
+      <c r="O39" t="n">
+        <v>0.6078398429931524</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.609278849043142</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2192,6 +2426,12 @@
       <c r="N40" t="n">
         <v>0.7735701826485127</v>
       </c>
+      <c r="O40" t="n">
+        <v>0.7746928014663623</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7756748598578272</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2236,6 +2476,12 @@
       <c r="N41" t="n">
         <v>0.5586372526390433</v>
       </c>
+      <c r="O41" t="n">
+        <v>0.5604058759457682</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5621187350297192</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2280,6 +2526,12 @@
       <c r="N42" t="n">
         <v>0.6365649954868012</v>
       </c>
+      <c r="O42" t="n">
+        <v>0.6374842897592634</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.638518098205563</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2324,6 +2576,12 @@
       <c r="N43" t="n">
         <v>0.676902993691648</v>
       </c>
+      <c r="O43" t="n">
+        <v>0.6773935323672896</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6779883765976827</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2368,6 +2626,12 @@
       <c r="N44" t="n">
         <v>0.6924822087732527</v>
       </c>
+      <c r="O44" t="n">
+        <v>0.6946927537993101</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6967351167497198</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2412,6 +2676,12 @@
       <c r="N45" t="n">
         <v>0.6932007526151224</v>
       </c>
+      <c r="O45" t="n">
+        <v>0.6977143625818072</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.7018493154729543</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2456,6 +2726,12 @@
       <c r="N46" t="n">
         <v>-1.235196496700187</v>
       </c>
+      <c r="O46" t="n">
+        <v>-1.235039754981151</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.235488061208797</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2500,6 +2776,12 @@
       <c r="N47" t="n">
         <v>-0.9582425857000295</v>
       </c>
+      <c r="O47" t="n">
+        <v>-0.9580365188461252</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-0.9583295274417054</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2544,6 +2826,12 @@
       <c r="N48" t="n">
         <v>-0.8303673385481907</v>
       </c>
+      <c r="O48" t="n">
+        <v>-0.8286462557775713</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8275672707147442</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2588,6 +2876,12 @@
       <c r="N49" t="n">
         <v>-0.6026574695544459</v>
       </c>
+      <c r="O49" t="n">
+        <v>-0.6013438327822442</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6005724942852744</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2632,6 +2926,12 @@
       <c r="N50" t="n">
         <v>-0.03780366879592489</v>
       </c>
+      <c r="O50" t="n">
+        <v>-0.03803848692888032</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.03851800278800818</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2676,6 +2976,12 @@
       <c r="N51" t="n">
         <v>-0.8161596342815827</v>
       </c>
+      <c r="O51" t="n">
+        <v>-0.814162298228931</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8128034318043048</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2720,6 +3026,12 @@
       <c r="N52" t="n">
         <v>-0.8161596342815827</v>
       </c>
+      <c r="O52" t="n">
+        <v>-0.814162298228931</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8128034318043048</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2764,6 +3076,12 @@
       <c r="N53" t="n">
         <v>-1.083004785421794</v>
       </c>
+      <c r="O53" t="n">
+        <v>-1.081922677648855</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.081418725237735</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2808,6 +3126,12 @@
       <c r="N54" t="n">
         <v>-0.1480733012159678</v>
       </c>
+      <c r="O54" t="n">
+        <v>-0.1471888059183806</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1467365675696949</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2852,6 +3176,12 @@
       <c r="N55" t="n">
         <v>-0.9750982543359468</v>
       </c>
+      <c r="O55" t="n">
+        <v>-0.9750342860138852</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-0.9754987227464911</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2896,6 +3226,12 @@
       <c r="N56" t="n">
         <v>-0.8516527008932683</v>
       </c>
+      <c r="O56" t="n">
+        <v>-0.8524039369883915</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8536268952318539</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2940,6 +3276,12 @@
       <c r="N57" t="n">
         <v>-0.9044094508112203</v>
       </c>
+      <c r="O57" t="n">
+        <v>-0.9064072725796619</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9087961837413618</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2984,6 +3326,12 @@
       <c r="N58" t="n">
         <v>-1.053092270365962</v>
       </c>
+      <c r="O58" t="n">
+        <v>-1.054145063135318</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.055794784747956</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3028,6 +3376,12 @@
       <c r="N59" t="n">
         <v>-0.7624248102560487</v>
       </c>
+      <c r="O59" t="n">
+        <v>-0.7610149143850736</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7603236353503936</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3072,6 +3426,12 @@
       <c r="N60" t="n">
         <v>-0.4128394029552125</v>
       </c>
+      <c r="O60" t="n">
+        <v>-0.4123648239502389</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4124435238430491</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3116,6 +3476,12 @@
       <c r="N61" t="n">
         <v>0.3900983826121598</v>
       </c>
+      <c r="O61" t="n">
+        <v>0.390411563177137</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3905692590068945</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3160,6 +3526,12 @@
       <c r="N62" t="n">
         <v>-1.154091897369645</v>
       </c>
+      <c r="O62" t="n">
+        <v>-1.156189986759502</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.15884085964446</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3204,6 +3576,12 @@
       <c r="N63" t="n">
         <v>-0.5653583504005966</v>
       </c>
+      <c r="O63" t="n">
+        <v>-0.5606197347114803</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5569549653823174</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3248,6 +3626,12 @@
       <c r="N64" t="n">
         <v>-0.8368378793474149</v>
       </c>
+      <c r="O64" t="n">
+        <v>-0.8350710662647094</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8339556325570525</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3292,6 +3676,12 @@
       <c r="N65" t="n">
         <v>-0.02682643579459357</v>
       </c>
+      <c r="O65" t="n">
+        <v>-0.02620372393526893</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02610186147524414</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3336,6 +3726,12 @@
       <c r="N66" t="n">
         <v>-0.7371747781641946</v>
       </c>
+      <c r="O66" t="n">
+        <v>-0.7397555265098047</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7427503439929491</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3379,6 +3775,12 @@
       </c>
       <c r="N67" t="n">
         <v>-0.7008207517342008</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7049175008610312</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7094331090757803</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.2208349667846984</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.219841915980401</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>0.2379846538284714</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0.2383096636299544</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>0.2281294748961772</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0.2298043713832232</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>-0.04356786170631457</v>
       </c>
+      <c r="Q5" t="n">
+        <v>-0.0441681259553601</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>0.1949823890319755</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0.1948787045966301</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.3732416199668248</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.3721095316339872</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -832,6 +853,9 @@
       <c r="P8" t="n">
         <v>-0.140434087662533</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.1376490982229567</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -882,6 +906,9 @@
       <c r="P9" t="n">
         <v>-0.3257935160846002</v>
       </c>
+      <c r="Q9" t="n">
+        <v>-0.323364188363383</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -932,6 +959,9 @@
       <c r="P10" t="n">
         <v>0.4062414305362388</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0.4058266091521096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -982,6 +1012,9 @@
       <c r="P11" t="n">
         <v>-0.1747059149733661</v>
       </c>
+      <c r="Q11" t="n">
+        <v>-0.1742039064800519</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1032,6 +1065,9 @@
       <c r="P12" t="n">
         <v>-0.05532338056412966</v>
       </c>
+      <c r="Q12" t="n">
+        <v>-0.05773351035484296</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1082,6 +1118,9 @@
       <c r="P13" t="n">
         <v>-0.02289633234179956</v>
       </c>
+      <c r="Q13" t="n">
+        <v>-0.02405504754352617</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1132,6 +1171,9 @@
       <c r="P14" t="n">
         <v>0.08217584247616561</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0.07818974152577221</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1182,6 +1224,9 @@
       <c r="P15" t="n">
         <v>-0.0324035567947244</v>
       </c>
+      <c r="Q15" t="n">
+        <v>-0.03933058136055106</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1232,6 +1277,9 @@
       <c r="P16" t="n">
         <v>0.3629288121562859</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0.3558874361513656</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1282,6 +1330,9 @@
       <c r="P17" t="n">
         <v>0.4940887417911207</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0.4852563367220304</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1332,6 +1383,9 @@
       <c r="P18" t="n">
         <v>-0.1171076175627849</v>
       </c>
+      <c r="Q18" t="n">
+        <v>-0.121609935981847</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1382,6 +1436,9 @@
       <c r="P19" t="n">
         <v>0.3523782313346648</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0.3477660089202025</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1432,6 +1489,9 @@
       <c r="P20" t="n">
         <v>0.2747569997747542</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0.2663764565562429</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1482,6 +1542,9 @@
       <c r="P21" t="n">
         <v>0.5534069929304815</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0.5464948563104604</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1532,6 +1595,9 @@
       <c r="P22" t="n">
         <v>0.3119386640458501</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0.3044943577226804</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1582,6 +1648,9 @@
       <c r="P23" t="n">
         <v>-0.1037573427783416</v>
       </c>
+      <c r="Q23" t="n">
+        <v>-0.1103245000771984</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1632,6 +1701,9 @@
       <c r="P24" t="n">
         <v>2.374341945780941</v>
       </c>
+      <c r="Q24" t="n">
+        <v>2.256724761079284</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1682,6 +1754,9 @@
       <c r="P25" t="n">
         <v>0.3139337246386419</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0.3124693422697317</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1732,6 +1807,9 @@
       <c r="P26" t="n">
         <v>0.2003653559908369</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0.1942967125129383</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1782,6 +1860,9 @@
       <c r="P27" t="n">
         <v>0.0735870473083719</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0.0687029919575714</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1832,6 +1913,9 @@
       <c r="P28" t="n">
         <v>0.8183325641997663</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0.8158597972632803</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1882,6 +1966,9 @@
       <c r="P29" t="n">
         <v>2.118134169082537</v>
       </c>
+      <c r="Q29" t="n">
+        <v>2.036767299078655</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1932,6 +2019,9 @@
       <c r="P30" t="n">
         <v>0.6887890958043077</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0.6841637083125777</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1982,6 +2072,9 @@
       <c r="P31" t="n">
         <v>-0.4224587858804125</v>
       </c>
+      <c r="Q31" t="n">
+        <v>-0.4226194352290177</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2032,6 +2125,9 @@
       <c r="P32" t="n">
         <v>0.5770526675796561</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0.5737169225597234</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2082,6 +2178,9 @@
       <c r="P33" t="n">
         <v>0.7684239484752134</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0.7669481746783227</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2132,6 +2231,9 @@
       <c r="P34" t="n">
         <v>-0.7968638755882068</v>
       </c>
+      <c r="Q34" t="n">
+        <v>-0.7986022584593138</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2182,6 +2284,9 @@
       <c r="P35" t="n">
         <v>0.810795360924124</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0.8115960341705608</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2232,6 +2337,9 @@
       <c r="P36" t="n">
         <v>0.7689013399858302</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0.7710516372088111</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2282,6 +2390,9 @@
       <c r="P37" t="n">
         <v>0.7341129995180055</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0.7362278090467635</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2332,6 +2443,9 @@
       <c r="P38" t="n">
         <v>0.6529032367204255</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0.6527954436695979</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2382,6 +2496,9 @@
       <c r="P39" t="n">
         <v>0.609278849043142</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0.6105236076788122</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2432,6 +2549,9 @@
       <c r="P40" t="n">
         <v>0.7756748598578272</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0.7765409754489598</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2482,6 +2602,9 @@
       <c r="P41" t="n">
         <v>0.5621187350297192</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0.5637582406027281</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2532,6 +2655,9 @@
       <c r="P42" t="n">
         <v>0.638518098205563</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0.6396184427251799</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2582,6 +2708,9 @@
       <c r="P43" t="n">
         <v>0.6779883765976827</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0.6786531543704056</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2632,6 +2761,9 @@
       <c r="P44" t="n">
         <v>0.6967351167497198</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0.6986110968279237</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2682,6 +2814,9 @@
       <c r="P45" t="n">
         <v>0.7018493154729543</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0.7056132931894037</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2732,6 +2867,9 @@
       <c r="P46" t="n">
         <v>-1.235488061208797</v>
       </c>
+      <c r="Q46" t="n">
+        <v>-1.236482452072099</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2782,6 +2920,9 @@
       <c r="P47" t="n">
         <v>-0.9583295274417054</v>
       </c>
+      <c r="Q47" t="n">
+        <v>-0.9590752483416003</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2832,6 +2973,9 @@
       <c r="P48" t="n">
         <v>-0.8275672707147442</v>
       </c>
+      <c r="Q48" t="n">
+        <v>-0.8270805775397423</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2882,6 +3026,9 @@
       <c r="P49" t="n">
         <v>-0.6005724942852744</v>
       </c>
+      <c r="Q49" t="n">
+        <v>-0.600296953117497</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2932,6 +3079,9 @@
       <c r="P50" t="n">
         <v>-0.03851800278800818</v>
       </c>
+      <c r="Q50" t="n">
+        <v>-0.03921386996900716</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2982,6 +3132,9 @@
       <c r="P51" t="n">
         <v>-0.8128034318043048</v>
       </c>
+      <c r="Q51" t="n">
+        <v>-0.8120292508430189</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3032,6 +3185,9 @@
       <c r="P52" t="n">
         <v>-0.8128034318043048</v>
       </c>
+      <c r="Q52" t="n">
+        <v>-0.8120292508430189</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3082,6 +3238,9 @@
       <c r="P53" t="n">
         <v>-1.081418725237735</v>
       </c>
+      <c r="Q53" t="n">
+        <v>-1.081463337961329</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3132,6 +3291,9 @@
       <c r="P54" t="n">
         <v>-0.1467365675696949</v>
       </c>
+      <c r="Q54" t="n">
+        <v>-0.1466703881075257</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3182,6 +3344,9 @@
       <c r="P55" t="n">
         <v>-0.9754987227464911</v>
       </c>
+      <c r="Q55" t="n">
+        <v>-0.9764392809796132</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3232,6 +3397,9 @@
       <c r="P56" t="n">
         <v>-0.8536268952318539</v>
       </c>
+      <c r="Q56" t="n">
+        <v>-0.855249567756045</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3282,6 +3450,9 @@
       <c r="P57" t="n">
         <v>-0.9087961837413618</v>
       </c>
+      <c r="Q57" t="n">
+        <v>-0.9115109391045505</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3332,6 +3503,9 @@
       <c r="P58" t="n">
         <v>-1.055794784747956</v>
       </c>
+      <c r="Q58" t="n">
+        <v>-1.057934903170823</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3382,6 +3556,9 @@
       <c r="P59" t="n">
         <v>-0.7603236353503936</v>
       </c>
+      <c r="Q59" t="n">
+        <v>-0.760260261788698</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3432,6 +3609,9 @@
       <c r="P60" t="n">
         <v>-0.4124435238430491</v>
       </c>
+      <c r="Q60" t="n">
+        <v>-0.4129853090016234</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3482,6 +3662,9 @@
       <c r="P61" t="n">
         <v>0.3905692590068945</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0.3905901253002447</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3532,6 +3715,9 @@
       <c r="P62" t="n">
         <v>-1.15884085964446</v>
       </c>
+      <c r="Q62" t="n">
+        <v>-1.161947896599203</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3582,6 +3768,9 @@
       <c r="P63" t="n">
         <v>-0.5569549653823174</v>
       </c>
+      <c r="Q63" t="n">
+        <v>-0.5542267509837254</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3632,6 +3821,9 @@
       <c r="P64" t="n">
         <v>-0.8339556325570525</v>
       </c>
+      <c r="Q64" t="n">
+        <v>-0.8334385936611355</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3682,6 +3874,9 @@
       <c r="P65" t="n">
         <v>-0.02610186147524414</v>
       </c>
+      <c r="Q65" t="n">
+        <v>-0.02643139740020393</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3732,6 +3927,9 @@
       <c r="P66" t="n">
         <v>-0.7427503439929491</v>
       </c>
+      <c r="Q66" t="n">
+        <v>-0.7460579164450524</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3781,6 +3979,9 @@
       </c>
       <c r="P67" t="n">
         <v>-0.7094331090757803</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.714230735479796</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.219841915980401</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.2192748228631336</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>0.2383096636299544</v>
       </c>
+      <c r="R3" t="n">
+        <v>0.23851801421027</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>0.2298043713832232</v>
       </c>
+      <c r="R4" t="n">
+        <v>0.2310874478036475</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>-0.0441681259553601</v>
       </c>
+      <c r="R5" t="n">
+        <v>-0.04492901766210659</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>0.1948787045966301</v>
       </c>
+      <c r="R6" t="n">
+        <v>0.194637210974454</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.3721095316339872</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.3714208902693206</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -856,6 +877,9 @@
       <c r="Q8" t="n">
         <v>-0.1376490982229567</v>
       </c>
+      <c r="R8" t="n">
+        <v>-0.1354055545448172</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -909,6 +933,9 @@
       <c r="Q9" t="n">
         <v>-0.323364188363383</v>
       </c>
+      <c r="R9" t="n">
+        <v>-0.3213677287586353</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -962,6 +989,9 @@
       <c r="Q10" t="n">
         <v>0.4058266091521096</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.4052668548978217</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1015,6 +1045,9 @@
       <c r="Q11" t="n">
         <v>-0.1742039064800519</v>
       </c>
+      <c r="R11" t="n">
+        <v>-0.1740655633961246</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1068,6 +1101,9 @@
       <c r="Q12" t="n">
         <v>-0.05773351035484296</v>
       </c>
+      <c r="R12" t="n">
+        <v>-0.06021439177055042</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1121,6 +1157,9 @@
       <c r="Q13" t="n">
         <v>-0.02405504754352617</v>
       </c>
+      <c r="R13" t="n">
+        <v>-0.02524844429242552</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1174,6 +1213,9 @@
       <c r="Q14" t="n">
         <v>0.07818974152577221</v>
       </c>
+      <c r="R14" t="n">
+        <v>0.07433820584632694</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1227,6 +1269,9 @@
       <c r="Q15" t="n">
         <v>-0.03933058136055106</v>
       </c>
+      <c r="R15" t="n">
+        <v>-0.04589414456382378</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1280,6 +1325,9 @@
       <c r="Q16" t="n">
         <v>0.3558874361513656</v>
       </c>
+      <c r="R16" t="n">
+        <v>0.3492438347574401</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1333,6 +1381,9 @@
       <c r="Q17" t="n">
         <v>0.4852563367220304</v>
       </c>
+      <c r="R17" t="n">
+        <v>0.4772133671111247</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1386,6 +1437,9 @@
       <c r="Q18" t="n">
         <v>-0.121609935981847</v>
       </c>
+      <c r="R18" t="n">
+        <v>-0.1255530446667811</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1439,6 +1493,9 @@
       <c r="Q19" t="n">
         <v>0.3477660089202025</v>
       </c>
+      <c r="R19" t="n">
+        <v>0.3434083393169987</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1492,6 +1549,9 @@
       <c r="Q20" t="n">
         <v>0.2663764565562429</v>
       </c>
+      <c r="R20" t="n">
+        <v>0.2585046628492594</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1545,6 +1605,9 @@
       <c r="Q21" t="n">
         <v>0.5464948563104604</v>
       </c>
+      <c r="R21" t="n">
+        <v>0.5398795735347499</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1598,6 +1661,9 @@
       <c r="Q22" t="n">
         <v>0.3044943577226804</v>
       </c>
+      <c r="R22" t="n">
+        <v>0.2976517263318879</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1651,6 +1717,9 @@
       <c r="Q23" t="n">
         <v>-0.1103245000771984</v>
       </c>
+      <c r="R23" t="n">
+        <v>-0.116483262111898</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1704,6 +1773,9 @@
       <c r="Q24" t="n">
         <v>2.256724761079284</v>
       </c>
+      <c r="R24" t="n">
+        <v>2.150120539249272</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1757,6 +1829,9 @@
       <c r="Q25" t="n">
         <v>0.3124693422697317</v>
       </c>
+      <c r="R25" t="n">
+        <v>0.3115205929799528</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1810,6 +1885,9 @@
       <c r="Q26" t="n">
         <v>0.1942967125129383</v>
       </c>
+      <c r="R26" t="n">
+        <v>0.1889449018228578</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1863,6 +1941,9 @@
       <c r="Q27" t="n">
         <v>0.0687029919575714</v>
       </c>
+      <c r="R27" t="n">
+        <v>0.06456789063955308</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1916,6 +1997,9 @@
       <c r="Q28" t="n">
         <v>0.8158597972632803</v>
       </c>
+      <c r="R28" t="n">
+        <v>0.8141134867508828</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1969,6 +2053,9 @@
       <c r="Q29" t="n">
         <v>2.036767299078655</v>
       </c>
+      <c r="R29" t="n">
+        <v>1.968100784763743</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2022,6 +2109,9 @@
       <c r="Q30" t="n">
         <v>0.6841637083125777</v>
       </c>
+      <c r="R30" t="n">
+        <v>0.6804613960971929</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2075,6 +2165,9 @@
       <c r="Q31" t="n">
         <v>-0.4226194352290177</v>
       </c>
+      <c r="R31" t="n">
+        <v>-0.4224598757323146</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2128,6 +2221,9 @@
       <c r="Q32" t="n">
         <v>0.5737169225597234</v>
       </c>
+      <c r="R32" t="n">
+        <v>0.5710193800454147</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2181,6 +2277,9 @@
       <c r="Q33" t="n">
         <v>0.7669481746783227</v>
       </c>
+      <c r="R33" t="n">
+        <v>0.7658850706539896</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2234,6 +2333,9 @@
       <c r="Q34" t="n">
         <v>-0.7986022584593138</v>
       </c>
+      <c r="R34" t="n">
+        <v>-0.8001412149613373</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2287,6 +2389,9 @@
       <c r="Q35" t="n">
         <v>0.8115960341705608</v>
       </c>
+      <c r="R35" t="n">
+        <v>0.8123750195561312</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2340,6 +2445,9 @@
       <c r="Q36" t="n">
         <v>0.7710516372088111</v>
       </c>
+      <c r="R36" t="n">
+        <v>0.7730822528740191</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2393,6 +2501,9 @@
       <c r="Q37" t="n">
         <v>0.7362278090467635</v>
       </c>
+      <c r="R37" t="n">
+        <v>0.738243435504739</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2446,6 +2557,9 @@
       <c r="Q38" t="n">
         <v>0.6527954436695979</v>
       </c>
+      <c r="R38" t="n">
+        <v>0.6528557754484975</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2499,6 +2613,9 @@
       <c r="Q39" t="n">
         <v>0.6105236076788122</v>
       </c>
+      <c r="R39" t="n">
+        <v>0.6115934454199518</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2552,6 +2669,9 @@
       <c r="Q40" t="n">
         <v>0.7765409754489598</v>
       </c>
+      <c r="R40" t="n">
+        <v>0.7773117323936529</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2605,6 +2725,9 @@
       <c r="Q41" t="n">
         <v>0.5637582406027281</v>
       </c>
+      <c r="R41" t="n">
+        <v>0.5653124021771906</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2658,6 +2781,9 @@
       <c r="Q42" t="n">
         <v>0.6396184427251799</v>
       </c>
+      <c r="R42" t="n">
+        <v>0.6407475152093788</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2711,6 +2837,9 @@
       <c r="Q43" t="n">
         <v>0.6786531543704056</v>
       </c>
+      <c r="R43" t="n">
+        <v>0.6793602012002568</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2764,6 +2893,9 @@
       <c r="Q44" t="n">
         <v>0.6986110968279237</v>
       </c>
+      <c r="R44" t="n">
+        <v>0.7003254009164593</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2817,6 +2949,9 @@
       <c r="Q45" t="n">
         <v>0.7056132931894037</v>
       </c>
+      <c r="R45" t="n">
+        <v>0.7090198435198495</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2870,6 +3005,9 @@
       <c r="Q46" t="n">
         <v>-1.236482452072099</v>
       </c>
+      <c r="R46" t="n">
+        <v>-1.237962208474328</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2923,6 +3061,9 @@
       <c r="Q47" t="n">
         <v>-0.9590752483416003</v>
       </c>
+      <c r="R47" t="n">
+        <v>-0.9602252393488636</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2976,6 +3117,9 @@
       <c r="Q48" t="n">
         <v>-0.8270805775397423</v>
       </c>
+      <c r="R48" t="n">
+        <v>-0.8271320594839418</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3029,6 +3173,9 @@
       <c r="Q49" t="n">
         <v>-0.600296953117497</v>
       </c>
+      <c r="R49" t="n">
+        <v>-0.6004683067742457</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3082,6 +3229,9 @@
       <c r="Q50" t="n">
         <v>-0.03921386996900716</v>
       </c>
+      <c r="R50" t="n">
+        <v>-0.0400981339343483</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3135,6 +3285,9 @@
       <c r="Q51" t="n">
         <v>-0.8120292508430189</v>
       </c>
+      <c r="R51" t="n">
+        <v>-0.8117832856120961</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3188,6 +3341,9 @@
       <c r="Q52" t="n">
         <v>-0.8120292508430189</v>
       </c>
+      <c r="R52" t="n">
+        <v>-0.8117832856120961</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3241,6 +3397,9 @@
       <c r="Q53" t="n">
         <v>-1.081463337961329</v>
       </c>
+      <c r="R53" t="n">
+        <v>-1.082017855584961</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3294,6 +3453,9 @@
       <c r="Q54" t="n">
         <v>-0.1466703881075257</v>
       </c>
+      <c r="R54" t="n">
+        <v>-0.1469448282365969</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3347,6 +3509,9 @@
       <c r="Q55" t="n">
         <v>-0.9764392809796132</v>
       </c>
+      <c r="R55" t="n">
+        <v>-0.9778023168084009</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3400,6 +3565,9 @@
       <c r="Q56" t="n">
         <v>-0.855249567756045</v>
       </c>
+      <c r="R56" t="n">
+        <v>-0.8572058042460852</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3453,6 +3621,9 @@
       <c r="Q57" t="n">
         <v>-0.9115109391045505</v>
       </c>
+      <c r="R57" t="n">
+        <v>-0.914491529872111</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3506,6 +3677,9 @@
       <c r="Q58" t="n">
         <v>-1.057934903170823</v>
       </c>
+      <c r="R58" t="n">
+        <v>-1.060470981415422</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3559,6 +3733,9 @@
       <c r="Q59" t="n">
         <v>-0.760260261788698</v>
       </c>
+      <c r="R59" t="n">
+        <v>-0.7607396044275109</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3612,6 +3789,9 @@
       <c r="Q60" t="n">
         <v>-0.4129853090016234</v>
       </c>
+      <c r="R60" t="n">
+        <v>-0.4139099557484061</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3665,6 +3845,9 @@
       <c r="Q61" t="n">
         <v>0.3905901253002447</v>
       </c>
+      <c r="R61" t="n">
+        <v>0.3904919200504708</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3718,6 +3901,9 @@
       <c r="Q62" t="n">
         <v>-1.161947896599203</v>
       </c>
+      <c r="R62" t="n">
+        <v>-1.165423952385623</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3771,6 +3957,9 @@
       <c r="Q63" t="n">
         <v>-0.5542267509837254</v>
       </c>
+      <c r="R63" t="n">
+        <v>-0.5523091571733332</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3824,6 +4013,9 @@
       <c r="Q64" t="n">
         <v>-0.8334385936611355</v>
       </c>
+      <c r="R64" t="n">
+        <v>-0.8334633752704277</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3877,6 +4069,9 @@
       <c r="Q65" t="n">
         <v>-0.02643139740020393</v>
       </c>
+      <c r="R65" t="n">
+        <v>-0.02711384554728077</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3930,6 +4125,9 @@
       <c r="Q66" t="n">
         <v>-0.7460579164450524</v>
       </c>
+      <c r="R66" t="n">
+        <v>-0.7495920210250819</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3982,6 +4180,9 @@
       </c>
       <c r="Q67" t="n">
         <v>-0.714230735479796</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7191980146852783</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.2192748228631336</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.2190748492898804</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>0.23851801421027</v>
       </c>
+      <c r="S3" t="n">
+        <v>0.238618792701829</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>0.2310874478036475</v>
       </c>
+      <c r="S4" t="n">
+        <v>0.2320226714658234</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>-0.04492901766210659</v>
       </c>
+      <c r="S5" t="n">
+        <v>-0.04582107606458208</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>0.194637210974454</v>
       </c>
+      <c r="S6" t="n">
+        <v>0.1942873055542581</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.3714208902693206</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.3711237171118821</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -880,6 +901,9 @@
       <c r="R8" t="n">
         <v>-0.1354055545448172</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.1336410017381961</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -936,6 +960,9 @@
       <c r="R9" t="n">
         <v>-0.3213677287586353</v>
       </c>
+      <c r="S9" t="n">
+        <v>-0.3197739818005176</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -992,6 +1019,9 @@
       <c r="R10" t="n">
         <v>0.4052668548978217</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.4045960171284768</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1048,6 +1078,9 @@
       <c r="R11" t="n">
         <v>-0.1740655633961246</v>
       </c>
+      <c r="S11" t="n">
+        <v>-0.1742415509931587</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1104,6 +1137,9 @@
       <c r="R12" t="n">
         <v>-0.06021439177055042</v>
       </c>
+      <c r="S12" t="n">
+        <v>-0.06272820425429701</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1160,6 +1196,9 @@
       <c r="R13" t="n">
         <v>-0.02524844429242552</v>
       </c>
+      <c r="S13" t="n">
+        <v>-0.02647016733268482</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1216,6 +1255,9 @@
       <c r="R14" t="n">
         <v>0.07433820584632694</v>
       </c>
+      <c r="S14" t="n">
+        <v>0.07064940218090496</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1272,6 +1314,9 @@
       <c r="R15" t="n">
         <v>-0.04589414456382378</v>
       </c>
+      <c r="S15" t="n">
+        <v>-0.05207606381462425</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1328,6 +1373,9 @@
       <c r="R16" t="n">
         <v>0.3492438347574401</v>
       </c>
+      <c r="S16" t="n">
+        <v>0.3430235273450453</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1384,6 +1432,9 @@
       <c r="R17" t="n">
         <v>0.4772133671111247</v>
       </c>
+      <c r="S17" t="n">
+        <v>0.4699279702148816</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1440,6 +1491,9 @@
       <c r="R18" t="n">
         <v>-0.1255530446667811</v>
       </c>
+      <c r="S18" t="n">
+        <v>-0.1290163971838852</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1496,6 +1550,9 @@
       <c r="R19" t="n">
         <v>0.3434083393169987</v>
       </c>
+      <c r="S19" t="n">
+        <v>0.3393040845498769</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1552,6 +1609,9 @@
       <c r="R20" t="n">
         <v>0.2585046628492594</v>
       </c>
+      <c r="S20" t="n">
+        <v>0.251159572626829</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1608,6 +1668,9 @@
       <c r="R21" t="n">
         <v>0.5398795735347499</v>
       </c>
+      <c r="S21" t="n">
+        <v>0.5336205640091414</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1664,6 +1727,9 @@
       <c r="R22" t="n">
         <v>0.2976517263318879</v>
       </c>
+      <c r="S22" t="n">
+        <v>0.2913986380408993</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1720,6 +1786,9 @@
       <c r="R23" t="n">
         <v>-0.116483262111898</v>
       </c>
+      <c r="S23" t="n">
+        <v>-0.1222245200031538</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1776,6 +1845,9 @@
       <c r="R24" t="n">
         <v>2.150120539249272</v>
       </c>
+      <c r="S24" t="n">
+        <v>2.054160663317327</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1832,6 +1904,9 @@
       <c r="R25" t="n">
         <v>0.3115205929799528</v>
       </c>
+      <c r="S25" t="n">
+        <v>0.3109883655486559</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1888,6 +1963,9 @@
       <c r="R26" t="n">
         <v>0.1889449018228578</v>
       </c>
+      <c r="S26" t="n">
+        <v>0.184242033753321</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1944,6 +2022,9 @@
       <c r="R27" t="n">
         <v>0.06456789063955308</v>
       </c>
+      <c r="S27" t="n">
+        <v>0.06109147855640777</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2000,6 +2081,9 @@
       <c r="R28" t="n">
         <v>0.8141134867508828</v>
       </c>
+      <c r="S28" t="n">
+        <v>0.8129863268478366</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2056,6 +2140,9 @@
       <c r="R29" t="n">
         <v>1.968100784763743</v>
       </c>
+      <c r="S29" t="n">
+        <v>1.910560100873752</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2112,6 +2199,9 @@
       <c r="R30" t="n">
         <v>0.6804613960971929</v>
       </c>
+      <c r="S30" t="n">
+        <v>0.6775425030134309</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2168,6 +2258,9 @@
       <c r="R31" t="n">
         <v>-0.4224598757323146</v>
       </c>
+      <c r="S31" t="n">
+        <v>-0.4220803281809457</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2224,6 +2317,9 @@
       <c r="R32" t="n">
         <v>0.5710193800454147</v>
       </c>
+      <c r="S32" t="n">
+        <v>0.5688637004139708</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2280,6 +2376,9 @@
       <c r="R33" t="n">
         <v>0.7658850706539896</v>
       </c>
+      <c r="S33" t="n">
+        <v>0.7651612676113811</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2336,6 +2435,9 @@
       <c r="R34" t="n">
         <v>-0.8001412149613373</v>
       </c>
+      <c r="S34" t="n">
+        <v>-0.8015272558606896</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2392,6 +2494,9 @@
       <c r="R35" t="n">
         <v>0.8123750195561312</v>
       </c>
+      <c r="S35" t="n">
+        <v>0.813131196571423</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2448,6 +2553,9 @@
       <c r="R36" t="n">
         <v>0.7730822528740191</v>
       </c>
+      <c r="S36" t="n">
+        <v>0.7749875423127037</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2504,6 +2612,9 @@
       <c r="R37" t="n">
         <v>0.738243435504739</v>
       </c>
+      <c r="S37" t="n">
+        <v>0.7401499305590641</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2560,6 +2671,9 @@
       <c r="R38" t="n">
         <v>0.6528557754484975</v>
       </c>
+      <c r="S38" t="n">
+        <v>0.6530456965619138</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2616,6 +2730,9 @@
       <c r="R39" t="n">
         <v>0.6115934454199518</v>
       </c>
+      <c r="S39" t="n">
+        <v>0.6125067702200496</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2672,6 +2789,9 @@
       <c r="R40" t="n">
         <v>0.7773117323936529</v>
       </c>
+      <c r="S40" t="n">
+        <v>0.7780042359859294</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2728,6 +2848,9 @@
       <c r="R41" t="n">
         <v>0.5653124021771906</v>
       </c>
+      <c r="S41" t="n">
+        <v>0.5667737365825751</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2784,6 +2907,9 @@
       <c r="R42" t="n">
         <v>0.6407475152093788</v>
       </c>
+      <c r="S42" t="n">
+        <v>0.6418760270576136</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2840,6 +2966,9 @@
       <c r="R43" t="n">
         <v>0.6793602012002568</v>
       </c>
+      <c r="S43" t="n">
+        <v>0.6800875346325151</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2896,6 +3025,9 @@
       <c r="R44" t="n">
         <v>0.7003254009164593</v>
       </c>
+      <c r="S44" t="n">
+        <v>0.7018848413128365</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2952,6 +3084,9 @@
       <c r="R45" t="n">
         <v>0.7090198435198495</v>
       </c>
+      <c r="S45" t="n">
+        <v>0.7120866661552092</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3008,6 +3143,9 @@
       <c r="R46" t="n">
         <v>-1.237962208474328</v>
       </c>
+      <c r="S46" t="n">
+        <v>-1.239866804750543</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3064,6 +3202,9 @@
       <c r="R47" t="n">
         <v>-0.9602252393488636</v>
       </c>
+      <c r="S47" t="n">
+        <v>-0.9617307063814863</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3120,6 +3261,9 @@
       <c r="R48" t="n">
         <v>-0.8271320594839418</v>
       </c>
+      <c r="S48" t="n">
+        <v>-0.82766568637448</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3176,6 +3320,9 @@
       <c r="R49" t="n">
         <v>-0.6004683067742457</v>
       </c>
+      <c r="S49" t="n">
+        <v>-0.6010370416338009</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3232,6 +3379,9 @@
       <c r="R50" t="n">
         <v>-0.0400981339343483</v>
       </c>
+      <c r="S50" t="n">
+        <v>-0.04114383271700758</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3288,6 +3438,9 @@
       <c r="R51" t="n">
         <v>-0.8117832856120961</v>
       </c>
+      <c r="S51" t="n">
+        <v>-0.812008410921893</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3344,6 +3497,9 @@
       <c r="R52" t="n">
         <v>-0.8117832856120961</v>
       </c>
+      <c r="S52" t="n">
+        <v>-0.812008410921893</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3400,6 +3556,9 @@
       <c r="R53" t="n">
         <v>-1.082017855584961</v>
       </c>
+      <c r="S53" t="n">
+        <v>-1.083037802242759</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3456,6 +3615,9 @@
       <c r="R54" t="n">
         <v>-0.1469448282365969</v>
       </c>
+      <c r="S54" t="n">
+        <v>-0.1475161145367222</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3512,6 +3674,9 @@
       <c r="R55" t="n">
         <v>-0.9778023168084009</v>
       </c>
+      <c r="S55" t="n">
+        <v>-0.9795345018055802</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3568,6 +3733,9 @@
       <c r="R56" t="n">
         <v>-0.8572058042460852</v>
       </c>
+      <c r="S56" t="n">
+        <v>-0.8594354681246805</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3624,6 +3792,9 @@
       <c r="R57" t="n">
         <v>-0.914491529872111</v>
       </c>
+      <c r="S57" t="n">
+        <v>-0.9176833835703126</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3680,6 +3851,9 @@
       <c r="R58" t="n">
         <v>-1.060470981415422</v>
       </c>
+      <c r="S58" t="n">
+        <v>-1.063319941292104</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3736,6 +3910,9 @@
       <c r="R59" t="n">
         <v>-0.7607396044275109</v>
       </c>
+      <c r="S59" t="n">
+        <v>-0.7616826479131683</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3792,6 +3969,9 @@
       <c r="R60" t="n">
         <v>-0.4139099557484061</v>
       </c>
+      <c r="S60" t="n">
+        <v>-0.4151466250603285</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3848,6 +4028,9 @@
       <c r="R61" t="n">
         <v>0.3904919200504708</v>
       </c>
+      <c r="S61" t="n">
+        <v>0.3902913007051131</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3904,6 +4087,9 @@
       <c r="R62" t="n">
         <v>-1.165423952385623</v>
       </c>
+      <c r="S62" t="n">
+        <v>-1.16919114264855</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3960,6 +4146,9 @@
       <c r="R63" t="n">
         <v>-0.5523091571733332</v>
       </c>
+      <c r="S63" t="n">
+        <v>-0.551087673429416</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4016,6 +4205,9 @@
       <c r="R64" t="n">
         <v>-0.8334633752704277</v>
       </c>
+      <c r="S64" t="n">
+        <v>-0.8339720851553099</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4072,6 +4264,9 @@
       <c r="R65" t="n">
         <v>-0.02711384554728077</v>
       </c>
+      <c r="S65" t="n">
+        <v>-0.02808079796492766</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4128,6 +4323,9 @@
       <c r="R66" t="n">
         <v>-0.7495920210250819</v>
       </c>
+      <c r="S66" t="n">
+        <v>-0.7532798626485715</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4183,6 +4381,9 @@
       </c>
       <c r="R67" t="n">
         <v>-0.7191980146852783</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7242436760026318</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.2190748492898804</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.2191882031971929</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>0.238618792701829</v>
       </c>
+      <c r="T3" t="n">
+        <v>0.2386218381715344</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>0.2320226714658234</v>
       </c>
+      <c r="T4" t="n">
+        <v>0.2326517848541075</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>-0.04582107606458208</v>
       </c>
+      <c r="T5" t="n">
+        <v>-0.04681805637330864</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>0.1942873055542581</v>
       </c>
+      <c r="T6" t="n">
+        <v>0.1938539432633698</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.3711237171118821</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.3711684968923874</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -904,6 +925,9 @@
       <c r="S8" t="n">
         <v>-0.1336410017381961</v>
       </c>
+      <c r="T8" t="n">
+        <v>-0.1322970454056037</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -963,6 +987,9 @@
       <c r="S9" t="n">
         <v>-0.3197739818005176</v>
       </c>
+      <c r="T9" t="n">
+        <v>-0.3185500838521029</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1022,6 +1049,9 @@
       <c r="S10" t="n">
         <v>0.4045960171284768</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.4038426587170687</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1081,6 +1111,9 @@
       <c r="S11" t="n">
         <v>-0.1742415509931587</v>
       </c>
+      <c r="T11" t="n">
+        <v>-0.1746862261993518</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1140,6 +1173,9 @@
       <c r="S12" t="n">
         <v>-0.06272820425429701</v>
       </c>
+      <c r="T12" t="n">
+        <v>-0.06524418220736733</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1199,6 +1235,9 @@
       <c r="S13" t="n">
         <v>-0.02647016733268482</v>
       </c>
+      <c r="T13" t="n">
+        <v>-0.02771355132399727</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1258,6 +1297,9 @@
       <c r="S14" t="n">
         <v>0.07064940218090496</v>
       </c>
+      <c r="T14" t="n">
+        <v>0.06714212380800279</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1317,6 +1359,9 @@
       <c r="S15" t="n">
         <v>-0.05207606381462425</v>
       </c>
+      <c r="T15" t="n">
+        <v>-0.05786920282792818</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1376,6 +1421,9 @@
       <c r="S16" t="n">
         <v>0.3430235273450453</v>
       </c>
+      <c r="T16" t="n">
+        <v>0.3372376693112525</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1435,6 +1483,9 @@
       <c r="S17" t="n">
         <v>0.4699279702148816</v>
       </c>
+      <c r="T17" t="n">
+        <v>0.463360435782972</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1494,6 +1545,9 @@
       <c r="S18" t="n">
         <v>-0.1290163971838852</v>
       </c>
+      <c r="T18" t="n">
+        <v>-0.1320690184099969</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1553,6 +1607,9 @@
       <c r="S19" t="n">
         <v>0.3393040845498769</v>
       </c>
+      <c r="T19" t="n">
+        <v>0.3354484526063399</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1612,6 +1669,9 @@
       <c r="S20" t="n">
         <v>0.251159572626829</v>
       </c>
+      <c r="T20" t="n">
+        <v>0.2443447282788884</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1671,6 +1731,9 @@
       <c r="S21" t="n">
         <v>0.5336205640091414</v>
       </c>
+      <c r="T21" t="n">
+        <v>0.5277555815763441</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1730,6 +1793,9 @@
       <c r="S22" t="n">
         <v>0.2913986380408993</v>
       </c>
+      <c r="T22" t="n">
+        <v>0.2857138936005693</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1789,6 +1855,9 @@
       <c r="S23" t="n">
         <v>-0.1222245200031538</v>
       </c>
+      <c r="T23" t="n">
+        <v>-0.1275492394143559</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1848,6 +1917,9 @@
       <c r="S24" t="n">
         <v>2.054160663317327</v>
       </c>
+      <c r="T24" t="n">
+        <v>1.968337992849655</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1907,6 +1979,9 @@
       <c r="S25" t="n">
         <v>0.3109883655486559</v>
       </c>
+      <c r="T25" t="n">
+        <v>0.3107885897656298</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1966,6 +2041,9 @@
       <c r="S26" t="n">
         <v>0.184242033753321</v>
       </c>
+      <c r="T26" t="n">
+        <v>0.180123311997295</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2025,6 +2103,9 @@
       <c r="S27" t="n">
         <v>0.06109147855640777</v>
       </c>
+      <c r="T27" t="n">
+        <v>0.05819131927103614</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2084,6 +2165,9 @@
       <c r="S28" t="n">
         <v>0.8129863268478366</v>
       </c>
+      <c r="T28" t="n">
+        <v>0.812382546178236</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2143,6 +2227,9 @@
       <c r="S29" t="n">
         <v>1.910560100873752</v>
       </c>
+      <c r="T29" t="n">
+        <v>1.862715679954178</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2202,6 +2289,9 @@
       <c r="S30" t="n">
         <v>0.6775425030134309</v>
       </c>
+      <c r="T30" t="n">
+        <v>0.6752845003973769</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2261,6 +2351,9 @@
       <c r="S31" t="n">
         <v>-0.4220803281809457</v>
       </c>
+      <c r="T31" t="n">
+        <v>-0.4215603708049682</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2320,6 +2413,9 @@
       <c r="S32" t="n">
         <v>0.5688637004139708</v>
       </c>
+      <c r="T32" t="n">
+        <v>0.5671654520749231</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2379,6 +2475,9 @@
       <c r="S33" t="n">
         <v>0.7651612676113811</v>
       </c>
+      <c r="T33" t="n">
+        <v>0.7647138782482057</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2438,6 +2537,9 @@
       <c r="S34" t="n">
         <v>-0.8015272558606896</v>
       </c>
+      <c r="T34" t="n">
+        <v>-0.8027973863788535</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2497,6 +2599,9 @@
       <c r="S35" t="n">
         <v>0.813131196571423</v>
       </c>
+      <c r="T35" t="n">
+        <v>0.8138637368880522</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2556,6 +2661,9 @@
       <c r="S36" t="n">
         <v>0.7749875423127037</v>
       </c>
+      <c r="T36" t="n">
+        <v>0.7767655183078567</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2615,6 +2723,9 @@
       <c r="S37" t="n">
         <v>0.7401499305590641</v>
       </c>
+      <c r="T37" t="n">
+        <v>0.7419416922193764</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2674,6 +2785,9 @@
       <c r="S38" t="n">
         <v>0.6530456965619138</v>
       </c>
+      <c r="T38" t="n">
+        <v>0.6533331495422954</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2733,6 +2847,9 @@
       <c r="S39" t="n">
         <v>0.6125067702200496</v>
       </c>
+      <c r="T39" t="n">
+        <v>0.6132808919358843</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2792,6 +2909,9 @@
       <c r="S40" t="n">
         <v>0.7780042359859294</v>
       </c>
+      <c r="T40" t="n">
+        <v>0.7786326102867385</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2851,6 +2971,9 @@
       <c r="S41" t="n">
         <v>0.5667737365825751</v>
       </c>
+      <c r="T41" t="n">
+        <v>0.5681383410006485</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2910,6 +3033,9 @@
       <c r="S42" t="n">
         <v>0.6418760270576136</v>
       </c>
+      <c r="T42" t="n">
+        <v>0.6429817694493182</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2969,6 +3095,9 @@
       <c r="S43" t="n">
         <v>0.6800875346325151</v>
       </c>
+      <c r="T43" t="n">
+        <v>0.6808179510200967</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3028,6 +3157,9 @@
       <c r="S44" t="n">
         <v>0.7018848413128365</v>
       </c>
+      <c r="T44" t="n">
+        <v>0.7032976821570627</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3087,6 +3219,9 @@
       <c r="S45" t="n">
         <v>0.7120866661552092</v>
       </c>
+      <c r="T45" t="n">
+        <v>0.7148342236911059</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3146,6 +3281,9 @@
       <c r="S46" t="n">
         <v>-1.239866804750543</v>
       </c>
+      <c r="T46" t="n">
+        <v>-1.242137364788761</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3205,6 +3343,9 @@
       <c r="S47" t="n">
         <v>-0.9617307063814863</v>
       </c>
+      <c r="T47" t="n">
+        <v>-0.9635438061519395</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3264,6 +3405,9 @@
       <c r="S48" t="n">
         <v>-0.82766568637448</v>
       </c>
+      <c r="T48" t="n">
+        <v>-0.8286253588590989</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3323,6 +3467,9 @@
       <c r="S49" t="n">
         <v>-0.6010370416338009</v>
       </c>
+      <c r="T49" t="n">
+        <v>-0.6019543906006379</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3382,6 +3529,9 @@
       <c r="S50" t="n">
         <v>-0.04114383271700758</v>
       </c>
+      <c r="T50" t="n">
+        <v>-0.04232542218334385</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3441,6 +3591,9 @@
       <c r="S51" t="n">
         <v>-0.812008410921893</v>
       </c>
+      <c r="T51" t="n">
+        <v>-0.8126483857752463</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3500,6 +3653,9 @@
       <c r="S52" t="n">
         <v>-0.812008410921893</v>
       </c>
+      <c r="T52" t="n">
+        <v>-0.8126483857752463</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3559,6 +3715,9 @@
       <c r="S53" t="n">
         <v>-1.083037802242759</v>
       </c>
+      <c r="T53" t="n">
+        <v>-1.08447546455133</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3618,6 +3777,9 @@
       <c r="S54" t="n">
         <v>-0.1475161145367222</v>
       </c>
+      <c r="T54" t="n">
+        <v>-0.1483427800605523</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3677,6 +3839,9 @@
       <c r="S55" t="n">
         <v>-0.9795345018055802</v>
       </c>
+      <c r="T55" t="n">
+        <v>-0.981584071054059</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3736,6 +3901,9 @@
       <c r="S56" t="n">
         <v>-0.8594354681246805</v>
       </c>
+      <c r="T56" t="n">
+        <v>-0.8618844092995954</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3795,6 +3963,9 @@
       <c r="S57" t="n">
         <v>-0.9176833835703126</v>
       </c>
+      <c r="T57" t="n">
+        <v>-0.921037381168312</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3854,6 +4025,9 @@
       <c r="S58" t="n">
         <v>-1.063319941292104</v>
       </c>
+      <c r="T58" t="n">
+        <v>-1.066409240100554</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3913,6 +4087,9 @@
       <c r="S59" t="n">
         <v>-0.7616826479131683</v>
       </c>
+      <c r="T59" t="n">
+        <v>-0.7630168943491072</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3972,6 +4149,9 @@
       <c r="S60" t="n">
         <v>-0.4151466250603285</v>
       </c>
+      <c r="T60" t="n">
+        <v>-0.4166332012173132</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4031,6 +4211,9 @@
       <c r="S61" t="n">
         <v>0.3902913007051131</v>
       </c>
+      <c r="T61" t="n">
+        <v>0.3900036985269227</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4090,6 +4273,9 @@
       <c r="S62" t="n">
         <v>-1.16919114264855</v>
       </c>
+      <c r="T62" t="n">
+        <v>-1.173180460401009</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4149,6 +4335,9 @@
       <c r="S63" t="n">
         <v>-0.551087673429416</v>
       </c>
+      <c r="T63" t="n">
+        <v>-0.5504589987168909</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4208,6 +4397,9 @@
       <c r="S64" t="n">
         <v>-0.8339720851553099</v>
       </c>
+      <c r="T64" t="n">
+        <v>-0.8349072491367899</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4267,6 +4459,9 @@
       <c r="S65" t="n">
         <v>-0.02808079796492766</v>
       </c>
+      <c r="T65" t="n">
+        <v>-0.0292730210850784</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4326,6 +4521,9 @@
       <c r="S66" t="n">
         <v>-0.7532798626485715</v>
       </c>
+      <c r="T66" t="n">
+        <v>-0.7570605039220063</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4384,6 +4582,9 @@
       </c>
       <c r="S67" t="n">
         <v>-0.7242436760026318</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7292945019215485</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.2191882031971929</v>
       </c>
+      <c r="U2" t="n">
+        <v>-0.2195661360186911</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>0.2386218381715344</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.2385373143116724</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>0.2326517848541075</v>
       </c>
+      <c r="U4" t="n">
+        <v>0.2330138969800928</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>-0.04681805637330864</v>
       </c>
+      <c r="U5" t="n">
+        <v>-0.04789676511896063</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>0.1938539432633698</v>
       </c>
+      <c r="U6" t="n">
+        <v>0.1933581624193711</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.3711684968923874</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.3715087306687199</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -928,6 +949,9 @@
       <c r="T8" t="n">
         <v>-0.1322970454056037</v>
       </c>
+      <c r="U8" t="n">
+        <v>-0.1313196657103722</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -990,6 +1014,9 @@
       <c r="T9" t="n">
         <v>-0.3185500838521029</v>
       </c>
+      <c r="U9" t="n">
+        <v>-0.3176619008055057</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1052,6 +1079,9 @@
       <c r="T10" t="n">
         <v>0.4038426587170687</v>
       </c>
+      <c r="U10" t="n">
+        <v>0.403030701103706</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1114,6 +1144,9 @@
       <c r="T11" t="n">
         <v>-0.1746862261993518</v>
       </c>
+      <c r="U11" t="n">
+        <v>-0.1753577969898471</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1176,6 +1209,9 @@
       <c r="T12" t="n">
         <v>-0.06524418220736733</v>
       </c>
+      <c r="U12" t="n">
+        <v>-0.0677376242645371</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1238,6 +1274,9 @@
       <c r="T13" t="n">
         <v>-0.02771355132399727</v>
       </c>
+      <c r="U13" t="n">
+        <v>-0.02897189764846269</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1300,6 +1339,9 @@
       <c r="T14" t="n">
         <v>0.06714212380800279</v>
       </c>
+      <c r="U14" t="n">
+        <v>0.06382762849852648</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1362,6 +1404,9 @@
       <c r="T15" t="n">
         <v>-0.05786920282792818</v>
       </c>
+      <c r="U15" t="n">
+        <v>-0.06327499861086383</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1424,6 +1469,9 @@
       <c r="T16" t="n">
         <v>0.3372376693112525</v>
       </c>
+      <c r="U16" t="n">
+        <v>0.3318862764496711</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1486,6 +1534,9 @@
       <c r="T17" t="n">
         <v>0.463360435782972</v>
       </c>
+      <c r="U17" t="n">
+        <v>0.4574659546238647</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1548,6 +1599,9 @@
       <c r="T18" t="n">
         <v>-0.1320690184099969</v>
       </c>
+      <c r="U18" t="n">
+        <v>-0.1347706164647479</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1610,6 +1664,9 @@
       <c r="T19" t="n">
         <v>0.3354484526063399</v>
       </c>
+      <c r="U19" t="n">
+        <v>0.3318339253572027</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1672,6 +1729,9 @@
       <c r="T20" t="n">
         <v>0.2443447282788884</v>
       </c>
+      <c r="U20" t="n">
+        <v>0.2380526470888037</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1734,6 +1794,9 @@
       <c r="T21" t="n">
         <v>0.5277555815763441</v>
       </c>
+      <c r="U21" t="n">
+        <v>0.5223051670143072</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1796,6 +1859,9 @@
       <c r="T22" t="n">
         <v>0.2857138936005693</v>
       </c>
+      <c r="U22" t="n">
+        <v>0.2805698725897567</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1858,6 +1924,9 @@
       <c r="T23" t="n">
         <v>-0.1275492394143559</v>
       </c>
+      <c r="U23" t="n">
+        <v>-0.132466027865686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1920,6 +1989,9 @@
       <c r="T24" t="n">
         <v>1.968337992849655</v>
       </c>
+      <c r="U24" t="n">
+        <v>1.892051699373455</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1982,6 +2054,9 @@
       <c r="T25" t="n">
         <v>0.3107885897656298</v>
       </c>
+      <c r="U25" t="n">
+        <v>0.310850391948816</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2044,6 +2119,9 @@
       <c r="T26" t="n">
         <v>0.180123311997295</v>
       </c>
+      <c r="U26" t="n">
+        <v>0.1765276615067197</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2106,6 +2184,9 @@
       <c r="T27" t="n">
         <v>0.05819131927103614</v>
       </c>
+      <c r="U27" t="n">
+        <v>0.05579268111416687</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2168,6 +2249,9 @@
       <c r="T28" t="n">
         <v>0.812382546178236</v>
       </c>
+      <c r="U28" t="n">
+        <v>0.8122172244838969</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2230,6 +2314,9 @@
       <c r="T29" t="n">
         <v>1.862715679954178</v>
       </c>
+      <c r="U29" t="n">
+        <v>1.823278500446194</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2292,6 +2379,9 @@
       <c r="T30" t="n">
         <v>0.6752845003973769</v>
       </c>
+      <c r="U30" t="n">
+        <v>0.6735804624399518</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2354,6 +2444,9 @@
       <c r="T31" t="n">
         <v>-0.4215603708049682</v>
       </c>
+      <c r="U31" t="n">
+        <v>-0.4209622985257445</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2416,6 +2509,9 @@
       <c r="T32" t="n">
         <v>0.5671654520749231</v>
       </c>
+      <c r="U32" t="n">
+        <v>0.5658510292910308</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2478,6 +2574,9 @@
       <c r="T33" t="n">
         <v>0.7647138782482057</v>
       </c>
+      <c r="U33" t="n">
+        <v>0.7644893033331461</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2540,6 +2639,9 @@
       <c r="T34" t="n">
         <v>-0.8027973863788535</v>
       </c>
+      <c r="U34" t="n">
+        <v>-0.8039806903643369</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2602,6 +2704,9 @@
       <c r="T35" t="n">
         <v>0.8138637368880522</v>
       </c>
+      <c r="U35" t="n">
+        <v>0.8145720704775633</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2664,6 +2769,9 @@
       <c r="T36" t="n">
         <v>0.7767655183078567</v>
       </c>
+      <c r="U36" t="n">
+        <v>0.7784170173961491</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2726,6 +2834,9 @@
       <c r="T37" t="n">
         <v>0.7419416922193764</v>
       </c>
+      <c r="U37" t="n">
+        <v>0.7436165418675371</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2788,6 +2899,9 @@
       <c r="T38" t="n">
         <v>0.6533331495422954</v>
       </c>
+      <c r="U38" t="n">
+        <v>0.653691672199298</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2850,6 +2964,9 @@
       <c r="T39" t="n">
         <v>0.6132808919358843</v>
       </c>
+      <c r="U39" t="n">
+        <v>0.6139319125304205</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2912,6 +3029,9 @@
       <c r="T40" t="n">
         <v>0.7786326102867385</v>
       </c>
+      <c r="U40" t="n">
+        <v>0.7792084407204132</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2974,6 +3094,9 @@
       <c r="T41" t="n">
         <v>0.5681383410006485</v>
       </c>
+      <c r="U41" t="n">
+        <v>0.569405112329167</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3036,6 +3159,9 @@
       <c r="T42" t="n">
         <v>0.6429817694493182</v>
       </c>
+      <c r="U42" t="n">
+        <v>0.6440483671405949</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3098,6 +3224,9 @@
       <c r="T43" t="n">
         <v>0.6808179510200967</v>
       </c>
+      <c r="U43" t="n">
+        <v>0.6815382361707449</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3160,6 +3289,9 @@
       <c r="T44" t="n">
         <v>0.7032976821570627</v>
       </c>
+      <c r="U44" t="n">
+        <v>0.7045731135378788</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3222,6 +3354,9 @@
       <c r="T45" t="n">
         <v>0.7148342236911059</v>
       </c>
+      <c r="U45" t="n">
+        <v>0.7172846309105353</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3284,6 +3419,9 @@
       <c r="T46" t="n">
         <v>-1.242137364788761</v>
       </c>
+      <c r="U46" t="n">
+        <v>-1.244717713560128</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3346,6 +3484,9 @@
       <c r="T47" t="n">
         <v>-0.9635438061519395</v>
       </c>
+      <c r="U47" t="n">
+        <v>-0.9656185993200136</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3408,6 +3549,9 @@
       <c r="T48" t="n">
         <v>-0.8286253588590989</v>
       </c>
+      <c r="U48" t="n">
+        <v>-0.8299562930530973</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3470,6 +3614,9 @@
       <c r="T49" t="n">
         <v>-0.6019543906006379</v>
       </c>
+      <c r="U49" t="n">
+        <v>-0.6031733334596724</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3532,6 +3679,9 @@
       <c r="T50" t="n">
         <v>-0.04232542218334385</v>
       </c>
+      <c r="U50" t="n">
+        <v>-0.04361905993819577</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3594,6 +3744,9 @@
       <c r="T51" t="n">
         <v>-0.8126483857752463</v>
       </c>
+      <c r="U51" t="n">
+        <v>-0.8136489878935041</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3656,6 +3809,9 @@
       <c r="T52" t="n">
         <v>-0.8126483857752463</v>
       </c>
+      <c r="U52" t="n">
+        <v>-0.8136489878935041</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3718,6 +3874,9 @@
       <c r="T53" t="n">
         <v>-1.08447546455133</v>
       </c>
+      <c r="U53" t="n">
+        <v>-1.086281900057675</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3780,6 +3939,9 @@
       <c r="T54" t="n">
         <v>-0.1483427800605523</v>
       </c>
+      <c r="U54" t="n">
+        <v>-0.1493860899471156</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3842,6 +4004,9 @@
       <c r="T55" t="n">
         <v>-0.981584071054059</v>
       </c>
+      <c r="U55" t="n">
+        <v>-0.9839017206156624</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3904,6 +4069,9 @@
       <c r="T56" t="n">
         <v>-0.8618844092995954</v>
       </c>
+      <c r="U56" t="n">
+        <v>-0.864504300943334</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3966,6 +4134,9 @@
       <c r="T57" t="n">
         <v>-0.921037381168312</v>
       </c>
+      <c r="U57" t="n">
+        <v>-0.924509737915463</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4028,6 +4199,9 @@
       <c r="T58" t="n">
         <v>-1.066409240100554</v>
       </c>
+      <c r="U58" t="n">
+        <v>-1.069676003341367</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4090,6 +4264,9 @@
       <c r="T59" t="n">
         <v>-0.7630168943491072</v>
       </c>
+      <c r="U59" t="n">
+        <v>-0.7646764679145197</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4152,6 +4329,9 @@
       <c r="T60" t="n">
         <v>-0.4166332012173132</v>
       </c>
+      <c r="U60" t="n">
+        <v>-0.4183155903605948</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4214,6 +4394,9 @@
       <c r="T61" t="n">
         <v>0.3900036985269227</v>
       </c>
+      <c r="U61" t="n">
+        <v>0.3896432539288242</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4276,6 +4459,9 @@
       <c r="T62" t="n">
         <v>-1.173180460401009</v>
       </c>
+      <c r="U62" t="n">
+        <v>-1.17733127573081</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4338,6 +4524,9 @@
       <c r="T63" t="n">
         <v>-0.5504589987168909</v>
       </c>
+      <c r="U63" t="n">
+        <v>-0.5503306218010519</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4400,6 +4589,9 @@
       <c r="T64" t="n">
         <v>-0.8349072491367899</v>
       </c>
+      <c r="U64" t="n">
+        <v>-0.8362131032325102</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4462,6 +4654,9 @@
       <c r="T65" t="n">
         <v>-0.0292730210850784</v>
       </c>
+      <c r="U65" t="n">
+        <v>-0.03063956189004474</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4524,6 +4719,9 @@
       <c r="T66" t="n">
         <v>-0.7570605039220063</v>
       </c>
+      <c r="U66" t="n">
+        <v>-0.7608834050598935</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4585,6 +4783,9 @@
       </c>
       <c r="T67" t="n">
         <v>-0.7292945019215485</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7342926173837455</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>-0.2195661360186911</v>
       </c>
+      <c r="V2" t="n">
+        <v>-0.2201648239362073</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>0.2385373143116724</v>
       </c>
+      <c r="V3" t="n">
+        <v>0.2383753817206424</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>0.2330138969800928</v>
       </c>
+      <c r="V4" t="n">
+        <v>0.2331452371896684</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>-0.04789676511896063</v>
       </c>
+      <c r="V5" t="n">
+        <v>-0.04903686444505981</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>0.1933581624193711</v>
       </c>
+      <c r="V6" t="n">
+        <v>0.1928175706771532</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.3715087306687199</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.3721012807970694</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,6 +973,9 @@
       <c r="U8" t="n">
         <v>-0.1313196657103722</v>
       </c>
+      <c r="V8" t="n">
+        <v>-0.1306593538150013</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1017,6 +1041,9 @@
       <c r="U9" t="n">
         <v>-0.3176619008055057</v>
       </c>
+      <c r="V9" t="n">
+        <v>-0.317075137882024</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1082,6 +1109,9 @@
       <c r="U10" t="n">
         <v>0.403030701103706</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.4021800171385976</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1147,6 +1177,9 @@
       <c r="U11" t="n">
         <v>-0.1753577969898471</v>
       </c>
+      <c r="V11" t="n">
+        <v>-0.1762183521467399</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1212,6 +1245,9 @@
       <c r="U12" t="n">
         <v>-0.0677376242645371</v>
       </c>
+      <c r="V12" t="n">
+        <v>-0.07018900592630953</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1277,6 +1313,9 @@
       <c r="U13" t="n">
         <v>-0.02897189764846269</v>
       </c>
+      <c r="V13" t="n">
+        <v>-0.03023868078860928</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1342,6 +1381,9 @@
       <c r="U14" t="n">
         <v>0.06382762849852648</v>
       </c>
+      <c r="V14" t="n">
+        <v>0.06071119700318695</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1407,6 +1449,9 @@
       <c r="U15" t="n">
         <v>-0.06327499861086383</v>
       </c>
+      <c r="V15" t="n">
+        <v>-0.06830139919088998</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1472,6 +1517,9 @@
       <c r="U16" t="n">
         <v>0.3318862764496711</v>
       </c>
+      <c r="V16" t="n">
+        <v>0.3269609104749025</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1537,6 +1585,9 @@
       <c r="U17" t="n">
         <v>0.4574659546238647</v>
       </c>
+      <c r="V17" t="n">
+        <v>0.4521968087631804</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1602,6 +1653,9 @@
       <c r="U18" t="n">
         <v>-0.1347706164647479</v>
       </c>
+      <c r="V18" t="n">
+        <v>-0.1371726276213405</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1667,6 +1721,9 @@
       <c r="U19" t="n">
         <v>0.3318339253572027</v>
       </c>
+      <c r="V19" t="n">
+        <v>0.3284510240352331</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1732,6 +1789,9 @@
       <c r="U20" t="n">
         <v>0.2380526470888037</v>
       </c>
+      <c r="V20" t="n">
+        <v>0.2322676272198359</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1797,6 +1857,9 @@
       <c r="U21" t="n">
         <v>0.5223051670143072</v>
       </c>
+      <c r="V21" t="n">
+        <v>0.5172763955278531</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1862,6 +1925,9 @@
       <c r="U22" t="n">
         <v>0.2805698725897567</v>
       </c>
+      <c r="V22" t="n">
+        <v>0.275934675894008</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1927,6 +1993,9 @@
       <c r="U23" t="n">
         <v>-0.132466027865686</v>
       </c>
+      <c r="V23" t="n">
+        <v>-0.1369891250985225</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1992,6 +2061,9 @@
       <c r="U24" t="n">
         <v>1.892051699373455</v>
       </c>
+      <c r="V24" t="n">
+        <v>1.824643196977492</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2057,6 +2129,9 @@
       <c r="U25" t="n">
         <v>0.310850391948816</v>
       </c>
+      <c r="V25" t="n">
+        <v>0.3111144068290475</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2122,6 +2197,9 @@
       <c r="U26" t="n">
         <v>0.1765276615067197</v>
       </c>
+      <c r="V26" t="n">
+        <v>0.1733981196497002</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2187,6 +2265,9 @@
       <c r="U27" t="n">
         <v>0.05579268111416687</v>
       </c>
+      <c r="V27" t="n">
+        <v>0.05382827087568531</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2252,6 +2333,9 @@
       <c r="U28" t="n">
         <v>0.8122172244838969</v>
       </c>
+      <c r="V28" t="n">
+        <v>0.8124155307415317</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2317,6 +2401,9 @@
       <c r="U29" t="n">
         <v>1.823278500446194</v>
       </c>
+      <c r="V29" t="n">
+        <v>1.791093600475214</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2382,6 +2469,9 @@
       <c r="U30" t="n">
         <v>0.6735804624399518</v>
       </c>
+      <c r="V30" t="n">
+        <v>0.6723375658877162</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2447,6 +2537,9 @@
       <c r="U31" t="n">
         <v>-0.4209622985257445</v>
       </c>
+      <c r="V31" t="n">
+        <v>-0.4203340434592799</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2512,6 +2605,9 @@
       <c r="U32" t="n">
         <v>0.5658510292910308</v>
       </c>
+      <c r="V32" t="n">
+        <v>0.5648565932673453</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2577,6 +2673,9 @@
       <c r="U33" t="n">
         <v>0.7644893033331461</v>
       </c>
+      <c r="V33" t="n">
+        <v>0.7644421231986719</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2642,6 +2741,9 @@
       <c r="U34" t="n">
         <v>-0.8039806903643369</v>
       </c>
+      <c r="V34" t="n">
+        <v>-0.8050997003768408</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2707,6 +2809,9 @@
       <c r="U35" t="n">
         <v>0.8145720704775633</v>
       </c>
+      <c r="V35" t="n">
+        <v>0.81525585386274</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2772,6 +2877,9 @@
       <c r="U36" t="n">
         <v>0.7784170173961491</v>
       </c>
+      <c r="V36" t="n">
+        <v>0.7799450072146344</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2837,6 +2945,9 @@
       <c r="U37" t="n">
         <v>0.7436165418675371</v>
       </c>
+      <c r="V37" t="n">
+        <v>0.745174950714468</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2902,6 +3013,9 @@
       <c r="U38" t="n">
         <v>0.653691672199298</v>
       </c>
+      <c r="V38" t="n">
+        <v>0.6540996062309771</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2967,6 +3081,9 @@
       <c r="U39" t="n">
         <v>0.6139319125304205</v>
       </c>
+      <c r="V39" t="n">
+        <v>0.6144746711003748</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3032,6 +3149,9 @@
       <c r="U40" t="n">
         <v>0.7792084407204132</v>
       </c>
+      <c r="V40" t="n">
+        <v>0.7797411645546324</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3097,6 +3217,9 @@
       <c r="U41" t="n">
         <v>0.569405112329167</v>
       </c>
+      <c r="V41" t="n">
+        <v>0.5705750953264687</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3162,6 +3285,9 @@
       <c r="U42" t="n">
         <v>0.6440483671405949</v>
       </c>
+      <c r="V42" t="n">
+        <v>0.6450642076950993</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3227,6 +3353,9 @@
       <c r="U43" t="n">
         <v>0.6815382361707449</v>
       </c>
+      <c r="V43" t="n">
+        <v>0.6822384805180223</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3292,6 +3421,9 @@
       <c r="U44" t="n">
         <v>0.7045731135378788</v>
       </c>
+      <c r="V44" t="n">
+        <v>0.7057208341322472</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3357,6 +3489,9 @@
       <c r="U45" t="n">
         <v>0.7172846309105353</v>
       </c>
+      <c r="V45" t="n">
+        <v>0.7194607799339291</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3422,6 +3557,9 @@
       <c r="U46" t="n">
         <v>-1.244717713560128</v>
       </c>
+      <c r="V46" t="n">
+        <v>-1.247555100648851</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3487,6 +3625,9 @@
       <c r="U47" t="n">
         <v>-0.9656185993200136</v>
       </c>
+      <c r="V47" t="n">
+        <v>-0.9679117191773825</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3552,6 +3693,9 @@
       <c r="U48" t="n">
         <v>-0.8299562930530973</v>
       </c>
+      <c r="V48" t="n">
+        <v>-0.8316060276528323</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3617,6 +3761,9 @@
       <c r="U49" t="n">
         <v>-0.6031733334596724</v>
       </c>
+      <c r="V49" t="n">
+        <v>-0.6046493056674352</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3682,6 +3829,9 @@
       <c r="U50" t="n">
         <v>-0.04361905993819577</v>
       </c>
+      <c r="V50" t="n">
+        <v>-0.04500277693886755</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3747,6 +3897,9 @@
       <c r="U51" t="n">
         <v>-0.8136489878935041</v>
       </c>
+      <c r="V51" t="n">
+        <v>-0.8149588174746855</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3812,6 +3965,9 @@
       <c r="U52" t="n">
         <v>-0.8136489878935041</v>
       </c>
+      <c r="V52" t="n">
+        <v>-0.8149588174746855</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3877,6 +4033,9 @@
       <c r="U53" t="n">
         <v>-1.086281900057675</v>
       </c>
+      <c r="V53" t="n">
+        <v>-1.088408470564649</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3942,6 +4101,9 @@
       <c r="U54" t="n">
         <v>-0.1493860899471156</v>
       </c>
+      <c r="V54" t="n">
+        <v>-0.1506102961008042</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4007,6 +4169,9 @@
       <c r="U55" t="n">
         <v>-0.9839017206156624</v>
       </c>
+      <c r="V55" t="n">
+        <v>-0.9864412211934817</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4072,6 +4237,9 @@
       <c r="U56" t="n">
         <v>-0.864504300943334</v>
       </c>
+      <c r="V56" t="n">
+        <v>-0.8672523791190629</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4137,6 +4305,9 @@
       <c r="U57" t="n">
         <v>-0.924509737915463</v>
       </c>
+      <c r="V57" t="n">
+        <v>-0.92806178594848</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4202,6 +4373,9 @@
       <c r="U58" t="n">
         <v>-1.069676003341367</v>
       </c>
+      <c r="V58" t="n">
+        <v>-1.073066146483866</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4267,6 +4441,9 @@
       <c r="U59" t="n">
         <v>-0.7646764679145197</v>
       </c>
+      <c r="V59" t="n">
+        <v>-0.7666020385142527</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4332,6 +4509,9 @@
       <c r="U60" t="n">
         <v>-0.4183155903605948</v>
       </c>
+      <c r="V60" t="n">
+        <v>-0.4201470066859748</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4397,6 +4577,9 @@
       <c r="U61" t="n">
         <v>0.3896432539288242</v>
       </c>
+      <c r="V61" t="n">
+        <v>0.3892227987400003</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4462,6 +4645,9 @@
       <c r="U62" t="n">
         <v>-1.17733127573081</v>
       </c>
+      <c r="V62" t="n">
+        <v>-1.18159076134893</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4527,6 +4713,9 @@
       <c r="U63" t="n">
         <v>-0.5503306218010519</v>
       </c>
+      <c r="V63" t="n">
+        <v>-0.5506202581106876</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4592,6 +4781,9 @@
       <c r="U64" t="n">
         <v>-0.8362131032325102</v>
       </c>
+      <c r="V64" t="n">
+        <v>-0.8378365223121546</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4657,6 +4849,9 @@
       <c r="U65" t="n">
         <v>-0.03063956189004474</v>
       </c>
+      <c r="V65" t="n">
+        <v>-0.03213688392947642</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4722,6 +4917,9 @@
       <c r="U66" t="n">
         <v>-0.7608834050598935</v>
       </c>
+      <c r="V66" t="n">
+        <v>-0.7647070828215884</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4786,6 +4984,9 @@
       </c>
       <c r="U67" t="n">
         <v>-0.7342926173837455</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7391930942723297</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>-0.2201648239362073</v>
       </c>
+      <c r="W2" t="n">
+        <v>-0.2209451652532442</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>0.2383753817206424</v>
       </c>
+      <c r="W3" t="n">
+        <v>0.2381459524995868</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>0.2331452371896684</v>
       </c>
+      <c r="W4" t="n">
+        <v>0.2330790363750958</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>-0.04903686444505981</v>
       </c>
+      <c r="W5" t="n">
+        <v>-0.05022065821290042</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>0.1928175706771532</v>
       </c>
+      <c r="W6" t="n">
+        <v>0.1922467891242334</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.3721012807970694</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.3729065521432981</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -976,6 +997,9 @@
       <c r="V8" t="n">
         <v>-0.1306593538150013</v>
       </c>
+      <c r="W8" t="n">
+        <v>-0.1302711120040515</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1044,6 +1068,9 @@
       <c r="V9" t="n">
         <v>-0.317075137882024</v>
       </c>
+      <c r="W9" t="n">
+        <v>-0.3167561770559222</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1112,6 +1139,9 @@
       <c r="V10" t="n">
         <v>0.4021800171385976</v>
       </c>
+      <c r="W10" t="n">
+        <v>0.4013069701411439</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1180,6 +1210,9 @@
       <c r="V11" t="n">
         <v>-0.1762183521467399</v>
       </c>
+      <c r="W11" t="n">
+        <v>-0.1772337935428361</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1248,6 +1281,9 @@
       <c r="V12" t="n">
         <v>-0.07018900592630953</v>
       </c>
+      <c r="W12" t="n">
+        <v>-0.07258319163912465</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1316,6 +1352,9 @@
       <c r="V13" t="n">
         <v>-0.03023868078860928</v>
       </c>
+      <c r="W13" t="n">
+        <v>-0.03150769733376271</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1384,6 +1423,9 @@
       <c r="V14" t="n">
         <v>0.06071119700318695</v>
       </c>
+      <c r="W14" t="n">
+        <v>0.05779344388946225</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1452,6 +1494,9 @@
       <c r="V15" t="n">
         <v>-0.06830139919088998</v>
       </c>
+      <c r="W15" t="n">
+        <v>-0.07296115982437645</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1520,6 +1565,9 @@
       <c r="V16" t="n">
         <v>0.3269609104749025</v>
       </c>
+      <c r="W16" t="n">
+        <v>0.3224468950329503</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1588,6 +1636,9 @@
       <c r="V17" t="n">
         <v>0.4521968087631804</v>
       </c>
+      <c r="W17" t="n">
+        <v>0.4475040894027783</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1656,6 +1707,9 @@
       <c r="V18" t="n">
         <v>-0.1371726276213405</v>
       </c>
+      <c r="W18" t="n">
+        <v>-0.1393191862376515</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1724,6 +1778,9 @@
       <c r="V19" t="n">
         <v>0.3284510240352331</v>
       </c>
+      <c r="W19" t="n">
+        <v>0.3252889337109794</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1792,6 +1849,9 @@
       <c r="V20" t="n">
         <v>0.2322676272198359</v>
       </c>
+      <c r="W20" t="n">
+        <v>0.2269680499416555</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1860,6 +1920,9 @@
       <c r="V21" t="n">
         <v>0.5172763955278531</v>
       </c>
+      <c r="W21" t="n">
+        <v>0.5126660045870256</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1928,6 +1991,9 @@
       <c r="V22" t="n">
         <v>0.275934675894008</v>
       </c>
+      <c r="W22" t="n">
+        <v>0.2717738382023336</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1996,6 +2062,9 @@
       <c r="V23" t="n">
         <v>-0.1369891250985225</v>
       </c>
+      <c r="W23" t="n">
+        <v>-0.1411367596954193</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2064,6 +2133,9 @@
       <c r="V24" t="n">
         <v>1.824643196977492</v>
       </c>
+      <c r="W24" t="n">
+        <v>1.765424524241436</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2132,6 +2204,9 @@
       <c r="V25" t="n">
         <v>0.3111144068290475</v>
       </c>
+      <c r="W25" t="n">
+        <v>0.3115312473739955</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2200,6 +2275,9 @@
       <c r="V26" t="n">
         <v>0.1733981196497002</v>
       </c>
+      <c r="W26" t="n">
+        <v>0.1706820403648422</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2268,6 +2346,9 @@
       <c r="V27" t="n">
         <v>0.05382827087568531</v>
       </c>
+      <c r="W27" t="n">
+        <v>0.05223786672851045</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2336,6 +2417,9 @@
       <c r="V28" t="n">
         <v>0.8124155307415317</v>
       </c>
+      <c r="W28" t="n">
+        <v>0.8129119209427795</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2404,6 +2488,9 @@
       <c r="V29" t="n">
         <v>1.791093600475214</v>
       </c>
+      <c r="W29" t="n">
+        <v>1.765132190315524</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2472,6 +2559,9 @@
       <c r="V30" t="n">
         <v>0.6723375658877162</v>
       </c>
+      <c r="W30" t="n">
+        <v>0.6714756439132686</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2540,6 +2630,9 @@
       <c r="V31" t="n">
         <v>-0.4203340434592799</v>
       </c>
+      <c r="W31" t="n">
+        <v>-0.4197116961192162</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2608,6 +2701,9 @@
       <c r="V32" t="n">
         <v>0.5648565932673453</v>
       </c>
+      <c r="W32" t="n">
+        <v>0.5641270559701259</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2676,6 +2772,9 @@
       <c r="V33" t="n">
         <v>0.7644421231986719</v>
       </c>
+      <c r="W33" t="n">
+        <v>0.7645340794307565</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2744,6 +2843,9 @@
       <c r="V34" t="n">
         <v>-0.8050997003768408</v>
       </c>
+      <c r="W34" t="n">
+        <v>-0.8061715744329297</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2812,6 +2914,9 @@
       <c r="V35" t="n">
         <v>0.81525585386274</v>
       </c>
+      <c r="W35" t="n">
+        <v>0.8159149406672224</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2880,6 +2985,9 @@
       <c r="V36" t="n">
         <v>0.7799450072146344</v>
       </c>
+      <c r="W36" t="n">
+        <v>0.7813540162991706</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2948,6 +3056,9 @@
       <c r="V37" t="n">
         <v>0.745174950714468</v>
       </c>
+      <c r="W37" t="n">
+        <v>0.7466193969607575</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3016,6 +3127,9 @@
       <c r="V38" t="n">
         <v>0.6540996062309771</v>
       </c>
+      <c r="W38" t="n">
+        <v>0.6545393933057702</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3084,6 +3198,9 @@
       <c r="V39" t="n">
         <v>0.6144746711003748</v>
       </c>
+      <c r="W39" t="n">
+        <v>0.6149227311843999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3152,6 +3269,9 @@
       <c r="V40" t="n">
         <v>0.7797411645546324</v>
       </c>
+      <c r="W40" t="n">
+        <v>0.7802384128195469</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3220,6 +3340,9 @@
       <c r="V41" t="n">
         <v>0.5705750953264687</v>
       </c>
+      <c r="W41" t="n">
+        <v>0.5716509430168295</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3288,6 +3411,9 @@
       <c r="V42" t="n">
         <v>0.6450642076950993</v>
       </c>
+      <c r="W42" t="n">
+        <v>0.6460215279918328</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3356,6 +3482,9 @@
       <c r="V43" t="n">
         <v>0.6822384805180223</v>
       </c>
+      <c r="W43" t="n">
+        <v>0.682911489073029</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3424,6 +3553,9 @@
       <c r="V44" t="n">
         <v>0.7057208341322472</v>
       </c>
+      <c r="W44" t="n">
+        <v>0.7067507252181005</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3492,6 +3624,9 @@
       <c r="V45" t="n">
         <v>0.7194607799339291</v>
       </c>
+      <c r="W45" t="n">
+        <v>0.7213856633230831</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3560,6 +3695,9 @@
       <c r="V46" t="n">
         <v>-1.247555100648851</v>
       </c>
+      <c r="W46" t="n">
+        <v>-1.2506006612886</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3628,6 +3766,9 @@
       <c r="V47" t="n">
         <v>-0.9679117191773825</v>
       </c>
+      <c r="W47" t="n">
+        <v>-0.9703828116665441</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3696,6 +3837,9 @@
       <c r="V48" t="n">
         <v>-0.8316060276528323</v>
       </c>
+      <c r="W48" t="n">
+        <v>-0.8335251244540873</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3764,6 +3908,9 @@
       <c r="V49" t="n">
         <v>-0.6046493056674352</v>
       </c>
+      <c r="W49" t="n">
+        <v>-0.6063406721043461</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3832,6 +3979,9 @@
       <c r="V50" t="n">
         <v>-0.04500277693886755</v>
       </c>
+      <c r="W50" t="n">
+        <v>-0.04645656130875736</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3900,6 +4050,9 @@
       <c r="V51" t="n">
         <v>-0.8149588174746855</v>
       </c>
+      <c r="W51" t="n">
+        <v>-0.8165298341879504</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3968,6 +4121,9 @@
       <c r="V52" t="n">
         <v>-0.8149588174746855</v>
       </c>
+      <c r="W52" t="n">
+        <v>-0.8165298341879504</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4036,6 +4192,9 @@
       <c r="V53" t="n">
         <v>-1.088408470564649</v>
       </c>
+      <c r="W53" t="n">
+        <v>-1.090807983139189</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4104,6 +4263,9 @@
       <c r="V54" t="n">
         <v>-0.1506102961008042</v>
       </c>
+      <c r="W54" t="n">
+        <v>-0.1519827581360839</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4172,6 +4334,9 @@
       <c r="V55" t="n">
         <v>-0.9864412211934817</v>
       </c>
+      <c r="W55" t="n">
+        <v>-0.989159805017955</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4240,6 +4405,9 @@
       <c r="V56" t="n">
         <v>-0.8672523791190629</v>
       </c>
+      <c r="W56" t="n">
+        <v>-0.8700911165291773</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4308,6 +4476,9 @@
       <c r="V57" t="n">
         <v>-0.92806178594848</v>
       </c>
+      <c r="W57" t="n">
+        <v>-0.9316596893515082</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4376,6 +4547,9 @@
       <c r="V58" t="n">
         <v>-1.073066146483866</v>
       </c>
+      <c r="W58" t="n">
+        <v>-1.076533510440571</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4444,6 +4618,9 @@
       <c r="V59" t="n">
         <v>-0.7666020385142527</v>
       </c>
+      <c r="W59" t="n">
+        <v>-0.7687406122387341</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4512,6 +4689,9 @@
       <c r="V60" t="n">
         <v>-0.4201470066859748</v>
       </c>
+      <c r="W60" t="n">
+        <v>-0.4220872670891507</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4580,6 +4760,9 @@
       <c r="V61" t="n">
         <v>0.3892227987400003</v>
       </c>
+      <c r="W61" t="n">
+        <v>0.3887538737720945</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4648,6 +4831,9 @@
       <c r="V62" t="n">
         <v>-1.18159076134893</v>
       </c>
+      <c r="W62" t="n">
+        <v>-1.185913277376446</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4716,6 +4902,9 @@
       <c r="V63" t="n">
         <v>-0.5506202581106876</v>
       </c>
+      <c r="W63" t="n">
+        <v>-0.5512551929666717</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4784,6 +4973,9 @@
       <c r="V64" t="n">
         <v>-0.8378365223121546</v>
       </c>
+      <c r="W64" t="n">
+        <v>-0.8397276545579039</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4852,6 +5044,9 @@
       <c r="V65" t="n">
         <v>-0.03213688392947642</v>
       </c>
+      <c r="W65" t="n">
+        <v>-0.03372804703582386</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4920,6 +5115,9 @@
       <c r="V66" t="n">
         <v>-0.7647070828215884</v>
       </c>
+      <c r="W66" t="n">
+        <v>-0.7684978917780396</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4987,6 +5185,9 @@
       </c>
       <c r="V67" t="n">
         <v>-0.7391930942723297</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7439618508401181</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>-0.2209451652532442</v>
       </c>
+      <c r="X2" t="n">
+        <v>-0.2218725200276776</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>0.2381459524995868</v>
       </c>
+      <c r="X3" t="n">
+        <v>0.2378585122055614</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>0.2330790363750958</v>
       </c>
+      <c r="X4" t="n">
+        <v>0.2328455062421774</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>-0.05022065821290042</v>
       </c>
+      <c r="X5" t="n">
+        <v>-0.0514328698743593</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>0.1922467891242334</v>
       </c>
+      <c r="X6" t="n">
+        <v>0.1916578542347612</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.3729065521432981</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.3738885465534178</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1000,6 +1021,9 @@
       <c r="W8" t="n">
         <v>-0.1302711120040515</v>
       </c>
+      <c r="X8" t="n">
+        <v>-0.1301143517726162</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1071,6 +1095,9 @@
       <c r="W9" t="n">
         <v>-0.3167561770559222</v>
       </c>
+      <c r="X9" t="n">
+        <v>-0.3166726905207742</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1142,6 +1169,9 @@
       <c r="W10" t="n">
         <v>0.4013069701411439</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.4004248995031581</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1213,6 +1243,9 @@
       <c r="W11" t="n">
         <v>-0.1772337935428361</v>
       </c>
+      <c r="X11" t="n">
+        <v>-0.1783736973263915</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1284,6 +1317,9 @@
       <c r="W12" t="n">
         <v>-0.07258319163912465</v>
       </c>
+      <c r="X12" t="n">
+        <v>-0.07490874065130551</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1355,6 +1391,9 @@
       <c r="W13" t="n">
         <v>-0.03150769733376271</v>
       </c>
+      <c r="X13" t="n">
+        <v>-0.03277316874091617</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1426,6 +1465,9 @@
       <c r="W14" t="n">
         <v>0.05779344388946225</v>
       </c>
+      <c r="X14" t="n">
+        <v>0.05507141106552588</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1497,6 +1539,9 @@
       <c r="W15" t="n">
         <v>-0.07296115982437645</v>
       </c>
+      <c r="X15" t="n">
+        <v>-0.07727044915610048</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1568,6 +1613,9 @@
       <c r="W16" t="n">
         <v>0.3224468950329503</v>
       </c>
+      <c r="X16" t="n">
+        <v>0.3183251263428261</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1639,6 +1687,9 @@
       <c r="W17" t="n">
         <v>0.4475040894027783</v>
       </c>
+      <c r="X17" t="n">
+        <v>0.4433390194302749</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1710,6 +1761,9 @@
       <c r="W18" t="n">
         <v>-0.1393191862376515</v>
       </c>
+      <c r="X18" t="n">
+        <v>-0.1412480156594708</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1781,6 +1835,9 @@
       <c r="W19" t="n">
         <v>0.3252889337109794</v>
       </c>
+      <c r="X19" t="n">
+        <v>0.3223360066122338</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1852,6 +1909,9 @@
       <c r="W20" t="n">
         <v>0.2269680499416555</v>
       </c>
+      <c r="X20" t="n">
+        <v>0.2221282486761757</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1923,6 +1983,9 @@
       <c r="W21" t="n">
         <v>0.5126660045870256</v>
       </c>
+      <c r="X21" t="n">
+        <v>0.5084629821221968</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1994,6 +2057,9 @@
       <c r="W22" t="n">
         <v>0.2717738382023336</v>
       </c>
+      <c r="X22" t="n">
+        <v>0.2680516768969055</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2065,6 +2131,9 @@
       <c r="W23" t="n">
         <v>-0.1411367596954193</v>
       </c>
+      <c r="X23" t="n">
+        <v>-0.1449298198943952</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2136,6 +2205,9 @@
       <c r="W24" t="n">
         <v>1.765424524241436</v>
       </c>
+      <c r="X24" t="n">
+        <v>1.713700386692233</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2207,6 +2279,9 @@
       <c r="W25" t="n">
         <v>0.3115312473739955</v>
       </c>
+      <c r="X25" t="n">
+        <v>0.312060129531067</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2278,6 +2353,9 @@
       <c r="W26" t="n">
         <v>0.1706820403648422</v>
       </c>
+      <c r="X26" t="n">
+        <v>0.1683311529735928</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2349,6 +2427,9 @@
       <c r="W27" t="n">
         <v>0.05223786672851045</v>
       </c>
+      <c r="X27" t="n">
+        <v>0.05096788428146979</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2420,6 +2501,9 @@
       <c r="W28" t="n">
         <v>0.8129119209427795</v>
       </c>
+      <c r="X28" t="n">
+        <v>0.8136493249258382</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2491,6 +2575,9 @@
       <c r="W29" t="n">
         <v>1.765132190315524</v>
       </c>
+      <c r="X29" t="n">
+        <v>1.744482901474276</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2562,6 +2649,9 @@
       <c r="W30" t="n">
         <v>0.6714756439132686</v>
       </c>
+      <c r="X30" t="n">
+        <v>0.6709258149467545</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2633,6 +2723,9 @@
       <c r="W31" t="n">
         <v>-0.4197116961192162</v>
       </c>
+      <c r="X31" t="n">
+        <v>-0.4191216671811899</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2704,6 +2797,9 @@
       <c r="W32" t="n">
         <v>0.5641270559701259</v>
       </c>
+      <c r="X32" t="n">
+        <v>0.5636151200619223</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2775,6 +2871,9 @@
       <c r="W33" t="n">
         <v>0.7645340794307565</v>
       </c>
+      <c r="X33" t="n">
+        <v>0.7647331483324581</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2846,6 +2945,9 @@
       <c r="W34" t="n">
         <v>-0.8061715744329297</v>
       </c>
+      <c r="X34" t="n">
+        <v>-0.8072090999016851</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2917,6 +3019,9 @@
       <c r="W35" t="n">
         <v>0.8159149406672224</v>
       </c>
+      <c r="X35" t="n">
+        <v>0.8165493545301272</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2988,6 +3093,9 @@
       <c r="W36" t="n">
         <v>0.7813540162991706</v>
       </c>
+      <c r="X36" t="n">
+        <v>0.7826496692611602</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3059,6 +3167,9 @@
       <c r="W37" t="n">
         <v>0.7466193969607575</v>
       </c>
+      <c r="X37" t="n">
+        <v>0.7479538362690341</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3130,6 +3241,9 @@
       <c r="W38" t="n">
         <v>0.6545393933057702</v>
       </c>
+      <c r="X38" t="n">
+        <v>0.6549969534265401</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3201,6 +3315,9 @@
       <c r="W39" t="n">
         <v>0.6149227311843999</v>
       </c>
+      <c r="X39" t="n">
+        <v>0.6152883999345928</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3272,6 +3389,9 @@
       <c r="W40" t="n">
         <v>0.7802384128195469</v>
       </c>
+      <c r="X40" t="n">
+        <v>0.7807063075998765</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3343,6 +3463,9 @@
       <c r="W41" t="n">
         <v>0.5716509430168295</v>
       </c>
+      <c r="X41" t="n">
+        <v>0.5726364741009126</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3414,6 +3537,9 @@
       <c r="W42" t="n">
         <v>0.6460215279918328</v>
       </c>
+      <c r="X42" t="n">
+        <v>0.646915640358899</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3485,6 +3611,9 @@
       <c r="W43" t="n">
         <v>0.682911489073029</v>
       </c>
+      <c r="X43" t="n">
+        <v>0.6835522764212739</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3556,6 +3685,9 @@
       <c r="W44" t="n">
         <v>0.7067507252181005</v>
       </c>
+      <c r="X44" t="n">
+        <v>0.7076726008915747</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3627,6 +3759,9 @@
       <c r="W45" t="n">
         <v>0.7213856633230831</v>
       </c>
+      <c r="X45" t="n">
+        <v>0.7230818617013979</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3698,6 +3833,9 @@
       <c r="W46" t="n">
         <v>-1.2506006612886</v>
       </c>
+      <c r="X46" t="n">
+        <v>-1.253809670326494</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3769,6 +3907,9 @@
       <c r="W47" t="n">
         <v>-0.9703828116665441</v>
       </c>
+      <c r="X47" t="n">
+        <v>-0.9729947940809968</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3840,6 +3981,9 @@
       <c r="W48" t="n">
         <v>-0.8335251244540873</v>
       </c>
+      <c r="X48" t="n">
+        <v>-0.8356676229356259</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3911,6 +4055,9 @@
       <c r="W49" t="n">
         <v>-0.6063406721043461</v>
       </c>
+      <c r="X49" t="n">
+        <v>-0.6082090138646337</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3982,6 +4129,9 @@
       <c r="W50" t="n">
         <v>-0.04645656130875736</v>
       </c>
+      <c r="X50" t="n">
+        <v>-0.04796237475446322</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4053,6 +4203,9 @@
       <c r="W51" t="n">
         <v>-0.8165298341879504</v>
       </c>
+      <c r="X51" t="n">
+        <v>-0.8183176818887805</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4124,6 +4277,9 @@
       <c r="W52" t="n">
         <v>-0.8165298341879504</v>
       </c>
+      <c r="X52" t="n">
+        <v>-0.8183176818887805</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4195,6 +4351,9 @@
       <c r="W53" t="n">
         <v>-1.090807983139189</v>
       </c>
+      <c r="X53" t="n">
+        <v>-1.093435510518323</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4266,6 +4425,9 @@
       <c r="W54" t="n">
         <v>-0.1519827581360839</v>
       </c>
+      <c r="X54" t="n">
+        <v>-0.1534739616452469</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4337,6 +4499,9 @@
       <c r="W55" t="n">
         <v>-0.989159805017955</v>
       </c>
+      <c r="X55" t="n">
+        <v>-0.9920183741498846</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4408,6 +4573,9 @@
       <c r="W56" t="n">
         <v>-0.8700911165291773</v>
       </c>
+      <c r="X56" t="n">
+        <v>-0.8729878552078789</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4479,6 +4647,9 @@
       <c r="W57" t="n">
         <v>-0.9316596893515082</v>
       </c>
+      <c r="X57" t="n">
+        <v>-0.9352741160503004</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4550,6 +4721,9 @@
       <c r="W58" t="n">
         <v>-1.076533510440571</v>
       </c>
+      <c r="X58" t="n">
+        <v>-1.080039028524033</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4621,6 +4795,9 @@
       <c r="W59" t="n">
         <v>-0.7687406122387341</v>
       </c>
+      <c r="X59" t="n">
+        <v>-0.7710452275138953</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4692,6 +4869,9 @@
       <c r="W60" t="n">
         <v>-0.4220872670891507</v>
       </c>
+      <c r="X60" t="n">
+        <v>-0.4241021093889643</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4763,6 +4943,9 @@
       <c r="W61" t="n">
         <v>0.3887538737720945</v>
       </c>
+      <c r="X61" t="n">
+        <v>0.3882467721751097</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4834,6 +5017,9 @@
       <c r="W62" t="n">
         <v>-1.185913277376446</v>
       </c>
+      <c r="X62" t="n">
+        <v>-1.19025974102591</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4905,6 +5091,9 @@
       <c r="W63" t="n">
         <v>-0.5512551929666717</v>
       </c>
+      <c r="X63" t="n">
+        <v>-0.5521715706011352</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4976,6 +5165,9 @@
       <c r="W64" t="n">
         <v>-0.8397276545579039</v>
       </c>
+      <c r="X64" t="n">
+        <v>-0.8418403208448578</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5047,6 +5239,9 @@
       <c r="W65" t="n">
         <v>-0.03372804703582386</v>
       </c>
+      <c r="X65" t="n">
+        <v>-0.03538193976198781</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5118,6 +5313,9 @@
       <c r="W66" t="n">
         <v>-0.7684978917780396</v>
       </c>
+      <c r="X66" t="n">
+        <v>-0.772228926943563</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5188,6 +5386,9 @@
       </c>
       <c r="W67" t="n">
         <v>-0.7439618508401181</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7485738229916772</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>-0.2218725200276776</v>
       </c>
+      <c r="Y2" t="n">
+        <v>-0.2229164128165976</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>0.2378585122055614</v>
       </c>
+      <c r="Y3" t="n">
+        <v>0.2375219963377464</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>0.2328455062421774</v>
       </c>
+      <c r="Y4" t="n">
+        <v>0.2324718923339797</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>-0.0514328698743593</v>
       </c>
+      <c r="Y5" t="n">
+        <v>-0.05266041964916734</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>0.1916578542347612</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.1910605786115213</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.3738885465534178</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.3750148213128235</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1024,6 +1045,9 @@
       <c r="X8" t="n">
         <v>-0.1301143517726162</v>
       </c>
+      <c r="Y8" t="n">
+        <v>-0.1301527179780867</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1098,6 +1122,9 @@
       <c r="X9" t="n">
         <v>-0.3166726905207742</v>
       </c>
+      <c r="Y9" t="n">
+        <v>-0.3167940719718384</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1172,6 +1199,9 @@
       <c r="X10" t="n">
         <v>0.4004248995031581</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.3995445545442861</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1246,6 +1276,9 @@
       <c r="X11" t="n">
         <v>-0.1783736973263915</v>
       </c>
+      <c r="Y11" t="n">
+        <v>-0.1796111253729207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1320,6 +1353,9 @@
       <c r="X12" t="n">
         <v>-0.07490874065130551</v>
       </c>
+      <c r="Y12" t="n">
+        <v>-0.07715729987111244</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1394,6 +1430,9 @@
       <c r="X13" t="n">
         <v>-0.03277316874091617</v>
       </c>
+      <c r="Y13" t="n">
+        <v>-0.03402980724511907</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1468,6 +1507,9 @@
       <c r="X14" t="n">
         <v>0.05507141106552588</v>
       </c>
+      <c r="Y14" t="n">
+        <v>0.05253947231124977</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1542,6 +1584,9 @@
       <c r="X15" t="n">
         <v>-0.07727044915610048</v>
       </c>
+      <c r="Y15" t="n">
+        <v>-0.08124772102562434</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1616,6 +1661,9 @@
       <c r="X16" t="n">
         <v>0.3183251263428261</v>
       </c>
+      <c r="Y16" t="n">
+        <v>0.3145735368594029</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1690,6 +1738,9 @@
       <c r="X17" t="n">
         <v>0.4433390194302749</v>
       </c>
+      <c r="Y17" t="n">
+        <v>0.4396539479608437</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1764,6 +1815,9 @@
       <c r="X18" t="n">
         <v>-0.1412480156594708</v>
       </c>
+      <c r="Y18" t="n">
+        <v>-0.1429912390696898</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1838,6 +1892,9 @@
       <c r="X19" t="n">
         <v>0.3223360066122338</v>
       </c>
+      <c r="Y19" t="n">
+        <v>0.319580162339223</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1912,6 +1969,9 @@
       <c r="X20" t="n">
         <v>0.2221282486761757</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0.2177200087806546</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1986,6 +2046,9 @@
       <c r="X21" t="n">
         <v>0.5084629821221968</v>
       </c>
+      <c r="Y21" t="n">
+        <v>0.5046506887513934</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2060,6 +2123,9 @@
       <c r="X22" t="n">
         <v>0.2680516768969055</v>
       </c>
+      <c r="Y22" t="n">
+        <v>0.2647323362612237</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2134,6 +2200,9 @@
       <c r="X23" t="n">
         <v>-0.1449298198943952</v>
       </c>
+      <c r="Y23" t="n">
+        <v>-0.1483907915951215</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2208,6 +2277,9 @@
       <c r="X24" t="n">
         <v>1.713700386692233</v>
       </c>
+      <c r="Y24" t="n">
+        <v>1.668784924763959</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2282,6 +2354,9 @@
       <c r="X25" t="n">
         <v>0.312060129531067</v>
       </c>
+      <c r="Y25" t="n">
+        <v>0.3126676455878378</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2356,6 +2431,9 @@
       <c r="X26" t="n">
         <v>0.1683311529735928</v>
       </c>
+      <c r="Y26" t="n">
+        <v>0.1663015104780071</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2430,6 +2508,9 @@
       <c r="X27" t="n">
         <v>0.05096788428146979</v>
       </c>
+      <c r="Y27" t="n">
+        <v>0.04997090271858175</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2504,6 +2585,9 @@
       <c r="X28" t="n">
         <v>0.8136493249258382</v>
       </c>
+      <c r="Y28" t="n">
+        <v>0.8145783443171204</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2578,6 +2662,9 @@
       <c r="X29" t="n">
         <v>1.744482901474276</v>
       </c>
+      <c r="Y29" t="n">
+        <v>1.728342594926274</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2652,6 +2739,9 @@
       <c r="X30" t="n">
         <v>0.6709258149467545</v>
       </c>
+      <c r="Y30" t="n">
+        <v>0.6706291999864</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2726,6 +2816,9 @@
       <c r="X31" t="n">
         <v>-0.4191216671811899</v>
       </c>
+      <c r="Y31" t="n">
+        <v>-0.418582528802377</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2800,6 +2893,9 @@
       <c r="X32" t="n">
         <v>0.5636151200619223</v>
       </c>
+      <c r="Y32" t="n">
+        <v>0.5632803834685282</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2874,6 +2970,9 @@
       <c r="X33" t="n">
         <v>0.7647331483324581</v>
       </c>
+      <c r="Y33" t="n">
+        <v>0.7650127049634304</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2948,6 +3047,9 @@
       <c r="X34" t="n">
         <v>-0.8072090999016851</v>
       </c>
+      <c r="Y34" t="n">
+        <v>-0.808221544250874</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3022,6 +3124,9 @@
       <c r="X35" t="n">
         <v>0.8165493545301272</v>
       </c>
+      <c r="Y35" t="n">
+        <v>0.8171592643834438</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3096,6 +3201,9 @@
       <c r="X36" t="n">
         <v>0.7826496692611602</v>
       </c>
+      <c r="Y36" t="n">
+        <v>0.783838311902924</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3170,6 +3278,9 @@
       <c r="X37" t="n">
         <v>0.7479538362690341</v>
       </c>
+      <c r="Y37" t="n">
+        <v>0.7491832696610645</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3244,6 +3355,9 @@
       <c r="X38" t="n">
         <v>0.6549969534265401</v>
       </c>
+      <c r="Y38" t="n">
+        <v>0.6554611395886168</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3318,6 +3432,9 @@
       <c r="X39" t="n">
         <v>0.6152883999345928</v>
       </c>
+      <c r="Y39" t="n">
+        <v>0.6155827706080924</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3392,6 +3509,9 @@
       <c r="X40" t="n">
         <v>0.7807063075998765</v>
       </c>
+      <c r="Y40" t="n">
+        <v>0.7811497188007106</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3466,6 +3586,9 @@
       <c r="X41" t="n">
         <v>0.5726364741009126</v>
       </c>
+      <c r="Y41" t="n">
+        <v>0.5735363135039471</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3540,6 +3663,9 @@
       <c r="X42" t="n">
         <v>0.646915640358899</v>
       </c>
+      <c r="Y42" t="n">
+        <v>0.6477442815826222</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3614,6 +3740,9 @@
       <c r="X43" t="n">
         <v>0.6835522764212739</v>
       </c>
+      <c r="Y43" t="n">
+        <v>0.684157637325887</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3688,6 +3817,9 @@
       <c r="X44" t="n">
         <v>0.7076726008915747</v>
       </c>
+      <c r="Y44" t="n">
+        <v>0.708496021239847</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3762,6 +3894,9 @@
       <c r="X45" t="n">
         <v>0.7230818617013979</v>
       </c>
+      <c r="Y45" t="n">
+        <v>0.7245711667479442</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3836,6 +3971,9 @@
       <c r="X46" t="n">
         <v>-1.253809670326494</v>
       </c>
+      <c r="Y46" t="n">
+        <v>-1.257141635522727</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3910,6 +4048,9 @@
       <c r="X47" t="n">
         <v>-0.9729947940809968</v>
       </c>
+      <c r="Y47" t="n">
+        <v>-0.9757139722104105</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3984,6 +4125,9 @@
       <c r="X48" t="n">
         <v>-0.8356676229356259</v>
       </c>
+      <c r="Y48" t="n">
+        <v>-0.8379913002485263</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4058,6 +4202,9 @@
       <c r="X49" t="n">
         <v>-0.6082090138646337</v>
       </c>
+      <c r="Y49" t="n">
+        <v>-0.610219268554356</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4132,6 +4279,9 @@
       <c r="X50" t="n">
         <v>-0.04796237475446322</v>
       </c>
+      <c r="Y50" t="n">
+        <v>-0.04950411840230587</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4206,6 +4356,9 @@
       <c r="X51" t="n">
         <v>-0.8183176818887805</v>
       </c>
+      <c r="Y51" t="n">
+        <v>-0.8202818469539295</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4280,6 +4433,9 @@
       <c r="X52" t="n">
         <v>-0.8183176818887805</v>
       </c>
+      <c r="Y52" t="n">
+        <v>-0.8202818469539295</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4354,6 +4510,9 @@
       <c r="X53" t="n">
         <v>-1.093435510518323</v>
       </c>
+      <c r="Y53" t="n">
+        <v>-1.096248952391423</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4428,6 +4587,9 @@
       <c r="X54" t="n">
         <v>-0.1534739616452469</v>
       </c>
+      <c r="Y54" t="n">
+        <v>-0.1550574594324963</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4502,6 +4664,9 @@
       <c r="X55" t="n">
         <v>-0.9920183741498846</v>
       </c>
+      <c r="Y55" t="n">
+        <v>-0.9949815705083452</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4576,6 +4741,9 @@
       <c r="X56" t="n">
         <v>-0.8729878552078789</v>
       </c>
+      <c r="Y56" t="n">
+        <v>-0.8759144175329135</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4650,6 +4818,9 @@
       <c r="X57" t="n">
         <v>-0.9352741160503004</v>
       </c>
+      <c r="Y57" t="n">
+        <v>-0.9388798856106638</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4724,6 +4895,9 @@
       <c r="X58" t="n">
         <v>-1.080039028524033</v>
       </c>
+      <c r="Y58" t="n">
+        <v>-1.083549937120232</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4798,6 +4972,9 @@
       <c r="X59" t="n">
         <v>-0.7710452275138953</v>
       </c>
+      <c r="Y59" t="n">
+        <v>-0.7734745881568201</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4872,6 +5049,9 @@
       <c r="X60" t="n">
         <v>-0.4241021093889643</v>
       </c>
+      <c r="Y60" t="n">
+        <v>-0.4261625446456836</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4946,6 +5126,9 @@
       <c r="X61" t="n">
         <v>0.3882467721751097</v>
       </c>
+      <c r="Y61" t="n">
+        <v>0.3877106009042697</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5020,6 +5203,9 @@
       <c r="X62" t="n">
         <v>-1.19025974102591</v>
       </c>
+      <c r="Y62" t="n">
+        <v>-1.19459700043431</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5094,6 +5280,9 @@
       <c r="X63" t="n">
         <v>-0.5521715706011352</v>
       </c>
+      <c r="Y63" t="n">
+        <v>-0.5533136595972483</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5168,6 +5357,9 @@
       <c r="X64" t="n">
         <v>-0.8418403208448578</v>
       </c>
+      <c r="Y64" t="n">
+        <v>-0.8441322289537929</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5242,6 +5434,9 @@
       <c r="X65" t="n">
         <v>-0.03538193976198781</v>
       </c>
+      <c r="Y65" t="n">
+        <v>-0.03707256976968863</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5316,6 +5511,9 @@
       <c r="X66" t="n">
         <v>-0.772228926943563</v>
       </c>
+      <c r="Y66" t="n">
+        <v>-0.7758790437335429</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5389,6 +5587,9 @@
       </c>
       <c r="X67" t="n">
         <v>-0.7485738229916772</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7530113829985912</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>-0.2229164128165976</v>
       </c>
+      <c r="Z2" t="n">
+        <v>-0.2240502149117583</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>0.2375219963377464</v>
       </c>
+      <c r="Z3" t="n">
+        <v>0.237144710466678</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>0.2324718923339797</v>
       </c>
+      <c r="Z4" t="n">
+        <v>0.2319825809195361</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>-0.05266041964916734</v>
       </c>
+      <c r="Z5" t="n">
+        <v>-0.05389220656272219</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>0.1910605786115213</v>
       </c>
+      <c r="Z6" t="n">
+        <v>0.1904628723043869</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.3750148213128235</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.3762563768257994</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1069,9 @@
       <c r="Y8" t="n">
         <v>-0.1301527179780867</v>
       </c>
+      <c r="Z8" t="n">
+        <v>-0.1303538617981285</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1125,6 +1149,9 @@
       <c r="Y9" t="n">
         <v>-0.3167940719718384</v>
       </c>
+      <c r="Z9" t="n">
+        <v>-0.3170917213882337</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1202,6 +1229,9 @@
       <c r="Y10" t="n">
         <v>0.3995445545442861</v>
       </c>
+      <c r="Z10" t="n">
+        <v>0.3986744792785481</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1279,6 +1309,9 @@
       <c r="Y11" t="n">
         <v>-0.1796111253729207</v>
       </c>
+      <c r="Z11" t="n">
+        <v>-0.1809224040845508</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1356,6 +1389,9 @@
       <c r="Y12" t="n">
         <v>-0.07715729987111244</v>
       </c>
+      <c r="Z12" t="n">
+        <v>-0.0793230763670045</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1433,6 +1469,9 @@
       <c r="Y13" t="n">
         <v>-0.03402980724511907</v>
       </c>
+      <c r="Z13" t="n">
+        <v>-0.03527285278574785</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1510,6 +1549,9 @@
       <c r="Y14" t="n">
         <v>0.05253947231124977</v>
       </c>
+      <c r="Z14" t="n">
+        <v>0.05019007480298807</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1587,6 +1629,9 @@
       <c r="Y15" t="n">
         <v>-0.08124772102562434</v>
       </c>
+      <c r="Z15" t="n">
+        <v>-0.084912812050529</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1664,6 +1709,9 @@
       <c r="Y16" t="n">
         <v>0.3145735368594029</v>
       </c>
+      <c r="Z16" t="n">
+        <v>0.3111682643811203</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1741,6 +1789,9 @@
       <c r="Y17" t="n">
         <v>0.4396539479608437</v>
       </c>
+      <c r="Z17" t="n">
+        <v>0.436403075584762</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1818,6 +1869,9 @@
       <c r="Y18" t="n">
         <v>-0.1429912390696898</v>
       </c>
+      <c r="Z18" t="n">
+        <v>-0.1445761115269062</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1895,6 +1949,9 @@
       <c r="Y19" t="n">
         <v>0.319580162339223</v>
       </c>
+      <c r="Z19" t="n">
+        <v>0.3170092011514547</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1972,6 +2029,9 @@
       <c r="Y20" t="n">
         <v>0.2177200087806546</v>
       </c>
+      <c r="Z20" t="n">
+        <v>0.2137137551876056</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2049,6 +2109,9 @@
       <c r="Y21" t="n">
         <v>0.5046506887513934</v>
       </c>
+      <c r="Z21" t="n">
+        <v>0.5012085808804169</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2126,6 +2189,9 @@
       <c r="Y22" t="n">
         <v>0.2647323362612237</v>
       </c>
+      <c r="Z22" t="n">
+        <v>0.2617805787127881</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2203,6 +2269,9 @@
       <c r="Y23" t="n">
         <v>-0.1483907915951215</v>
       </c>
+      <c r="Z23" t="n">
+        <v>-0.1515429216716466</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2280,6 +2349,9 @@
       <c r="Y24" t="n">
         <v>1.668784924763959</v>
       </c>
+      <c r="Z24" t="n">
+        <v>1.630014134961048</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2357,6 +2429,9 @@
       <c r="Y25" t="n">
         <v>0.3126676455878378</v>
       </c>
+      <c r="Z25" t="n">
+        <v>0.3133266776284384</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2434,6 +2509,9 @@
       <c r="Y26" t="n">
         <v>0.1663015104780071</v>
       </c>
+      <c r="Z26" t="n">
+        <v>0.1645533561157256</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2511,6 +2589,9 @@
       <c r="Y27" t="n">
         <v>0.04997090271858175</v>
       </c>
+      <c r="Z27" t="n">
+        <v>0.04920517209046042</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2588,6 +2669,9 @@
       <c r="Y28" t="n">
         <v>0.8145783443171204</v>
       </c>
+      <c r="Z28" t="n">
+        <v>0.8156564776396863</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2665,6 +2749,9 @@
       <c r="Y29" t="n">
         <v>1.728342594926274</v>
       </c>
+      <c r="Z29" t="n">
+        <v>1.716007053836862</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2742,6 +2829,9 @@
       <c r="Y30" t="n">
         <v>0.6706291999864</v>
       </c>
+      <c r="Z30" t="n">
+        <v>0.670535736167628</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2819,6 +2909,9 @@
       <c r="Y31" t="n">
         <v>-0.418582528802377</v>
       </c>
+      <c r="Z31" t="n">
+        <v>-0.4181065727182686</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2896,6 +2989,9 @@
       <c r="Y32" t="n">
         <v>0.5632803834685282</v>
       </c>
+      <c r="Z32" t="n">
+        <v>0.5630885132624563</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2973,6 +3069,9 @@
       <c r="Y33" t="n">
         <v>0.7650127049634304</v>
       </c>
+      <c r="Z33" t="n">
+        <v>0.7653507745527561</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3050,6 +3149,9 @@
       <c r="Y34" t="n">
         <v>-0.808221544250874</v>
       </c>
+      <c r="Z34" t="n">
+        <v>-0.8092153711990423</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3127,6 +3229,9 @@
       <c r="Y35" t="n">
         <v>0.8171592643834438</v>
       </c>
+      <c r="Z35" t="n">
+        <v>0.8177449620416593</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3204,6 +3309,9 @@
       <c r="Y36" t="n">
         <v>0.783838311902924</v>
       </c>
+      <c r="Z36" t="n">
+        <v>0.7849267124883521</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3281,6 +3389,9 @@
       <c r="Y37" t="n">
         <v>0.7491832696610645</v>
       </c>
+      <c r="Z37" t="n">
+        <v>0.7503133945278926</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3358,6 +3469,9 @@
       <c r="Y38" t="n">
         <v>0.6554611395886168</v>
       </c>
+      <c r="Z38" t="n">
+        <v>0.6559232623314418</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3435,6 +3549,9 @@
       <c r="Y39" t="n">
         <v>0.6155827706080924</v>
       </c>
+      <c r="Z39" t="n">
+        <v>0.615815781459114</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3512,6 +3629,9 @@
       <c r="Y40" t="n">
         <v>0.7811497188007106</v>
       </c>
+      <c r="Z40" t="n">
+        <v>0.7815724844920344</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3589,6 +3709,9 @@
       <c r="Y41" t="n">
         <v>0.5735363135039471</v>
       </c>
+      <c r="Z41" t="n">
+        <v>0.5743556036222559</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3666,6 +3789,9 @@
       <c r="Y42" t="n">
         <v>0.6477442815826222</v>
       </c>
+      <c r="Z42" t="n">
+        <v>0.6485070691938605</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3743,6 +3869,9 @@
       <c r="Y43" t="n">
         <v>0.684157637325887</v>
       </c>
+      <c r="Z43" t="n">
+        <v>0.6847257839923107</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3820,6 +3949,9 @@
       <c r="Y44" t="n">
         <v>0.708496021239847</v>
       </c>
+      <c r="Z44" t="n">
+        <v>0.7092301570196784</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3897,6 +4029,9 @@
       <c r="Y45" t="n">
         <v>0.7245711667479442</v>
       </c>
+      <c r="Z45" t="n">
+        <v>0.7258743144348061</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3974,6 +4109,9 @@
       <c r="Y46" t="n">
         <v>-1.257141635522727</v>
       </c>
+      <c r="Z46" t="n">
+        <v>-1.260560268660561</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4051,6 +4189,9 @@
       <c r="Y47" t="n">
         <v>-0.9757139722104105</v>
       </c>
+      <c r="Z47" t="n">
+        <v>-0.9785100489986567</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4128,6 +4269,9 @@
       <c r="Y48" t="n">
         <v>-0.8379913002485263</v>
       </c>
+      <c r="Z48" t="n">
+        <v>-0.8404577796416995</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4205,6 +4349,9 @@
       <c r="Y49" t="n">
         <v>-0.610219268554356</v>
       </c>
+      <c r="Z49" t="n">
+        <v>-0.6123397578290788</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4282,6 +4429,9 @@
       <c r="Y50" t="n">
         <v>-0.04950411840230587</v>
       </c>
+      <c r="Z50" t="n">
+        <v>-0.05106756176565372</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4359,6 +4509,9 @@
       <c r="Y51" t="n">
         <v>-0.8202818469539295</v>
       </c>
+      <c r="Z51" t="n">
+        <v>-0.8223856885176429</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4436,6 +4589,9 @@
       <c r="Y52" t="n">
         <v>-0.8202818469539295</v>
       </c>
+      <c r="Z52" t="n">
+        <v>-0.8223856885176429</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4513,6 +4669,9 @@
       <c r="Y53" t="n">
         <v>-1.096248952391423</v>
       </c>
+      <c r="Z53" t="n">
+        <v>-1.099209389764038</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4590,6 +4749,9 @@
       <c r="Y54" t="n">
         <v>-0.1550574594324963</v>
       </c>
+      <c r="Z54" t="n">
+        <v>-0.1567097566560935</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4667,6 +4829,9 @@
       <c r="Y55" t="n">
         <v>-0.9949815705083452</v>
       </c>
+      <c r="Z55" t="n">
+        <v>-0.9980177410006812</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4744,6 +4909,9 @@
       <c r="Y56" t="n">
         <v>-0.8759144175329135</v>
       </c>
+      <c r="Z56" t="n">
+        <v>-0.8788467103986166</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4821,6 +4989,9 @@
       <c r="Y57" t="n">
         <v>-0.9388798856106638</v>
       </c>
+      <c r="Z57" t="n">
+        <v>-0.9424556075944516</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4898,6 +5069,9 @@
       <c r="Y58" t="n">
         <v>-1.083549937120232</v>
       </c>
+      <c r="Z58" t="n">
+        <v>-1.08703903792208</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4975,6 +5149,9 @@
       <c r="Y59" t="n">
         <v>-0.7734745881568201</v>
       </c>
+      <c r="Z59" t="n">
+        <v>-0.775992658042753</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5052,6 +5229,9 @@
       <c r="Y60" t="n">
         <v>-0.4261625446456836</v>
       </c>
+      <c r="Z60" t="n">
+        <v>-0.4282442504232397</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5129,6 +5309,9 @@
       <c r="Y61" t="n">
         <v>0.3877106009042697</v>
       </c>
+      <c r="Z61" t="n">
+        <v>0.387153354177773</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5206,6 +5389,9 @@
       <c r="Y62" t="n">
         <v>-1.19459700043431</v>
       </c>
+      <c r="Z62" t="n">
+        <v>-1.198897226690591</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5283,6 +5469,9 @@
       <c r="Y63" t="n">
         <v>-0.5533136595972483</v>
       </c>
+      <c r="Z63" t="n">
+        <v>-0.554633118042404</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5360,6 +5549,9 @@
       <c r="Y64" t="n">
         <v>-0.8441322289537929</v>
       </c>
+      <c r="Z64" t="n">
+        <v>-0.8465650443457573</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5437,6 +5629,9 @@
       <c r="Y65" t="n">
         <v>-0.03707256976968863</v>
       </c>
+      <c r="Z65" t="n">
+        <v>-0.03877841447786273</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5514,6 +5709,9 @@
       <c r="Y66" t="n">
         <v>-0.7758790437335429</v>
       </c>
+      <c r="Z66" t="n">
+        <v>-0.7794319891057016</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5590,6 +5788,9 @@
       </c>
       <c r="Y67" t="n">
         <v>-0.7530113829985912</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7572629810005337</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>-0.2240502149117583</v>
       </c>
+      <c r="AA2" t="n">
+        <v>-0.2252508187042603</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>0.237144710466678</v>
       </c>
+      <c r="AA3" t="n">
+        <v>0.236734284839549</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>0.2319825809195361</v>
       </c>
+      <c r="AA4" t="n">
+        <v>0.2313992436493722</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>-0.05389220656272219</v>
       </c>
+      <c r="AA5" t="n">
+        <v>-0.0551188993018888</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>0.1904628723043869</v>
       </c>
+      <c r="AA6" t="n">
+        <v>0.1898710270644039</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.3762563768257994</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.3775874940033097</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1093,9 @@
       <c r="Z8" t="n">
         <v>-0.1303538617981285</v>
       </c>
+      <c r="AA8" t="n">
+        <v>-0.1306891806618528</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1152,6 +1176,9 @@
       <c r="Z9" t="n">
         <v>-0.3170917213882337</v>
       </c>
+      <c r="AA9" t="n">
+        <v>-0.3175392135136639</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1232,6 +1259,9 @@
       <c r="Z10" t="n">
         <v>0.3986744792785481</v>
       </c>
+      <c r="AA10" t="n">
+        <v>0.39782135135987</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1312,6 +1342,9 @@
       <c r="Z11" t="n">
         <v>-0.1809224040845508</v>
       </c>
+      <c r="AA11" t="n">
+        <v>-0.1822868839984886</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1392,6 +1425,9 @@
       <c r="Z12" t="n">
         <v>-0.0793230763670045</v>
       </c>
+      <c r="AA12" t="n">
+        <v>-0.08140238195310737</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1472,6 +1508,9 @@
       <c r="Z13" t="n">
         <v>-0.03527285278574785</v>
       </c>
+      <c r="AA13" t="n">
+        <v>-0.03649808748190788</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1552,6 +1591,9 @@
       <c r="Z14" t="n">
         <v>0.05019007480298807</v>
       </c>
+      <c r="AA14" t="n">
+        <v>0.04801434113860706</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1632,6 +1674,9 @@
       <c r="Z15" t="n">
         <v>-0.084912812050529</v>
       </c>
+      <c r="AA15" t="n">
+        <v>-0.08828622954690572</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1712,6 +1757,9 @@
       <c r="Z16" t="n">
         <v>0.3111682643811203</v>
       </c>
+      <c r="AA16" t="n">
+        <v>0.3080845731120279</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1792,6 +1840,9 @@
       <c r="Z17" t="n">
         <v>0.436403075584762</v>
       </c>
+      <c r="AA17" t="n">
+        <v>0.4335429608184864</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1872,6 +1923,9 @@
       <c r="Z18" t="n">
         <v>-0.1445761115269062</v>
       </c>
+      <c r="AA18" t="n">
+        <v>-0.1460256760817185</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1952,6 +2006,9 @@
       <c r="Z19" t="n">
         <v>0.3170092011514547</v>
       </c>
+      <c r="AA19" t="n">
+        <v>0.3146110446337167</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2032,6 +2089,9 @@
       <c r="Z20" t="n">
         <v>0.2137137551876056</v>
       </c>
+      <c r="AA20" t="n">
+        <v>0.2100794783573012</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2112,6 +2172,9 @@
       <c r="Z21" t="n">
         <v>0.5012085808804169</v>
       </c>
+      <c r="AA21" t="n">
+        <v>0.4981135945520768</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2192,6 +2255,9 @@
       <c r="Z22" t="n">
         <v>0.2617805787127881</v>
       </c>
+      <c r="AA22" t="n">
+        <v>0.2591623679595418</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2272,6 +2338,9 @@
       <c r="Z23" t="n">
         <v>-0.1515429216716466</v>
       </c>
+      <c r="AA23" t="n">
+        <v>-0.1544095696890361</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2352,6 +2421,9 @@
       <c r="Z24" t="n">
         <v>1.630014134961048</v>
       </c>
+      <c r="AA24" t="n">
+        <v>1.596754744316405</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2432,6 +2504,9 @@
       <c r="Z25" t="n">
         <v>0.3133266776284384</v>
       </c>
+      <c r="AA25" t="n">
+        <v>0.3140154411849443</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2512,6 +2587,9 @@
       <c r="Z26" t="n">
         <v>0.1645533561157256</v>
       </c>
+      <c r="AA26" t="n">
+        <v>0.1630509316582373</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2592,6 +2670,9 @@
       <c r="Z27" t="n">
         <v>0.04920517209046042</v>
       </c>
+      <c r="AA27" t="n">
+        <v>0.04863411788983316</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2672,6 +2753,9 @@
       <c r="Z28" t="n">
         <v>0.8156564776396863</v>
       </c>
+      <c r="AA28" t="n">
+        <v>0.8168473837972057</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2752,6 +2836,9 @@
       <c r="Z29" t="n">
         <v>1.716007053836862</v>
       </c>
+      <c r="AA29" t="n">
+        <v>1.706861805390062</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2832,6 +2919,9 @@
       <c r="Z30" t="n">
         <v>0.670535736167628</v>
       </c>
+      <c r="AA30" t="n">
+        <v>0.6706030899343197</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2912,6 +3002,9 @@
       <c r="Z31" t="n">
         <v>-0.4181065727182686</v>
       </c>
+      <c r="AA31" t="n">
+        <v>-0.4177011199695333</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2992,6 +3085,9 @@
       <c r="Z32" t="n">
         <v>0.5630885132624563</v>
       </c>
+      <c r="AA32" t="n">
+        <v>0.5630104905974721</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3072,6 +3168,9 @@
       <c r="Z33" t="n">
         <v>0.7653507745527561</v>
       </c>
+      <c r="AA33" t="n">
+        <v>0.7657293667013432</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3152,6 +3251,9 @@
       <c r="Z34" t="n">
         <v>-0.8092153711990423</v>
       </c>
+      <c r="AA34" t="n">
+        <v>-0.8101948394619189</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3232,6 +3334,9 @@
       <c r="Z35" t="n">
         <v>0.8177449620416593</v>
       </c>
+      <c r="AA35" t="n">
+        <v>0.8183068420191685</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3312,6 +3417,9 @@
       <c r="Z36" t="n">
         <v>0.7849267124883521</v>
       </c>
+      <c r="AA36" t="n">
+        <v>0.7859218270000182</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3392,6 +3500,9 @@
       <c r="Z37" t="n">
         <v>0.7503133945278926</v>
       </c>
+      <c r="AA37" t="n">
+        <v>0.7513503260122554</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3472,6 +3583,9 @@
       <c r="Z38" t="n">
         <v>0.6559232623314418</v>
       </c>
+      <c r="AA38" t="n">
+        <v>0.6563766776639568</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3552,6 +3666,9 @@
       <c r="Z39" t="n">
         <v>0.615815781459114</v>
       </c>
+      <c r="AA39" t="n">
+        <v>0.6159962854982759</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3632,6 +3749,9 @@
       <c r="Z40" t="n">
         <v>0.7815724844920344</v>
       </c>
+      <c r="AA40" t="n">
+        <v>0.7819775988213342</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3712,6 +3832,9 @@
       <c r="Z41" t="n">
         <v>0.5743556036222559</v>
       </c>
+      <c r="AA41" t="n">
+        <v>0.5750997752358329</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3792,6 +3915,9 @@
       <c r="Z42" t="n">
         <v>0.6485070691938605</v>
       </c>
+      <c r="AA42" t="n">
+        <v>0.6492050507279287</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3872,6 +3998,9 @@
       <c r="Z43" t="n">
         <v>0.6847257839923107</v>
       </c>
+      <c r="AA43" t="n">
+        <v>0.6852560416683747</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3952,6 +4081,9 @@
       <c r="Z44" t="n">
         <v>0.7092301570196784</v>
       </c>
+      <c r="AA44" t="n">
+        <v>0.7098836960408393</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4032,6 +4164,9 @@
       <c r="Z45" t="n">
         <v>0.7258743144348061</v>
       </c>
+      <c r="AA45" t="n">
+        <v>0.7270108070465235</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4112,6 +4247,9 @@
       <c r="Z46" t="n">
         <v>-1.260560268660561</v>
       </c>
+      <c r="AA46" t="n">
+        <v>-1.264033366048861</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4192,6 +4330,9 @@
       <c r="Z47" t="n">
         <v>-0.9785100489986567</v>
       </c>
+      <c r="AA47" t="n">
+        <v>-0.9813560519478657</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4272,6 +4413,9 @@
       <c r="Z48" t="n">
         <v>-0.8404577796416995</v>
       </c>
+      <c r="AA48" t="n">
+        <v>-0.8430325230482106</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4352,6 +4496,9 @@
       <c r="Z49" t="n">
         <v>-0.6123397578290788</v>
       </c>
+      <c r="AA49" t="n">
+        <v>-0.6145421300134608</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4432,6 +4579,9 @@
       <c r="Z50" t="n">
         <v>-0.05106756176565372</v>
       </c>
+      <c r="AA50" t="n">
+        <v>-0.05264024590141017</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4512,6 +4662,9 @@
       <c r="Z51" t="n">
         <v>-0.8223856885176429</v>
       </c>
+      <c r="AA51" t="n">
+        <v>-0.8245963722249147</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4592,6 +4745,9 @@
       <c r="Z52" t="n">
         <v>-0.8223856885176429</v>
       </c>
+      <c r="AA52" t="n">
+        <v>-0.8245963722249147</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4672,6 +4828,9 @@
       <c r="Z53" t="n">
         <v>-1.099209389764038</v>
       </c>
+      <c r="AA53" t="n">
+        <v>-1.102281276337372</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4752,6 +4911,9 @@
       <c r="Z54" t="n">
         <v>-0.1567097566560935</v>
       </c>
+      <c r="AA54" t="n">
+        <v>-0.1584101567894559</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4832,6 +4994,9 @@
       <c r="Z55" t="n">
         <v>-0.9980177410006812</v>
       </c>
+      <c r="AA55" t="n">
+        <v>-1.001098825118409</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4912,6 +5077,9 @@
       <c r="Z56" t="n">
         <v>-0.8788467103986166</v>
       </c>
+      <c r="AA56" t="n">
+        <v>-0.8817643336673562</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4992,6 +5160,9 @@
       <c r="Z57" t="n">
         <v>-0.9424556075944516</v>
       </c>
+      <c r="AA57" t="n">
+        <v>-0.9459833214982858</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5072,6 +5243,9 @@
       <c r="Z58" t="n">
         <v>-1.08703903792208</v>
       </c>
+      <c r="AA58" t="n">
+        <v>-1.09048401615025</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5152,6 +5326,9 @@
       <c r="Z59" t="n">
         <v>-0.775992658042753</v>
       </c>
+      <c r="AA59" t="n">
+        <v>-0.7785682366284596</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5232,6 +5409,9 @@
       <c r="Z60" t="n">
         <v>-0.4282442504232397</v>
       </c>
+      <c r="AA60" t="n">
+        <v>-0.4303270089768286</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5312,6 +5492,9 @@
       <c r="Z61" t="n">
         <v>0.387153354177773</v>
       </c>
+      <c r="AA61" t="n">
+        <v>0.3865819941145655</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5392,6 +5575,9 @@
       <c r="Z62" t="n">
         <v>-1.198897226690591</v>
       </c>
+      <c r="AA62" t="n">
+        <v>-1.203137333911159</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5472,6 +5658,9 @@
       <c r="Z63" t="n">
         <v>-0.554633118042404</v>
       </c>
+      <c r="AA63" t="n">
+        <v>-0.5560882756499542</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5552,6 +5741,9 @@
       <c r="Z64" t="n">
         <v>-0.8465650443457573</v>
       </c>
+      <c r="AA64" t="n">
+        <v>-0.8491043520526064</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5632,6 +5824,9 @@
       <c r="Z65" t="n">
         <v>-0.03877841447786273</v>
       </c>
+      <c r="AA65" t="n">
+        <v>-0.04048183209104535</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5712,6 +5907,9 @@
       <c r="Z66" t="n">
         <v>-0.7794319891057016</v>
       </c>
+      <c r="AA66" t="n">
+        <v>-0.7828756364069438</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5791,6 +5989,9 @@
       </c>
       <c r="Z67" t="n">
         <v>-0.7572629810005337</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.7613219852215993</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>-0.2252508187042603</v>
       </c>
+      <c r="AB2" t="n">
+        <v>-0.2264983137290862</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>0.236734284839549</v>
       </c>
+      <c r="AB3" t="n">
+        <v>0.2362976558101669</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>0.2313992436493722</v>
       </c>
+      <c r="AB4" t="n">
+        <v>0.2307410071063761</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>-0.0551188993018888</v>
       </c>
+      <c r="AB5" t="n">
+        <v>-0.05633273857387736</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>0.1898710270644039</v>
       </c>
+      <c r="AB6" t="n">
+        <v>0.1892899662373061</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.3775874940033097</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.378985537802298</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,6 +1117,9 @@
       <c r="AA8" t="n">
         <v>-0.1306891806618528</v>
       </c>
+      <c r="AB8" t="n">
+        <v>-0.1311335394577443</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1203,9 @@
       <c r="AA9" t="n">
         <v>-0.3175392135136639</v>
       </c>
+      <c r="AB9" t="n">
+        <v>-0.3181123753650565</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1262,6 +1289,9 @@
       <c r="AA10" t="n">
         <v>0.39782135135987</v>
       </c>
+      <c r="AB10" t="n">
+        <v>0.3969902788176885</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1345,6 +1375,9 @@
       <c r="AA11" t="n">
         <v>-0.1822868839984886</v>
       </c>
+      <c r="AB11" t="n">
+        <v>-0.1836866906455343</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1428,6 +1461,9 @@
       <c r="AA12" t="n">
         <v>-0.08140238195310737</v>
       </c>
+      <c r="AB12" t="n">
+        <v>-0.0833932423899591</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1511,6 +1547,9 @@
       <c r="AA13" t="n">
         <v>-0.03649808748190788</v>
       </c>
+      <c r="AB13" t="n">
+        <v>-0.0377018330398351</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1594,6 +1633,9 @@
       <c r="AA14" t="n">
         <v>0.04801434113860706</v>
       </c>
+      <c r="AB14" t="n">
+        <v>0.04600255286814366</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1677,6 +1719,9 @@
       <c r="AA15" t="n">
         <v>-0.08828622954690572</v>
       </c>
+      <c r="AB15" t="n">
+        <v>-0.0913885986240293</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1760,6 +1805,9 @@
       <c r="AA16" t="n">
         <v>0.3080845731120279</v>
       </c>
+      <c r="AB16" t="n">
+        <v>0.3052975675109361</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1843,6 +1891,9 @@
       <c r="AA17" t="n">
         <v>0.4335429608184864</v>
       </c>
+      <c r="AB17" t="n">
+        <v>0.4310328508120307</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1926,6 +1977,9 @@
       <c r="AA18" t="n">
         <v>-0.1460256760817185</v>
       </c>
+      <c r="AB18" t="n">
+        <v>-0.1473593479947639</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2009,6 +2063,9 @@
       <c r="AA19" t="n">
         <v>0.3146110446337167</v>
       </c>
+      <c r="AB19" t="n">
+        <v>0.312373916251715</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2092,6 +2149,9 @@
       <c r="AA20" t="n">
         <v>0.2100794783573012</v>
       </c>
+      <c r="AB20" t="n">
+        <v>0.2067874426572539</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2175,6 +2235,9 @@
       <c r="AA21" t="n">
         <v>0.4981135945520768</v>
       </c>
+      <c r="AB21" t="n">
+        <v>0.4953412430962728</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2258,6 +2321,9 @@
       <c r="AA22" t="n">
         <v>0.2591623679595418</v>
       </c>
+      <c r="AB22" t="n">
+        <v>0.256845282698868</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2341,6 +2407,9 @@
       <c r="AA23" t="n">
         <v>-0.1544095696890361</v>
       </c>
+      <c r="AB23" t="n">
+        <v>-0.1570137158386118</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2424,6 +2493,9 @@
       <c r="AA24" t="n">
         <v>1.596754744316405</v>
       </c>
+      <c r="AB24" t="n">
+        <v>1.568410221847903</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2507,6 +2579,9 @@
       <c r="AA25" t="n">
         <v>0.3140154411849443</v>
       </c>
+      <c r="AB25" t="n">
+        <v>0.3147166484552587</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2590,6 +2665,9 @@
       <c r="AA26" t="n">
         <v>0.1630509316582373</v>
       </c>
+      <c r="AB26" t="n">
+        <v>0.1617622463863303</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2673,6 +2751,9 @@
       <c r="AA27" t="n">
         <v>0.04863411788983316</v>
       </c>
+      <c r="AB27" t="n">
+        <v>0.04822585496563369</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2756,6 +2837,9 @@
       <c r="AA28" t="n">
         <v>0.8168473837972057</v>
       </c>
+      <c r="AB28" t="n">
+        <v>0.8181201912811009</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2839,6 +2923,9 @@
       <c r="AA29" t="n">
         <v>1.706861805390062</v>
       </c>
+      <c r="AB29" t="n">
+        <v>1.700373250196651</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2922,6 +3009,9 @@
       <c r="AA30" t="n">
         <v>0.6706030899343197</v>
       </c>
+      <c r="AB30" t="n">
+        <v>0.6707956698063507</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3005,6 +3095,9 @@
       <c r="AA31" t="n">
         <v>-0.4177011199695333</v>
       </c>
+      <c r="AB31" t="n">
+        <v>-0.4173696143873155</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3088,6 +3181,9 @@
       <c r="AA32" t="n">
         <v>0.5630104905974721</v>
       </c>
+      <c r="AB32" t="n">
+        <v>0.5630219262126395</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3171,6 +3267,9 @@
       <c r="AA33" t="n">
         <v>0.7657293667013432</v>
       </c>
+      <c r="AB33" t="n">
+        <v>0.7661338869045727</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3254,6 +3353,9 @@
       <c r="AA34" t="n">
         <v>-0.8101948394619189</v>
       </c>
+      <c r="AB34" t="n">
+        <v>-0.8111624997975484</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3337,6 +3439,9 @@
       <c r="AA35" t="n">
         <v>0.8183068420191685</v>
       </c>
+      <c r="AB35" t="n">
+        <v>0.8188453834675152</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3420,6 +3525,9 @@
       <c r="AA36" t="n">
         <v>0.7859218270000182</v>
       </c>
+      <c r="AB36" t="n">
+        <v>0.7868306177435075</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3503,6 +3611,9 @@
       <c r="AA37" t="n">
         <v>0.7513503260122554</v>
       </c>
+      <c r="AB37" t="n">
+        <v>0.7523003775368781</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3586,6 +3697,9 @@
       <c r="AA38" t="n">
         <v>0.6563766776639568</v>
       </c>
+      <c r="AB38" t="n">
+        <v>0.656816431939541</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3669,6 +3783,9 @@
       <c r="AA39" t="n">
         <v>0.6159962854982759</v>
       </c>
+      <c r="AB39" t="n">
+        <v>0.6161321267551839</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3752,6 +3869,9 @@
       <c r="AA40" t="n">
         <v>0.7819775988213342</v>
       </c>
+      <c r="AB40" t="n">
+        <v>0.7823673712840915</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3835,6 +3955,9 @@
       <c r="AA41" t="n">
         <v>0.5750997752358329</v>
       </c>
+      <c r="AB41" t="n">
+        <v>0.5757743683993765</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3918,6 +4041,9 @@
       <c r="AA42" t="n">
         <v>0.6492050507279287</v>
       </c>
+      <c r="AB42" t="n">
+        <v>0.6498403330083322</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4001,6 +4127,9 @@
       <c r="AA43" t="n">
         <v>0.6852560416683747</v>
       </c>
+      <c r="AB43" t="n">
+        <v>0.6857485949416273</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4084,6 +4213,9 @@
       <c r="AA44" t="n">
         <v>0.7098836960408393</v>
       </c>
+      <c r="AB44" t="n">
+        <v>0.7104647829390782</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4167,6 +4299,9 @@
       <c r="AA45" t="n">
         <v>0.7270108070465235</v>
       </c>
+      <c r="AB45" t="n">
+        <v>0.7279988058196784</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4250,6 +4385,9 @@
       <c r="AA46" t="n">
         <v>-1.264033366048861</v>
       </c>
+      <c r="AB46" t="n">
+        <v>-1.267532624079248</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4333,6 +4471,9 @@
       <c r="AA47" t="n">
         <v>-0.9813560519478657</v>
       </c>
+      <c r="AB47" t="n">
+        <v>-0.9842282014758832</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4416,6 +4557,9 @@
       <c r="AA48" t="n">
         <v>-0.8430325230482106</v>
       </c>
+      <c r="AB48" t="n">
+        <v>-0.8456847372123558</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4499,6 +4643,9 @@
       <c r="AA49" t="n">
         <v>-0.6145421300134608</v>
       </c>
+      <c r="AB49" t="n">
+        <v>-0.6168012405590619</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4582,6 +4729,9 @@
       <c r="AA50" t="n">
         <v>-0.05264024590141017</v>
       </c>
+      <c r="AB50" t="n">
+        <v>-0.05421136957167987</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4665,6 +4815,9 @@
       <c r="AA51" t="n">
         <v>-0.8245963722249147</v>
       </c>
+      <c r="AB51" t="n">
+        <v>-0.826884733354588</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4748,6 +4901,9 @@
       <c r="AA52" t="n">
         <v>-0.8245963722249147</v>
       </c>
+      <c r="AB52" t="n">
+        <v>-0.826884733354588</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4831,6 +4987,9 @@
       <c r="AA53" t="n">
         <v>-1.102281276337372</v>
       </c>
+      <c r="AB53" t="n">
+        <v>-1.105432503556167</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4914,6 +5073,9 @@
       <c r="AA54" t="n">
         <v>-0.1584101567894559</v>
       </c>
+      <c r="AB54" t="n">
+        <v>-0.1601405818953609</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4997,6 +5159,9 @@
       <c r="AA55" t="n">
         <v>-1.001098825118409</v>
       </c>
+      <c r="AB55" t="n">
+        <v>-1.004200187204433</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5080,6 +5245,9 @@
       <c r="AA56" t="n">
         <v>-0.8817643336673562</v>
       </c>
+      <c r="AB56" t="n">
+        <v>-0.8846502009927075</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5163,6 +5331,9 @@
       <c r="AA57" t="n">
         <v>-0.9459833214982858</v>
       </c>
+      <c r="AB57" t="n">
+        <v>-0.9494481463551705</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5246,6 +5417,9 @@
       <c r="AA58" t="n">
         <v>-1.09048401615025</v>
       </c>
+      <c r="AB58" t="n">
+        <v>-1.093866816583038</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5329,6 +5503,9 @@
       <c r="AA59" t="n">
         <v>-0.7785682366284596</v>
       </c>
+      <c r="AB59" t="n">
+        <v>-0.7811745300497733</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5412,6 +5589,9 @@
       <c r="AA60" t="n">
         <v>-0.4303270089768286</v>
       </c>
+      <c r="AB60" t="n">
+        <v>-0.4323941921492692</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5495,6 +5675,9 @@
       <c r="AA61" t="n">
         <v>0.3865819941145655</v>
       </c>
+      <c r="AB61" t="n">
+        <v>0.3860025348282348</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5578,6 +5761,9 @@
       <c r="AA62" t="n">
         <v>-1.203137333911159</v>
       </c>
+      <c r="AB62" t="n">
+        <v>-1.207298433897889</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5661,6 +5847,9 @@
       <c r="AA63" t="n">
         <v>-0.5560882756499542</v>
       </c>
+      <c r="AB63" t="n">
+        <v>-0.5576434452025114</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5744,6 +5933,9 @@
       <c r="AA64" t="n">
         <v>-0.8491043520526064</v>
       </c>
+      <c r="AB64" t="n">
+        <v>-0.8517195380211345</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5827,6 +6019,9 @@
       <c r="AA65" t="n">
         <v>-0.04048183209104535</v>
       </c>
+      <c r="AB65" t="n">
+        <v>-0.04216853153512405</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5910,6 +6105,9 @@
       <c r="AA66" t="n">
         <v>-0.7828756364069438</v>
       </c>
+      <c r="AB66" t="n">
+        <v>-0.7862013157052157</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5992,6 +6190,9 @@
       </c>
       <c r="AA67" t="n">
         <v>-0.7613219852215993</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.765185697964042</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>-0.2264983137290862</v>
       </c>
+      <c r="AC2" t="n">
+        <v>-0.2277756714200893</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>0.2362976558101669</v>
       </c>
+      <c r="AC3" t="n">
+        <v>0.2358410677602875</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>0.2307410071063761</v>
       </c>
+      <c r="AC4" t="n">
+        <v>0.230024637095739</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>-0.05633273857387736</v>
       </c>
+      <c r="AC5" t="n">
+        <v>-0.05752735265527605</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>0.1892899662373061</v>
       </c>
+      <c r="AC6" t="n">
+        <v>0.1887234631717525</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.378985537802298</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.3804307399471787</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1120,6 +1141,9 @@
       <c r="AB8" t="n">
         <v>-0.1311335394577443</v>
       </c>
+      <c r="AC8" t="n">
+        <v>-0.1316649840963506</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1206,6 +1230,9 @@
       <c r="AB9" t="n">
         <v>-0.3181123753650565</v>
       </c>
+      <c r="AC9" t="n">
+        <v>-0.3187892938289779</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1292,6 +1319,9 @@
       <c r="AB10" t="n">
         <v>0.3969902788176885</v>
       </c>
+      <c r="AC10" t="n">
+        <v>0.3961850583357074</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1378,6 +1408,9 @@
       <c r="AB11" t="n">
         <v>-0.1836866906455343</v>
       </c>
+      <c r="AC11" t="n">
+        <v>-0.1851064746056288</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1464,6 +1497,9 @@
       <c r="AB12" t="n">
         <v>-0.0833932423899591</v>
       </c>
+      <c r="AC12" t="n">
+        <v>-0.0852950640166245</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1550,6 +1586,9 @@
       <c r="AB13" t="n">
         <v>-0.0377018330398351</v>
       </c>
+      <c r="AC13" t="n">
+        <v>-0.03888093549150139</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1636,6 +1675,9 @@
       <c r="AB14" t="n">
         <v>0.04600255286814366</v>
       </c>
+      <c r="AC14" t="n">
+        <v>0.044144534103354</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1722,6 +1764,9 @@
       <c r="AB15" t="n">
         <v>-0.0913885986240293</v>
       </c>
+      <c r="AC15" t="n">
+        <v>-0.09424024131267369</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1808,6 +1853,9 @@
       <c r="AB16" t="n">
         <v>0.3052975675109361</v>
       </c>
+      <c r="AC16" t="n">
+        <v>0.3027827344427731</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1894,6 +1942,9 @@
       <c r="AB17" t="n">
         <v>0.4310328508120307</v>
       </c>
+      <c r="AC17" t="n">
+        <v>0.4288348726919866</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1980,6 +2031,9 @@
       <c r="AB18" t="n">
         <v>-0.1473593479947639</v>
       </c>
+      <c r="AC18" t="n">
+        <v>-0.1485934318096447</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2066,6 +2120,9 @@
       <c r="AB19" t="n">
         <v>0.312373916251715</v>
       </c>
+      <c r="AC19" t="n">
+        <v>0.3102864726243704</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2152,6 +2209,9 @@
       <c r="AB20" t="n">
         <v>0.2067874426572539</v>
       </c>
+      <c r="AC20" t="n">
+        <v>0.2038087153840975</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2238,6 +2298,9 @@
       <c r="AB21" t="n">
         <v>0.4953412430962728</v>
       </c>
+      <c r="AC21" t="n">
+        <v>0.4928664751331359</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2324,6 +2387,9 @@
       <c r="AB22" t="n">
         <v>0.256845282698868</v>
       </c>
+      <c r="AC22" t="n">
+        <v>0.2547987937835204</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2410,6 +2476,9 @@
       <c r="AB23" t="n">
         <v>-0.1570137158386118</v>
       </c>
+      <c r="AC23" t="n">
+        <v>-0.159377597276096</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2496,6 +2565,9 @@
       <c r="AB24" t="n">
         <v>1.568410221847903</v>
       </c>
+      <c r="AC24" t="n">
+        <v>1.544424506214503</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2582,6 +2654,9 @@
       <c r="AB25" t="n">
         <v>0.3147166484552587</v>
       </c>
+      <c r="AC25" t="n">
+        <v>0.3154167802244066</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2668,6 +2743,9 @@
       <c r="AB26" t="n">
         <v>0.1617622463863303</v>
       </c>
+      <c r="AC26" t="n">
+        <v>0.160658821803376</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2754,6 +2832,9 @@
       <c r="AB27" t="n">
         <v>0.04822585496563369</v>
       </c>
+      <c r="AC27" t="n">
+        <v>0.04795271950320919</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2840,6 +2921,9 @@
       <c r="AB28" t="n">
         <v>0.8181201912811009</v>
       </c>
+      <c r="AC28" t="n">
+        <v>0.8194488574203646</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2926,6 +3010,9 @@
       <c r="AB29" t="n">
         <v>1.700373250196651</v>
       </c>
+      <c r="AC29" t="n">
+        <v>1.696080224280157</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3012,6 +3099,9 @@
       <c r="AB30" t="n">
         <v>0.6707956698063507</v>
       </c>
+      <c r="AC30" t="n">
+        <v>0.6710837362803272</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3098,6 +3188,9 @@
       <c r="AB31" t="n">
         <v>-0.4173696143873155</v>
       </c>
+      <c r="AC31" t="n">
+        <v>-0.4171125290715738</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3184,6 +3277,9 @@
       <c r="AB32" t="n">
         <v>0.5630219262126395</v>
       </c>
+      <c r="AC32" t="n">
+        <v>0.5631024444100415</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3270,6 +3366,9 @@
       <c r="AB33" t="n">
         <v>0.7661338869045727</v>
       </c>
+      <c r="AC33" t="n">
+        <v>0.7665526194266435</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3356,6 +3455,9 @@
       <c r="AB34" t="n">
         <v>-0.8111624997975484</v>
       </c>
+      <c r="AC34" t="n">
+        <v>-0.8121196045327704</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3442,6 +3544,9 @@
       <c r="AB35" t="n">
         <v>0.8188453834675152</v>
       </c>
+      <c r="AC35" t="n">
+        <v>0.8193611341088124</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3528,6 +3633,9 @@
       <c r="AB36" t="n">
         <v>0.7868306177435075</v>
       </c>
+      <c r="AC36" t="n">
+        <v>0.7876599160777115</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3614,6 +3722,9 @@
       <c r="AB37" t="n">
         <v>0.7523003775368781</v>
       </c>
+      <c r="AC37" t="n">
+        <v>0.7531698906759779</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3700,6 +3811,9 @@
       <c r="AB38" t="n">
         <v>0.656816431939541</v>
       </c>
+      <c r="AC38" t="n">
+        <v>0.6572389575039553</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3786,6 +3900,9 @@
       <c r="AB39" t="n">
         <v>0.6161321267551839</v>
       </c>
+      <c r="AC39" t="n">
+        <v>0.6162302196549554</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3872,6 +3989,9 @@
       <c r="AB40" t="n">
         <v>0.7823673712840915</v>
       </c>
+      <c r="AC40" t="n">
+        <v>0.7827435608879759</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3958,6 +4078,9 @@
       <c r="AB41" t="n">
         <v>0.5757743683993765</v>
       </c>
+      <c r="AC41" t="n">
+        <v>0.5763848948799057</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4044,6 +4167,9 @@
       <c r="AB42" t="n">
         <v>0.6498403330083322</v>
       </c>
+      <c r="AC42" t="n">
+        <v>0.6504157798569156</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4130,6 +4256,9 @@
       <c r="AB43" t="n">
         <v>0.6857485949416273</v>
       </c>
+      <c r="AC43" t="n">
+        <v>0.6862042778113135</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4216,6 +4345,9 @@
       <c r="AB44" t="n">
         <v>0.7104647829390782</v>
       </c>
+      <c r="AC44" t="n">
+        <v>0.7109809853423623</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4302,6 +4434,9 @@
       <c r="AB45" t="n">
         <v>0.7279988058196784</v>
       </c>
+      <c r="AC45" t="n">
+        <v>0.7288550789653268</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4388,6 +4523,9 @@
       <c r="AB46" t="n">
         <v>-1.267532624079248</v>
       </c>
+      <c r="AC46" t="n">
+        <v>-1.271033410466764</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4474,6 +4612,9 @@
       <c r="AB47" t="n">
         <v>-0.9842282014758832</v>
       </c>
+      <c r="AC47" t="n">
+        <v>-0.9871057381498751</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4560,6 +4701,9 @@
       <c r="AB48" t="n">
         <v>-0.8456847372123558</v>
       </c>
+      <c r="AC48" t="n">
+        <v>-0.8483872172863984</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4646,6 +4790,9 @@
       <c r="AB49" t="n">
         <v>-0.6168012405590619</v>
       </c>
+      <c r="AC49" t="n">
+        <v>-0.6190949887506423</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4732,6 +4879,9 @@
       <c r="AB50" t="n">
         <v>-0.05421136957167987</v>
       </c>
+      <c r="AC50" t="n">
+        <v>-0.05577166535013839</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4818,6 +4968,9 @@
       <c r="AB51" t="n">
         <v>-0.826884733354588</v>
       </c>
+      <c r="AC51" t="n">
+        <v>-0.829225090235761</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4904,6 +5057,9 @@
       <c r="AB52" t="n">
         <v>-0.826884733354588</v>
       </c>
+      <c r="AC52" t="n">
+        <v>-0.829225090235761</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4990,6 +5146,9 @@
       <c r="AB53" t="n">
         <v>-1.105432503556167</v>
       </c>
+      <c r="AC53" t="n">
+        <v>-1.108634369640207</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5076,6 +5235,9 @@
       <c r="AB54" t="n">
         <v>-0.1601405818953609</v>
       </c>
+      <c r="AC54" t="n">
+        <v>-0.1618853778409567</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5162,6 +5324,9 @@
       <c r="AB55" t="n">
         <v>-1.004200187204433</v>
       </c>
+      <c r="AC55" t="n">
+        <v>-1.007300411216845</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5248,6 +5413,9 @@
       <c r="AB56" t="n">
         <v>-0.8846502009927075</v>
       </c>
+      <c r="AC56" t="n">
+        <v>-0.8874901786831177</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5334,6 +5502,9 @@
       <c r="AB57" t="n">
         <v>-0.9494481463551705</v>
       </c>
+      <c r="AC57" t="n">
+        <v>-0.9528379457165319</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5420,6 +5591,9 @@
       <c r="AB58" t="n">
         <v>-1.093866816583038</v>
       </c>
+      <c r="AC58" t="n">
+        <v>-1.097173077275548</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5506,6 +5680,9 @@
       <c r="AB59" t="n">
         <v>-0.7811745300497733</v>
       </c>
+      <c r="AC59" t="n">
+        <v>-0.7837887287995507</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5592,6 +5769,9 @@
       <c r="AB60" t="n">
         <v>-0.4323941921492692</v>
       </c>
+      <c r="AC60" t="n">
+        <v>-0.4344322931123201</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5678,6 +5858,9 @@
       <c r="AB61" t="n">
         <v>0.3860025348282348</v>
       </c>
+      <c r="AC61" t="n">
+        <v>0.3854201271459918</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5764,6 +5947,9 @@
       <c r="AB62" t="n">
         <v>-1.207298433897889</v>
       </c>
+      <c r="AC62" t="n">
+        <v>-1.211365329323224</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5850,6 +6036,9 @@
       <c r="AB63" t="n">
         <v>-0.5576434452025114</v>
       </c>
+      <c r="AC63" t="n">
+        <v>-0.5592682717429674</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5936,6 +6125,9 @@
       <c r="AB64" t="n">
         <v>-0.8517195380211345</v>
       </c>
+      <c r="AC64" t="n">
+        <v>-0.8543836129200582</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6022,6 +6214,9 @@
       <c r="AB65" t="n">
         <v>-0.04216853153512405</v>
       </c>
+      <c r="AC65" t="n">
+        <v>-0.04382709871456078</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6108,6 +6303,9 @@
       <c r="AB66" t="n">
         <v>-0.7862013157052157</v>
       </c>
+      <c r="AC66" t="n">
+        <v>-0.7894032310901883</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6193,6 +6391,9 @@
       </c>
       <c r="AB67" t="n">
         <v>-0.765185697964042</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.7688545259332725</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>-0.2277756714200893</v>
       </c>
+      <c r="AD2" t="n">
+        <v>-0.2290684435733087</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>0.2358410677602875</v>
       </c>
+      <c r="AD3" t="n">
+        <v>0.2353700903142867</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>0.230024637095739</v>
       </c>
+      <c r="AD4" t="n">
+        <v>0.2292647297797939</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>-0.05752735265527605</v>
       </c>
+      <c r="AD5" t="n">
+        <v>-0.05869758704771677</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>0.1887234631717525</v>
       </c>
+      <c r="AD6" t="n">
+        <v>0.1881743310599114</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.3804307399471787</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.3819059710132307</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1144,6 +1165,9 @@
       <c r="AC8" t="n">
         <v>-0.1316649840963506</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-0.1322644558412295</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1233,6 +1257,9 @@
       <c r="AC9" t="n">
         <v>-0.3187892938289779</v>
       </c>
+      <c r="AD9" t="n">
+        <v>-0.3195502707025006</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1322,6 +1349,9 @@
       <c r="AC10" t="n">
         <v>0.3961850583357074</v>
       </c>
+      <c r="AD10" t="n">
+        <v>0.3954083988209156</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1411,6 +1441,9 @@
       <c r="AC11" t="n">
         <v>-0.1851064746056288</v>
       </c>
+      <c r="AD11" t="n">
+        <v>-0.1865331666698255</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1500,6 +1533,9 @@
       <c r="AC12" t="n">
         <v>-0.0852950640166245</v>
       </c>
+      <c r="AD12" t="n">
+        <v>-0.08710835104771228</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1589,6 +1625,9 @@
       <c r="AC13" t="n">
         <v>-0.03888093549150139</v>
       </c>
+      <c r="AD13" t="n">
+        <v>-0.04003274082924927</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1678,6 +1717,9 @@
       <c r="AC14" t="n">
         <v>0.044144534103354</v>
       </c>
+      <c r="AD14" t="n">
+        <v>0.04242995147687748</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1767,6 +1809,9 @@
       <c r="AC15" t="n">
         <v>-0.09424024131267369</v>
       </c>
+      <c r="AD15" t="n">
+        <v>-0.09686086429438333</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1856,6 +1901,9 @@
       <c r="AC16" t="n">
         <v>0.3027827344427731</v>
       </c>
+      <c r="AD16" t="n">
+        <v>0.3005163442606984</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1945,6 +1993,9 @@
       <c r="AC17" t="n">
         <v>0.4288348726919866</v>
       </c>
+      <c r="AD17" t="n">
+        <v>0.4269141160171018</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2034,6 +2085,9 @@
       <c r="AC18" t="n">
         <v>-0.1485934318096447</v>
       </c>
+      <c r="AD18" t="n">
+        <v>-0.1497415764444604</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2123,6 +2177,9 @@
       <c r="AC19" t="n">
         <v>0.3102864726243704</v>
       </c>
+      <c r="AD19" t="n">
+        <v>0.3083378947951799</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2212,6 +2269,9 @@
       <c r="AC20" t="n">
         <v>0.2038087153840975</v>
       </c>
+      <c r="AD20" t="n">
+        <v>0.2011155492545973</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2301,6 +2361,9 @@
       <c r="AC21" t="n">
         <v>0.4928664751331359</v>
       </c>
+      <c r="AD21" t="n">
+        <v>0.4906643334256302</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2390,6 +2453,9 @@
       <c r="AC22" t="n">
         <v>0.2547987937835204</v>
       </c>
+      <c r="AD22" t="n">
+        <v>0.252994432690385</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2479,6 +2545,9 @@
       <c r="AC23" t="n">
         <v>-0.159377597276096</v>
       </c>
+      <c r="AD23" t="n">
+        <v>-0.1615224490243237</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2568,6 +2637,9 @@
       <c r="AC24" t="n">
         <v>1.544424506214503</v>
       </c>
+      <c r="AD24" t="n">
+        <v>1.524283936176676</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2657,6 +2729,9 @@
       <c r="AC25" t="n">
         <v>0.3154167802244066</v>
       </c>
+      <c r="AD25" t="n">
+        <v>0.316105455753848</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2746,6 +2821,9 @@
       <c r="AC26" t="n">
         <v>0.160658821803376</v>
       </c>
+      <c r="AD26" t="n">
+        <v>0.1597154238880679</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2835,6 +2913,9 @@
       <c r="AC27" t="n">
         <v>0.04795271950320919</v>
       </c>
+      <c r="AD27" t="n">
+        <v>0.0477908251185036</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2924,6 +3005,9 @@
       <c r="AC28" t="n">
         <v>0.8194488574203646</v>
       </c>
+      <c r="AD28" t="n">
+        <v>0.8208115796592015</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3013,6 +3097,9 @@
       <c r="AC29" t="n">
         <v>1.696080224280157</v>
       </c>
+      <c r="AD29" t="n">
+        <v>1.693586075994457</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3102,6 +3189,9 @@
       <c r="AC30" t="n">
         <v>0.6710837362803272</v>
       </c>
+      <c r="AD30" t="n">
+        <v>0.6714426046645608</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3191,6 +3281,9 @@
       <c r="AC31" t="n">
         <v>-0.4171125290715738</v>
       </c>
+      <c r="AD31" t="n">
+        <v>-0.4169281121725634</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3280,6 +3373,9 @@
       <c r="AC32" t="n">
         <v>0.5631024444100415</v>
       </c>
+      <c r="AD32" t="n">
+        <v>0.5632351322816311</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3369,6 +3465,9 @@
       <c r="AC33" t="n">
         <v>0.7665526194266435</v>
       </c>
+      <c r="AD33" t="n">
+        <v>0.7669762753533714</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3458,6 +3557,9 @@
       <c r="AC34" t="n">
         <v>-0.8121196045327704</v>
       </c>
+      <c r="AD34" t="n">
+        <v>-0.8130664422516679</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3547,6 +3649,9 @@
       <c r="AC35" t="n">
         <v>0.8193611341088124</v>
       </c>
+      <c r="AD35" t="n">
+        <v>0.8198546960319467</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3636,6 +3741,9 @@
       <c r="AC36" t="n">
         <v>0.7876599160777115</v>
       </c>
+      <c r="AD36" t="n">
+        <v>0.7884163213419886</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3725,6 +3833,9 @@
       <c r="AC37" t="n">
         <v>0.7531698906759779</v>
       </c>
+      <c r="AD37" t="n">
+        <v>0.7539651058800192</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3814,6 +3925,9 @@
       <c r="AC38" t="n">
         <v>0.6572389575039553</v>
       </c>
+      <c r="AD38" t="n">
+        <v>0.657641813289239</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3903,6 +4017,9 @@
       <c r="AC39" t="n">
         <v>0.6162302196549554</v>
       </c>
+      <c r="AD39" t="n">
+        <v>0.6162966289234434</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3992,6 +4109,9 @@
       <c r="AC40" t="n">
         <v>0.7827435608879759</v>
       </c>
+      <c r="AD40" t="n">
+        <v>0.7831074884612836</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4081,6 +4201,9 @@
       <c r="AC41" t="n">
         <v>0.5763848948799057</v>
       </c>
+      <c r="AD41" t="n">
+        <v>0.5769367348605805</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4170,6 +4293,9 @@
       <c r="AC42" t="n">
         <v>0.6504157798569156</v>
       </c>
+      <c r="AD42" t="n">
+        <v>0.6509347679414823</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4259,6 +4385,9 @@
       <c r="AC43" t="n">
         <v>0.6862042778113135</v>
       </c>
+      <c r="AD43" t="n">
+        <v>0.6866244013251533</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4348,6 +4477,9 @@
       <c r="AC44" t="n">
         <v>0.7109809853423623</v>
       </c>
+      <c r="AD44" t="n">
+        <v>0.7114392805913453</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4437,6 +4569,9 @@
       <c r="AC45" t="n">
         <v>0.7288550789653268</v>
       </c>
+      <c r="AD45" t="n">
+        <v>0.7295949923984391</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4526,6 +4661,9 @@
       <c r="AC46" t="n">
         <v>-1.271033410466764</v>
       </c>
+      <c r="AD46" t="n">
+        <v>-1.274514507563699</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4615,6 +4753,9 @@
       <c r="AC47" t="n">
         <v>-0.9871057381498751</v>
       </c>
+      <c r="AD47" t="n">
+        <v>-0.9899707230999797</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4704,6 +4845,9 @@
       <c r="AC48" t="n">
         <v>-0.8483872172863984</v>
       </c>
+      <c r="AD48" t="n">
+        <v>-0.8511161471875446</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4793,6 +4937,9 @@
       <c r="AC49" t="n">
         <v>-0.6190949887506423</v>
       </c>
+      <c r="AD49" t="n">
+        <v>-0.62140412539262</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4882,6 +5029,9 @@
       <c r="AC50" t="n">
         <v>-0.05577166535013839</v>
       </c>
+      <c r="AD50" t="n">
+        <v>-0.05731327105666549</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4971,6 +5121,9 @@
       <c r="AC51" t="n">
         <v>-0.829225090235761</v>
       </c>
+      <c r="AD51" t="n">
+        <v>-0.8315950247051295</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5060,6 +5213,9 @@
       <c r="AC52" t="n">
         <v>-0.829225090235761</v>
       </c>
+      <c r="AD52" t="n">
+        <v>-0.8315950247051295</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5149,6 +5305,9 @@
       <c r="AC53" t="n">
         <v>-1.108634369640207</v>
       </c>
+      <c r="AD53" t="n">
+        <v>-1.111861477453262</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5238,6 +5397,9 @@
       <c r="AC54" t="n">
         <v>-0.1618853778409567</v>
       </c>
+      <c r="AD54" t="n">
+        <v>-0.1636311126993863</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5327,6 +5489,9 @@
       <c r="AC55" t="n">
         <v>-1.007300411216845</v>
       </c>
+      <c r="AD55" t="n">
+        <v>-1.010381072129652</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5416,6 +5581,9 @@
       <c r="AC56" t="n">
         <v>-0.8874901786831177</v>
       </c>
+      <c r="AD56" t="n">
+        <v>-0.8902727463550392</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5505,6 +5673,9 @@
       <c r="AC57" t="n">
         <v>-0.9528379457165319</v>
       </c>
+      <c r="AD57" t="n">
+        <v>-0.9561430118594406</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5594,6 +5765,9 @@
       <c r="AC58" t="n">
         <v>-1.097173077275548</v>
       </c>
+      <c r="AD58" t="n">
+        <v>-1.100391619442924</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5683,6 +5857,9 @@
       <c r="AC59" t="n">
         <v>-0.7837887287995507</v>
       </c>
+      <c r="AD59" t="n">
+        <v>-0.7863915999824185</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5772,6 +5949,9 @@
       <c r="AC60" t="n">
         <v>-0.4344322931123201</v>
       </c>
+      <c r="AD60" t="n">
+        <v>-0.4364305038883418</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5861,6 +6041,9 @@
       <c r="AC61" t="n">
         <v>0.3854201271459918</v>
       </c>
+      <c r="AD61" t="n">
+        <v>0.3848391418477548</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5950,6 +6133,9 @@
       <c r="AC62" t="n">
         <v>-1.211365329323224</v>
       </c>
+      <c r="AD62" t="n">
+        <v>-1.215326047398696</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6039,6 +6225,9 @@
       <c r="AC63" t="n">
         <v>-0.5592682717429674</v>
       </c>
+      <c r="AD63" t="n">
+        <v>-0.560937124837787</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6128,6 +6317,9 @@
       <c r="AC64" t="n">
         <v>-0.8543836129200582</v>
       </c>
+      <c r="AD64" t="n">
+        <v>-0.8570729968955573</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6217,6 +6409,9 @@
       <c r="AC65" t="n">
         <v>-0.04382709871456078</v>
       </c>
+      <c r="AD65" t="n">
+        <v>-0.045448575770102</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6306,6 +6501,9 @@
       <c r="AC66" t="n">
         <v>-0.7894032310901883</v>
       </c>
+      <c r="AD66" t="n">
+        <v>-0.7924779564581668</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6394,6 +6592,9 @@
       </c>
       <c r="AC67" t="n">
         <v>-0.7688545259332725</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.772331285146449</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>-0.2290684435733087</v>
       </c>
+      <c r="AE2" t="n">
+        <v>-0.2303644778963772</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>0.2353700903142867</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.2348896466183621</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>0.2292647297797939</v>
       </c>
+      <c r="AE4" t="n">
+        <v>0.2284739036303824</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>-0.05869758704771677</v>
       </c>
+      <c r="AE5" t="n">
+        <v>-0.0598393485721984</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>0.1881743310599114</v>
       </c>
+      <c r="AE6" t="n">
+        <v>0.187644587076904</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.3819059710132307</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.3833965096919473</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1168,6 +1189,9 @@
       <c r="AD8" t="n">
         <v>-0.1322644558412295</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.1329155126433253</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1260,6 +1284,9 @@
       <c r="AD9" t="n">
         <v>-0.3195502707025006</v>
       </c>
+      <c r="AE9" t="n">
+        <v>-0.3203777393539981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1352,6 +1379,9 @@
       <c r="AD10" t="n">
         <v>0.3954083988209156</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.3946621138990208</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1444,6 +1474,9 @@
       <c r="AD11" t="n">
         <v>-0.1865331666698255</v>
       </c>
+      <c r="AE11" t="n">
+        <v>-0.187955742370647</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1536,6 +1569,9 @@
       <c r="AD12" t="n">
         <v>-0.08710835104771228</v>
       </c>
+      <c r="AE12" t="n">
+        <v>-0.08883446726555314</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1628,6 +1664,9 @@
       <c r="AD13" t="n">
         <v>-0.04003274082924927</v>
       </c>
+      <c r="AE13" t="n">
+        <v>-0.04115506439866873</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1720,6 +1759,9 @@
       <c r="AD14" t="n">
         <v>0.04242995147687748</v>
       </c>
+      <c r="AE14" t="n">
+        <v>0.04084854458642177</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1812,6 +1854,9 @@
       <c r="AD15" t="n">
         <v>-0.09686086429438333</v>
       </c>
+      <c r="AE15" t="n">
+        <v>-0.09926933516151068</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1904,6 +1949,9 @@
       <c r="AD16" t="n">
         <v>0.3005163442606984</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0.2984757370266036</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1996,6 +2044,9 @@
       <c r="AD17" t="n">
         <v>0.4269141160171018</v>
       </c>
+      <c r="AE17" t="n">
+        <v>0.4252386316626487</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2088,6 +2139,9 @@
       <c r="AD18" t="n">
         <v>-0.1497415764444604</v>
       </c>
+      <c r="AE18" t="n">
+        <v>-0.1508151736322274</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2180,6 +2234,9 @@
       <c r="AD19" t="n">
         <v>0.3083378947951799</v>
       </c>
+      <c r="AE19" t="n">
+        <v>0.3065179473914911</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2272,6 +2329,9 @@
       <c r="AD20" t="n">
         <v>0.2011155492545973</v>
       </c>
+      <c r="AE20" t="n">
+        <v>0.1986816463425518</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2364,6 +2424,9 @@
       <c r="AD21" t="n">
         <v>0.4906643334256302</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0.4887104495330711</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2456,6 +2519,9 @@
       <c r="AD22" t="n">
         <v>0.252994432690385</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.2514058746366701</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2548,6 +2614,9 @@
       <c r="AD23" t="n">
         <v>-0.1615224490243237</v>
       </c>
+      <c r="AE23" t="n">
+        <v>-0.1634683291706658</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2640,6 +2709,9 @@
       <c r="AD24" t="n">
         <v>1.524283936176676</v>
       </c>
+      <c r="AE24" t="n">
+        <v>1.507517789347337</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2732,6 +2804,9 @@
       <c r="AD25" t="n">
         <v>0.316105455753848</v>
       </c>
+      <c r="AE25" t="n">
+        <v>0.3167748902878185</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2824,6 +2899,9 @@
       <c r="AD26" t="n">
         <v>0.1597154238880679</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.1589097919747381</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2916,6 +2994,9 @@
       <c r="AD27" t="n">
         <v>0.0477908251185036</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.04771964698459934</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3008,6 +3089,9 @@
       <c r="AD28" t="n">
         <v>0.8208115796592015</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.8221902590843189</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3100,6 +3184,9 @@
       <c r="AD29" t="n">
         <v>1.693586075994457</v>
       </c>
+      <c r="AE29" t="n">
+        <v>1.692551306718145</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3192,6 +3279,9 @@
       <c r="AD30" t="n">
         <v>0.6714426046645608</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0.6718519354875618</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3284,6 +3374,9 @@
       <c r="AD31" t="n">
         <v>-0.4169281121725634</v>
       </c>
+      <c r="AE31" t="n">
+        <v>-0.4168129954295468</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3376,6 +3469,9 @@
       <c r="AD32" t="n">
         <v>0.5632351322816311</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0.563406050217547</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3468,6 +3564,9 @@
       <c r="AD33" t="n">
         <v>0.7669762753533714</v>
       </c>
+      <c r="AE33" t="n">
+        <v>0.7673975996645734</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3560,6 +3659,9 @@
       <c r="AD34" t="n">
         <v>-0.8130664422516679</v>
       </c>
+      <c r="AE34" t="n">
+        <v>-0.8140026088845803</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3652,6 +3754,9 @@
       <c r="AD35" t="n">
         <v>0.8198546960319467</v>
       </c>
+      <c r="AE35" t="n">
+        <v>0.8203267132130987</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3744,6 +3849,9 @@
       <c r="AD36" t="n">
         <v>0.7884163213419886</v>
       </c>
+      <c r="AE36" t="n">
+        <v>0.7891061292121817</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3836,6 +3944,9 @@
       <c r="AD37" t="n">
         <v>0.7539651058800192</v>
       </c>
+      <c r="AE37" t="n">
+        <v>0.7546920667553906</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3928,6 +4039,9 @@
       <c r="AD38" t="n">
         <v>0.657641813289239</v>
       </c>
+      <c r="AE38" t="n">
+        <v>0.6580234649386687</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4020,6 +4134,9 @@
       <c r="AD39" t="n">
         <v>0.6162966289234434</v>
       </c>
+      <c r="AE39" t="n">
+        <v>0.6163366480926049</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4112,6 +4229,9 @@
       <c r="AD40" t="n">
         <v>0.7831074884612836</v>
       </c>
+      <c r="AE40" t="n">
+        <v>0.7834601300573959</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4204,6 +4324,9 @@
       <c r="AD41" t="n">
         <v>0.5769367348605805</v>
       </c>
+      <c r="AE41" t="n">
+        <v>0.5774350616708681</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4296,6 +4419,9 @@
       <c r="AD42" t="n">
         <v>0.6509347679414823</v>
       </c>
+      <c r="AE42" t="n">
+        <v>0.6514009917081454</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4388,6 +4514,9 @@
       <c r="AD43" t="n">
         <v>0.6866244013251533</v>
       </c>
+      <c r="AE43" t="n">
+        <v>0.6870106132598713</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4480,6 +4609,9 @@
       <c r="AD44" t="n">
         <v>0.7114392805913453</v>
       </c>
+      <c r="AE44" t="n">
+        <v>0.7118460581797893</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4572,6 +4704,9 @@
       <c r="AD45" t="n">
         <v>0.7295949923984391</v>
       </c>
+      <c r="AE45" t="n">
+        <v>0.7302325327184753</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4664,6 +4799,9 @@
       <c r="AD46" t="n">
         <v>-1.274514507563699</v>
       </c>
+      <c r="AE46" t="n">
+        <v>-1.277957840596523</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4756,6 +4894,9 @@
       <c r="AD47" t="n">
         <v>-0.9899707230999797</v>
       </c>
+      <c r="AE47" t="n">
+        <v>-0.992807822886798</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4848,6 +4989,9 @@
       <c r="AD48" t="n">
         <v>-0.8511161471875446</v>
       </c>
+      <c r="AE48" t="n">
+        <v>-0.8538508720936583</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4940,6 +5084,9 @@
       <c r="AD49" t="n">
         <v>-0.62140412539262</v>
       </c>
+      <c r="AE49" t="n">
+        <v>-0.6237120431209884</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5032,6 +5179,9 @@
       <c r="AD50" t="n">
         <v>-0.05731327105666549</v>
       </c>
+      <c r="AE50" t="n">
+        <v>-0.05882960062485174</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5124,6 +5274,9 @@
       <c r="AD51" t="n">
         <v>-0.8315950247051295</v>
       </c>
+      <c r="AE51" t="n">
+        <v>-0.8339751428469035</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5216,6 +5369,9 @@
       <c r="AD52" t="n">
         <v>-0.8315950247051295</v>
       </c>
+      <c r="AE52" t="n">
+        <v>-0.8339751428469035</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5308,6 +5464,9 @@
       <c r="AD53" t="n">
         <v>-1.111861477453262</v>
       </c>
+      <c r="AE53" t="n">
+        <v>-1.115091581398915</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5400,6 +5559,9 @@
       <c r="AD54" t="n">
         <v>-0.1636311126993863</v>
       </c>
+      <c r="AE54" t="n">
+        <v>-0.1653663746225793</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5492,6 +5654,9 @@
       <c r="AD55" t="n">
         <v>-1.010381072129652</v>
       </c>
+      <c r="AE55" t="n">
+        <v>-1.013426495037586</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5584,6 +5749,9 @@
       <c r="AD56" t="n">
         <v>-0.8902727463550392</v>
       </c>
+      <c r="AE56" t="n">
+        <v>-0.8929886816248594</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5676,6 +5844,9 @@
       <c r="AD57" t="n">
         <v>-0.9561430118594406</v>
       </c>
+      <c r="AE57" t="n">
+        <v>-0.9593557715981578</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5768,6 +5939,9 @@
       <c r="AD58" t="n">
         <v>-1.100391619442924</v>
       </c>
+      <c r="AE58" t="n">
+        <v>-1.103513991003075</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5860,6 +6034,9 @@
       <c r="AD59" t="n">
         <v>-0.7863915999824185</v>
       </c>
+      <c r="AE59" t="n">
+        <v>-0.788967099728869</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5952,6 +6129,9 @@
       <c r="AD60" t="n">
         <v>-0.4364305038883418</v>
       </c>
+      <c r="AE60" t="n">
+        <v>-0.4383803367433723</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6044,6 +6224,9 @@
       <c r="AD61" t="n">
         <v>0.3848391418477548</v>
       </c>
+      <c r="AE61" t="n">
+        <v>0.3842632499048829</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6136,6 +6319,9 @@
       <c r="AD62" t="n">
         <v>-1.215326047398696</v>
       </c>
+      <c r="AE62" t="n">
+        <v>-1.219171414485819</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6228,6 +6414,9 @@
       <c r="AD63" t="n">
         <v>-0.560937124837787</v>
       </c>
+      <c r="AE63" t="n">
+        <v>-0.562628536824698</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6320,6 +6509,9 @@
       <c r="AD64" t="n">
         <v>-0.8570729968955573</v>
       </c>
+      <c r="AE64" t="n">
+        <v>-0.8597672799546036</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6412,6 +6604,9 @@
       <c r="AD65" t="n">
         <v>-0.045448575770102</v>
       </c>
+      <c r="AE65" t="n">
+        <v>-0.047026089574069</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6504,6 +6699,9 @@
       <c r="AD66" t="n">
         <v>-0.7924779564581668</v>
       </c>
+      <c r="AE66" t="n">
+        <v>-0.79542400155947</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6595,6 +6793,9 @@
       </c>
       <c r="AD67" t="n">
         <v>-0.772331285146449</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.7756206224677725</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>-0.2303644778963772</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-0.2316536527468984</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>0.2348896466183621</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.2344040492764422</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>0.2284739036303824</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.227662987697738</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>-0.0598393485721984</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-0.06094946380017421</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>0.187644587076904</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.187135593569539</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.3833965096919473</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.3848898151230195</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1192,6 +1213,9 @@
       <c r="AE8" t="n">
         <v>-0.1329155126433253</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-0.1336040619515961</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1287,6 +1311,9 @@
       <c r="AE9" t="n">
         <v>-0.3203777393539981</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-0.3212561544702686</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1382,6 +1409,9 @@
       <c r="AE10" t="n">
         <v>0.3946621138990208</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.3939472867904834</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1477,6 +1507,9 @@
       <c r="AE11" t="n">
         <v>-0.187955742370647</v>
       </c>
+      <c r="AF11" t="n">
+        <v>-0.1893649988250072</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1572,6 +1605,9 @@
       <c r="AE12" t="n">
         <v>-0.08883446726555314</v>
       </c>
+      <c r="AF12" t="n">
+        <v>-0.09047543637447776</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1667,6 +1703,9 @@
       <c r="AE13" t="n">
         <v>-0.04115506439866873</v>
       </c>
+      <c r="AF13" t="n">
+        <v>-0.04224615632421497</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1762,6 +1801,9 @@
       <c r="AE14" t="n">
         <v>0.04084854458642177</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.03939029911150282</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1857,6 +1899,9 @@
       <c r="AE15" t="n">
         <v>-0.09926933516151068</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-0.1014835301462698</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1952,6 +1997,9 @@
       <c r="AE16" t="n">
         <v>0.2984757370266036</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.2966395161295237</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2047,6 +2095,9 @@
       <c r="AE17" t="n">
         <v>0.4252386316626487</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.4237793679831576</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2142,6 +2193,9 @@
       <c r="AE18" t="n">
         <v>-0.1508151736322274</v>
       </c>
+      <c r="AF18" t="n">
+        <v>-0.151823705024684</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2237,6 +2291,9 @@
       <c r="AE19" t="n">
         <v>0.3065179473914911</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.3048170123208848</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2332,6 +2389,9 @@
       <c r="AE20" t="n">
         <v>0.1986816463425518</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.1964823271273346</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2427,6 +2487,9 @@
       <c r="AE21" t="n">
         <v>0.4887104495330711</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.4869814042116077</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2522,6 +2585,9 @@
       <c r="AE22" t="n">
         <v>0.2514058746366701</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.2500089557660016</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2617,6 +2683,9 @@
       <c r="AE23" t="n">
         <v>-0.1634683291706658</v>
       </c>
+      <c r="AF23" t="n">
+        <v>-0.1652340112523646</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2712,6 +2781,9 @@
       <c r="AE24" t="n">
         <v>1.507517789347337</v>
       </c>
+      <c r="AF24" t="n">
+        <v>1.493697764361525</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2807,6 +2879,9 @@
       <c r="AE25" t="n">
         <v>0.3167748902878185</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.3174194303831092</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2902,6 +2977,9 @@
       <c r="AE26" t="n">
         <v>0.1589097919747381</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.1582223711129382</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2997,6 +3075,9 @@
       <c r="AE27" t="n">
         <v>0.04771964698459934</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.0477216362412059</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3092,6 +3173,9 @@
       <c r="AE28" t="n">
         <v>0.8221902590843189</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.8235700151245721</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3187,6 +3271,9 @@
       <c r="AE29" t="n">
         <v>1.692551306718145</v>
       </c>
+      <c r="AF29" t="n">
+        <v>1.692686798270467</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3282,6 +3369,9 @@
       <c r="AE30" t="n">
         <v>0.6718519354875618</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.6722951064071028</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3377,6 +3467,9 @@
       <c r="AE31" t="n">
         <v>-0.4168129954295468</v>
       </c>
+      <c r="AF31" t="n">
+        <v>-0.4167626862011334</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3472,6 +3565,9 @@
       <c r="AE32" t="n">
         <v>0.563406050217547</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.5636037992861589</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3567,6 +3663,9 @@
       <c r="AE33" t="n">
         <v>0.7673975996645734</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.7678110313393496</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3662,6 +3761,9 @@
       <c r="AE34" t="n">
         <v>-0.8140026088845803</v>
       </c>
+      <c r="AF34" t="n">
+        <v>-0.8149272250807343</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3757,6 +3859,9 @@
       <c r="AE35" t="n">
         <v>0.8203267132130987</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.8207778606207193</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3852,6 +3957,9 @@
       <c r="AE36" t="n">
         <v>0.7891061292121817</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.7897352837487199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3947,6 +4055,9 @@
       <c r="AE37" t="n">
         <v>0.7546920667553906</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.7553565516686552</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4042,6 +4153,9 @@
       <c r="AE38" t="n">
         <v>0.6580234649386687</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.6583830994929425</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4137,6 +4251,9 @@
       <c r="AE39" t="n">
         <v>0.6163366480926049</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.6163548752084407</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4232,6 +4349,9 @@
       <c r="AE40" t="n">
         <v>0.7834601300573959</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.7838021941078326</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4327,6 +4447,9 @@
       <c r="AE41" t="n">
         <v>0.5774350616708681</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.5778847892320439</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4422,6 +4545,9 @@
       <c r="AE42" t="n">
         <v>0.6514009917081454</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.6518183094922818</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4517,6 +4643,9 @@
       <c r="AE43" t="n">
         <v>0.6870106132598713</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.687364784975254</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4612,6 +4741,9 @@
       <c r="AE44" t="n">
         <v>0.7118460581797893</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.712207133945157</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4707,6 +4839,9 @@
       <c r="AE45" t="n">
         <v>0.7302325327184753</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.7307803538914676</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4802,6 +4937,9 @@
       <c r="AE46" t="n">
         <v>-1.277957840596523</v>
       </c>
+      <c r="AF46" t="n">
+        <v>-1.281348200744833</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4897,6 +5035,9 @@
       <c r="AE47" t="n">
         <v>-0.992807822886798</v>
       </c>
+      <c r="AF47" t="n">
+        <v>-0.9956040875801399</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4992,6 +5133,9 @@
       <c r="AE48" t="n">
         <v>-0.8538508720936583</v>
       </c>
+      <c r="AF48" t="n">
+        <v>-0.8565736551837893</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5087,6 +5231,9 @@
       <c r="AE49" t="n">
         <v>-0.6237120431209884</v>
       </c>
+      <c r="AF49" t="n">
+        <v>-0.6260045584178806</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5182,6 +5329,9 @@
       <c r="AE50" t="n">
         <v>-0.05882960062485174</v>
       </c>
+      <c r="AF50" t="n">
+        <v>-0.06031521746468631</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5277,6 +5427,9 @@
       <c r="AE51" t="n">
         <v>-0.8339751428469035</v>
       </c>
+      <c r="AF51" t="n">
+        <v>-0.8363488263380128</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5372,6 +5525,9 @@
       <c r="AE52" t="n">
         <v>-0.8339751428469035</v>
       </c>
+      <c r="AF52" t="n">
+        <v>-0.8363488263380128</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5467,6 +5623,9 @@
       <c r="AE53" t="n">
         <v>-1.115091581398915</v>
       </c>
+      <c r="AF53" t="n">
+        <v>-1.118305399581313</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5562,6 +5721,9 @@
       <c r="AE54" t="n">
         <v>-0.1653663746225793</v>
       </c>
+      <c r="AF54" t="n">
+        <v>-0.167081573869256</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5657,6 +5819,9 @@
       <c r="AE55" t="n">
         <v>-1.013426495037586</v>
       </c>
+      <c r="AF55" t="n">
+        <v>-1.016423510490259</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5752,6 +5917,9 @@
       <c r="AE56" t="n">
         <v>-0.8929886816248594</v>
       </c>
+      <c r="AF56" t="n">
+        <v>-0.8956307699351431</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5847,6 +6015,9 @@
       <c r="AE57" t="n">
         <v>-0.9593557715981578</v>
       </c>
+      <c r="AF57" t="n">
+        <v>-0.9624705149483981</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5942,6 +6113,9 @@
       <c r="AE58" t="n">
         <v>-1.103513991003075</v>
       </c>
+      <c r="AF58" t="n">
+        <v>-1.106534060629151</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6037,6 +6211,9 @@
       <c r="AE59" t="n">
         <v>-0.788967099728869</v>
       </c>
+      <c r="AF59" t="n">
+        <v>-0.791502009437958</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6132,6 +6309,9 @@
       <c r="AE60" t="n">
         <v>-0.4383803367433723</v>
       </c>
+      <c r="AF60" t="n">
+        <v>-0.4402752869789989</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6227,6 +6407,9 @@
       <c r="AE61" t="n">
         <v>0.3842632499048829</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.3836954986639749</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6322,6 +6505,9 @@
       <c r="AE62" t="n">
         <v>-1.219171414485819</v>
       </c>
+      <c r="AF62" t="n">
+        <v>-1.222894671006428</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6417,6 +6603,9 @@
       <c r="AE63" t="n">
         <v>-0.562628536824698</v>
       </c>
+      <c r="AF63" t="n">
+        <v>-0.5643246881130141</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6512,6 +6701,9 @@
       <c r="AE64" t="n">
         <v>-0.8597672799546036</v>
       </c>
+      <c r="AF64" t="n">
+        <v>-0.8624489694787565</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6607,6 +6799,9 @@
       <c r="AE65" t="n">
         <v>-0.047026089574069</v>
       </c>
+      <c r="AF65" t="n">
+        <v>-0.04855452548121819</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6702,6 +6897,9 @@
       <c r="AE66" t="n">
         <v>-0.79542400155947</v>
       </c>
+      <c r="AF66" t="n">
+        <v>-0.7982414405051477</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6796,6 +6994,9 @@
       </c>
       <c r="AE67" t="n">
         <v>-0.7756206224677725</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.7787285376131455</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>-0.2316536527468984</v>
       </c>
+      <c r="AG2" t="n">
+        <v>-0.2329276321736513</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>0.2344040492764422</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.2339170412252657</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>0.227662987697738</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.226841202931219</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>-0.06094946380017421</v>
       </c>
+      <c r="AG5" t="n">
+        <v>-0.0620255514059879</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>0.187135593569539</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.1866481788859446</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.3848898151230195</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.3863753066047114</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1237,9 @@
       <c r="AF8" t="n">
         <v>-0.1336040619515961</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-0.1343181080623227</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1314,6 +1338,9 @@
       <c r="AF9" t="n">
         <v>-0.3212561544702686</v>
       </c>
+      <c r="AG9" t="n">
+        <v>-0.3221718640678938</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1412,6 +1439,9 @@
       <c r="AF10" t="n">
         <v>0.3939472867904834</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.3932644107946056</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1510,6 +1540,9 @@
       <c r="AF11" t="n">
         <v>-0.1893649988250072</v>
       </c>
+      <c r="AG11" t="n">
+        <v>-0.1907533457918248</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1608,6 +1641,9 @@
       <c r="AF12" t="n">
         <v>-0.09047543637447776</v>
       </c>
+      <c r="AG12" t="n">
+        <v>-0.09203377583200523</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1706,6 +1742,9 @@
       <c r="AF13" t="n">
         <v>-0.04224615632421497</v>
       </c>
+      <c r="AG13" t="n">
+        <v>-0.04330466475359698</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1804,6 +1843,9 @@
       <c r="AF14" t="n">
         <v>0.03939029911150282</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.03804557303718351</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1902,6 +1944,9 @@
       <c r="AF15" t="n">
         <v>-0.1014835301462698</v>
       </c>
+      <c r="AG15" t="n">
+        <v>-0.1035202389182296</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2000,6 +2045,9 @@
       <c r="AF16" t="n">
         <v>0.2966395161295237</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.2949876680741443</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2098,6 +2146,9 @@
       <c r="AF17" t="n">
         <v>0.4237793679831576</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.4225100612719739</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2196,6 +2247,9 @@
       <c r="AF18" t="n">
         <v>-0.151823705024684</v>
       </c>
+      <c r="AG18" t="n">
+        <v>-0.1527750431260944</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2294,6 +2348,9 @@
       <c r="AF19" t="n">
         <v>0.3048170123208848</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.3032261025641847</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2392,6 +2449,9 @@
       <c r="AF20" t="n">
         <v>0.1964823271273346</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.1944946245284332</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2490,6 +2550,9 @@
       <c r="AF21" t="n">
         <v>0.4869814042116077</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.4854549790427102</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2588,6 +2651,9 @@
       <c r="AF22" t="n">
         <v>0.2500089557660016</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.2487816404338462</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2686,6 +2752,9 @@
       <c r="AF23" t="n">
         <v>-0.1652340112523646</v>
       </c>
+      <c r="AG23" t="n">
+        <v>-0.1668369294976295</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2784,6 +2853,9 @@
       <c r="AF24" t="n">
         <v>1.493697764361525</v>
       </c>
+      <c r="AG24" t="n">
+        <v>1.482436681108314</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2882,6 +2954,9 @@
       <c r="AF25" t="n">
         <v>0.3174194303831092</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.3180351579340668</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2980,6 +3055,9 @@
       <c r="AF26" t="n">
         <v>0.1582223711129382</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.1576360529332886</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3078,6 +3156,9 @@
       <c r="AF27" t="n">
         <v>0.0477216362412059</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.04778186565285292</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3176,6 +3257,9 @@
       <c r="AF28" t="n">
         <v>0.8235700151245721</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.8249387494195047</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3274,6 +3358,9 @@
       <c r="AF29" t="n">
         <v>1.692686798270467</v>
       </c>
+      <c r="AG29" t="n">
+        <v>1.693747630355262</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3372,6 +3459,9 @@
       <c r="AF30" t="n">
         <v>0.6722951064071028</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.6727586591805154</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3470,6 +3560,9 @@
       <c r="AF31" t="n">
         <v>-0.4167626862011334</v>
       </c>
+      <c r="AG31" t="n">
+        <v>-0.4167719611814215</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3568,6 +3661,9 @@
       <c r="AF32" t="n">
         <v>0.5636037992861589</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.5638191408647875</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3666,6 +3762,9 @@
       <c r="AF33" t="n">
         <v>0.7678110313393496</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.7682124107887991</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3764,6 +3863,9 @@
       <c r="AF34" t="n">
         <v>-0.8149272250807343</v>
       </c>
+      <c r="AG34" t="n">
+        <v>-0.8158391084942079</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3862,6 +3964,9 @@
       <c r="AF35" t="n">
         <v>0.8207778606207193</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.8212088347665768</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3960,6 +4065,9 @@
       <c r="AF36" t="n">
         <v>0.7897352837487199</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.7903093483068454</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4058,6 +4166,9 @@
       <c r="AF37" t="n">
         <v>0.7553565516686552</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.7559640273918822</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4156,6 +4267,9 @@
       <c r="AF38" t="n">
         <v>0.6583830994929425</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.6587204701234087</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4254,6 +4368,9 @@
       <c r="AF39" t="n">
         <v>0.6163548752084407</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.6163552847689062</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4352,6 +4469,9 @@
       <c r="AF40" t="n">
         <v>0.7838021941078326</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.7841341846861462</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4450,6 +4570,9 @@
       <c r="AF41" t="n">
         <v>0.5778847892320439</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.5782905377276087</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4548,6 +4671,9 @@
       <c r="AF42" t="n">
         <v>0.6518183094922818</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.6521906239499563</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4646,6 +4772,9 @@
       <c r="AF43" t="n">
         <v>0.687364784975254</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.6876889211757293</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4744,6 +4873,9 @@
       <c r="AF44" t="n">
         <v>0.712207133945157</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.7125277727773508</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4842,6 +4974,9 @@
       <c r="AF45" t="n">
         <v>0.7307803538914676</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.7312498407071312</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4940,6 +5075,9 @@
       <c r="AF46" t="n">
         <v>-1.281348200744833</v>
       </c>
+      <c r="AG46" t="n">
+        <v>-1.284672970573904</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5038,6 +5176,9 @@
       <c r="AF47" t="n">
         <v>-0.9956040875801399</v>
       </c>
+      <c r="AG47" t="n">
+        <v>-0.9983487287333589</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5136,6 +5277,9 @@
       <c r="AF48" t="n">
         <v>-0.8565736551837893</v>
       </c>
+      <c r="AG48" t="n">
+        <v>-0.8592694280137684</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5234,6 +5378,9 @@
       <c r="AF49" t="n">
         <v>-0.6260045584178806</v>
       </c>
+      <c r="AG49" t="n">
+        <v>-0.6282696922862901</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5332,6 +5479,9 @@
       <c r="AF50" t="n">
         <v>-0.06031521746468631</v>
       </c>
+      <c r="AG50" t="n">
+        <v>-0.0617657125406379</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5430,6 +5580,9 @@
       <c r="AF51" t="n">
         <v>-0.8363488263380128</v>
       </c>
+      <c r="AG51" t="n">
+        <v>-0.8387019823109381</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5528,6 +5681,9 @@
       <c r="AF52" t="n">
         <v>-0.8363488263380128</v>
       </c>
+      <c r="AG52" t="n">
+        <v>-0.8387019823109381</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5626,6 +5782,9 @@
       <c r="AF53" t="n">
         <v>-1.118305399581313</v>
       </c>
+      <c r="AG53" t="n">
+        <v>-1.121486404147004</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5724,6 +5883,9 @@
       <c r="AF54" t="n">
         <v>-0.167081573869256</v>
       </c>
+      <c r="AG54" t="n">
+        <v>-0.1687687523778747</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5822,6 +5984,9 @@
       <c r="AF55" t="n">
         <v>-1.016423510490259</v>
       </c>
+      <c r="AG55" t="n">
+        <v>-1.019361212495652</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5920,6 +6085,9 @@
       <c r="AF56" t="n">
         <v>-0.8956307699351431</v>
       </c>
+      <c r="AG56" t="n">
+        <v>-0.8981935397385771</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6018,6 +6186,9 @@
       <c r="AF57" t="n">
         <v>-0.9624705149483981</v>
       </c>
+      <c r="AG57" t="n">
+        <v>-0.9654831470345884</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6116,6 +6287,9 @@
       <c r="AF58" t="n">
         <v>-1.106534060629151</v>
       </c>
+      <c r="AG58" t="n">
+        <v>-1.109447658774777</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6214,6 +6388,9 @@
       <c r="AF59" t="n">
         <v>-0.791502009437958</v>
       </c>
+      <c r="AG59" t="n">
+        <v>-0.7939855980204615</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6312,6 +6489,9 @@
       <c r="AF60" t="n">
         <v>-0.4402752869789989</v>
       </c>
+      <c r="AG60" t="n">
+        <v>-0.442110534304297</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6410,6 +6590,9 @@
       <c r="AF61" t="n">
         <v>0.3836954986639749</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.3831383832884552</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6508,6 +6691,9 @@
       <c r="AF62" t="n">
         <v>-1.222894671006428</v>
       </c>
+      <c r="AG62" t="n">
+        <v>-1.226491125222754</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6606,6 +6792,9 @@
       <c r="AF63" t="n">
         <v>-0.5643246881130141</v>
       </c>
+      <c r="AG63" t="n">
+        <v>-0.5660109392246684</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6704,6 +6893,9 @@
       <c r="AF64" t="n">
         <v>-0.8624489694787565</v>
       </c>
+      <c r="AG64" t="n">
+        <v>-0.8651032337413211</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6802,6 +6994,9 @@
       <c r="AF65" t="n">
         <v>-0.04855452548121819</v>
       </c>
+      <c r="AG65" t="n">
+        <v>-0.05003024229978256</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6900,6 +7095,9 @@
       <c r="AF66" t="n">
         <v>-0.7982414405051477</v>
       </c>
+      <c r="AG66" t="n">
+        <v>-0.8009315954460685</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6997,6 +7195,9 @@
       </c>
       <c r="AF67" t="n">
         <v>-0.7787285376131455</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.7816619912164897</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG67"/>
+  <dimension ref="A1:AH67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>-0.2329276321736513</v>
       </c>
+      <c r="AH2" t="n">
+        <v>-0.2341796416197833</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>0.2339170412252657</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.2334318394074641</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>0.226841202931219</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.2260163342789353</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>-0.0620255514059879</v>
       </c>
+      <c r="AH5" t="n">
+        <v>-0.0630659078069167</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>0.1866481788859446</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.186182740253188</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.3863753066047114</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.3878441537280714</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1240,6 +1261,9 @@
       <c r="AG8" t="n">
         <v>-0.1343181080623227</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-0.1350475159539507</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1341,6 +1365,9 @@
       <c r="AG9" t="n">
         <v>-0.3221718640678938</v>
       </c>
+      <c r="AH9" t="n">
+        <v>-0.3231129710281498</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1442,6 +1469,9 @@
       <c r="AG10" t="n">
         <v>0.3932644107946056</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.3926135083575542</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1543,6 +1573,9 @@
       <c r="AG11" t="n">
         <v>-0.1907533457918248</v>
       </c>
+      <c r="AH11" t="n">
+        <v>-0.1921146120328292</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1644,6 +1677,9 @@
       <c r="AG12" t="n">
         <v>-0.09203377583200523</v>
       </c>
+      <c r="AH12" t="n">
+        <v>-0.09351235951042697</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1745,6 +1781,9 @@
       <c r="AG13" t="n">
         <v>-0.04330466475359698</v>
       </c>
+      <c r="AH13" t="n">
+        <v>-0.04432959830350913</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1846,6 +1885,9 @@
       <c r="AG14" t="n">
         <v>0.03804557303718351</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.03680518485916505</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1947,6 +1989,9 @@
       <c r="AG15" t="n">
         <v>-0.1035202389182296</v>
       </c>
+      <c r="AH15" t="n">
+        <v>-0.1053951143807163</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2048,6 +2093,9 @@
       <c r="AG16" t="n">
         <v>0.2949876680741443</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.2935016241604093</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2149,6 +2197,9 @@
       <c r="AG17" t="n">
         <v>0.4225100612719739</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.4214070942771696</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2250,6 +2301,9 @@
       <c r="AG18" t="n">
         <v>-0.1527750431260944</v>
       </c>
+      <c r="AH18" t="n">
+        <v>-0.1536757109839046</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2351,6 +2405,9 @@
       <c r="AG19" t="n">
         <v>0.3032261025641847</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.3017368606766816</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2452,6 +2509,9 @@
       <c r="AG20" t="n">
         <v>0.1944946245284332</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.1926973194966912</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2553,6 +2613,9 @@
       <c r="AG21" t="n">
         <v>0.4854549790427102</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.4841103208278719</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2654,6 +2717,9 @@
       <c r="AG22" t="n">
         <v>0.2487816404338462</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.2477039517109472</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2755,6 +2821,9 @@
       <c r="AG23" t="n">
         <v>-0.1668369294976295</v>
       </c>
+      <c r="AH23" t="n">
+        <v>-0.1682931650022616</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2856,6 +2925,9 @@
       <c r="AG24" t="n">
         <v>1.482436681108314</v>
       </c>
+      <c r="AH24" t="n">
+        <v>1.473386622089788</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2957,6 +3029,9 @@
       <c r="AG25" t="n">
         <v>0.3180351579340668</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.3186195544883377</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3058,6 +3133,9 @@
       <c r="AG26" t="n">
         <v>0.1576360529332886</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.1571359285732486</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3159,6 +3237,9 @@
       <c r="AG27" t="n">
         <v>0.04778186565285292</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.04788770651087507</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3260,6 +3341,9 @@
       <c r="AG28" t="n">
         <v>0.8249387494195047</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.8262867562230624</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3361,6 +3445,9 @@
       <c r="AG29" t="n">
         <v>1.693747630355262</v>
       </c>
+      <c r="AH29" t="n">
+        <v>1.695527476797431</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3462,6 +3549,9 @@
       <c r="AG30" t="n">
         <v>0.6727586591805154</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.6732318151511664</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3563,6 +3653,9 @@
       <c r="AG31" t="n">
         <v>-0.4167719611814215</v>
       </c>
+      <c r="AH31" t="n">
+        <v>-0.4168351776597356</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3664,6 +3757,9 @@
       <c r="AG32" t="n">
         <v>0.5638191408647875</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.5640446638618605</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3765,6 +3861,9 @@
       <c r="AG33" t="n">
         <v>0.7682124107887991</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.768598729262791</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3866,6 +3965,9 @@
       <c r="AG34" t="n">
         <v>-0.8158391084942079</v>
       </c>
+      <c r="AH34" t="n">
+        <v>-0.8167369084696591</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3967,6 +4069,9 @@
       <c r="AG35" t="n">
         <v>0.8212088347665768</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.8216203455682047</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4068,6 +4173,9 @@
       <c r="AG36" t="n">
         <v>0.7903093483068454</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.7908334912695761</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4169,6 +4277,9 @@
       <c r="AG37" t="n">
         <v>0.7559640273918822</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.7565196203373633</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4270,6 +4381,9 @@
       <c r="AG38" t="n">
         <v>0.6587204701234087</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.6590357668484302</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4371,6 +4485,9 @@
       <c r="AG39" t="n">
         <v>0.6163552847689062</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.6163412952556286</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4472,6 +4589,9 @@
       <c r="AG40" t="n">
         <v>0.7841341846861462</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.7844564529696669</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4573,6 +4693,9 @@
       <c r="AG41" t="n">
         <v>0.5782905377276087</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.578656613726793</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4674,6 +4797,9 @@
       <c r="AG42" t="n">
         <v>0.6521906239499563</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.6525217908980027</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4775,6 +4901,9 @@
       <c r="AG43" t="n">
         <v>0.6876889211757293</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.6879850888666326</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4876,6 +5005,9 @@
       <c r="AG44" t="n">
         <v>0.7125277727773508</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.7128127172384797</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4977,6 +5109,9 @@
       <c r="AG45" t="n">
         <v>0.7312498407071312</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.7316511834559868</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5078,6 +5213,9 @@
       <c r="AG46" t="n">
         <v>-1.284672970573904</v>
       </c>
+      <c r="AH46" t="n">
+        <v>-1.287921857371521</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5179,6 +5317,9 @@
       <c r="AG47" t="n">
         <v>-0.9983487287333589</v>
       </c>
+      <c r="AH47" t="n">
+        <v>-1.001032902243472</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5280,6 +5421,9 @@
       <c r="AG48" t="n">
         <v>-0.8592694280137684</v>
       </c>
+      <c r="AH48" t="n">
+        <v>-0.8619255416807846</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5381,6 +5525,9 @@
       <c r="AG49" t="n">
         <v>-0.6282696922862901</v>
       </c>
+      <c r="AH49" t="n">
+        <v>-0.6304974548068468</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5482,6 +5629,9 @@
       <c r="AG50" t="n">
         <v>-0.0617657125406379</v>
       </c>
+      <c r="AH50" t="n">
+        <v>-0.06317758871115824</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5583,6 +5733,9 @@
       <c r="AG51" t="n">
         <v>-0.8387019823109381</v>
       </c>
+      <c r="AH51" t="n">
+        <v>-0.8410227976722411</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5684,6 +5837,9 @@
       <c r="AG52" t="n">
         <v>-0.8387019823109381</v>
       </c>
+      <c r="AH52" t="n">
+        <v>-0.8410227976722411</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5785,6 +5941,9 @@
       <c r="AG53" t="n">
         <v>-1.121486404147004</v>
       </c>
+      <c r="AH53" t="n">
+        <v>-1.124620599951571</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5886,6 +6045,9 @@
       <c r="AG54" t="n">
         <v>-0.1687687523778747</v>
       </c>
+      <c r="AH54" t="n">
+        <v>-0.1704214032374596</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5987,6 +6149,9 @@
       <c r="AG55" t="n">
         <v>-1.019361212495652</v>
       </c>
+      <c r="AH55" t="n">
+        <v>-1.022230723936348</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6088,6 +6253,9 @@
       <c r="AG56" t="n">
         <v>-0.8981935397385771</v>
       </c>
+      <c r="AH56" t="n">
+        <v>-0.9006730226181943</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6189,6 +6357,9 @@
       <c r="AG57" t="n">
         <v>-0.9654831470345884</v>
       </c>
+      <c r="AH57" t="n">
+        <v>-0.9683909629922821</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6290,6 +6461,9 @@
       <c r="AG58" t="n">
         <v>-1.109447658774777</v>
       </c>
+      <c r="AH58" t="n">
+        <v>-1.112252261943582</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6391,6 +6565,9 @@
       <c r="AG59" t="n">
         <v>-0.7939855980204615</v>
       </c>
+      <c r="AH59" t="n">
+        <v>-0.7964093111594723</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6492,6 +6669,9 @@
       <c r="AG60" t="n">
         <v>-0.442110534304297</v>
       </c>
+      <c r="AH60" t="n">
+        <v>-0.4438826797889509</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6593,6 +6773,9 @@
       <c r="AG61" t="n">
         <v>0.3831383832884552</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.3825939130568345</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6694,6 +6877,9 @@
       <c r="AG62" t="n">
         <v>-1.226491125222754</v>
       </c>
+      <c r="AH62" t="n">
+        <v>-1.229957843919101</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6795,6 +6981,9 @@
       <c r="AG63" t="n">
         <v>-0.5660109392246684</v>
       </c>
+      <c r="AH63" t="n">
+        <v>-0.5676754082580365</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6896,6 +7085,9 @@
       <c r="AG64" t="n">
         <v>-0.8651032337413211</v>
       </c>
+      <c r="AH64" t="n">
+        <v>-0.867717648140886</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6997,6 +7189,9 @@
       <c r="AG65" t="n">
         <v>-0.05003024229978256</v>
       </c>
+      <c r="AH65" t="n">
+        <v>-0.05145082451392528</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7098,6 +7293,9 @@
       <c r="AG66" t="n">
         <v>-0.8009315954460685</v>
       </c>
+      <c r="AH66" t="n">
+        <v>-0.8034967687072089</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7198,6 +7396,9 @@
       </c>
       <c r="AG67" t="n">
         <v>-0.7816619912164897</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.784428586210577</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH67"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>-0.2341796416197833</v>
       </c>
+      <c r="AI2" t="n">
+        <v>-0.2354042640828247</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>0.2334318394074641</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.2329511795794336</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>0.2260163342789353</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.2251948920804123</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>-0.0630659078069167</v>
       </c>
+      <c r="AI5" t="n">
+        <v>-0.06406940531316455</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>0.186182740253188</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.1857393309125577</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.3878441537280714</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.3892890789712745</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1264,6 +1285,9 @@
       <c r="AH8" t="n">
         <v>-0.1350475159539507</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-0.1357837926834565</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1368,6 +1392,9 @@
       <c r="AH9" t="n">
         <v>-0.3231129710281498</v>
       </c>
+      <c r="AI9" t="n">
+        <v>-0.3240691898181385</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1472,6 +1499,9 @@
       <c r="AH10" t="n">
         <v>0.3926135083575542</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.3919942314385007</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1576,6 +1606,9 @@
       <c r="AH11" t="n">
         <v>-0.1921146120328292</v>
       </c>
+      <c r="AI11" t="n">
+        <v>-0.1934438674390959</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1680,6 +1713,9 @@
       <c r="AH12" t="n">
         <v>-0.09351235951042697</v>
       </c>
+      <c r="AI12" t="n">
+        <v>-0.09491430505793388</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1784,6 +1820,9 @@
       <c r="AH13" t="n">
         <v>-0.04432959830350913</v>
       </c>
+      <c r="AI13" t="n">
+        <v>-0.04532028875813888</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1888,6 +1927,9 @@
       <c r="AH14" t="n">
         <v>0.03680518485916505</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.03566047126955194</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1992,6 +2034,9 @@
       <c r="AH15" t="n">
         <v>-0.1053951143807163</v>
       </c>
+      <c r="AI15" t="n">
+        <v>-0.1071226574209918</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2096,6 +2141,9 @@
       <c r="AH16" t="n">
         <v>0.2935016241604093</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.2921642771278815</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2200,6 +2248,9 @@
       <c r="AH17" t="n">
         <v>0.4214070942771696</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.4204493337824073</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2304,6 +2355,9 @@
       <c r="AH18" t="n">
         <v>-0.1536757109839046</v>
       </c>
+      <c r="AI18" t="n">
+        <v>-0.1545311052631472</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2408,6 +2462,9 @@
       <c r="AH19" t="n">
         <v>0.3017368606766816</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.3003415457920435</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2512,6 +2569,9 @@
       <c r="AH20" t="n">
         <v>0.1926973194966912</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.1910709318778597</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2616,6 +2676,9 @@
       <c r="AH21" t="n">
         <v>0.4841103208278719</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.4829280368364359</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2720,6 +2783,9 @@
       <c r="AH22" t="n">
         <v>0.2477039517109472</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.2467578757456711</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2824,6 +2890,9 @@
       <c r="AH23" t="n">
         <v>-0.1682931650022616</v>
       </c>
+      <c r="AI23" t="n">
+        <v>-0.1696174630012822</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2928,6 +2997,9 @@
       <c r="AH24" t="n">
         <v>1.473386622089788</v>
       </c>
+      <c r="AI24" t="n">
+        <v>1.46623669431647</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3032,6 +3104,9 @@
       <c r="AH25" t="n">
         <v>0.3186195544883377</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.319171218194026</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3136,6 +3211,9 @@
       <c r="AH26" t="n">
         <v>0.1571359285732486</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.1567090560398249</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3240,6 +3318,9 @@
       <c r="AH27" t="n">
         <v>0.04788770651087507</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.04802853605862809</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3344,6 +3425,9 @@
       <c r="AH28" t="n">
         <v>0.8262867562230624</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.8276063763102881</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3448,6 +3532,9 @@
       <c r="AH29" t="n">
         <v>1.695527476797431</v>
       </c>
+      <c r="AI29" t="n">
+        <v>1.697853558896991</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3552,6 +3639,9 @@
       <c r="AH30" t="n">
         <v>0.6732318151511664</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.6737060527921576</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3656,6 +3746,9 @@
       <c r="AH31" t="n">
         <v>-0.4168351776597356</v>
       </c>
+      <c r="AI31" t="n">
+        <v>-0.4169465160596811</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3760,6 +3853,9 @@
       <c r="AH32" t="n">
         <v>0.5640446638618605</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.5642744949596672</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3864,6 +3960,9 @@
       <c r="AH33" t="n">
         <v>0.768598729262791</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.7689679152709027</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3968,6 +4067,9 @@
       <c r="AH34" t="n">
         <v>-0.8167369084696591</v>
       </c>
+      <c r="AI34" t="n">
+        <v>-0.8176192095829452</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4072,6 +4174,9 @@
       <c r="AH35" t="n">
         <v>0.8216203455682047</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.8220131093934712</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4176,6 +4281,9 @@
       <c r="AH36" t="n">
         <v>0.7908334912695761</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.7913124832479933</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4280,6 +4388,9 @@
       <c r="AH37" t="n">
         <v>0.7565196203373633</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.7570281016548539</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4384,6 +4495,9 @@
       <c r="AH38" t="n">
         <v>0.6590357668484302</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.6593295096026064</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4488,6 +4602,9 @@
       <c r="AH39" t="n">
         <v>0.6163412952556286</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.6163158318863879</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4592,6 +4709,9 @@
       <c r="AH40" t="n">
         <v>0.7844564529696669</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.7847692387298902</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4696,6 +4816,9 @@
       <c r="AH41" t="n">
         <v>0.578656613726793</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.5789870016135965</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4800,6 +4923,9 @@
       <c r="AH42" t="n">
         <v>0.6525217908980027</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.6528155514968553</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4904,6 +5030,9 @@
       <c r="AH43" t="n">
         <v>0.6879850888666326</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.6882553622929326</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5008,6 +5137,9 @@
       <c r="AH44" t="n">
         <v>0.7128127172384797</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.7130662200121773</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5112,6 +5244,9 @@
       <c r="AH45" t="n">
         <v>0.7316511834559868</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.7319934594218275</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5216,6 +5351,9 @@
       <c r="AH46" t="n">
         <v>-1.287921857371521</v>
       </c>
+      <c r="AI46" t="n">
+        <v>-1.29108663835621</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5320,6 +5458,9 @@
       <c r="AH47" t="n">
         <v>-1.001032902243472</v>
       </c>
+      <c r="AI47" t="n">
+        <v>-1.003649499714242</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5424,6 +5565,9 @@
       <c r="AH48" t="n">
         <v>-0.8619255416807846</v>
       </c>
+      <c r="AI48" t="n">
+        <v>-0.8645315241037941</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5528,6 +5672,9 @@
       <c r="AH49" t="n">
         <v>-0.6304974548068468</v>
       </c>
+      <c r="AI49" t="n">
+        <v>-0.632679637389176</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5632,6 +5779,9 @@
       <c r="AH50" t="n">
         <v>-0.06317758871115824</v>
       </c>
+      <c r="AI50" t="n">
+        <v>-0.06454815234121818</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5736,6 +5886,9 @@
       <c r="AH51" t="n">
         <v>-0.8410227976722411</v>
       </c>
+      <c r="AI51" t="n">
+        <v>-0.8433015022112957</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5840,6 +5993,9 @@
       <c r="AH52" t="n">
         <v>-0.8410227976722411</v>
       </c>
+      <c r="AI52" t="n">
+        <v>-0.8433015022112957</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5944,6 +6100,9 @@
       <c r="AH53" t="n">
         <v>-1.124620599951571</v>
       </c>
+      <c r="AI53" t="n">
+        <v>-1.127696299397434</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6048,6 +6207,9 @@
       <c r="AH54" t="n">
         <v>-0.1704214032374596</v>
       </c>
+      <c r="AI54" t="n">
+        <v>-0.1720343015872927</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6152,6 +6314,9 @@
       <c r="AH55" t="n">
         <v>-1.022230723936348</v>
       </c>
+      <c r="AI55" t="n">
+        <v>-1.025024972773526</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6256,6 +6421,9 @@
       <c r="AH56" t="n">
         <v>-0.9006730226181943</v>
       </c>
+      <c r="AI56" t="n">
+        <v>-0.9030665374592004</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6360,6 +6528,9 @@
       <c r="AH57" t="n">
         <v>-0.9683909629922821</v>
       </c>
+      <c r="AI57" t="n">
+        <v>-0.9711924451556028</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6464,6 +6635,9 @@
       <c r="AH58" t="n">
         <v>-1.112252261943582</v>
       </c>
+      <c r="AI58" t="n">
+        <v>-1.114946716428919</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6568,6 +6742,9 @@
       <c r="AH59" t="n">
         <v>-0.7964093111594723</v>
       </c>
+      <c r="AI59" t="n">
+        <v>-0.7987664877299658</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6672,6 +6849,9 @@
       <c r="AH60" t="n">
         <v>-0.4438826797889509</v>
       </c>
+      <c r="AI60" t="n">
+        <v>-0.4455895153427236</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6776,6 +6956,9 @@
       <c r="AH61" t="n">
         <v>0.3825939130568345</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.3820636723364235</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6880,6 +7063,9 @@
       <c r="AH62" t="n">
         <v>-1.229957843919101</v>
       </c>
+      <c r="AI62" t="n">
+        <v>-1.233293377671697</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6984,6 +7170,9 @@
       <c r="AH63" t="n">
         <v>-0.5676754082580365</v>
       </c>
+      <c r="AI63" t="n">
+        <v>-0.5693085917491796</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7088,6 +7277,9 @@
       <c r="AH64" t="n">
         <v>-0.867717648140886</v>
       </c>
+      <c r="AI64" t="n">
+        <v>-0.8702819491046224</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7192,6 +7384,9 @@
       <c r="AH65" t="n">
         <v>-0.05145082451392528</v>
       </c>
+      <c r="AI65" t="n">
+        <v>-0.05281486793940847</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7296,6 +7491,9 @@
       <c r="AH66" t="n">
         <v>-0.8034967687072089</v>
       </c>
+      <c r="AI66" t="n">
+        <v>-0.8059400172509255</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7399,6 +7597,9 @@
       </c>
       <c r="AH67" t="n">
         <v>-0.784428586210577</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.7870363113224302</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AJ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>-0.2354042640828247</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.2365972561151829</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>0.2329511795794336</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.2324773609844003</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>0.2251948920804123</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.2243822618837848</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>-0.06406940531316455</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>-0.06503540192367857</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>0.1857393309125577</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.1853177335212535</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.3892890789712745</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.3907041739952291</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1288,6 +1309,9 @@
       <c r="AI8" t="n">
         <v>-0.1357837926834565</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-0.1365198867507495</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1395,6 +1419,9 @@
       <c r="AI9" t="n">
         <v>-0.3240691898181385</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>-0.3250317027417386</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1502,6 +1529,9 @@
       <c r="AI10" t="n">
         <v>0.3919942314385007</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.3914059456268397</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1609,6 +1639,9 @@
       <c r="AI11" t="n">
         <v>-0.1934438674390959</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>-0.1947372609127487</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1716,6 +1749,9 @@
       <c r="AI12" t="n">
         <v>-0.09491430505793388</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>-0.09624288231228817</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1823,6 +1859,9 @@
       <c r="AI13" t="n">
         <v>-0.04532028875813888</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>-0.04627635480190235</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1930,6 +1969,9 @@
       <c r="AI14" t="n">
         <v>0.03566047126955194</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.03460332062076021</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2037,6 +2079,9 @@
       <c r="AI15" t="n">
         <v>-0.1071226574209918</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>-0.1087162283137491</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2144,6 +2189,9 @@
       <c r="AI16" t="n">
         <v>0.2921642771278815</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.2909599635586939</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2251,6 +2299,9 @@
       <c r="AI17" t="n">
         <v>0.4204493337824073</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.4196179559562325</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2358,6 +2409,9 @@
       <c r="AI18" t="n">
         <v>-0.1545311052631472</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>-0.1553456869958772</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2465,6 +2519,9 @@
       <c r="AI19" t="n">
         <v>0.3003415457920435</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.2990330122248199</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2572,6 +2629,9 @@
       <c r="AI20" t="n">
         <v>0.1910709318778597</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.1895976778148235</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2679,6 +2739,9 @@
       <c r="AI21" t="n">
         <v>0.4829280368364359</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.4818902359957301</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2786,6 +2849,9 @@
       <c r="AI22" t="n">
         <v>0.2467578757456711</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.2459272485320346</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2893,6 +2959,9 @@
       <c r="AI23" t="n">
         <v>-0.1696174630012822</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>-0.1708232731751854</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3000,6 +3069,9 @@
       <c r="AI24" t="n">
         <v>1.46623669431647</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>1.460710554460861</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3107,6 +3179,9 @@
       <c r="AI25" t="n">
         <v>0.319171218194026</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.3196896264587037</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3214,6 +3289,9 @@
       <c r="AI26" t="n">
         <v>0.1567090560398249</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.1563442434579099</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3321,6 +3399,9 @@
       <c r="AI27" t="n">
         <v>0.04802853605862809</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.04819547420859246</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3428,6 +3509,9 @@
       <c r="AI28" t="n">
         <v>0.8276063763102881</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.828891691135214</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3535,6 +3619,9 @@
       <c r="AI29" t="n">
         <v>1.697853558896991</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>1.700582127051325</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3642,6 +3729,9 @@
       <c r="AI30" t="n">
         <v>0.6737060527921576</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.6741747410711131</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3749,6 +3839,9 @@
       <c r="AI31" t="n">
         <v>-0.4169465160596811</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>-0.4171001655858418</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3856,6 +3949,9 @@
       <c r="AI32" t="n">
         <v>0.5642744949596672</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.5645040474847358</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3963,6 +4059,9 @@
       <c r="AI33" t="n">
         <v>0.7689679152709027</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.7693186534703483</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4070,6 +4169,9 @@
       <c r="AI34" t="n">
         <v>-0.8176192095829452</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>-0.8184846095702748</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4177,6 +4279,9 @@
       <c r="AI35" t="n">
         <v>0.8220131093934712</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.8223878431645901</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4284,6 +4389,9 @@
       <c r="AI36" t="n">
         <v>0.7913124832479933</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.7917507029811212</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4391,6 +4499,9 @@
       <c r="AI37" t="n">
         <v>0.7570281016548539</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.7574938830915725</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4498,6 +4609,9 @@
       <c r="AI38" t="n">
         <v>0.6593295096026064</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.6596024604381907</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4605,6 +4719,9 @@
       <c r="AI39" t="n">
         <v>0.6163158318863879</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.6162813844182697</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4712,6 +4829,9 @@
       <c r="AI40" t="n">
         <v>0.7847692387298902</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.7850727034471778</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4819,6 +4939,9 @@
       <c r="AI41" t="n">
         <v>0.5789870016135965</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.5792853637124148</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4926,6 +5049,9 @@
       <c r="AI42" t="n">
         <v>0.6528155514968553</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.653075483459855</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5033,6 +5159,9 @@
       <c r="AI43" t="n">
         <v>0.6882553622929326</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.6885017810969001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5140,6 +5269,9 @@
       <c r="AI44" t="n">
         <v>0.7130662200121773</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.7132920785401544</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5247,6 +5379,9 @@
       <c r="AI45" t="n">
         <v>0.7319934594218275</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.7322847177429143</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5354,6 +5489,9 @@
       <c r="AI46" t="n">
         <v>-1.29108663835621</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>-1.294160920457123</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5461,6 +5599,9 @@
       <c r="AI47" t="n">
         <v>-1.003649499714242</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>-1.006192950836589</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5568,6 +5709,9 @@
       <c r="AI48" t="n">
         <v>-0.8645315241037941</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>-0.8670788472662815</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5675,6 +5819,9 @@
       <c r="AI49" t="n">
         <v>-0.632679637389176</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>-0.6348096153959172</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5782,6 +5929,9 @@
       <c r="AI50" t="n">
         <v>-0.06454815234121818</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>-0.06587541278058799</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5889,6 +6039,9 @@
       <c r="AI51" t="n">
         <v>-0.8433015022112957</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>-0.8455301435427947</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5996,6 +6149,9 @@
       <c r="AI52" t="n">
         <v>-0.8433015022112957</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>-0.8455301435427947</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6103,6 +6259,9 @@
       <c r="AI53" t="n">
         <v>-1.127696299397434</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>-1.130703899399171</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6210,6 +6369,9 @@
       <c r="AI54" t="n">
         <v>-0.1720343015872927</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>-0.1736033478323933</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6317,6 +6479,9 @@
       <c r="AI55" t="n">
         <v>-1.025024972773526</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>-1.027738481320382</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6424,6 +6589,9 @@
       <c r="AI56" t="n">
         <v>-0.9030665374592004</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>-0.9053724974681499</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6531,6 +6699,9 @@
       <c r="AI57" t="n">
         <v>-0.9711924451556028</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>-0.9738870814965987</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6638,6 +6809,9 @@
       <c r="AI58" t="n">
         <v>-1.114946716428919</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>-1.117530997809914</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6745,6 +6919,9 @@
       <c r="AI59" t="n">
         <v>-0.7987664877299658</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>-0.8010521028695688</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6852,6 +7029,9 @@
       <c r="AI60" t="n">
         <v>-0.4455895153427236</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>-0.4472298227013709</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6959,6 +7139,9 @@
       <c r="AI61" t="n">
         <v>0.3820636723364235</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.3815488762174444</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7066,6 +7249,9 @@
       <c r="AI62" t="n">
         <v>-1.233293377671697</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>-1.236497518196492</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7173,6 +7359,9 @@
       <c r="AI63" t="n">
         <v>-0.5693085917491796</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>-0.570903026433237</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7280,6 +7469,9 @@
       <c r="AI64" t="n">
         <v>-0.8702819491046224</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>-0.8727877991933641</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7387,6 +7579,9 @@
       <c r="AI65" t="n">
         <v>-0.05281486793940847</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>-0.05412179520078503</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7494,6 +7689,9 @@
       <c r="AI66" t="n">
         <v>-0.8059400172509255</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>-0.8082649639318198</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7600,6 +7798,9 @@
       </c>
       <c r="AI67" t="n">
         <v>-0.7870363113224302</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.7894933369040712</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ67"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.2365972561151829</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.2377553827597386</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>0.2324773609844003</v>
       </c>
+      <c r="AK3" t="n">
+        <v>0.2320122899429525</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>0.2243822618837848</v>
       </c>
+      <c r="AK4" t="n">
+        <v>0.2235828422965451</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>-0.06503540192367857</v>
       </c>
+      <c r="AK5" t="n">
+        <v>-0.06596366186092162</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>0.1853177335212535</v>
       </c>
+      <c r="AK6" t="n">
+        <v>0.1849175216314621</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.3907041739952291</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.3920847302631935</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1312,6 +1333,9 @@
       <c r="AJ8" t="n">
         <v>-0.1365198867507495</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-0.1372500053325023</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1422,6 +1446,9 @@
       <c r="AJ9" t="n">
         <v>-0.3250317027417386</v>
       </c>
+      <c r="AK9" t="n">
+        <v>-0.3259930189823817</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1532,6 +1559,9 @@
       <c r="AJ10" t="n">
         <v>0.3914059456268397</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.39084780021009</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1642,6 +1672,9 @@
       <c r="AJ11" t="n">
         <v>-0.1947372609127487</v>
       </c>
+      <c r="AK11" t="n">
+        <v>-0.1959918736437107</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1752,6 +1785,9 @@
       <c r="AJ12" t="n">
         <v>-0.09624288231228817</v>
       </c>
+      <c r="AK12" t="n">
+        <v>-0.09750143956705842</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1862,6 +1898,9 @@
       <c r="AJ13" t="n">
         <v>-0.04627635480190235</v>
       </c>
+      <c r="AK13" t="n">
+        <v>-0.04719766734931098</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1972,6 +2011,9 @@
       <c r="AJ14" t="n">
         <v>0.03460332062076021</v>
       </c>
+      <c r="AK14" t="n">
+        <v>0.03362618742230251</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2082,6 +2124,9 @@
       <c r="AJ15" t="n">
         <v>-0.1087162283137491</v>
       </c>
+      <c r="AK15" t="n">
+        <v>-0.1101880779706145</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2192,6 +2237,9 @@
       <c r="AJ16" t="n">
         <v>0.2909599635586939</v>
       </c>
+      <c r="AK16" t="n">
+        <v>0.2898744208830251</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2302,6 +2350,9 @@
       <c r="AJ17" t="n">
         <v>0.4196179559562325</v>
       </c>
+      <c r="AK17" t="n">
+        <v>0.4188962662555051</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2412,6 +2463,9 @@
       <c r="AJ18" t="n">
         <v>-0.1553456869958772</v>
       </c>
+      <c r="AK18" t="n">
+        <v>-0.1561231439442985</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2522,6 +2576,9 @@
       <c r="AJ19" t="n">
         <v>0.2990330122248199</v>
       </c>
+      <c r="AK19" t="n">
+        <v>0.2978046821747387</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2632,6 +2689,9 @@
       <c r="AJ20" t="n">
         <v>0.1895976778148235</v>
       </c>
+      <c r="AK20" t="n">
+        <v>0.1882614028681071</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2742,6 +2802,9 @@
       <c r="AJ21" t="n">
         <v>0.4818902359957301</v>
       </c>
+      <c r="AK21" t="n">
+        <v>0.4809805285270141</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2852,6 +2915,9 @@
       <c r="AJ22" t="n">
         <v>0.2459272485320346</v>
       </c>
+      <c r="AK22" t="n">
+        <v>0.2451976318724685</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2962,6 +3028,9 @@
       <c r="AJ23" t="n">
         <v>-0.1708232731751854</v>
       </c>
+      <c r="AK23" t="n">
+        <v>-0.1719228064438545</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3072,6 +3141,9 @@
       <c r="AJ24" t="n">
         <v>1.460710554460861</v>
       </c>
+      <c r="AK24" t="n">
+        <v>1.456563809370945</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3182,6 +3254,9 @@
       <c r="AJ25" t="n">
         <v>0.3196896264587037</v>
       </c>
+      <c r="AK25" t="n">
+        <v>0.3201749381162532</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3292,6 +3367,9 @@
       <c r="AJ26" t="n">
         <v>0.1563442434579099</v>
       </c>
+      <c r="AK26" t="n">
+        <v>0.1560318489306055</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3402,6 +3480,9 @@
       <c r="AJ27" t="n">
         <v>0.04819547420859246</v>
       </c>
+      <c r="AK27" t="n">
+        <v>0.04838114797199737</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3512,6 +3593,9 @@
       <c r="AJ28" t="n">
         <v>0.828891691135214</v>
       </c>
+      <c r="AK28" t="n">
+        <v>0.8301382539044178</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3622,6 +3706,9 @@
       <c r="AJ29" t="n">
         <v>1.700582127051325</v>
       </c>
+      <c r="AK29" t="n">
+        <v>1.703594437189623</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3732,6 +3819,9 @@
       <c r="AJ30" t="n">
         <v>0.6741747410711131</v>
       </c>
+      <c r="AK30" t="n">
+        <v>0.674632822716096</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3842,6 +3932,9 @@
       <c r="AJ31" t="n">
         <v>-0.4171001655858418</v>
       </c>
+      <c r="AK31" t="n">
+        <v>-0.4172904631072491</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3952,6 +4045,9 @@
       <c r="AJ32" t="n">
         <v>0.5645040474847358</v>
       </c>
+      <c r="AK32" t="n">
+        <v>0.5647298047509695</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4062,6 +4158,9 @@
       <c r="AJ33" t="n">
         <v>0.7693186534703483</v>
       </c>
+      <c r="AK33" t="n">
+        <v>0.7696502318892645</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4172,6 +4271,9 @@
       <c r="AJ34" t="n">
         <v>-0.8184846095702748</v>
       </c>
+      <c r="AK34" t="n">
+        <v>-0.8193317763628902</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4282,6 +4384,9 @@
       <c r="AJ35" t="n">
         <v>0.8223878431645901</v>
       </c>
+      <c r="AK35" t="n">
+        <v>0.8227452594063417</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4392,6 +4497,9 @@
       <c r="AJ36" t="n">
         <v>0.7917507029811212</v>
       </c>
+      <c r="AK36" t="n">
+        <v>0.7921521496694423</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4502,6 +4610,9 @@
       <c r="AJ37" t="n">
         <v>0.7574938830915725</v>
       </c>
+      <c r="AK37" t="n">
+        <v>0.7579210210542429</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4612,6 +4723,9 @@
       <c r="AJ38" t="n">
         <v>0.6596024604381907</v>
       </c>
+      <c r="AK38" t="n">
+        <v>0.6598555520191182</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4722,6 +4836,9 @@
       <c r="AJ39" t="n">
         <v>0.6162813844182697</v>
       </c>
+      <c r="AK39" t="n">
+        <v>0.61624005998525</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4832,6 +4949,9 @@
       <c r="AJ40" t="n">
         <v>0.7850727034471778</v>
       </c>
+      <c r="AK40" t="n">
+        <v>0.7853669564322254</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4942,6 +5062,9 @@
       <c r="AJ41" t="n">
         <v>0.5792853637124148</v>
       </c>
+      <c r="AK41" t="n">
+        <v>0.5795550469629814</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5052,6 +5175,9 @@
       <c r="AJ42" t="n">
         <v>0.653075483459855</v>
       </c>
+      <c r="AK42" t="n">
+        <v>0.653304967632035</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5162,6 +5288,9 @@
       <c r="AJ43" t="n">
         <v>0.6885017810969001</v>
       </c>
+      <c r="AK43" t="n">
+        <v>0.6887263193300319</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5272,6 +5401,9 @@
       <c r="AJ44" t="n">
         <v>0.7132920785401544</v>
       </c>
+      <c r="AK44" t="n">
+        <v>0.7134936705681593</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5382,6 +5514,9 @@
       <c r="AJ45" t="n">
         <v>0.7322847177429143</v>
       </c>
+      <c r="AK45" t="n">
+        <v>0.7325320649876019</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5492,6 +5627,9 @@
       <c r="AJ46" t="n">
         <v>-1.294160920457123</v>
       </c>
+      <c r="AK46" t="n">
+        <v>-1.297139916362708</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5602,6 +5740,9 @@
       <c r="AJ47" t="n">
         <v>-1.006192950836589</v>
       </c>
+      <c r="AK47" t="n">
+        <v>-1.008659038423572</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5712,6 +5853,9 @@
       <c r="AJ48" t="n">
         <v>-0.8670788472662815</v>
       </c>
+      <c r="AK48" t="n">
+        <v>-0.8695607070791415</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5822,6 +5966,9 @@
       <c r="AJ49" t="n">
         <v>-0.6348096153959172</v>
       </c>
+      <c r="AK49" t="n">
+        <v>-0.6368821629131256</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5932,6 +6079,9 @@
       <c r="AJ50" t="n">
         <v>-0.06587541278058799</v>
       </c>
+      <c r="AK50" t="n">
+        <v>-0.06715798997653147</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6042,6 +6192,9 @@
       <c r="AJ51" t="n">
         <v>-0.8455301435427947</v>
       </c>
+      <c r="AK51" t="n">
+        <v>-0.8477023758974699</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6152,6 +6305,9 @@
       <c r="AJ52" t="n">
         <v>-0.8455301435427947</v>
       </c>
+      <c r="AK52" t="n">
+        <v>-0.8477023758974699</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6262,6 +6418,9 @@
       <c r="AJ53" t="n">
         <v>-1.130703899399171</v>
       </c>
+      <c r="AK53" t="n">
+        <v>-1.13363566488954</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6372,6 +6531,9 @@
       <c r="AJ54" t="n">
         <v>-0.1736033478323933</v>
       </c>
+      <c r="AK54" t="n">
+        <v>-0.1751254235639049</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6482,6 +6644,9 @@
       <c r="AJ55" t="n">
         <v>-1.027738481320382</v>
       </c>
+      <c r="AK55" t="n">
+        <v>-1.030367170002247</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6592,6 +6757,9 @@
       <c r="AJ56" t="n">
         <v>-0.9053724974681499</v>
       </c>
+      <c r="AK56" t="n">
+        <v>-0.9075902386281156</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6702,6 +6870,9 @@
       <c r="AJ57" t="n">
         <v>-0.9738870814965987</v>
       </c>
+      <c r="AK57" t="n">
+        <v>-0.9764752040696347</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6812,6 +6983,9 @@
       <c r="AJ58" t="n">
         <v>-1.117530997809914</v>
       </c>
+      <c r="AK58" t="n">
+        <v>-1.120006002624971</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6922,6 +7096,9 @@
       <c r="AJ59" t="n">
         <v>-0.8010521028695688</v>
       </c>
+      <c r="AK59" t="n">
+        <v>-0.8032625367247811</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7032,6 +7209,9 @@
       <c r="AJ60" t="n">
         <v>-0.4472298227013709</v>
       </c>
+      <c r="AK60" t="n">
+        <v>-0.448803198998559</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7142,6 +7322,9 @@
       <c r="AJ61" t="n">
         <v>0.3815488762174444</v>
       </c>
+      <c r="AK61" t="n">
+        <v>0.3810504209154073</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7252,6 +7435,9 @@
       <c r="AJ62" t="n">
         <v>-1.236497518196492</v>
       </c>
+      <c r="AK62" t="n">
+        <v>-1.239571085180194</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7362,6 +7548,9 @@
       <c r="AJ63" t="n">
         <v>-0.570903026433237</v>
       </c>
+      <c r="AK63" t="n">
+        <v>-0.5724529891203876</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7472,6 +7661,9 @@
       <c r="AJ64" t="n">
         <v>-0.8727877991933641</v>
       </c>
+      <c r="AK64" t="n">
+        <v>-0.8752285658030138</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7582,6 +7774,9 @@
       <c r="AJ65" t="n">
         <v>-0.05412179520078503</v>
       </c>
+      <c r="AK65" t="n">
+        <v>-0.05537169765940288</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7692,6 +7887,9 @@
       <c r="AJ66" t="n">
         <v>-0.8082649639318198</v>
       </c>
+      <c r="AK66" t="n">
+        <v>-0.8104756405762829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7801,6 +7999,9 @@
       </c>
       <c r="AJ67" t="n">
         <v>-0.7894933369040712</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.791807854608658</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK67"/>
+  <dimension ref="A1:AL67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.2377553827597386</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.2388762703224969</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>0.2320122899429525</v>
       </c>
+      <c r="AL3" t="n">
+        <v>0.2315575216744879</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>0.2235828422965451</v>
       </c>
+      <c r="AL4" t="n">
+        <v>0.2228001708421121</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>-0.06596366186092162</v>
       </c>
+      <c r="AL5" t="n">
+        <v>-0.06685428592772222</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>0.1849175216314621</v>
       </c>
+      <c r="AL6" t="n">
+        <v>0.1845381108677975</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.3920847302631935</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.393427084133703</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1336,6 +1357,9 @@
       <c r="AK8" t="n">
         <v>-0.1372500053325023</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-0.1379694489147036</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1449,6 +1473,9 @@
       <c r="AK9" t="n">
         <v>-0.3259930189823817</v>
       </c>
+      <c r="AL9" t="n">
+        <v>-0.3269468388197157</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1562,6 +1589,9 @@
       <c r="AK10" t="n">
         <v>0.39084780021009</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.3903187861514837</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1675,6 +1705,9 @@
       <c r="AK11" t="n">
         <v>-0.1959918736437107</v>
       </c>
+      <c r="AL11" t="n">
+        <v>-0.1972055871708216</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1788,6 +1821,9 @@
       <c r="AK12" t="n">
         <v>-0.09750143956705842</v>
       </c>
+      <c r="AL12" t="n">
+        <v>-0.09869334489831907</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1901,6 +1937,9 @@
       <c r="AK13" t="n">
         <v>-0.04719766734931098</v>
       </c>
+      <c r="AL13" t="n">
+        <v>-0.04808431685937106</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2014,6 +2053,9 @@
       <c r="AK14" t="n">
         <v>0.03362618742230251</v>
       </c>
+      <c r="AL14" t="n">
+        <v>0.03272209222650638</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2127,6 +2169,9 @@
       <c r="AK15" t="n">
         <v>-0.1101880779706145</v>
       </c>
+      <c r="AL15" t="n">
+        <v>-0.1115493934979768</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2240,6 +2285,9 @@
       <c r="AK16" t="n">
         <v>0.2898744208830251</v>
       </c>
+      <c r="AL16" t="n">
+        <v>0.2888947261739538</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2353,6 +2401,9 @@
       <c r="AK17" t="n">
         <v>0.4188962662555051</v>
       </c>
+      <c r="AL17" t="n">
+        <v>0.4182695190846422</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2466,6 +2517,9 @@
       <c r="AK18" t="n">
         <v>-0.1561231439442985</v>
       </c>
+      <c r="AL18" t="n">
+        <v>-0.1568665281604809</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2579,6 +2633,9 @@
       <c r="AK19" t="n">
         <v>0.2978046821747387</v>
       </c>
+      <c r="AL19" t="n">
+        <v>0.296650514536656</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2692,6 +2749,9 @@
       <c r="AK20" t="n">
         <v>0.1882614028681071</v>
       </c>
+      <c r="AL20" t="n">
+        <v>0.1870474982677355</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2805,6 +2865,9 @@
       <c r="AK21" t="n">
         <v>0.4809805285270141</v>
       </c>
+      <c r="AL21" t="n">
+        <v>0.480183994314707</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2918,6 +2981,9 @@
       <c r="AK22" t="n">
         <v>0.2451976318724685</v>
       </c>
+      <c r="AL22" t="n">
+        <v>0.2445561838589353</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3031,6 +3097,9 @@
       <c r="AK23" t="n">
         <v>-0.1719228064438545</v>
       </c>
+      <c r="AL23" t="n">
+        <v>-0.1729271029795877</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3144,6 +3213,9 @@
       <c r="AK24" t="n">
         <v>1.456563809370945</v>
       </c>
+      <c r="AL24" t="n">
+        <v>1.453581378665466</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3257,6 +3329,9 @@
       <c r="AK25" t="n">
         <v>0.3201749381162532</v>
       </c>
+      <c r="AL25" t="n">
+        <v>0.3206278295762577</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3370,6 +3445,9 @@
       <c r="AK26" t="n">
         <v>0.1560318489306055</v>
       </c>
+      <c r="AL26" t="n">
+        <v>0.155763597185023</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3483,6 +3561,9 @@
       <c r="AK27" t="n">
         <v>0.04838114797199737</v>
       </c>
+      <c r="AL27" t="n">
+        <v>0.04857948180140562</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3596,6 +3677,9 @@
       <c r="AK28" t="n">
         <v>0.8301382539044178</v>
       </c>
+      <c r="AL28" t="n">
+        <v>0.831342854248023</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3709,6 +3793,9 @@
       <c r="AK29" t="n">
         <v>1.703594437189623</v>
       </c>
+      <c r="AL29" t="n">
+        <v>1.70679318594952</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3822,6 +3909,9 @@
       <c r="AK30" t="n">
         <v>0.674632822716096</v>
       </c>
+      <c r="AL30" t="n">
+        <v>0.6750765418384512</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3935,6 +4025,9 @@
       <c r="AK31" t="n">
         <v>-0.4172904631072491</v>
       </c>
+      <c r="AL31" t="n">
+        <v>-0.4175119939046362</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4048,6 +4141,9 @@
       <c r="AK32" t="n">
         <v>0.5647298047509695</v>
       </c>
+      <c r="AL32" t="n">
+        <v>0.5649491339964003</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4161,6 +4257,9 @@
       <c r="AK33" t="n">
         <v>0.7696502318892645</v>
       </c>
+      <c r="AL33" t="n">
+        <v>0.7699624137602887</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4274,6 +4373,9 @@
       <c r="AK34" t="n">
         <v>-0.8193317763628902</v>
       </c>
+      <c r="AL34" t="n">
+        <v>-0.8201594882257764</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4387,6 +4489,9 @@
       <c r="AK35" t="n">
         <v>0.8227452594063417</v>
       </c>
+      <c r="AL35" t="n">
+        <v>0.8230860621312164</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4500,6 +4605,9 @@
       <c r="AK36" t="n">
         <v>0.7921521496694423</v>
       </c>
+      <c r="AL36" t="n">
+        <v>0.7925204599019279</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4613,6 +4721,9 @@
       <c r="AK37" t="n">
         <v>0.7579210210542429</v>
       </c>
+      <c r="AL37" t="n">
+        <v>0.7583132267729924</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4726,6 +4837,9 @@
       <c r="AK38" t="n">
         <v>0.6598555520191182</v>
       </c>
+      <c r="AL38" t="n">
+        <v>0.6600898299182456</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4839,6 +4953,9 @@
       <c r="AK39" t="n">
         <v>0.61624005998525</v>
       </c>
+      <c r="AL39" t="n">
+        <v>0.6161936310681885</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4952,6 +5069,9 @@
       <c r="AK40" t="n">
         <v>0.7853669564322254</v>
       </c>
+      <c r="AL40" t="n">
+        <v>0.7856520751453089</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5065,6 +5185,9 @@
       <c r="AK41" t="n">
         <v>0.5795550469629814</v>
       </c>
+      <c r="AL41" t="n">
+        <v>0.5797990943907404</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5178,6 +5301,9 @@
       <c r="AK42" t="n">
         <v>0.653304967632035</v>
       </c>
+      <c r="AL42" t="n">
+        <v>0.6535071668573745</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5291,6 +5417,9 @@
       <c r="AK43" t="n">
         <v>0.6887263193300319</v>
       </c>
+      <c r="AL43" t="n">
+        <v>0.6889308633065327</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5404,6 +5533,9 @@
       <c r="AK44" t="n">
         <v>0.7134936705681593</v>
       </c>
+      <c r="AL44" t="n">
+        <v>0.7136739896239874</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5517,6 +5649,9 @@
       <c r="AK45" t="n">
         <v>0.7325320649876019</v>
       </c>
+      <c r="AL45" t="n">
+        <v>0.7327417494406103</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5630,6 +5765,9 @@
       <c r="AK46" t="n">
         <v>-1.297139916362708</v>
       </c>
+      <c r="AL46" t="n">
+        <v>-1.30002023775069</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5743,6 +5881,9 @@
       <c r="AK47" t="n">
         <v>-1.008659038423572</v>
       </c>
+      <c r="AL47" t="n">
+        <v>-1.01104472704747</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5856,6 +5997,9 @@
       <c r="AK48" t="n">
         <v>-0.8695607070791415</v>
       </c>
+      <c r="AL48" t="n">
+        <v>-0.8719718175763562</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5969,6 +6113,9 @@
       <c r="AK49" t="n">
         <v>-0.6368821629131256</v>
       </c>
+      <c r="AL49" t="n">
+        <v>-0.6388932807277274</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6082,6 +6229,9 @@
       <c r="AK50" t="n">
         <v>-0.06715798997653147</v>
       </c>
+      <c r="AL50" t="n">
+        <v>-0.0683950302429296</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6195,6 +6345,9 @@
       <c r="AK51" t="n">
         <v>-0.8477023758974699</v>
       </c>
+      <c r="AL51" t="n">
+        <v>-0.8498132639640957</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6308,6 +6461,9 @@
       <c r="AK52" t="n">
         <v>-0.8477023758974699</v>
       </c>
+      <c r="AL52" t="n">
+        <v>-0.8498132639640957</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6421,6 +6577,9 @@
       <c r="AK53" t="n">
         <v>-1.13363566488954</v>
       </c>
+      <c r="AL53" t="n">
+        <v>-1.136485522029363</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6534,6 +6693,9 @@
       <c r="AK54" t="n">
         <v>-0.1751254235639049</v>
       </c>
+      <c r="AL54" t="n">
+        <v>-0.176598260195141</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6647,6 +6809,9 @@
       <c r="AK55" t="n">
         <v>-1.030367170002247</v>
       </c>
+      <c r="AL55" t="n">
+        <v>-1.032908176345639</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6760,6 +6925,9 @@
       <c r="AK56" t="n">
         <v>-0.9075902386281156</v>
       </c>
+      <c r="AL56" t="n">
+        <v>-0.9097198680583913</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6873,6 +7041,9 @@
       <c r="AK57" t="n">
         <v>-0.9764752040696347</v>
       </c>
+      <c r="AL57" t="n">
+        <v>-0.9789578460849628</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6986,6 +7157,9 @@
       <c r="AK58" t="n">
         <v>-1.120006002624971</v>
       </c>
+      <c r="AL58" t="n">
+        <v>-1.122373368829054</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7099,6 +7273,9 @@
       <c r="AK59" t="n">
         <v>-0.8032625367247811</v>
       </c>
+      <c r="AL59" t="n">
+        <v>-0.8053953675730918</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7212,6 +7389,9 @@
       <c r="AK60" t="n">
         <v>-0.448803198998559</v>
       </c>
+      <c r="AL60" t="n">
+        <v>-0.4503099061468098</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7325,6 +7505,9 @@
       <c r="AK61" t="n">
         <v>0.3810504209154073</v>
       </c>
+      <c r="AL61" t="n">
+        <v>0.3805689291380127</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7438,6 +7621,9 @@
       <c r="AK62" t="n">
         <v>-1.239571085180194</v>
       </c>
+      <c r="AL62" t="n">
+        <v>-1.242515739998811</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7551,6 +7737,9 @@
       <c r="AK63" t="n">
         <v>-0.5724529891203876</v>
       </c>
+      <c r="AL63" t="n">
+        <v>-0.5739542317535467</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7664,6 +7853,9 @@
       <c r="AK64" t="n">
         <v>-0.8752285658030138</v>
       </c>
+      <c r="AL64" t="n">
+        <v>-0.8775991149560342</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7777,6 +7969,9 @@
       <c r="AK65" t="n">
         <v>-0.05537169765940288</v>
       </c>
+      <c r="AL65" t="n">
+        <v>-0.05656520068079482</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7890,6 +8085,9 @@
       <c r="AK66" t="n">
         <v>-0.8104756405762829</v>
       </c>
+      <c r="AL66" t="n">
+        <v>-0.8125763584612435</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8002,6 +8200,9 @@
       </c>
       <c r="AK67" t="n">
         <v>-0.791807854608658</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.7939879535806066</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL67"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.2388762703224969</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.2399582757668288</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>0.2315575216744879</v>
       </c>
+      <c r="AM3" t="n">
+        <v>0.2311142998731968</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>0.2228001708421121</v>
       </c>
+      <c r="AM4" t="n">
+        <v>0.2220370380649509</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>-0.06685428592772222</v>
       </c>
+      <c r="AM5" t="n">
+        <v>-0.06770765078332486</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>0.1845381108677975</v>
       </c>
+      <c r="AM6" t="n">
+        <v>0.1841788012448182</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.393427084133703</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.394728476220732</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,6 +1381,9 @@
       <c r="AL8" t="n">
         <v>-0.1379694489147036</v>
       </c>
+      <c r="AM8" t="n">
+        <v>-0.1386744625878918</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1476,6 +1500,9 @@
       <c r="AL9" t="n">
         <v>-0.3269468388197157</v>
       </c>
+      <c r="AM9" t="n">
+        <v>-0.3278879246924526</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1592,6 +1619,9 @@
       <c r="AL10" t="n">
         <v>0.3903187861514837</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.3898177837114441</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1708,6 +1738,9 @@
       <c r="AL11" t="n">
         <v>-0.1972055871708216</v>
       </c>
+      <c r="AM11" t="n">
+        <v>-0.1983769654447303</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1824,6 +1857,9 @@
       <c r="AL12" t="n">
         <v>-0.09869334489831907</v>
       </c>
+      <c r="AM12" t="n">
+        <v>-0.0998219401281473</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1940,6 +1976,9 @@
       <c r="AL13" t="n">
         <v>-0.04808431685937106</v>
       </c>
+      <c r="AM13" t="n">
+        <v>-0.04893658288228789</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2056,6 +2095,9 @@
       <c r="AL14" t="n">
         <v>0.03272209222650638</v>
       </c>
+      <c r="AM14" t="n">
+        <v>0.0318846104894248</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2172,6 +2214,9 @@
       <c r="AL15" t="n">
         <v>-0.1115493934979768</v>
       </c>
+      <c r="AM15" t="n">
+        <v>-0.1128103535984322</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2288,6 +2333,9 @@
       <c r="AL16" t="n">
         <v>0.2888947261739538</v>
       </c>
+      <c r="AM16" t="n">
+        <v>0.2880092225188476</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2404,6 +2452,9 @@
       <c r="AL17" t="n">
         <v>0.4182695190846422</v>
       </c>
+      <c r="AM17" t="n">
+        <v>0.4177247411136109</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2520,6 +2571,9 @@
       <c r="AL18" t="n">
         <v>-0.1568665281604809</v>
       </c>
+      <c r="AM18" t="n">
+        <v>-0.1575783719767282</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2636,6 +2690,9 @@
       <c r="AL19" t="n">
         <v>0.296650514536656</v>
       </c>
+      <c r="AM19" t="n">
+        <v>0.2955649714022044</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2752,6 +2809,9 @@
       <c r="AL20" t="n">
         <v>0.1870474982677355</v>
       </c>
+      <c r="AM20" t="n">
+        <v>0.1859428062233112</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2868,6 +2928,9 @@
       <c r="AL21" t="n">
         <v>0.480183994314707</v>
       </c>
+      <c r="AM21" t="n">
+        <v>0.4794871284084524</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2984,6 +3047,9 @@
       <c r="AL22" t="n">
         <v>0.2445561838589353</v>
       </c>
+      <c r="AM22" t="n">
+        <v>0.2439915279825039</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3100,6 +3166,9 @@
       <c r="AL23" t="n">
         <v>-0.1729271029795877</v>
       </c>
+      <c r="AM23" t="n">
+        <v>-0.1738461072438786</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3216,6 +3285,9 @@
       <c r="AL24" t="n">
         <v>1.453581378665466</v>
       </c>
+      <c r="AM24" t="n">
+        <v>1.451574885243699</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3332,6 +3404,9 @@
       <c r="AL25" t="n">
         <v>0.3206278295762577</v>
       </c>
+      <c r="AM25" t="n">
+        <v>0.3210493600647221</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3448,6 +3523,9 @@
       <c r="AL26" t="n">
         <v>0.155763597185023</v>
       </c>
+      <c r="AM26" t="n">
+        <v>0.1555324127624848</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3564,6 +3642,9 @@
       <c r="AL27" t="n">
         <v>0.04857948180140562</v>
       </c>
+      <c r="AM27" t="n">
+        <v>0.0487855119255724</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3680,6 +3761,9 @@
       <c r="AL28" t="n">
         <v>0.831342854248023</v>
       </c>
+      <c r="AM28" t="n">
+        <v>0.8325033132605305</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3796,6 +3880,9 @@
       <c r="AL29" t="n">
         <v>1.70679318594952</v>
       </c>
+      <c r="AM29" t="n">
+        <v>1.71009936743502</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3912,6 +3999,9 @@
       <c r="AL30" t="n">
         <v>0.6750765418384512</v>
       </c>
+      <c r="AM30" t="n">
+        <v>0.6755032107778471</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4028,6 +4118,9 @@
       <c r="AL31" t="n">
         <v>-0.4175119939046362</v>
       </c>
+      <c r="AM31" t="n">
+        <v>-0.4177596615896446</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4144,6 +4237,9 @@
       <c r="AL32" t="n">
         <v>0.5649491339964003</v>
       </c>
+      <c r="AM32" t="n">
+        <v>0.5651601273304389</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4260,6 +4356,9 @@
       <c r="AL33" t="n">
         <v>0.7699624137602887</v>
       </c>
+      <c r="AM33" t="n">
+        <v>0.7702553306288771</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4376,6 +4475,9 @@
       <c r="AL34" t="n">
         <v>-0.8201594882257764</v>
       </c>
+      <c r="AM34" t="n">
+        <v>-0.8209666603708363</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4492,6 +4594,9 @@
       <c r="AL35" t="n">
         <v>0.8230860621312164</v>
       </c>
+      <c r="AM35" t="n">
+        <v>0.8234109434623824</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4608,6 +4713,9 @@
       <c r="AL36" t="n">
         <v>0.7925204599019279</v>
       </c>
+      <c r="AM36" t="n">
+        <v>0.7928589276958095</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4724,6 +4832,9 @@
       <c r="AL37" t="n">
         <v>0.7583132267729924</v>
       </c>
+      <c r="AM37" t="n">
+        <v>0.7586738808581692</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4840,6 +4951,9 @@
       <c r="AL38" t="n">
         <v>0.6600898299182456</v>
       </c>
+      <c r="AM38" t="n">
+        <v>0.6603064065469461</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4956,6 +5070,9 @@
       <c r="AL39" t="n">
         <v>0.6161936310681885</v>
       </c>
+      <c r="AM39" t="n">
+        <v>0.6161435787775528</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5072,6 +5189,9 @@
       <c r="AL40" t="n">
         <v>0.7856520751453089</v>
       </c>
+      <c r="AM40" t="n">
+        <v>0.7859281207338629</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5188,6 +5308,9 @@
       <c r="AL41" t="n">
         <v>0.5797990943907404</v>
       </c>
+      <c r="AM41" t="n">
+        <v>0.5800202599520381</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5304,6 +5427,9 @@
       <c r="AL42" t="n">
         <v>0.6535071668573745</v>
       </c>
+      <c r="AM42" t="n">
+        <v>0.653685014553638</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5420,6 +5546,9 @@
       <c r="AL43" t="n">
         <v>0.6889308633065327</v>
       </c>
+      <c r="AM43" t="n">
+        <v>0.6891171965942688</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5536,6 +5665,9 @@
       <c r="AL44" t="n">
         <v>0.7136739896239874</v>
       </c>
+      <c r="AM44" t="n">
+        <v>0.7138356796961486</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5652,6 +5784,9 @@
       <c r="AL45" t="n">
         <v>0.7327417494406103</v>
       </c>
+      <c r="AM45" t="n">
+        <v>0.7329192426262069</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5768,6 +5903,9 @@
       <c r="AL46" t="n">
         <v>-1.30002023775069</v>
       </c>
+      <c r="AM46" t="n">
+        <v>-1.302799706006944</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5884,6 +6022,9 @@
       <c r="AL47" t="n">
         <v>-1.01104472704747</v>
       </c>
+      <c r="AM47" t="n">
+        <v>-1.013348005691354</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6000,6 +6141,9 @@
       <c r="AL48" t="n">
         <v>-0.8719718175763562</v>
       </c>
+      <c r="AM48" t="n">
+        <v>-0.8743082204133844</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6116,6 +6260,9 @@
       <c r="AL49" t="n">
         <v>-0.6388932807277274</v>
       </c>
+      <c r="AM49" t="n">
+        <v>-0.6408400380177407</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6232,6 +6379,9 @@
       <c r="AL50" t="n">
         <v>-0.0683950302429296</v>
       </c>
+      <c r="AM50" t="n">
+        <v>-0.06958613002393335</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6348,6 +6498,9 @@
       <c r="AL51" t="n">
         <v>-0.8498132639640957</v>
       </c>
+      <c r="AM51" t="n">
+        <v>-0.8518591023544514</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6464,6 +6617,9 @@
       <c r="AL52" t="n">
         <v>-0.8498132639640957</v>
       </c>
+      <c r="AM52" t="n">
+        <v>-0.8518591023544514</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6580,6 +6736,9 @@
       <c r="AL53" t="n">
         <v>-1.136485522029363</v>
       </c>
+      <c r="AM53" t="n">
+        <v>-1.139248863281016</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6696,6 +6855,9 @@
       <c r="AL54" t="n">
         <v>-0.176598260195141</v>
       </c>
+      <c r="AM54" t="n">
+        <v>-0.1780203200425254</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6812,6 +6974,9 @@
       <c r="AL55" t="n">
         <v>-1.032908176345639</v>
       </c>
+      <c r="AM55" t="n">
+        <v>-1.035359689419035</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6928,6 +7093,9 @@
       <c r="AL56" t="n">
         <v>-0.9097198680583913</v>
       </c>
+      <c r="AM56" t="n">
+        <v>-0.9117621306936271</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7044,6 +7212,9 @@
       <c r="AL57" t="n">
         <v>-0.9789578460849628</v>
       </c>
+      <c r="AM57" t="n">
+        <v>-0.9813366161716001</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7160,6 +7331,9 @@
       <c r="AL58" t="n">
         <v>-1.122373368829054</v>
       </c>
+      <c r="AM58" t="n">
+        <v>-1.124635321858025</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7276,6 +7450,9 @@
       <c r="AL59" t="n">
         <v>-0.8053953675730918</v>
       </c>
+      <c r="AM59" t="n">
+        <v>-0.8074491878110663</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7392,6 +7569,9 @@
       <c r="AL60" t="n">
         <v>-0.4503099061468098</v>
       </c>
+      <c r="AM60" t="n">
+        <v>-0.4517507414221175</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7508,6 +7688,9 @@
       <c r="AL61" t="n">
         <v>0.3805689291380127</v>
       </c>
+      <c r="AM61" t="n">
+        <v>0.380104790673863</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7624,6 +7807,9 @@
       <c r="AL62" t="n">
         <v>-1.242515739998811</v>
       </c>
+      <c r="AM62" t="n">
+        <v>-1.245333823787577</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7740,6 +7926,9 @@
       <c r="AL63" t="n">
         <v>-0.5739542317535467</v>
       </c>
+      <c r="AM63" t="n">
+        <v>-0.575403748674422</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7856,6 +8045,9 @@
       <c r="AL64" t="n">
         <v>-0.8775991149560342</v>
       </c>
+      <c r="AM64" t="n">
+        <v>-0.8798956209720681</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7972,6 +8164,9 @@
       <c r="AL65" t="n">
         <v>-0.05656520068079482</v>
       </c>
+      <c r="AM65" t="n">
+        <v>-0.05770334939567552</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8088,6 +8283,9 @@
       <c r="AL66" t="n">
         <v>-0.8125763584612435</v>
       </c>
+      <c r="AM66" t="n">
+        <v>-0.8145716022724327</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8203,6 +8401,9 @@
       </c>
       <c r="AL67" t="n">
         <v>-0.7939879535806066</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.796041526860801</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.2399582757668288</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.241000371454392</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>0.2311142998731968</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.2306835937297128</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>0.2220370380649509</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.2212955903227173</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>-0.06770765078332486</v>
       </c>
+      <c r="AN5" t="n">
+        <v>-0.06852435626686702</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>0.1841788012448182</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.183838811899611</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.394728476220732</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.3959869245550352</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1405,9 @@
       <c r="AM8" t="n">
         <v>-0.1386744625878918</v>
       </c>
+      <c r="AN8" t="n">
+        <v>-0.1393621030885586</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1503,6 +1527,9 @@
       <c r="AM9" t="n">
         <v>-0.3278879246924526</v>
       </c>
+      <c r="AN9" t="n">
+        <v>-0.3288119802125961</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1622,6 +1649,9 @@
       <c r="AM10" t="n">
         <v>0.3898177837114441</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.389343601239772</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1741,6 +1771,9 @@
       <c r="AM11" t="n">
         <v>-0.1983769654447303</v>
       </c>
+      <c r="AN11" t="n">
+        <v>-0.1995051499998915</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1860,6 +1893,9 @@
       <c r="AM12" t="n">
         <v>-0.0998219401281473</v>
       </c>
+      <c r="AN12" t="n">
+        <v>-0.1008905053312102</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1979,6 +2015,9 @@
       <c r="AM13" t="n">
         <v>-0.04893658288228789</v>
       </c>
+      <c r="AN13" t="n">
+        <v>-0.0497549059763405</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2098,6 +2137,9 @@
       <c r="AM14" t="n">
         <v>0.0318846104894248</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.03110785333760218</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2217,6 +2259,9 @@
       <c r="AM15" t="n">
         <v>-0.1128103535984322</v>
       </c>
+      <c r="AN15" t="n">
+        <v>-0.1139801902524606</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2336,6 +2381,9 @@
       <c r="AM16" t="n">
         <v>0.2880092225188476</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.2872074375792274</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2455,6 +2503,9 @@
       <c r="AM17" t="n">
         <v>0.4177247411136109</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.4172505611011527</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2574,6 +2625,9 @@
       <c r="AM18" t="n">
         <v>-0.1575783719767282</v>
       </c>
+      <c r="AN18" t="n">
+        <v>-0.1582607853257585</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2693,6 +2747,9 @@
       <c r="AM19" t="n">
         <v>0.2955649714022044</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.2945429834919235</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2812,6 +2869,9 @@
       <c r="AM20" t="n">
         <v>0.1859428062233112</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.1849355189764271</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2931,6 +2991,9 @@
       <c r="AM21" t="n">
         <v>0.4794871284084524</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.4788777704584293</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3050,6 +3113,9 @@
       <c r="AM22" t="n">
         <v>0.2439915279825039</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.2434936239836117</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3169,6 +3235,9 @@
       <c r="AM23" t="n">
         <v>-0.1738461072438786</v>
       </c>
+      <c r="AN23" t="n">
+        <v>-0.1746887467479524</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3288,6 +3357,9 @@
       <c r="AM24" t="n">
         <v>1.451574885243699</v>
       </c>
+      <c r="AN24" t="n">
+        <v>1.450380122476997</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3407,6 +3479,9 @@
       <c r="AM25" t="n">
         <v>0.3210493600647221</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.3214408616500112</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3526,6 +3601,9 @@
       <c r="AM26" t="n">
         <v>0.1555324127624848</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.1553322692094098</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3645,6 +3723,9 @@
       <c r="AM27" t="n">
         <v>0.0487855119255724</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.04899522271038749</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3764,6 +3845,9 @@
       <c r="AM28" t="n">
         <v>0.8325033132605305</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.8336183058257791</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3883,6 +3967,9 @@
       <c r="AM29" t="n">
         <v>1.71009936743502</v>
       </c>
+      <c r="AN29" t="n">
+        <v>1.713449514446433</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4002,6 +4089,9 @@
       <c r="AM30" t="n">
         <v>0.6755032107778471</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.6759110114584999</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4121,6 +4211,9 @@
       <c r="AM31" t="n">
         <v>-0.4177596615896446</v>
       </c>
+      <c r="AN31" t="n">
+        <v>-0.4180287333532741</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4240,6 +4333,9 @@
       <c r="AM32" t="n">
         <v>0.5651601273304389</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.5653614664118443</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4359,6 +4455,9 @@
       <c r="AM33" t="n">
         <v>0.7702553306288771</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.7705293937678451</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4478,6 +4577,9 @@
       <c r="AM34" t="n">
         <v>-0.8209666603708363</v>
       </c>
+      <c r="AN34" t="n">
+        <v>-0.8217523608691862</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4597,6 +4699,9 @@
       <c r="AM35" t="n">
         <v>0.8234109434623824</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.8237205809036197</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4716,6 +4821,9 @@
       <c r="AM36" t="n">
         <v>0.7928589276958095</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.7931705264698135</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4835,6 +4943,9 @@
       <c r="AM37" t="n">
         <v>0.7586738808581692</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.759006050871657</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4954,6 +5065,9 @@
       <c r="AM38" t="n">
         <v>0.6603064065469461</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.66050642483346</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5073,6 +5187,9 @@
       <c r="AM39" t="n">
         <v>0.6161435787775528</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.6160911316862364</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5192,6 +5309,9 @@
       <c r="AM40" t="n">
         <v>0.7859281207338629</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.7861951496583004</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5311,6 +5431,9 @@
       <c r="AM41" t="n">
         <v>0.5800202599520381</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.5802210256143018</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5430,6 +5553,9 @@
       <c r="AM42" t="n">
         <v>0.653685014553638</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.6538412108457734</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5549,6 +5675,9 @@
       <c r="AM43" t="n">
         <v>0.6891171965942688</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.6892869907081538</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5668,6 +5797,9 @@
       <c r="AM44" t="n">
         <v>0.7138356796961486</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.7139810685816139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5787,6 +5919,9 @@
       <c r="AM45" t="n">
         <v>0.7329192426262069</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.7330693170229232</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5906,6 +6041,9 @@
       <c r="AM46" t="n">
         <v>-1.302799706006944</v>
       </c>
+      <c r="AN46" t="n">
+        <v>-1.305477180282735</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6025,6 +6163,9 @@
       <c r="AM47" t="n">
         <v>-1.013348005691354</v>
       </c>
+      <c r="AN47" t="n">
+        <v>-1.015567744419108</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6144,6 +6285,9 @@
       <c r="AM48" t="n">
         <v>-0.8743082204133844</v>
       </c>
+      <c r="AN48" t="n">
+        <v>-0.8765671100623746</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6263,6 +6407,9 @@
       <c r="AM49" t="n">
         <v>-0.6408400380177407</v>
       </c>
+      <c r="AN49" t="n">
+        <v>-0.6427204278357714</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6382,6 +6529,9 @@
       <c r="AM50" t="n">
         <v>-0.06958613002393335</v>
       </c>
+      <c r="AN50" t="n">
+        <v>-0.07073126735682142</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6501,6 +6651,9 @@
       <c r="AM51" t="n">
         <v>-0.8518591023544514</v>
       </c>
+      <c r="AN51" t="n">
+        <v>-0.8538372507793082</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6620,6 +6773,9 @@
       <c r="AM52" t="n">
         <v>-0.8518591023544514</v>
       </c>
+      <c r="AN52" t="n">
+        <v>-0.8538372507793082</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6739,6 +6895,9 @@
       <c r="AM53" t="n">
         <v>-1.139248863281016</v>
       </c>
+      <c r="AN53" t="n">
+        <v>-1.141922365707694</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6858,6 +7017,9 @@
       <c r="AM54" t="n">
         <v>-0.1780203200425254</v>
       </c>
+      <c r="AN54" t="n">
+        <v>-0.1793906893770997</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6977,6 +7139,9 @@
       <c r="AM55" t="n">
         <v>-1.035359689419035</v>
       </c>
+      <c r="AN55" t="n">
+        <v>-1.037720799555775</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7096,6 +7261,9 @@
       <c r="AM56" t="n">
         <v>-0.9117621306936271</v>
       </c>
+      <c r="AN56" t="n">
+        <v>-0.9137182926934915</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7215,6 +7383,9 @@
       <c r="AM57" t="n">
         <v>-0.9813366161716001</v>
       </c>
+      <c r="AN57" t="n">
+        <v>-0.9836135883746194</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7334,6 +7505,9 @@
       <c r="AM58" t="n">
         <v>-1.124635321858025</v>
       </c>
+      <c r="AN58" t="n">
+        <v>-1.126794543357566</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7453,6 +7627,9 @@
       <c r="AM59" t="n">
         <v>-0.8074491878110663</v>
       </c>
+      <c r="AN59" t="n">
+        <v>-0.8094234411763734</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7572,6 +7749,9 @@
       <c r="AM60" t="n">
         <v>-0.4517507414221175</v>
       </c>
+      <c r="AN60" t="n">
+        <v>-0.453126926834571</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7691,6 +7871,9 @@
       <c r="AM61" t="n">
         <v>0.380104790673863</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.3796581984997927</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7810,6 +7993,9 @@
       <c r="AM62" t="n">
         <v>-1.245333823787577</v>
       </c>
+      <c r="AN62" t="n">
+        <v>-1.248028217428447</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7929,6 +8115,9 @@
       <c r="AM63" t="n">
         <v>-0.575403748674422</v>
       </c>
+      <c r="AN63" t="n">
+        <v>-0.5767995731629879</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8048,6 +8237,9 @@
       <c r="AM64" t="n">
         <v>-0.8798956209720681</v>
       </c>
+      <c r="AN64" t="n">
+        <v>-0.8821153922634687</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8167,6 +8359,9 @@
       <c r="AM65" t="n">
         <v>-0.05770334939567552</v>
       </c>
+      <c r="AN65" t="n">
+        <v>-0.05878751237210945</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8286,6 +8481,9 @@
       <c r="AM66" t="n">
         <v>-0.8145716022724327</v>
       </c>
+      <c r="AN66" t="n">
+        <v>-0.8164659440890317</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8404,6 +8602,9 @@
       </c>
       <c r="AM67" t="n">
         <v>-0.796041526860801</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.7979762026215907</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.241000371454392</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.2420020439423928</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>0.2306835937297128</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.2302661322216046</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>0.2212955903227173</v>
       </c>
+      <c r="AO4" t="n">
+        <v>0.2205774218399385</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>-0.06852435626686702</v>
       </c>
+      <c r="AO5" t="n">
+        <v>-0.06930517993936737</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>0.183838811899611</v>
       </c>
+      <c r="AO6" t="n">
+        <v>0.1835173093611093</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.3959869245550352</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.3972011108971604</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1408,6 +1429,9 @@
       <c r="AN8" t="n">
         <v>-0.1393621030885586</v>
       </c>
+      <c r="AO8" t="n">
+        <v>-0.1400301205565484</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1530,6 +1554,9 @@
       <c r="AN9" t="n">
         <v>-0.3288119802125961</v>
       </c>
+      <c r="AO9" t="n">
+        <v>-0.3297155377881097</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1652,6 +1679,9 @@
       <c r="AN10" t="n">
         <v>0.389343601239772</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.3888950064760521</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1774,6 +1804,9 @@
       <c r="AN11" t="n">
         <v>-0.1995051499998915</v>
       </c>
+      <c r="AO11" t="n">
+        <v>-0.2005897672810619</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1896,6 +1929,9 @@
       <c r="AN12" t="n">
         <v>-0.1008905053312102</v>
       </c>
+      <c r="AO12" t="n">
+        <v>-0.1019022320841477</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2018,6 +2054,9 @@
       <c r="AN13" t="n">
         <v>-0.0497549059763405</v>
       </c>
+      <c r="AO13" t="n">
+        <v>-0.05053986204744416</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2140,6 +2179,9 @@
       <c r="AN14" t="n">
         <v>0.03110785333760218</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.03038644261607211</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2262,6 +2304,9 @@
       <c r="AN15" t="n">
         <v>-0.1139801902524606</v>
       </c>
+      <c r="AO15" t="n">
+        <v>-0.115067253869654</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2384,6 +2429,9 @@
       <c r="AN16" t="n">
         <v>0.2872074375792274</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0.2864799979701325</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2506,6 +2554,9 @@
       <c r="AN17" t="n">
         <v>0.4172505611011527</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.4168370482176678</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2628,6 +2679,9 @@
       <c r="AN18" t="n">
         <v>-0.1582607853257585</v>
       </c>
+      <c r="AO18" t="n">
+        <v>-0.1589155369735958</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2750,6 +2804,9 @@
       <c r="AN19" t="n">
         <v>0.2945429834919235</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0.2935799154699757</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2872,6 +2929,9 @@
       <c r="AN20" t="n">
         <v>0.1849355189764271</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.1840150752467524</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2994,6 +3054,9 @@
       <c r="AN21" t="n">
         <v>0.4788777704584293</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0.4783450235373446</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3116,6 +3179,9 @@
       <c r="AN22" t="n">
         <v>0.2434936239836117</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.2430536427407226</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3238,6 +3304,9 @@
       <c r="AN23" t="n">
         <v>-0.1746887467479524</v>
       </c>
+      <c r="AO23" t="n">
+        <v>-0.1754630119793931</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3360,6 +3429,9 @@
       <c r="AN24" t="n">
         <v>1.450380122476997</v>
       </c>
+      <c r="AO24" t="n">
+        <v>1.44985463301898</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3482,6 +3554,9 @@
       <c r="AN25" t="n">
         <v>0.3214408616500112</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0.3218038502823727</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3604,6 +3679,9 @@
       <c r="AN26" t="n">
         <v>0.1553322692094098</v>
       </c>
+      <c r="AO26" t="n">
+        <v>0.1551580535122785</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3726,6 +3804,9 @@
       <c r="AN27" t="n">
         <v>0.04899522271038749</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.04920540309083409</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3848,6 +3929,9 @@
       <c r="AN28" t="n">
         <v>0.8336183058257791</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.8346872073163731</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3970,6 +4054,9 @@
       <c r="AN29" t="n">
         <v>1.713449514446433</v>
       </c>
+      <c r="AO29" t="n">
+        <v>1.716793287961722</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4092,6 +4179,9 @@
       <c r="AN30" t="n">
         <v>0.6759110114584999</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.6762988269690912</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4214,6 +4304,9 @@
       <c r="AN31" t="n">
         <v>-0.4180287333532741</v>
       </c>
+      <c r="AO31" t="n">
+        <v>-0.4183148657022316</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4336,6 +4429,9 @@
       <c r="AN32" t="n">
         <v>0.5653614664118443</v>
       </c>
+      <c r="AO32" t="n">
+        <v>0.565552307878769</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4458,6 +4554,9 @@
       <c r="AN33" t="n">
         <v>0.7705293937678451</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0.77078522127105</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4580,6 +4679,9 @@
       <c r="AN34" t="n">
         <v>-0.8217523608691862</v>
       </c>
+      <c r="AO34" t="n">
+        <v>-0.8225158182155982</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4702,6 +4804,9 @@
       <c r="AN35" t="n">
         <v>0.8237205809036197</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0.824015635173441</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4824,6 +4929,9 @@
       <c r="AN36" t="n">
         <v>0.7931705264698135</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.7934579320231102</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4946,6 +5054,9 @@
       <c r="AN37" t="n">
         <v>0.759006050871657</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.7593125108119727</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5068,6 +5179,9 @@
       <c r="AN38" t="n">
         <v>0.66050642483346</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.6606910300235247</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5190,6 +5304,9 @@
       <c r="AN39" t="n">
         <v>0.6160911316862364</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.6160373004868777</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5312,6 +5429,9 @@
       <c r="AN40" t="n">
         <v>0.7861951496583004</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.7864532221436994</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5434,6 +5554,9 @@
       <c r="AN41" t="n">
         <v>0.5802210256143018</v>
       </c>
+      <c r="AO41" t="n">
+        <v>0.5804036197665959</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5556,6 +5679,9 @@
       <c r="AN42" t="n">
         <v>0.6538412108457734</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.6539782244797846</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5678,6 +5804,9 @@
       <c r="AN43" t="n">
         <v>0.6892869907081538</v>
       </c>
+      <c r="AO43" t="n">
+        <v>0.6894418003041872</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5800,6 +5929,9 @@
       <c r="AN44" t="n">
         <v>0.7139810685816139</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0.7141121995320592</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5922,6 +6054,9 @@
       <c r="AN45" t="n">
         <v>0.7330693170229232</v>
       </c>
+      <c r="AO45" t="n">
+        <v>0.7331961192674279</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6044,6 +6179,9 @@
       <c r="AN46" t="n">
         <v>-1.305477180282735</v>
       </c>
+      <c r="AO46" t="n">
+        <v>-1.308052402401043</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6166,6 +6304,9 @@
       <c r="AN47" t="n">
         <v>-1.015567744419108</v>
       </c>
+      <c r="AO47" t="n">
+        <v>-1.017703564762686</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6288,6 +6429,9 @@
       <c r="AN48" t="n">
         <v>-0.8765671100623746</v>
       </c>
+      <c r="AO48" t="n">
+        <v>-0.8787466746594873</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6410,6 +6554,9 @@
       <c r="AN49" t="n">
         <v>-0.6427204278357714</v>
       </c>
+      <c r="AO49" t="n">
+        <v>-0.6445332361469992</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6532,6 +6679,9 @@
       <c r="AN50" t="n">
         <v>-0.07073126735682142</v>
       </c>
+      <c r="AO50" t="n">
+        <v>-0.07183074064568259</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6654,6 +6804,9 @@
       <c r="AN51" t="n">
         <v>-0.8538372507793082</v>
       </c>
+      <c r="AO51" t="n">
+        <v>-0.855745984660476</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6776,6 +6929,9 @@
       <c r="AN52" t="n">
         <v>-0.8538372507793082</v>
       </c>
+      <c r="AO52" t="n">
+        <v>-0.855745984660476</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6898,6 +7054,9 @@
       <c r="AN53" t="n">
         <v>-1.141922365707694</v>
       </c>
+      <c r="AO53" t="n">
+        <v>-1.144503823234291</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7020,6 +7179,9 @@
       <c r="AN54" t="n">
         <v>-0.1793906893770997</v>
       </c>
+      <c r="AO54" t="n">
+        <v>-0.1807089828309908</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7142,6 +7304,9 @@
       <c r="AN55" t="n">
         <v>-1.037720799555775</v>
       </c>
+      <c r="AO55" t="n">
+        <v>-1.039991362900194</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7264,6 +7429,9 @@
       <c r="AN56" t="n">
         <v>-0.9137182926934915</v>
       </c>
+      <c r="AO56" t="n">
+        <v>-0.915590040026815</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7386,6 +7554,9 @@
       <c r="AN57" t="n">
         <v>-0.9836135883746194</v>
       </c>
+      <c r="AO57" t="n">
+        <v>-0.9857912064532927</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7508,6 +7679,9 @@
       <c r="AN58" t="n">
         <v>-1.126794543357566</v>
       </c>
+      <c r="AO58" t="n">
+        <v>-1.128854059875488</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7630,6 +7804,9 @@
       <c r="AN59" t="n">
         <v>-0.8094234411763734</v>
       </c>
+      <c r="AO59" t="n">
+        <v>-0.8113182795174781</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7752,6 +7929,9 @@
       <c r="AN60" t="n">
         <v>-0.453126926834571</v>
       </c>
+      <c r="AO60" t="n">
+        <v>-0.4544400150620757</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7874,6 +8054,9 @@
       <c r="AN61" t="n">
         <v>0.3796581984997927</v>
       </c>
+      <c r="AO61" t="n">
+        <v>0.3792291807264426</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7996,6 +8179,9 @@
       <c r="AN62" t="n">
         <v>-1.248028217428447</v>
       </c>
+      <c r="AO62" t="n">
+        <v>-1.250602221152263</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8118,6 +8304,9 @@
       <c r="AN63" t="n">
         <v>-0.5767995731629879</v>
       </c>
+      <c r="AO63" t="n">
+        <v>-0.5781406004108895</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8240,6 +8429,9 @@
       <c r="AN64" t="n">
         <v>-0.8821153922634687</v>
       </c>
+      <c r="AO64" t="n">
+        <v>-0.8842567130903158</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8362,6 +8554,9 @@
       <c r="AN65" t="n">
         <v>-0.05878751237210945</v>
       </c>
+      <c r="AO65" t="n">
+        <v>-0.0598193008714101</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8484,6 +8679,9 @@
       <c r="AN66" t="n">
         <v>-0.8164659440890317</v>
       </c>
+      <c r="AO66" t="n">
+        <v>-0.8182639743676156</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8605,6 +8803,9 @@
       </c>
       <c r="AN67" t="n">
         <v>-0.7979762026215907</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.7997992956496142</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.2420020439423928</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.2429632055641681</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>0.2302661322216046</v>
       </c>
+      <c r="AP3" t="n">
+        <v>0.229862435598597</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>0.2205774218399385</v>
       </c>
+      <c r="AP4" t="n">
+        <v>0.2198836566865305</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>-0.06930517993936737</v>
       </c>
+      <c r="AP5" t="n">
+        <v>-0.07005103806572993</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>0.1835173093611093</v>
       </c>
+      <c r="AP6" t="n">
+        <v>0.1832134303381766</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.3972011108971604</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.3983702794299971</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1432,6 +1453,9 @@
       <c r="AO8" t="n">
         <v>-0.1400301205565484</v>
       </c>
+      <c r="AP8" t="n">
+        <v>-0.140676853916559</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1557,6 +1581,9 @@
       <c r="AO9" t="n">
         <v>-0.3297155377881097</v>
       </c>
+      <c r="AP9" t="n">
+        <v>-0.3305958551614993</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1682,6 +1709,9 @@
       <c r="AO10" t="n">
         <v>0.3888950064760521</v>
       </c>
+      <c r="AP10" t="n">
+        <v>0.3884707515244609</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1807,6 +1837,9 @@
       <c r="AO11" t="n">
         <v>-0.2005897672810619</v>
       </c>
+      <c r="AP11" t="n">
+        <v>-0.2016308471446524</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1932,6 +1965,9 @@
       <c r="AO12" t="n">
         <v>-0.1019022320841477</v>
       </c>
+      <c r="AP12" t="n">
+        <v>-0.1028602039167052</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2057,6 +2093,9 @@
       <c r="AO13" t="n">
         <v>-0.05053986204744416</v>
       </c>
+      <c r="AP13" t="n">
+        <v>-0.0512921390987165</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2182,6 +2221,9 @@
       <c r="AO14" t="n">
         <v>0.03038644261607211</v>
       </c>
+      <c r="AP14" t="n">
+        <v>0.02971548212520445</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2307,6 +2349,9 @@
       <c r="AO15" t="n">
         <v>-0.115067253869654</v>
       </c>
+      <c r="AP15" t="n">
+        <v>-0.1160790797235496</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2432,6 +2477,9 @@
       <c r="AO16" t="n">
         <v>0.2864799979701325</v>
       </c>
+      <c r="AP16" t="n">
+        <v>0.2858185422763022</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2557,6 +2605,9 @@
       <c r="AO17" t="n">
         <v>0.4168370482176678</v>
       </c>
+      <c r="AP17" t="n">
+        <v>0.4164755601815603</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2682,6 +2733,9 @@
       <c r="AO18" t="n">
         <v>-0.1589155369735958</v>
       </c>
+      <c r="AP18" t="n">
+        <v>-0.1595441219533156</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2807,6 +2861,9 @@
       <c r="AO19" t="n">
         <v>0.2935799154699757</v>
       </c>
+      <c r="AP19" t="n">
+        <v>0.2926715318585426</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2932,6 +2989,9 @@
       <c r="AO20" t="n">
         <v>0.1840150752467524</v>
       </c>
+      <c r="AP20" t="n">
+        <v>0.1831720568703398</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3057,6 +3117,9 @@
       <c r="AO21" t="n">
         <v>0.4783450235373446</v>
       </c>
+      <c r="AP21" t="n">
+        <v>0.4778791666743442</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3182,6 +3245,9 @@
       <c r="AO22" t="n">
         <v>0.2430536427407226</v>
       </c>
+      <c r="AP22" t="n">
+        <v>0.2426638468356056</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3307,6 +3373,9 @@
       <c r="AO23" t="n">
         <v>-0.1754630119793931</v>
       </c>
+      <c r="AP23" t="n">
+        <v>-0.1761760355486115</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3432,6 +3501,9 @@
       <c r="AO24" t="n">
         <v>1.44985463301898</v>
       </c>
+      <c r="AP24" t="n">
+        <v>1.4498754230623</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3557,6 +3629,9 @@
       <c r="AO25" t="n">
         <v>0.3218038502823727</v>
       </c>
+      <c r="AP25" t="n">
+        <v>0.3221399545594753</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3682,6 +3757,9 @@
       <c r="AO26" t="n">
         <v>0.1551580535122785</v>
       </c>
+      <c r="AP26" t="n">
+        <v>0.1550054448784995</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3807,6 +3885,9 @@
       <c r="AO27" t="n">
         <v>0.04920540309083409</v>
       </c>
+      <c r="AP27" t="n">
+        <v>0.0494135211714225</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3932,6 +4013,9 @@
       <c r="AO28" t="n">
         <v>0.8346872073163731</v>
       </c>
+      <c r="AP28" t="n">
+        <v>0.8357099619547477</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4057,6 +4141,9 @@
       <c r="AO29" t="n">
         <v>1.716793287961722</v>
       </c>
+      <c r="AP29" t="n">
+        <v>1.720091380131476</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4182,6 +4269,9 @@
       <c r="AO30" t="n">
         <v>0.6762988269690912</v>
       </c>
+      <c r="AP30" t="n">
+        <v>0.6766660994918975</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4307,6 +4397,9 @@
       <c r="AO31" t="n">
         <v>-0.4183148657022316</v>
       </c>
+      <c r="AP31" t="n">
+        <v>-0.4186141149798057</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4432,6 +4525,9 @@
       <c r="AO32" t="n">
         <v>0.565552307878769</v>
       </c>
+      <c r="AP32" t="n">
+        <v>0.5657321868443381</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4557,6 +4653,9 @@
       <c r="AO33" t="n">
         <v>0.77078522127105</v>
       </c>
+      <c r="AP33" t="n">
+        <v>0.7710235785133004</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4682,6 +4781,9 @@
       <c r="AO34" t="n">
         <v>-0.8225158182155982</v>
       </c>
+      <c r="AP34" t="n">
+        <v>-0.8232564224926626</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4807,6 +4909,9 @@
       <c r="AO35" t="n">
         <v>0.824015635173441</v>
       </c>
+      <c r="AP35" t="n">
+        <v>0.8242967485284732</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4932,6 +5037,9 @@
       <c r="AO36" t="n">
         <v>0.7934579320231102</v>
       </c>
+      <c r="AP36" t="n">
+        <v>0.7937235458008112</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5057,6 +5165,9 @@
       <c r="AO37" t="n">
         <v>0.7593125108119727</v>
       </c>
+      <c r="AP37" t="n">
+        <v>0.7595957616444589</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5182,6 +5293,9 @@
       <c r="AO38" t="n">
         <v>0.6606910300235247</v>
       </c>
+      <c r="AP38" t="n">
+        <v>0.6608613482054513</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5307,6 +5421,9 @@
       <c r="AO39" t="n">
         <v>0.6160373004868777</v>
       </c>
+      <c r="AP39" t="n">
+        <v>0.6159829087695767</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5432,6 +5549,9 @@
       <c r="AO40" t="n">
         <v>0.7864532221436994</v>
       </c>
+      <c r="AP40" t="n">
+        <v>0.786702408079515</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5557,6 +5677,9 @@
       <c r="AO41" t="n">
         <v>0.5804036197665959</v>
       </c>
+      <c r="AP41" t="n">
+        <v>0.5805700362518811</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5682,6 +5805,9 @@
       <c r="AO42" t="n">
         <v>0.6539782244797846</v>
       </c>
+      <c r="AP42" t="n">
+        <v>0.6540982990559893</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5807,6 +5933,9 @@
       <c r="AO43" t="n">
         <v>0.6894418003041872</v>
       </c>
+      <c r="AP43" t="n">
+        <v>0.6895830618736094</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5932,6 +6061,9 @@
       <c r="AO44" t="n">
         <v>0.7141121995320592</v>
       </c>
+      <c r="AP44" t="n">
+        <v>0.7142308609564942</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6057,6 +6189,9 @@
       <c r="AO45" t="n">
         <v>0.7331961192674279</v>
       </c>
+      <c r="AP45" t="n">
+        <v>0.7333032384169608</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6182,6 +6317,9 @@
       <c r="AO46" t="n">
         <v>-1.308052402401043</v>
       </c>
+      <c r="AP46" t="n">
+        <v>-1.310525857879957</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6307,6 +6445,9 @@
       <c r="AO47" t="n">
         <v>-1.017703564762686</v>
       </c>
+      <c r="AP47" t="n">
+        <v>-1.01975572330369</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6432,6 +6573,9 @@
       <c r="AO48" t="n">
         <v>-0.8787466746594873</v>
       </c>
+      <c r="AP48" t="n">
+        <v>-0.8808459521323729</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6557,6 +6701,9 @@
       <c r="AO49" t="n">
         <v>-0.6445332361469992</v>
       </c>
+      <c r="AP49" t="n">
+        <v>-0.6462779239493315</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6682,6 +6829,9 @@
       <c r="AO50" t="n">
         <v>-0.07183074064568259</v>
       </c>
+      <c r="AP50" t="n">
+        <v>-0.07288511429645274</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6807,6 +6957,9 @@
       <c r="AO51" t="n">
         <v>-0.855745984660476</v>
       </c>
+      <c r="AP51" t="n">
+        <v>-0.8575843606386008</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6932,6 +7085,9 @@
       <c r="AO52" t="n">
         <v>-0.855745984660476</v>
       </c>
+      <c r="AP52" t="n">
+        <v>-0.8575843606386008</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7057,6 +7213,9 @@
       <c r="AO53" t="n">
         <v>-1.144503823234291</v>
       </c>
+      <c r="AP53" t="n">
+        <v>-1.14699199312074</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7182,6 +7341,9 @@
       <c r="AO54" t="n">
         <v>-0.1807089828309908</v>
       </c>
+      <c r="AP54" t="n">
+        <v>-0.1819752584512289</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7307,6 +7469,9 @@
       <c r="AO55" t="n">
         <v>-1.039991362900194</v>
       </c>
+      <c r="AP55" t="n">
+        <v>-1.04217188011173</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7432,6 +7597,9 @@
       <c r="AO56" t="n">
         <v>-0.915590040026815</v>
       </c>
+      <c r="AP56" t="n">
+        <v>-0.9173793907332216</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7557,6 +7725,9 @@
       <c r="AO57" t="n">
         <v>-0.9857912064532927</v>
       </c>
+      <c r="AP57" t="n">
+        <v>-0.9878722010940231</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7682,6 +7853,9 @@
       <c r="AO58" t="n">
         <v>-1.128854059875488</v>
       </c>
+      <c r="AP58" t="n">
+        <v>-1.130817149056538</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7807,6 +7981,9 @@
       <c r="AO59" t="n">
         <v>-0.8113182795174781</v>
       </c>
+      <c r="AP59" t="n">
+        <v>-0.8131344374216903</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7932,6 +8109,9 @@
       <c r="AO60" t="n">
         <v>-0.4544400150620757</v>
       </c>
+      <c r="AP60" t="n">
+        <v>-0.4556918099193922</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8057,6 +8237,9 @@
       <c r="AO61" t="n">
         <v>0.3792291807264426</v>
       </c>
+      <c r="AP61" t="n">
+        <v>0.3788176287116856</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8182,6 +8365,9 @@
       <c r="AO62" t="n">
         <v>-1.250602221152263</v>
       </c>
+      <c r="AP62" t="n">
+        <v>-1.253059451601606</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8307,6 +8493,9 @@
       <c r="AO63" t="n">
         <v>-0.5781406004108895</v>
       </c>
+      <c r="AP63" t="n">
+        <v>-0.5794264342243134</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8432,6 +8621,9 @@
       <c r="AO64" t="n">
         <v>-0.8842567130903158</v>
       </c>
+      <c r="AP64" t="n">
+        <v>-0.8863187008056482</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8557,6 +8749,9 @@
       <c r="AO65" t="n">
         <v>-0.0598193008714101</v>
       </c>
+      <c r="AP65" t="n">
+        <v>-0.06080050160287023</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8682,6 +8877,9 @@
       <c r="AO66" t="n">
         <v>-0.8182639743676156</v>
       </c>
+      <c r="AP66" t="n">
+        <v>-0.8199702472839983</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8806,6 +9004,9 @@
       </c>
       <c r="AO67" t="n">
         <v>-0.7997992956496142</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.801517775196903</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP67"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.2429632055641681</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2438841175611624</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>0.229862435598597</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>0.2294728440669745</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>0.2198836566865305</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>0.219215021396214</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>-0.07005103806572993</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>-0.07076295231307961</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>0.1832134303381766</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>0.1829262998822909</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.3983702794299971</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.3994941469839619</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1456,6 +1477,9 @@
       <c r="AP8" t="n">
         <v>-0.140676853916559</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>-0.1413011387699595</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1584,6 +1608,9 @@
       <c r="AP9" t="n">
         <v>-0.3305958551614993</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>-0.3314508209034066</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1712,6 +1739,9 @@
       <c r="AP10" t="n">
         <v>0.3884707515244609</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>0.3880695925152398</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1840,6 +1870,9 @@
       <c r="AP11" t="n">
         <v>-0.2016308471446524</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>-0.2026287515581375</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1968,6 +2001,9 @@
       <c r="AP12" t="n">
         <v>-0.1028602039167052</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>-0.1037673826513871</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2096,6 +2132,9 @@
       <c r="AP13" t="n">
         <v>-0.0512921390987165</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>-0.05201251632862659</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2224,6 +2263,9 @@
       <c r="AP14" t="n">
         <v>0.02971548212520445</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>0.02909052656211488</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2352,6 +2394,9 @@
       <c r="AP15" t="n">
         <v>-0.1160790797235496</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>-0.1170224539994075</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2480,6 +2525,9 @@
       <c r="AP16" t="n">
         <v>0.2858185422763022</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>0.2852156348517742</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2608,6 +2656,9 @@
       <c r="AP17" t="n">
         <v>0.4164755601815603</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>0.4161586019851515</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2736,6 +2787,9 @@
       <c r="AP18" t="n">
         <v>-0.1595441219533156</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>-0.1601478172160438</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2864,6 +2918,9 @@
       <c r="AP19" t="n">
         <v>0.2926715318585426</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>0.2918139640777828</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2992,6 +3049,9 @@
       <c r="AP20" t="n">
         <v>0.1831720568703398</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>0.1823980877292857</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3120,6 +3180,9 @@
       <c r="AP21" t="n">
         <v>0.4778791666743442</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>0.4774715644865846</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3248,6 +3311,9 @@
       <c r="AP22" t="n">
         <v>0.2426638468356056</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>0.2423174779042619</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3376,6 +3442,9 @@
       <c r="AP23" t="n">
         <v>-0.1761760355486115</v>
       </c>
+      <c r="AQ23" t="n">
+        <v>-0.1768341691089876</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3504,6 +3573,9 @@
       <c r="AP24" t="n">
         <v>1.4498754230623</v>
       </c>
+      <c r="AQ24" t="n">
+        <v>1.450336827037232</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3632,6 +3704,9 @@
       <c r="AP25" t="n">
         <v>0.3221399545594753</v>
       </c>
+      <c r="AQ25" t="n">
+        <v>0.3224508593655802</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3760,6 +3835,9 @@
       <c r="AP26" t="n">
         <v>0.1550054448784995</v>
       </c>
+      <c r="AQ26" t="n">
+        <v>0.15487080687946</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3888,6 +3966,9 @@
       <c r="AP27" t="n">
         <v>0.0494135211714225</v>
       </c>
+      <c r="AQ27" t="n">
+        <v>0.04961761517436332</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4016,6 +4097,9 @@
       <c r="AP28" t="n">
         <v>0.8357099619547477</v>
       </c>
+      <c r="AQ28" t="n">
+        <v>0.8366869703304937</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4144,6 +4228,9 @@
       <c r="AP29" t="n">
         <v>1.720091380131476</v>
       </c>
+      <c r="AQ29" t="n">
+        <v>1.723313697934859</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4272,6 +4359,9 @@
       <c r="AP30" t="n">
         <v>0.6766660994918975</v>
       </c>
+      <c r="AQ30" t="n">
+        <v>0.6770127111019199</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4400,6 +4490,9 @@
       <c r="AP31" t="n">
         <v>-0.4186141149798057</v>
       </c>
+      <c r="AQ31" t="n">
+        <v>-0.4189229362275502</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4528,6 +4621,9 @@
       <c r="AP32" t="n">
         <v>0.5657321868443381</v>
       </c>
+      <c r="AQ32" t="n">
+        <v>0.5659009360496262</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4656,6 +4752,9 @@
       <c r="AP33" t="n">
         <v>0.7710235785133004</v>
       </c>
+      <c r="AQ33" t="n">
+        <v>0.7712453299500859</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4784,6 +4883,9 @@
       <c r="AP34" t="n">
         <v>-0.8232564224926626</v>
       </c>
+      <c r="AQ34" t="n">
+        <v>-0.8239737217354748</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4912,6 +5014,9 @@
       <c r="AP35" t="n">
         <v>0.8242967485284732</v>
       </c>
+      <c r="AQ35" t="n">
+        <v>0.8245645435086384</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5040,6 +5145,9 @@
       <c r="AP36" t="n">
         <v>0.7937235458008112</v>
       </c>
+      <c r="AQ36" t="n">
+        <v>0.7939695178987385</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5168,6 +5276,9 @@
       <c r="AP37" t="n">
         <v>0.7595957616444589</v>
       </c>
+      <c r="AQ37" t="n">
+        <v>0.7598580522006256</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5296,6 +5407,9 @@
       <c r="AP38" t="n">
         <v>0.6608613482054513</v>
       </c>
+      <c r="AQ38" t="n">
+        <v>0.6610184703639254</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5424,6 +5538,9 @@
       <c r="AP39" t="n">
         <v>0.6159829087695767</v>
       </c>
+      <c r="AQ39" t="n">
+        <v>0.6159286202253915</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5552,6 +5669,9 @@
       <c r="AP40" t="n">
         <v>0.786702408079515</v>
       </c>
+      <c r="AQ40" t="n">
+        <v>0.7869427908892349</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5680,6 +5800,9 @@
       <c r="AP41" t="n">
         <v>0.5805700362518811</v>
       </c>
+      <c r="AQ41" t="n">
+        <v>0.5807220534745381</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5808,6 +5931,9 @@
       <c r="AP42" t="n">
         <v>0.6540982990559893</v>
       </c>
+      <c r="AQ42" t="n">
+        <v>0.6542034623901403</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5936,6 +6062,9 @@
       <c r="AP43" t="n">
         <v>0.6895830618736094</v>
       </c>
+      <c r="AQ43" t="n">
+        <v>0.6897120951093747</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6064,6 +6193,9 @@
       <c r="AP44" t="n">
         <v>0.7142308609564942</v>
       </c>
+      <c r="AQ44" t="n">
+        <v>0.7143386140395852</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6192,6 +6324,9 @@
       <c r="AP45" t="n">
         <v>0.7333032384169608</v>
       </c>
+      <c r="AQ45" t="n">
+        <v>0.7333937690524296</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6320,6 +6455,9 @@
       <c r="AP46" t="n">
         <v>-1.310525857879957</v>
       </c>
+      <c r="AQ46" t="n">
+        <v>-1.312898652175315</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6448,6 +6586,9 @@
       <c r="AP47" t="n">
         <v>-1.01975572330369</v>
       </c>
+      <c r="AQ47" t="n">
+        <v>-1.021725007771672</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6576,6 +6717,9 @@
       <c r="AP48" t="n">
         <v>-0.8808459521323729</v>
       </c>
+      <c r="AQ48" t="n">
+        <v>-0.8828647009989141</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6704,6 +6848,9 @@
       <c r="AP49" t="n">
         <v>-0.6462779239493315</v>
       </c>
+      <c r="AQ49" t="n">
+        <v>-0.6479545218388598</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6832,6 +6979,9 @@
       <c r="AP50" t="n">
         <v>-0.07288511429645274</v>
       </c>
+      <c r="AQ50" t="n">
+        <v>-0.07389517072784012</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6960,6 +7110,9 @@
       <c r="AP51" t="n">
         <v>-0.8575843606386008</v>
       </c>
+      <c r="AQ51" t="n">
+        <v>-0.8593520962495663</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7088,6 +7241,9 @@
       <c r="AP52" t="n">
         <v>-0.8575843606386008</v>
       </c>
+      <c r="AQ52" t="n">
+        <v>-0.8593520962495663</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7216,6 +7372,9 @@
       <c r="AP53" t="n">
         <v>-1.14699199312074</v>
       </c>
+      <c r="AQ53" t="n">
+        <v>-1.149386456529754</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7344,6 +7503,9 @@
       <c r="AP54" t="n">
         <v>-0.1819752584512289</v>
       </c>
+      <c r="AQ54" t="n">
+        <v>-0.1831899426399226</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7472,6 +7634,9 @@
       <c r="AP55" t="n">
         <v>-1.04217188011173</v>
       </c>
+      <c r="AQ55" t="n">
+        <v>-1.044263388421704</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7600,6 +7765,9 @@
       <c r="AP56" t="n">
         <v>-0.9173793907332216</v>
       </c>
+      <c r="AQ56" t="n">
+        <v>-0.9190886194422164</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7728,6 +7896,9 @@
       <c r="AP57" t="n">
         <v>-0.9878722010940231</v>
       </c>
+      <c r="AQ57" t="n">
+        <v>-0.989859518717774</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7856,6 +8027,9 @@
       <c r="AP58" t="n">
         <v>-1.130817149056538</v>
       </c>
+      <c r="AQ58" t="n">
+        <v>-1.132687261112852</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7984,6 +8158,9 @@
       <c r="AP59" t="n">
         <v>-0.8131344374216903</v>
       </c>
+      <c r="AQ59" t="n">
+        <v>-0.8148731230471691</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8112,6 +8289,9 @@
       <c r="AP60" t="n">
         <v>-0.4556918099193922</v>
       </c>
+      <c r="AQ60" t="n">
+        <v>-0.4568842995254487</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8240,6 +8420,9 @@
       <c r="AP61" t="n">
         <v>0.3788176287116856</v>
       </c>
+      <c r="AQ61" t="n">
+        <v>0.3784233216717791</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8368,6 +8551,9 @@
       <c r="AP62" t="n">
         <v>-1.253059451601606</v>
       </c>
+      <c r="AQ62" t="n">
+        <v>-1.255403754358879</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8496,6 +8682,9 @@
       <c r="AP63" t="n">
         <v>-0.5794264342243134</v>
       </c>
+      <c r="AQ63" t="n">
+        <v>-0.5806572549128577</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8624,6 +8813,9 @@
       <c r="AP64" t="n">
         <v>-0.8863187008056482</v>
       </c>
+      <c r="AQ64" t="n">
+        <v>-0.8883011779043457</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8752,6 +8944,9 @@
       <c r="AP65" t="n">
         <v>-0.06080050160287023</v>
       </c>
+      <c r="AQ65" t="n">
+        <v>-0.06173302111993289</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8880,6 +9075,9 @@
       <c r="AP66" t="n">
         <v>-0.8199702472839983</v>
       </c>
+      <c r="AQ66" t="n">
+        <v>-0.821589238138285</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9007,6 +9205,9 @@
       </c>
       <c r="AP67" t="n">
         <v>-0.801517775196903</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8031382459317407</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ67"/>
+  <dimension ref="A1:AR67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2438841175611624</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2447653235920961</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>0.2294728440669745</v>
       </c>
+      <c r="AR3" t="n">
+        <v>0.2290975437364923</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>0.219215021396214</v>
       </c>
+      <c r="AR4" t="n">
+        <v>0.2185719089630434</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>-0.07076295231307961</v>
       </c>
+      <c r="AR5" t="n">
+        <v>-0.07144202149851581</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>0.1829262998822909</v>
       </c>
+      <c r="AR6" t="n">
+        <v>0.1826550456674291</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.3994941469839619</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.4005728239103833</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1480,6 +1501,9 @@
       <c r="AQ8" t="n">
         <v>-0.1413011387699595</v>
       </c>
+      <c r="AR8" t="n">
+        <v>-0.1419022266912435</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1611,6 +1635,9 @@
       <c r="AQ9" t="n">
         <v>-0.3314508209034066</v>
       </c>
+      <c r="AR9" t="n">
+        <v>-0.3322788686983816</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1742,6 +1769,9 @@
       <c r="AQ10" t="n">
         <v>0.3880695925152398</v>
       </c>
+      <c r="AR10" t="n">
+        <v>0.3876903048277122</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1873,6 +1903,9 @@
       <c r="AQ11" t="n">
         <v>-0.2026287515581375</v>
       </c>
+      <c r="AR11" t="n">
+        <v>-0.2035841125441366</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2004,6 +2037,9 @@
       <c r="AQ12" t="n">
         <v>-0.1037673826513871</v>
       </c>
+      <c r="AR12" t="n">
+        <v>-0.1046265995175885</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2135,6 +2171,9 @@
       <c r="AQ13" t="n">
         <v>-0.05201251632862659</v>
       </c>
+      <c r="AR13" t="n">
+        <v>-0.05270184548092736</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2266,6 +2305,9 @@
       <c r="AQ14" t="n">
         <v>0.02909052656211488</v>
       </c>
+      <c r="AR14" t="n">
+        <v>0.02850754935583946</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2397,6 +2439,9 @@
       <c r="AQ15" t="n">
         <v>-0.1170224539994075</v>
       </c>
+      <c r="AR15" t="n">
+        <v>-0.1179034782063842</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2528,6 +2573,9 @@
       <c r="AQ16" t="n">
         <v>0.2852156348517742</v>
       </c>
+      <c r="AR16" t="n">
+        <v>0.2846646820004666</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2659,6 +2707,9 @@
       <c r="AQ17" t="n">
         <v>0.4161586019851515</v>
       </c>
+      <c r="AR17" t="n">
+        <v>0.415879695567021</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2790,6 +2841,9 @@
       <c r="AQ18" t="n">
         <v>-0.1601478172160438</v>
       </c>
+      <c r="AR18" t="n">
+        <v>-0.1607277272673728</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2921,6 +2975,9 @@
       <c r="AQ19" t="n">
         <v>0.2918139640777828</v>
       </c>
+      <c r="AR19" t="n">
+        <v>0.2910036789829106</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3052,6 +3109,9 @@
       <c r="AQ20" t="n">
         <v>0.1823980877292857</v>
       </c>
+      <c r="AR20" t="n">
+        <v>0.1816857365024776</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3183,6 +3243,9 @@
       <c r="AQ21" t="n">
         <v>0.4774715644865846</v>
       </c>
+      <c r="AR21" t="n">
+        <v>0.4771145765165569</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3314,6 +3377,9 @@
       <c r="AQ22" t="n">
         <v>0.2423174779042619</v>
       </c>
+      <c r="AR22" t="n">
+        <v>0.2420086514622651</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3445,6 +3511,9 @@
       <c r="AQ23" t="n">
         <v>-0.1768341691089876</v>
       </c>
+      <c r="AR23" t="n">
+        <v>-0.1774430570104125</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3576,6 +3645,9 @@
       <c r="AQ24" t="n">
         <v>1.450336827037232</v>
       </c>
+      <c r="AR24" t="n">
+        <v>1.451148530807823</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3707,6 +3779,9 @@
       <c r="AQ25" t="n">
         <v>0.3224508593655802</v>
       </c>
+      <c r="AR25" t="n">
+        <v>0.3227382619206683</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3838,6 +3913,9 @@
       <c r="AQ26" t="n">
         <v>0.15487080687946</v>
       </c>
+      <c r="AR26" t="n">
+        <v>0.1547510919299483</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3969,6 +4047,9 @@
       <c r="AQ27" t="n">
         <v>0.04961761517436332</v>
       </c>
+      <c r="AR27" t="n">
+        <v>0.04981619901624799</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4100,6 +4181,9 @@
       <c r="AQ28" t="n">
         <v>0.8366869703304937</v>
       </c>
+      <c r="AR28" t="n">
+        <v>0.8376189937790236</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4231,6 +4315,9 @@
       <c r="AQ29" t="n">
         <v>1.723313697934859</v>
       </c>
+      <c r="AR29" t="n">
+        <v>1.726437796781884</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4362,6 +4449,9 @@
       <c r="AQ30" t="n">
         <v>0.6770127111019199</v>
       </c>
+      <c r="AR30" t="n">
+        <v>0.677338884329576</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4493,6 +4583,9 @@
       <c r="AQ31" t="n">
         <v>-0.4189229362275502</v>
       </c>
+      <c r="AR31" t="n">
+        <v>-0.4192381733112899</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4624,6 +4717,9 @@
       <c r="AQ32" t="n">
         <v>0.5659009360496262</v>
       </c>
+      <c r="AR32" t="n">
+        <v>0.5660586185275615</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4755,6 +4851,9 @@
       <c r="AQ33" t="n">
         <v>0.7712453299500859</v>
       </c>
+      <c r="AR33" t="n">
+        <v>0.7714514004899685</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4886,6 +4985,9 @@
       <c r="AQ34" t="n">
         <v>-0.8239737217354748</v>
       </c>
+      <c r="AR34" t="n">
+        <v>-0.8246674148025372</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5017,6 +5119,9 @@
       <c r="AQ35" t="n">
         <v>0.8245645435086384</v>
       </c>
+      <c r="AR35" t="n">
+        <v>0.8248196220437517</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5148,6 +5253,9 @@
       <c r="AQ36" t="n">
         <v>0.7939695178987385</v>
       </c>
+      <c r="AR36" t="n">
+        <v>0.7941977694008888</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5279,6 +5387,9 @@
       <c r="AQ37" t="n">
         <v>0.7598580522006256</v>
       </c>
+      <c r="AR37" t="n">
+        <v>0.7601013999298354</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5410,6 +5521,9 @@
       <c r="AQ38" t="n">
         <v>0.6610184703639254</v>
       </c>
+      <c r="AR38" t="n">
+        <v>0.6611634409445399</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5541,6 +5655,9 @@
       <c r="AQ39" t="n">
         <v>0.6159286202253915</v>
       </c>
+      <c r="AR39" t="n">
+        <v>0.6158749625813911</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5672,6 +5789,9 @@
       <c r="AQ40" t="n">
         <v>0.7869427908892349</v>
       </c>
+      <c r="AR40" t="n">
+        <v>0.7871744698053101</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5803,6 +5923,9 @@
       <c r="AQ41" t="n">
         <v>0.5807220534745381</v>
       </c>
+      <c r="AR41" t="n">
+        <v>0.5808612531701871</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5934,6 +6057,9 @@
       <c r="AQ42" t="n">
         <v>0.6542034623901403</v>
       </c>
+      <c r="AR42" t="n">
+        <v>0.6542955380389752</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6065,6 +6191,9 @@
       <c r="AQ43" t="n">
         <v>0.6897120951093747</v>
       </c>
+      <c r="AR43" t="n">
+        <v>0.6898301062647614</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6196,6 +6325,9 @@
       <c r="AQ44" t="n">
         <v>0.7143386140395852</v>
       </c>
+      <c r="AR44" t="n">
+        <v>0.7144368182139799</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6327,6 +6459,9 @@
       <c r="AQ45" t="n">
         <v>0.7333937690524296</v>
       </c>
+      <c r="AR45" t="n">
+        <v>0.7334703691682299</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6458,6 +6593,9 @@
       <c r="AQ46" t="n">
         <v>-1.312898652175315</v>
       </c>
+      <c r="AR46" t="n">
+        <v>-1.315172401139841</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6589,6 +6727,9 @@
       <c r="AQ47" t="n">
         <v>-1.021725007771672</v>
       </c>
+      <c r="AR47" t="n">
+        <v>-1.023612644880213</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6720,6 +6861,9 @@
       <c r="AQ48" t="n">
         <v>-0.8828647009989141</v>
       </c>
+      <c r="AR48" t="n">
+        <v>-0.8848032850639176</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6851,6 +6995,9 @@
       <c r="AQ49" t="n">
         <v>-0.6479545218388598</v>
       </c>
+      <c r="AR49" t="n">
+        <v>-0.6495635362741954</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6982,6 +7129,9 @@
       <c r="AQ50" t="n">
         <v>-0.07389517072784012</v>
       </c>
+      <c r="AR50" t="n">
+        <v>-0.07486186825611721</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7113,6 +7263,9 @@
       <c r="AQ51" t="n">
         <v>-0.8593520962495663</v>
       </c>
+      <c r="AR51" t="n">
+        <v>-0.8610494629181432</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7244,6 +7397,9 @@
       <c r="AQ52" t="n">
         <v>-0.8593520962495663</v>
       </c>
+      <c r="AR52" t="n">
+        <v>-0.8610494629181432</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7375,6 +7531,9 @@
       <c r="AQ53" t="n">
         <v>-1.149386456529754</v>
       </c>
+      <c r="AR53" t="n">
+        <v>-1.15168749279679</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7506,6 +7665,9 @@
       <c r="AQ54" t="n">
         <v>-0.1831899426399226</v>
       </c>
+      <c r="AR54" t="n">
+        <v>-0.1843537641962849</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7637,6 +7799,9 @@
       <c r="AQ55" t="n">
         <v>-1.044263388421704</v>
       </c>
+      <c r="AR55" t="n">
+        <v>-1.046267366149813</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7768,6 +7933,9 @@
       <c r="AQ56" t="n">
         <v>-0.9190886194422164</v>
       </c>
+      <c r="AR56" t="n">
+        <v>-0.9207201928182052</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7899,6 +8067,9 @@
       <c r="AQ57" t="n">
         <v>-0.989859518717774</v>
       </c>
+      <c r="AR57" t="n">
+        <v>-0.9917562606394894</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8030,6 +8201,9 @@
       <c r="AQ58" t="n">
         <v>-1.132687261112852</v>
       </c>
+      <c r="AR58" t="n">
+        <v>-1.134467953566932</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8161,6 +8335,9 @@
       <c r="AQ59" t="n">
         <v>-0.8148731230471691</v>
       </c>
+      <c r="AR59" t="n">
+        <v>-0.8165359235666897</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8292,6 +8469,9 @@
       <c r="AQ60" t="n">
         <v>-0.4568842995254487</v>
       </c>
+      <c r="AR60" t="n">
+        <v>-0.4580196005148739</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8423,6 +8603,9 @@
       <c r="AQ61" t="n">
         <v>0.3784233216717791</v>
       </c>
+      <c r="AR61" t="n">
+        <v>0.3780459481132117</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8554,6 +8737,9 @@
       <c r="AQ62" t="n">
         <v>-1.255403754358879</v>
       </c>
+      <c r="AR62" t="n">
+        <v>-1.257639130106213</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8685,6 +8871,9 @@
       <c r="AQ63" t="n">
         <v>-0.5806572549128577</v>
       </c>
+      <c r="AR63" t="n">
+        <v>-0.5818337059973692</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8816,6 +9005,9 @@
       <c r="AQ64" t="n">
         <v>-0.8883011779043457</v>
       </c>
+      <c r="AR64" t="n">
+        <v>-0.8902045580411233</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8947,6 +9139,9 @@
       <c r="AQ65" t="n">
         <v>-0.06173302111993289</v>
       </c>
+      <c r="AR65" t="n">
+        <v>-0.06261884021143437</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9078,6 +9273,9 @@
       <c r="AQ66" t="n">
         <v>-0.821589238138285</v>
       </c>
+      <c r="AR66" t="n">
+        <v>-0.8231253108380929</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9208,6 +9406,9 @@
       </c>
       <c r="AQ67" t="n">
         <v>-0.8031382459317407</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8046669392497403</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR67"/>
+  <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2447653235920961</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2456075925138807</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>0.2290975437364923</v>
       </c>
+      <c r="AS3" t="n">
+        <v>0.2287365899359493</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>0.2185719089630434</v>
       </c>
+      <c r="AS4" t="n">
+        <v>0.217954434955609</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>-0.07144202149851581</v>
       </c>
+      <c r="AS5" t="n">
+        <v>-0.07208939777631466</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>0.1826550456674291</v>
       </c>
+      <c r="AS6" t="n">
+        <v>0.1823988090287302</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.4005728239103833</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.4016067447096303</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1504,6 +1525,9 @@
       <c r="AR8" t="n">
         <v>-0.1419022266912435</v>
       </c>
+      <c r="AS8" t="n">
+        <v>-0.1424797148536161</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1638,6 +1662,9 @@
       <c r="AR9" t="n">
         <v>-0.3322788686983816</v>
       </c>
+      <c r="AS9" t="n">
+        <v>-0.3330789001120969</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1772,6 +1799,9 @@
       <c r="AR10" t="n">
         <v>0.3876903048277122</v>
       </c>
+      <c r="AS10" t="n">
+        <v>0.3873316946277715</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1906,6 +1936,9 @@
       <c r="AR11" t="n">
         <v>-0.2035841125441366</v>
       </c>
+      <c r="AS11" t="n">
+        <v>-0.2044977784539599</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2040,6 +2073,9 @@
       <c r="AR12" t="n">
         <v>-0.1046265995175885</v>
       </c>
+      <c r="AS12" t="n">
+        <v>-0.1054405500995175</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2174,6 +2210,9 @@
       <c r="AR13" t="n">
         <v>-0.05270184548092736</v>
       </c>
+      <c r="AS13" t="n">
+        <v>-0.05336103432496431</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2308,6 +2347,9 @@
       <c r="AR14" t="n">
         <v>0.02850754935583946</v>
       </c>
+      <c r="AS14" t="n">
+        <v>0.02796291031503016</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2442,6 +2484,9 @@
       <c r="AR15" t="n">
         <v>-0.1179034782063842</v>
       </c>
+      <c r="AS15" t="n">
+        <v>-0.1187276310488082</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2576,6 +2621,9 @@
       <c r="AR16" t="n">
         <v>0.2846646820004666</v>
       </c>
+      <c r="AS16" t="n">
+        <v>0.2841598516892574</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2710,6 +2758,9 @@
       <c r="AR17" t="n">
         <v>0.415879695567021</v>
       </c>
+      <c r="AS17" t="n">
+        <v>0.4156332604659945</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2844,6 +2895,9 @@
       <c r="AR18" t="n">
         <v>-0.1607277272673728</v>
       </c>
+      <c r="AS18" t="n">
+        <v>-0.1612848213323901</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2978,6 +3032,9 @@
       <c r="AR19" t="n">
         <v>0.2910036789829106</v>
       </c>
+      <c r="AS19" t="n">
+        <v>0.2902374491465438</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3112,6 +3169,9 @@
       <c r="AR20" t="n">
         <v>0.1816857365024776</v>
       </c>
+      <c r="AS20" t="n">
+        <v>0.1810284243074117</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3246,6 +3306,9 @@
       <c r="AR21" t="n">
         <v>0.4771145765165569</v>
       </c>
+      <c r="AS21" t="n">
+        <v>0.4768014682437279</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3380,6 +3443,9 @@
       <c r="AR22" t="n">
         <v>0.2420086514622651</v>
       </c>
+      <c r="AS22" t="n">
+        <v>0.2417322595635485</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3514,6 +3580,9 @@
       <c r="AR23" t="n">
         <v>-0.1774430570104125</v>
       </c>
+      <c r="AS23" t="n">
+        <v>-0.1780077059725802</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3648,6 +3717,9 @@
       <c r="AR24" t="n">
         <v>1.451148530807823</v>
       </c>
+      <c r="AS24" t="n">
+        <v>1.452233756047393</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3782,6 +3854,9 @@
       <c r="AR25" t="n">
         <v>0.3227382619206683</v>
       </c>
+      <c r="AS25" t="n">
+        <v>0.3230038381210364</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3916,6 +3991,9 @@
       <c r="AR26" t="n">
         <v>0.1547510919299483</v>
       </c>
+      <c r="AS26" t="n">
+        <v>0.1546437570692529</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4050,6 +4128,9 @@
       <c r="AR27" t="n">
         <v>0.04981619901624799</v>
       </c>
+      <c r="AS27" t="n">
+        <v>0.0500081809077762</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4184,6 +4265,9 @@
       <c r="AR28" t="n">
         <v>0.8376189937790236</v>
       </c>
+      <c r="AS28" t="n">
+        <v>0.8385070735344201</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4318,6 +4402,9 @@
       <c r="AR29" t="n">
         <v>1.726437796781884</v>
       </c>
+      <c r="AS29" t="n">
+        <v>1.729447535622839</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4452,6 +4539,9 @@
       <c r="AR30" t="n">
         <v>0.677338884329576</v>
       </c>
+      <c r="AS30" t="n">
+        <v>0.6776450997279446</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4586,6 +4676,9 @@
       <c r="AR31" t="n">
         <v>-0.4192381733112899</v>
       </c>
+      <c r="AS31" t="n">
+        <v>-0.4195570426967265</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4720,6 +4813,9 @@
       <c r="AR32" t="n">
         <v>0.5660586185275615</v>
       </c>
+      <c r="AS32" t="n">
+        <v>0.5662054718744288</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4854,6 +4950,9 @@
       <c r="AR33" t="n">
         <v>0.7714514004899685</v>
       </c>
+      <c r="AS33" t="n">
+        <v>0.7716427449054839</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4988,6 +5087,9 @@
       <c r="AR34" t="n">
         <v>-0.8246674148025372</v>
       </c>
+      <c r="AS34" t="n">
+        <v>-0.825337341808702</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5122,6 +5224,9 @@
       <c r="AR35" t="n">
         <v>0.8248196220437517</v>
       </c>
+      <c r="AS35" t="n">
+        <v>0.8250625648677533</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5256,6 +5361,9 @@
       <c r="AR36" t="n">
         <v>0.7941977694008888</v>
       </c>
+      <c r="AS36" t="n">
+        <v>0.7944100137573048</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5390,6 +5498,9 @@
       <c r="AR37" t="n">
         <v>0.7601013999298354</v>
       </c>
+      <c r="AS37" t="n">
+        <v>0.7603276111170401</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5524,6 +5635,9 @@
       <c r="AR38" t="n">
         <v>0.6611634409445399</v>
       </c>
+      <c r="AS38" t="n">
+        <v>0.6612972500665365</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5658,6 +5772,9 @@
       <c r="AR39" t="n">
         <v>0.6158749625813911</v>
       </c>
+      <c r="AS39" t="n">
+        <v>0.6158223485667071</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5792,6 +5909,9 @@
       <c r="AR40" t="n">
         <v>0.7871744698053101</v>
       </c>
+      <c r="AS40" t="n">
+        <v>0.7873975609102702</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5926,6 +6046,9 @@
       <c r="AR41" t="n">
         <v>0.5808612531701871</v>
       </c>
+      <c r="AS41" t="n">
+        <v>0.5809890385338629</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6060,6 +6183,9 @@
       <c r="AR42" t="n">
         <v>0.6542955380389752</v>
       </c>
+      <c r="AS42" t="n">
+        <v>0.6543761582187816</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6194,6 +6320,9 @@
       <c r="AR43" t="n">
         <v>0.6898301062647614</v>
       </c>
+      <c r="AS43" t="n">
+        <v>0.6899381929494368</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6328,6 +6457,9 @@
       <c r="AR44" t="n">
         <v>0.7144368182139799</v>
       </c>
+      <c r="AS44" t="n">
+        <v>0.714526654485492</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6462,6 +6594,9 @@
       <c r="AR45" t="n">
         <v>0.7334703691682299</v>
       </c>
+      <c r="AS45" t="n">
+        <v>0.7335353129188568</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6596,6 +6731,9 @@
       <c r="AR46" t="n">
         <v>-1.315172401139841</v>
       </c>
+      <c r="AS46" t="n">
+        <v>-1.317349134638778</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6730,6 +6868,9 @@
       <c r="AR47" t="n">
         <v>-1.023612644880213</v>
       </c>
+      <c r="AS47" t="n">
+        <v>-1.025420219062481</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6864,6 +7005,9 @@
       <c r="AR48" t="n">
         <v>-0.8848032850639176</v>
       </c>
+      <c r="AS48" t="n">
+        <v>-0.8866625711336728</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6998,6 +7142,9 @@
       <c r="AR49" t="n">
         <v>-0.6495635362741954</v>
       </c>
+      <c r="AS49" t="n">
+        <v>-0.6511058667271035</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7132,6 +7279,9 @@
       <c r="AR50" t="n">
         <v>-0.07486186825611721</v>
       </c>
+      <c r="AS50" t="n">
+        <v>-0.07578630435005895</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7266,6 +7416,9 @@
       <c r="AR51" t="n">
         <v>-0.8610494629181432</v>
       </c>
+      <c r="AS51" t="n">
+        <v>-0.8626771913426754</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7400,6 +7553,9 @@
       <c r="AR52" t="n">
         <v>-0.8610494629181432</v>
       </c>
+      <c r="AS52" t="n">
+        <v>-0.8626771913426754</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7534,6 +7690,9 @@
       <c r="AR53" t="n">
         <v>-1.15168749279679</v>
       </c>
+      <c r="AS53" t="n">
+        <v>-1.153895966812651</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7668,6 +7827,9 @@
       <c r="AR54" t="n">
         <v>-0.1843537641962849</v>
       </c>
+      <c r="AS54" t="n">
+        <v>-0.1854676966752386</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7802,6 +7964,9 @@
       <c r="AR55" t="n">
         <v>-1.046267366149813</v>
       </c>
+      <c r="AS55" t="n">
+        <v>-1.048185648740778</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7936,6 +8101,9 @@
       <c r="AR56" t="n">
         <v>-0.9207201928182052</v>
       </c>
+      <c r="AS56" t="n">
+        <v>-0.9222767146949549</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8070,6 +8238,9 @@
       <c r="AR57" t="n">
         <v>-0.9917562606394894</v>
       </c>
+      <c r="AS57" t="n">
+        <v>-0.9935656314219731</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8204,6 +8375,9 @@
       <c r="AR58" t="n">
         <v>-1.134467953566932</v>
       </c>
+      <c r="AS58" t="n">
+        <v>-1.13616283747516</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8338,6 +8512,9 @@
       <c r="AR59" t="n">
         <v>-0.8165359235666897</v>
       </c>
+      <c r="AS59" t="n">
+        <v>-0.8181247237120497</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8472,6 +8649,9 @@
       <c r="AR60" t="n">
         <v>-0.4580196005148739</v>
       </c>
+      <c r="AS60" t="n">
+        <v>-0.4590999118127396</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8606,6 +8786,9 @@
       <c r="AR61" t="n">
         <v>0.3780459481132117</v>
       </c>
+      <c r="AS61" t="n">
+        <v>0.377685124396087</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8740,6 +8923,9 @@
       <c r="AR62" t="n">
         <v>-1.257639130106213</v>
       </c>
+      <c r="AS62" t="n">
+        <v>-1.259769672744806</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8874,6 +9060,9 @@
       <c r="AR63" t="n">
         <v>-0.5818337059973692</v>
       </c>
+      <c r="AS63" t="n">
+        <v>-0.5829567975535068</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9008,6 +9197,9 @@
       <c r="AR64" t="n">
         <v>-0.8902045580411233</v>
       </c>
+      <c r="AS64" t="n">
+        <v>-0.8920297450900005</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9142,6 +9334,9 @@
       <c r="AR65" t="n">
         <v>-0.06261884021143437</v>
       </c>
+      <c r="AS65" t="n">
+        <v>-0.06345997683546363</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9276,6 +9471,9 @@
       <c r="AR66" t="n">
         <v>-0.8231253108380929</v>
       </c>
+      <c r="AS66" t="n">
+        <v>-0.8245826937499747</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9409,6 +9607,9 @@
       </c>
       <c r="AR67" t="n">
         <v>-0.8046669392497403</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8061097126615129</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS67"/>
+  <dimension ref="A1:AT67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2456075925138807</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2464118694042347</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>0.2287365899359493</v>
       </c>
+      <c r="AT3" t="n">
+        <v>0.2283899280335249</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>0.217954434955609</v>
       </c>
+      <c r="AT4" t="n">
+        <v>0.2173624864735807</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>-0.07208939777631466</v>
       </c>
+      <c r="AT5" t="n">
+        <v>-0.07270626671039526</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>0.1823988090287302</v>
       </c>
+      <c r="AT6" t="n">
+        <v>0.1821567533118981</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.4016067447096303</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.4025966075329622</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1549,9 @@
       <c r="AS8" t="n">
         <v>-0.1424797148536161</v>
       </c>
+      <c r="AT8" t="n">
+        <v>-0.1430334849541198</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1665,6 +1689,9 @@
       <c r="AS9" t="n">
         <v>-0.3330789001120969</v>
       </c>
+      <c r="AT9" t="n">
+        <v>-0.3338502154249451</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1802,6 +1829,9 @@
       <c r="AS10" t="n">
         <v>0.3873316946277715</v>
       </c>
+      <c r="AT10" t="n">
+        <v>0.3869926073650785</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1939,6 +1969,9 @@
       <c r="AS11" t="n">
         <v>-0.2044977784539599</v>
       </c>
+      <c r="AT11" t="n">
+        <v>-0.2053707677037095</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2076,6 +2109,9 @@
       <c r="AS12" t="n">
         <v>-0.1054405500995175</v>
       </c>
+      <c r="AT12" t="n">
+        <v>-0.1062117923274457</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2213,6 +2249,9 @@
       <c r="AS13" t="n">
         <v>-0.05336103432496431</v>
       </c>
+      <c r="AT13" t="n">
+        <v>-0.05399103212894326</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2350,6 +2389,9 @@
       <c r="AS14" t="n">
         <v>0.02796291031503016</v>
       </c>
+      <c r="AT14" t="n">
+        <v>0.02745332378433093</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2487,6 +2529,9 @@
       <c r="AS15" t="n">
         <v>-0.1187276310488082</v>
       </c>
+      <c r="AT15" t="n">
+        <v>-0.1194998271280686</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2624,6 +2669,9 @@
       <c r="AS16" t="n">
         <v>0.2841598516892574</v>
       </c>
+      <c r="AT16" t="n">
+        <v>0.2836959975857712</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2761,6 +2809,9 @@
       <c r="AS17" t="n">
         <v>0.4156332604659945</v>
       </c>
+      <c r="AT17" t="n">
+        <v>0.4154145052502085</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2898,6 +2949,9 @@
       <c r="AS18" t="n">
         <v>-0.1612848213323901</v>
       </c>
+      <c r="AT18" t="n">
+        <v>-0.1618199633900388</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3035,6 +3089,9 @@
       <c r="AS19" t="n">
         <v>0.2902374491465438</v>
       </c>
+      <c r="AT19" t="n">
+        <v>0.28951232503682</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3172,6 +3229,9 @@
       <c r="AS20" t="n">
         <v>0.1810284243074117</v>
       </c>
+      <c r="AT20" t="n">
+        <v>0.1804203379352975</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3309,6 +3369,9 @@
       <c r="AS21" t="n">
         <v>0.4768014682437279</v>
       </c>
+      <c r="AT21" t="n">
+        <v>0.4765263252168608</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3446,6 +3509,9 @@
       <c r="AS22" t="n">
         <v>0.2417322595635485</v>
       </c>
+      <c r="AT22" t="n">
+        <v>0.2414838813967766</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3583,6 +3649,9 @@
       <c r="AS23" t="n">
         <v>-0.1780077059725802</v>
       </c>
+      <c r="AT23" t="n">
+        <v>-0.1785325503246333</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3720,6 +3789,9 @@
       <c r="AS24" t="n">
         <v>1.452233756047393</v>
       </c>
+      <c r="AT24" t="n">
+        <v>1.453527604387805</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3857,6 +3929,9 @@
       <c r="AS25" t="n">
         <v>0.3230038381210364</v>
       </c>
+      <c r="AT25" t="n">
+        <v>0.3232492173577849</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3994,6 +4069,9 @@
       <c r="AS26" t="n">
         <v>0.1546437570692529</v>
       </c>
+      <c r="AT26" t="n">
+        <v>0.154546690025178</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4131,6 +4209,9 @@
       <c r="AS27" t="n">
         <v>0.0500081809077762</v>
       </c>
+      <c r="AT27" t="n">
+        <v>0.05019279349129278</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4268,6 +4349,9 @@
       <c r="AS28" t="n">
         <v>0.8385070735344201</v>
       </c>
+      <c r="AT28" t="n">
+        <v>0.8393524627703849</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4405,6 +4489,9 @@
       <c r="AS29" t="n">
         <v>1.729447535622839</v>
       </c>
+      <c r="AT29" t="n">
+        <v>1.732331927451035</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4542,6 +4629,9 @@
       <c r="AS30" t="n">
         <v>0.6776450997279446</v>
       </c>
+      <c r="AT30" t="n">
+        <v>0.6779320280061013</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4679,6 +4769,9 @@
       <c r="AS31" t="n">
         <v>-0.4195570426967265</v>
       </c>
+      <c r="AT31" t="n">
+        <v>-0.4198771128043793</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4816,6 +4909,9 @@
       <c r="AS32" t="n">
         <v>0.5662054718744288</v>
       </c>
+      <c r="AT32" t="n">
+        <v>0.5663418624494325</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4953,6 +5049,9 @@
       <c r="AS33" t="n">
         <v>0.7716427449054839</v>
       </c>
+      <c r="AT33" t="n">
+        <v>0.7718203239565231</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5090,6 +5189,9 @@
       <c r="AS34" t="n">
         <v>-0.825337341808702</v>
       </c>
+      <c r="AT34" t="n">
+        <v>-0.8259834729654849</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5227,6 +5329,9 @@
       <c r="AS35" t="n">
         <v>0.8250625648677533</v>
       </c>
+      <c r="AT35" t="n">
+        <v>0.8252939311929038</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5364,6 +5469,9 @@
       <c r="AS36" t="n">
         <v>0.7944100137573048</v>
       </c>
+      <c r="AT36" t="n">
+        <v>0.7946077770021212</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5501,6 +5609,9 @@
       <c r="AS37" t="n">
         <v>0.7603276111170401</v>
       </c>
+      <c r="AT37" t="n">
+        <v>0.7605383002865457</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5638,6 +5749,9 @@
       <c r="AS38" t="n">
         <v>0.6612972500665365</v>
       </c>
+      <c r="AT38" t="n">
+        <v>0.6614208286566184</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5775,6 +5889,9 @@
       <c r="AS39" t="n">
         <v>0.6158223485667071</v>
       </c>
+      <c r="AT39" t="n">
+        <v>0.6157710941977931</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5912,6 +6029,9 @@
       <c r="AS40" t="n">
         <v>0.7873975609102702</v>
       </c>
+      <c r="AT40" t="n">
+        <v>0.7876121972412745</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6049,6 +6169,9 @@
       <c r="AS41" t="n">
         <v>0.5809890385338629</v>
       </c>
+      <c r="AT41" t="n">
+        <v>0.5811066514909909</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6186,6 +6309,9 @@
       <c r="AS42" t="n">
         <v>0.6543761582187816</v>
       </c>
+      <c r="AT42" t="n">
+        <v>0.6544467775063678</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6323,6 +6449,9 @@
       <c r="AS43" t="n">
         <v>0.6899381929494368</v>
       </c>
+      <c r="AT43" t="n">
+        <v>0.6900373499145135</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6460,6 +6589,9 @@
       <c r="AS44" t="n">
         <v>0.714526654485492</v>
       </c>
+      <c r="AT44" t="n">
+        <v>0.7146091466554567</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6597,6 +6729,9 @@
       <c r="AS45" t="n">
         <v>0.7335353129188568</v>
       </c>
+      <c r="AT45" t="n">
+        <v>0.733590538383855</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6734,6 +6869,9 @@
       <c r="AS46" t="n">
         <v>-1.317349134638778</v>
       </c>
+      <c r="AT46" t="n">
+        <v>-1.319431212241664</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6871,6 +7009,9 @@
       <c r="AS47" t="n">
         <v>-1.025420219062481</v>
       </c>
+      <c r="AT47" t="n">
+        <v>-1.027149601241268</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7008,6 +7149,9 @@
       <c r="AS48" t="n">
         <v>-0.8866625711336728</v>
       </c>
+      <c r="AT48" t="n">
+        <v>-0.8884438388069605</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7145,6 +7289,9 @@
       <c r="AS49" t="n">
         <v>-0.6511058667271035</v>
       </c>
+      <c r="AT49" t="n">
+        <v>-0.6525827328745573</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7282,6 +7429,9 @@
       <c r="AS50" t="n">
         <v>-0.07578630435005895</v>
       </c>
+      <c r="AT50" t="n">
+        <v>-0.0766696837617295</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7419,6 +7569,9 @@
       <c r="AS51" t="n">
         <v>-0.8626771913426754</v>
       </c>
+      <c r="AT51" t="n">
+        <v>-0.8642363883082439</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7556,6 +7709,9 @@
       <c r="AS52" t="n">
         <v>-0.8626771913426754</v>
       </c>
+      <c r="AT52" t="n">
+        <v>-0.8642363883082439</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7693,6 +7849,9 @@
       <c r="AS53" t="n">
         <v>-1.153895966812651</v>
       </c>
+      <c r="AT53" t="n">
+        <v>-1.15601322879341</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7830,6 +7989,9 @@
       <c r="AS54" t="n">
         <v>-0.1854676966752386</v>
       </c>
+      <c r="AT54" t="n">
+        <v>-0.1865329082935482</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7967,6 +8129,9 @@
       <c r="AS55" t="n">
         <v>-1.048185648740778</v>
       </c>
+      <c r="AT55" t="n">
+        <v>-1.05002035536659</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8104,6 +8269,9 @@
       <c r="AS56" t="n">
         <v>-0.9222767146949549</v>
       </c>
+      <c r="AT56" t="n">
+        <v>-0.9237608797608095</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8241,6 +8409,9 @@
       <c r="AS57" t="n">
         <v>-0.9935656314219731</v>
       </c>
+      <c r="AT57" t="n">
+        <v>-0.9952908953551555</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8378,6 +8549,9 @@
       <c r="AS58" t="n">
         <v>-1.13616283747516</v>
       </c>
+      <c r="AT58" t="n">
+        <v>-1.137775533536731</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8515,6 +8689,9 @@
       <c r="AS59" t="n">
         <v>-0.8181247237120497</v>
       </c>
+      <c r="AT59" t="n">
+        <v>-0.819641636001285</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8652,6 +8829,9 @@
       <c r="AS60" t="n">
         <v>-0.4590999118127396</v>
       </c>
+      <c r="AT60" t="n">
+        <v>-0.4601274766532231</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8789,6 +8969,9 @@
       <c r="AS61" t="n">
         <v>0.377685124396087</v>
       </c>
+      <c r="AT61" t="n">
+        <v>0.3773404107241889</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8926,6 +9109,9 @@
       <c r="AS62" t="n">
         <v>-1.259769672744806</v>
       </c>
+      <c r="AT62" t="n">
+        <v>-1.261799517957829</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9063,6 +9249,9 @@
       <c r="AS63" t="n">
         <v>-0.5829567975535068</v>
       </c>
+      <c r="AT63" t="n">
+        <v>-0.5840278241928964</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9200,6 +9389,9 @@
       <c r="AS64" t="n">
         <v>-0.8920297450900005</v>
       </c>
+      <c r="AT64" t="n">
+        <v>-0.8937780442675659</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9337,6 +9529,9 @@
       <c r="AS65" t="n">
         <v>-0.06345997683546363</v>
       </c>
+      <c r="AT65" t="n">
+        <v>-0.06425845632016249</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9474,6 +9669,9 @@
       <c r="AS66" t="n">
         <v>-0.8245826937499747</v>
       </c>
+      <c r="AT66" t="n">
+        <v>-0.8259654624521804</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9610,6 +9808,9 @@
       </c>
       <c r="AS67" t="n">
         <v>-0.8061097126615129</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8074720553644762</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_5.xlsx
+++ b/predicted_variables_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2464118694042347</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2471792338746562</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>0.2283899280335249</v>
       </c>
+      <c r="AU3" t="n">
+        <v>0.2280574119176067</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>0.2173624864735807</v>
       </c>
+      <c r="AU4" t="n">
+        <v>0.2167957646445617</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>-0.07270626671039526</v>
       </c>
+      <c r="AU5" t="n">
+        <v>-0.07329383073157275</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>0.1821567533118981</v>
       </c>
+      <c r="AU6" t="n">
+        <v>0.1819280700061834</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.4025966075329622</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.4035433217052558</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1552,6 +1573,9 @@
       <c r="AT8" t="n">
         <v>-0.1430334849541198</v>
       </c>
+      <c r="AU8" t="n">
+        <v>-0.1435636504653157</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1692,6 +1716,9 @@
       <c r="AT9" t="n">
         <v>-0.3338502154249451</v>
       </c>
+      <c r="AU9" t="n">
+        <v>-0.3345924520474834</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1832,6 +1859,9 @@
       <c r="AT10" t="n">
         <v>0.3869926073650785</v>
       </c>
+      <c r="AU10" t="n">
+        <v>0.3866719337805493</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1972,6 +2002,9 @@
       <c r="AT11" t="n">
         <v>-0.2053707677037095</v>
       </c>
+      <c r="AU11" t="n">
+        <v>-0.2062042291608376</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2112,6 +2145,9 @@
       <c r="AT12" t="n">
         <v>-0.1062117923274457</v>
       </c>
+      <c r="AU12" t="n">
+        <v>-0.1069427468514623</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2252,6 +2288,9 @@
       <c r="AT13" t="n">
         <v>-0.05399103212894326</v>
       </c>
+      <c r="AU13" t="n">
+        <v>-0.05459281697954134</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2392,6 +2431,9 @@
       <c r="AT14" t="n">
         <v>0.02745332378433093</v>
       </c>
+      <c r="AU14" t="n">
+        <v>0.02697582782362187</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2532,6 +2574,9 @@
       <c r="AT15" t="n">
         <v>-0.1194998271280686</v>
       </c>
+      <c r="AU15" t="n">
+        <v>-0.1202244720677513</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2672,6 +2717,9 @@
       <c r="AT16" t="n">
         <v>0.2836959975857712</v>
       </c>
+      <c r="AU16" t="n">
+        <v>0.2832685879264632</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2812,6 +2860,9 @@
       <c r="AT17" t="n">
         <v>0.4154145052502085</v>
       </c>
+      <c r="AU17" t="n">
+        <v>0.415219329337836</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2952,6 +3003,9 @@
       <c r="AT18" t="n">
         <v>-0.1618199633900388</v>
       </c>
+      <c r="AU18" t="n">
+        <v>-0.1623339362364356</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3092,6 +3146,9 @@
       <c r="AT19" t="n">
         <v>0.28951232503682</v>
       </c>
+      <c r="AU19" t="n">
+        <v>0.2888256091654585</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3232,6 +3289,9 @@
       <c r="AT20" t="n">
         <v>0.1804203379352975</v>
       </c>
+      <c r="AU20" t="n">
+        <v>0.1798563490906806</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3372,6 +3432,9 @@
       <c r="AT21" t="n">
         <v>0.4765263252168608</v>
       </c>
+      <c r="AU21" t="n">
+        <v>0.4762839713303112</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3512,6 +3575,9 @@
       <c r="AT22" t="n">
         <v>0.2414838813967766</v>
       </c>
+      <c r="AU22" t="n">
+        <v>0.2412597017300012</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3652,6 +3718,9 @@
       <c r="AT23" t="n">
         <v>-0.1785325503246333</v>
       </c>
+      <c r="AU23" t="n">
+        <v>-0.1790215125627463</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3792,6 +3861,9 @@
       <c r="AT24" t="n">
         <v>1.453527604387805</v>
       </c>
+      <c r="AU24" t="n">
+        <v>1.454975556900161</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3932,6 +4004,9 @@
       <c r="AT25" t="n">
         <v>0.3232492173577849</v>
       </c>
+      <c r="AU25" t="n">
+        <v>0.3234759642676648</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4072,6 +4147,9 @@
       <c r="AT26" t="n">
         <v>0.154546690025178</v>
       </c>
+      <c r="AU26" t="n">
+        <v>0.1544581445762978</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4212,6 +4290,9 @@
       <c r="AT27" t="n">
         <v>0.05019279349129278</v>
       </c>
+      <c r="AU27" t="n">
+        <v>0.05036953415325974</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4352,6 +4433,9 @@
       <c r="AT28" t="n">
         <v>0.8393524627703849</v>
       </c>
+      <c r="AU28" t="n">
+        <v>0.8401565698347584</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4492,6 +4576,9 @@
       <c r="AT29" t="n">
         <v>1.732331927451035</v>
       </c>
+      <c r="AU29" t="n">
+        <v>1.735084161394773</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4632,6 +4719,9 @@
       <c r="AT30" t="n">
         <v>0.6779320280061013</v>
       </c>
+      <c r="AU30" t="n">
+        <v>0.6782004745834482</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4772,6 +4862,9 @@
       <c r="AT31" t="n">
         <v>-0.4198771128043793</v>
       </c>
+      <c r="AU31" t="n">
+        <v>-0.4201962804898829</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4912,6 +5005,9 @@
       <c r="AT32" t="n">
         <v>0.5663418624494325</v>
       </c>
+      <c r="AU32" t="n">
+        <v>0.5664682480270938</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5052,6 +5148,9 @@
       <c r="AT33" t="n">
         <v>0.7718203239565231</v>
       </c>
+      <c r="AU33" t="n">
+        <v>0.7719850860850996</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5192,6 +5291,9 @@
       <c r="AT34" t="n">
         <v>-0.8259834729654849</v>
       </c>
+      <c r="AU34" t="n">
+        <v>-0.8266058964977463</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5332,6 +5434,9 @@
       <c r="AT35" t="n">
         <v>0.8252939311929038</v>
       </c>
+      <c r="AU35" t="n">
+        <v>0.8255142586019198</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5472,6 +5577,9 @@
       <c r="AT36" t="n">
         <v>0.7946077770021212</v>
       </c>
+      <c r="AU36" t="n">
+        <v>0.7947924166849849</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5612,6 +5720,9 @@
       <c r="AT37" t="n">
         <v>0.7605383002865457</v>
       </c>
+      <c r="AU37" t="n">
+        <v>0.7607349085975874</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5752,6 +5863,9 @@
       <c r="AT38" t="n">
         <v>0.6614208286566184</v>
       </c>
+      <c r="AU38" t="n">
+        <v>0.6615350458940658</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5892,6 +6006,9 @@
       <c r="AT39" t="n">
         <v>0.6157710941977931</v>
       </c>
+      <c r="AU39" t="n">
+        <v>0.6157214346565251</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6032,6 +6149,9 @@
       <c r="AT40" t="n">
         <v>0.7876121972412745</v>
       </c>
+      <c r="AU40" t="n">
+        <v>0.7878185282011453</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6172,6 +6292,9 @@
       <c r="AT41" t="n">
         <v>0.5811066514909909</v>
       </c>
+      <c r="AU41" t="n">
+        <v>0.5812151889666092</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6312,6 +6435,9 @@
       <c r="AT42" t="n">
         <v>0.6544467775063678</v>
       </c>
+      <c r="AU42" t="n">
+        <v>0.6545086868457616</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6452,6 +6578,9 @@
       <c r="AT43" t="n">
         <v>0.6900373499145135</v>
       </c>
+      <c r="AU43" t="n">
+        <v>0.6901284754675846</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6592,6 +6721,9 @@
       <c r="AT44" t="n">
         <v>0.7146091466554567</v>
       </c>
+      <c r="AU44" t="n">
+        <v>0.7146851805177523</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6732,6 +6864,9 @@
       <c r="AT45" t="n">
         <v>0.733590538383855</v>
       </c>
+      <c r="AU45" t="n">
+        <v>0.7336376905778523</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6872,6 +7007,9 @@
       <c r="AT46" t="n">
         <v>-1.319431212241664</v>
       </c>
+      <c r="AU46" t="n">
+        <v>-1.321421249917585</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7012,6 +7150,9 @@
       <c r="AT47" t="n">
         <v>-1.027149601241268</v>
       </c>
+      <c r="AU47" t="n">
+        <v>-1.028802886766824</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7152,6 +7293,9 @@
       <c r="AT48" t="n">
         <v>-0.8884438388069605</v>
       </c>
+      <c r="AU48" t="n">
+        <v>-0.8901487013750418</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7292,6 +7436,9 @@
       <c r="AT49" t="n">
         <v>-0.6525827328745573</v>
       </c>
+      <c r="AU49" t="n">
+        <v>-0.6539956109810556</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7432,6 +7579,9 @@
       <c r="AT50" t="n">
         <v>-0.0766696837617295</v>
       </c>
+      <c r="AU50" t="n">
+        <v>-0.0775132910563652</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7572,6 +7722,9 @@
       <c r="AT51" t="n">
         <v>-0.8642363883082439</v>
       </c>
+      <c r="AU51" t="n">
+        <v>-0.8657284639589926</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7712,6 +7865,9 @@
       <c r="AT52" t="n">
         <v>-0.8642363883082439</v>
       </c>
+      <c r="AU52" t="n">
+        <v>-0.8657284639589926</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7852,6 +8008,9 @@
       <c r="AT53" t="n">
         <v>-1.15601322879341</v>
       </c>
+      <c r="AU53" t="n">
+        <v>-1.158041025625731</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7992,6 +8151,9 @@
       <c r="AT54" t="n">
         <v>-0.1865329082935482</v>
       </c>
+      <c r="AU54" t="n">
+        <v>-0.1875507186429775</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8132,6 +8294,9 @@
       <c r="AT55" t="n">
         <v>-1.05002035536659</v>
       </c>
+      <c r="AU55" t="n">
+        <v>-1.051773825148866</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8272,6 +8437,9 @@
       <c r="AT56" t="n">
         <v>-0.9237608797608095</v>
       </c>
+      <c r="AU56" t="n">
+        <v>-0.9251754347537138</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8412,6 +8580,9 @@
       <c r="AT57" t="n">
         <v>-0.9952908953551555</v>
       </c>
+      <c r="AU57" t="n">
+        <v>-0.9969353400808332</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8552,6 +8723,9 @@
       <c r="AT58" t="n">
         <v>-1.137775533536731</v>
       </c>
+      <c r="AU58" t="n">
+        <v>-1.139309636674849</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8692,6 +8866,9 @@
       <c r="AT59" t="n">
         <v>-0.819641636001285</v>
       </c>
+      <c r="AU59" t="n">
+        <v>-0.821088941331247</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8832,6 +9009,9 @@
       <c r="AT60" t="n">
         <v>-0.4601274766532231</v>
       </c>
+      <c r="AU60" t="n">
+        <v>-0.4611045516725755</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8972,6 +9152,9 @@
       <c r="AT61" t="n">
         <v>0.3773404107241889</v>
       </c>
+      <c r="AU61" t="n">
+        <v>0.3770113248388171</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9112,6 +9295,9 @@
       <c r="AT62" t="n">
         <v>-1.261799517957829</v>
       </c>
+      <c r="AU62" t="n">
+        <v>-1.263732800850991</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9252,6 +9438,9 @@
       <c r="AT63" t="n">
         <v>-0.5840278241928964</v>
       </c>
+      <c r="AU63" t="n">
+        <v>-0.5850482958656658</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9392,6 +9581,9 @@
       <c r="AT64" t="n">
         <v>-0.8937780442675659</v>
       </c>
+      <c r="AU64" t="n">
+        <v>-0.8954510843255887</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9532,6 +9724,9 @@
       <c r="AT65" t="n">
         <v>-0.06425845632016249</v>
       </c>
+      <c r="AU65" t="n">
+        <v>-0.06501628771586535</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9672,6 +9867,9 @@
       <c r="AT66" t="n">
         <v>-0.8259654624521804</v>
       </c>
+      <c r="AU66" t="n">
+        <v>-0.8272775281357866</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9811,6 +10009,9 @@
       </c>
       <c r="AT67" t="n">
         <v>-0.8074720553644762</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8087590984405848</v>
       </c>
     </row>
   </sheetData>
